--- a/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
+++ b/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ute\Lab_project\git_Indruino\IOT_ESP32\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ute\Lab_project\git_Indruino\IOT_ESP32\Indruino-Iot-Project\FW\Hau\mem_map_data_trans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2247943D-4A3B-4C2C-A3D3-8F0C3844C528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D663B8-64F9-4CFC-8969-3D3D6732BB11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="251">
   <si>
     <t>stt</t>
   </si>
@@ -212,9 +212,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>Load from rom</t>
-  </si>
-  <si>
     <t>qos</t>
   </si>
   <si>
@@ -353,57 +350,6 @@
     <t>byte</t>
   </si>
   <si>
-    <t>16 bit</t>
-  </si>
-  <si>
-    <t>GPIO_0</t>
-  </si>
-  <si>
-    <t>GPIO_1</t>
-  </si>
-  <si>
-    <t>GPIO_2</t>
-  </si>
-  <si>
-    <t>GPIO_3</t>
-  </si>
-  <si>
-    <t>GPIO_4</t>
-  </si>
-  <si>
-    <t>GPIO_5</t>
-  </si>
-  <si>
-    <t>GPIO_6</t>
-  </si>
-  <si>
-    <t>GPIO_7</t>
-  </si>
-  <si>
-    <t>GPIO_8</t>
-  </si>
-  <si>
-    <t>GPIO_9</t>
-  </si>
-  <si>
-    <t>GPIO_10</t>
-  </si>
-  <si>
-    <t>GPIO_11</t>
-  </si>
-  <si>
-    <t>GPIO_12</t>
-  </si>
-  <si>
-    <t>GPIO_13</t>
-  </si>
-  <si>
-    <t>GPIO_14</t>
-  </si>
-  <si>
-    <t>GPIO_15</t>
-  </si>
-  <si>
     <t>0-59</t>
   </si>
   <si>
@@ -428,9 +374,6 @@
     <t>out put</t>
   </si>
   <si>
-    <t>16bit</t>
-  </si>
-  <si>
     <t>Load To RaM</t>
   </si>
   <si>
@@ -485,21 +428,6 @@
     <t xml:space="preserve">TOPIC </t>
   </si>
   <si>
-    <t>/STATUS</t>
-  </si>
-  <si>
-    <t>1: online</t>
-  </si>
-  <si>
-    <t>0:offline</t>
-  </si>
-  <si>
-    <t>{"Model_ID":status}</t>
-  </si>
-  <si>
-    <t>{"1_2":1}</t>
-  </si>
-  <si>
     <t>FW of board</t>
   </si>
   <si>
@@ -533,9 +461,6 @@
     <t>FC</t>
   </si>
   <si>
-    <t>err</t>
-  </si>
-  <si>
     <t>IdBr</t>
   </si>
   <si>
@@ -545,12 +470,6 @@
     <t>FW</t>
   </si>
   <si>
-    <t>IdBa</t>
-  </si>
-  <si>
-    <t>rtDlay</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -575,9 +494,6 @@
     <t>A7</t>
   </si>
   <si>
-    <t>GPIO_P</t>
-  </si>
-  <si>
     <t>m_tm</t>
   </si>
   <si>
@@ -602,14 +518,284 @@
     <t>sec</t>
   </si>
   <si>
-    <t>CONTROL/DATA</t>
+    <t>IN_0</t>
+  </si>
+  <si>
+    <t>IN_1</t>
+  </si>
+  <si>
+    <t>IN_2</t>
+  </si>
+  <si>
+    <t>IN_3</t>
+  </si>
+  <si>
+    <t>IN_4</t>
+  </si>
+  <si>
+    <t>IN_5</t>
+  </si>
+  <si>
+    <t>IN_6</t>
+  </si>
+  <si>
+    <t>IN_7</t>
+  </si>
+  <si>
+    <t>OUT_0</t>
+  </si>
+  <si>
+    <t>OUT_1</t>
+  </si>
+  <si>
+    <t>OUT_2</t>
+  </si>
+  <si>
+    <t>OUT_3</t>
+  </si>
+  <si>
+    <t>OUT_4</t>
+  </si>
+  <si>
+    <t>OUT_5</t>
+  </si>
+  <si>
+    <t>OUT_6</t>
+  </si>
+  <si>
+    <t>OUT_7</t>
+  </si>
+  <si>
+    <t>status LWT</t>
+  </si>
+  <si>
+    <t>/MASTER/STATUS/LWT/(modelNUmber + Idboard)</t>
+  </si>
+  <si>
+    <t>{"Name": "modelNumber_ID_board"; "St":1}</t>
+  </si>
+  <si>
+    <t>Status system</t>
+  </si>
+  <si>
+    <t>/MASTER/STATUS/SYSTEM/(modelNumber+Idboard)</t>
+  </si>
+  <si>
+    <t>post data-&gt;server</t>
+  </si>
+  <si>
+    <t>/MASTER/POST/SENSOR</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>"code": "model number+ID_board+ID_S1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"A0": </t>
+  </si>
+  <si>
+    <t>"A1":</t>
+  </si>
+  <si>
+    <t>"A2":</t>
+  </si>
+  <si>
+    <t>"A3":</t>
+  </si>
+  <si>
+    <t>"A4":</t>
+  </si>
+  <si>
+    <t>"A5":</t>
+  </si>
+  <si>
+    <t>"A6":</t>
+  </si>
+  <si>
+    <t>"A7":</t>
+  </si>
+  <si>
+    <t>"GPIO_P":</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>post data-&gt;client</t>
+  </si>
+  <si>
+    <t>/MASTER/GET/SENSOR</t>
+  </si>
+  <si>
+    <t>"code":"model number+ID_board+ID_S1"</t>
+  </si>
+  <si>
+    <t>server access</t>
+  </si>
+  <si>
+    <t>Baud_S2</t>
+  </si>
+  <si>
+    <t>ID_S2</t>
+  </si>
+  <si>
+    <t>/MASTER/CONFIG</t>
+  </si>
+  <si>
+    <t>"code":"model number+ID_board"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"FC": </t>
+  </si>
+  <si>
+    <t>Set baud mega truoc khi set esp</t>
+  </si>
+  <si>
+    <t>Giong nhau giua 2 board</t>
+  </si>
+  <si>
+    <t>"Return Delay Time"</t>
+  </si>
+  <si>
+    <t>"Baud_S2"</t>
+  </si>
+  <si>
+    <t>"ID_S2"</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>Load from rom of mega</t>
+  </si>
+  <si>
+    <t>"ID BOARD"</t>
+  </si>
+  <si>
+    <t>MEGA</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>"ModeWifi"</t>
+  </si>
+  <si>
+    <t>"ModeIP"</t>
+  </si>
+  <si>
+    <t>"IP"</t>
+  </si>
+  <si>
+    <t>"GW"</t>
+  </si>
+  <si>
+    <t>"SUB"</t>
+  </si>
+  <si>
+    <t>"USER"</t>
+  </si>
+  <si>
+    <t>"Mac"</t>
+  </si>
+  <si>
+    <t>"PASS"</t>
+  </si>
+  <si>
+    <t>"mode"</t>
+  </si>
+  <si>
+    <t>"IP server"</t>
+  </si>
+  <si>
+    <t>"user"</t>
+  </si>
+  <si>
+    <t>"pass"</t>
+  </si>
+  <si>
+    <t>"qos"</t>
+  </si>
+  <si>
+    <t>"port"</t>
+  </si>
+  <si>
+    <t>"Topic_LWT"</t>
+  </si>
+  <si>
+    <t>"PAYLOAD_LWT"</t>
+  </si>
+  <si>
+    <t>"Return"</t>
+  </si>
+  <si>
+    <t>"Mode"</t>
+  </si>
+  <si>
+    <t>"type"</t>
+  </si>
+  <si>
+    <t>"Year"</t>
+  </si>
+  <si>
+    <t>"Month"</t>
+  </si>
+  <si>
+    <t>"Day"</t>
+  </si>
+  <si>
+    <t>"Day of week"</t>
+  </si>
+  <si>
+    <t>"Hour"</t>
+  </si>
+  <si>
+    <t>"Minute"</t>
+  </si>
+  <si>
+    <t>"Second"</t>
+  </si>
+  <si>
+    <t>Err</t>
+  </si>
+  <si>
+    <t>RtDlay</t>
+  </si>
+  <si>
+    <t>Baud1</t>
+  </si>
+  <si>
+    <t>Baud2</t>
+  </si>
+  <si>
+    <t>IdBa1</t>
+  </si>
+  <si>
+    <t>IdBa2</t>
+  </si>
+  <si>
+    <t>IN_P</t>
+  </si>
+  <si>
+    <t>OUT_P</t>
+  </si>
+  <si>
+    <t>8bit</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>HIGH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,8 +833,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,8 +932,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -845,28 +1056,48 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -897,15 +1128,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -976,12 +1198,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1015,24 +1231,41 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2791,16 +3024,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2815,8 +3048,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7665720" y="883920"/>
-          <a:ext cx="3093720" cy="975360"/>
+          <a:off x="9113520" y="693420"/>
+          <a:ext cx="3093720" cy="2278380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2873,6 +3106,36 @@
             </a:rPr>
             <a:t>0: </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1: Read Config ESP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2: Read Config MEGA</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
           </a:endParaRPr>
@@ -2889,7 +3152,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1: ENABLE Config (Baurd, ID, Return delay time)</a:t>
+            <a:t>3: ENABLE Config ESP board()</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -2898,6 +3161,18 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4: ENABLE Config</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
@@ -2907,7 +3182,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2: reboot</a:t>
+            <a:t> MEGA board()</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -2925,7 +3200,79 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>3: reset default</a:t>
+            <a:t>5: ENABLE Config baud</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6: reboot ESP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7: reboot MEGA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8: reset default ESP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9: reset default MEGA</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -3853,8 +4200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA99"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3874,16 +4221,16 @@
     <col min="27" max="27" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:25" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="R1" s="49" t="s">
+      <c r="B1" s="95"/>
+      <c r="R1" s="46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3891,37 +4238,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="R2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="T2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="Y2" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="Q3" s="46"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q3" s="43"/>
       <c r="R3" s="1">
         <v>0</v>
       </c>
@@ -3929,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>4</v>
@@ -3942,58 +4289,58 @@
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="46"/>
+        <v>80</v>
+      </c>
+      <c r="Q4" s="43"/>
       <c r="R4" s="1">
         <f t="shared" ref="R4:R17" si="0">S3+R3</f>
         <v>2</v>
       </c>
-      <c r="S4" s="66">
-        <v>1</v>
-      </c>
-      <c r="T4" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="U4" s="66" t="s">
+      <c r="S4" s="61">
+        <v>1</v>
+      </c>
+      <c r="T4" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="U4" s="61" t="s">
         <v>4</v>
       </c>
       <c r="V4" s="1"/>
-      <c r="W4" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="W4" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -4010,14 +4357,14 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q5" s="46"/>
+        <v>71</v>
+      </c>
+      <c r="Q5" s="43"/>
       <c r="R5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4026,22 +4373,22 @@
         <v>1</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
         <f>B5+A5</f>
         <v>1</v>
       </c>
@@ -4049,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -4058,14 +4405,14 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="46"/>
+        <v>72</v>
+      </c>
+      <c r="Q6" s="43"/>
       <c r="R6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4073,8 +4420,8 @@
       <c r="S6" s="1">
         <v>2</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>93</v>
+      <c r="T6" s="99" t="s">
+        <v>92</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>4</v>
@@ -4083,23 +4430,23 @@
         <v>4</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
-        <f t="shared" ref="A7:A21" si="1">B6+A6</f>
+        <f t="shared" ref="A7:A20" si="1">B6+A6</f>
         <v>2</v>
       </c>
       <c r="B7" s="15">
         <v>2</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>3</v>
@@ -4112,9 +4459,9 @@
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q7" s="46"/>
+        <v>137</v>
+      </c>
+      <c r="Q7" s="43"/>
       <c r="R7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4122,8 +4469,8 @@
       <c r="S7" s="1">
         <v>1</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>92</v>
+      <c r="T7" s="99" t="s">
+        <v>91</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>4</v>
@@ -4134,10 +4481,10 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4146,21 +4493,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="43" t="s">
-        <v>131</v>
+        <v>81</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>112</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="0"/>
@@ -4170,17 +4517,21 @@
         <v>2</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="V8" s="1">
+        <v>50</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4189,41 +4540,45 @@
         <v>1</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="17">
+        <v>135</v>
+      </c>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="1">
         <v>2</v>
       </c>
-      <c r="T9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="U9" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" s="17"/>
-      <c r="W9" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="T9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="1">
+        <v>4</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4232,7 +4587,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>4</v>
@@ -4241,34 +4596,36 @@
         <v>4</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="17">
+        <v>136</v>
+      </c>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="S10" s="17">
-        <v>2</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="U10" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="17"/>
-      <c r="W10" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4277,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>4</v>
@@ -4288,30 +4645,30 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="17">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S11" s="17">
         <v>2</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="U11" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V11" s="17"/>
-      <c r="W11" s="84" t="s">
-        <v>127</v>
+      <c r="W11" s="79" t="s">
+        <v>109</v>
       </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4320,7 +4677,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>4</v>
@@ -4329,30 +4686,30 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="43"/>
+        <v>86</v>
+      </c>
+      <c r="Q12" s="40"/>
       <c r="R12" s="17">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>S11+R11</f>
+        <v>14</v>
       </c>
       <c r="S12" s="17">
         <v>2</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="U12" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V12" s="17"/>
-      <c r="W12" s="84" t="s">
-        <v>127</v>
+      <c r="W12" s="79" t="s">
+        <v>109</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -4361,382 +4718,418 @@
         <v>2</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="50" t="s">
-        <v>127</v>
+        <v>199</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15">
+        <v>4</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="Q13" s="43"/>
+      <c r="H13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="40"/>
       <c r="R13" s="17">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>S12+R12</f>
+        <v>16</v>
       </c>
       <c r="S13" s="17">
         <v>2</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="U13" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="U13" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
+      <c r="W13" s="79" t="s">
+        <v>109</v>
+      </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="50" t="s">
-        <v>127</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="Q14" s="43"/>
+      <c r="H14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="40"/>
       <c r="R14" s="17">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>S13+R13</f>
+        <v>18</v>
       </c>
       <c r="S14" s="17">
         <v>2</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="U14" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="U14" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
+      <c r="W14" s="79" t="s">
+        <v>109</v>
+      </c>
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="15">
         <v>2</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="50" t="s">
-        <v>127</v>
+      <c r="F15" s="47" t="s">
+        <v>109</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
-      <c r="Q15" s="43"/>
+      <c r="Q15" s="40"/>
       <c r="R15" s="17">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>S14+R14</f>
+        <v>20</v>
       </c>
       <c r="S15" s="17">
         <v>2</v>
       </c>
       <c r="T15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="U15" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
+      <c r="W15" s="79" t="s">
+        <v>109</v>
+      </c>
       <c r="X15" s="17"/>
       <c r="Y15" s="17"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f>B15+A15</f>
+        <v>16</v>
       </c>
       <c r="B16" s="15">
         <v>2</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="50" t="s">
-        <v>127</v>
+      <c r="F16" s="47" t="s">
+        <v>109</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="85">
-        <f t="shared" si="0"/>
-        <v>23</v>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="17">
+        <f>S15+R15</f>
+        <v>22</v>
       </c>
       <c r="S16" s="17">
         <v>2</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="U16" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="U16" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
+      <c r="W16" s="79" t="s">
+        <v>109</v>
+      </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
-      <c r="Z16" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA16" s="27"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f>B16+A16</f>
+        <v>18</v>
       </c>
       <c r="B17" s="15">
         <v>2</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="50" t="s">
-        <v>127</v>
+      <c r="F17" s="47" t="s">
+        <v>109</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="85">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="S17" s="86" t="s">
-        <v>130</v>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="17">
+        <f>S16+R16</f>
+        <v>24</v>
+      </c>
+      <c r="S17" s="17">
+        <v>2</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="U17" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
+      <c r="W17" s="79" t="s">
+        <v>109</v>
+      </c>
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f>B17+A17</f>
+        <v>20</v>
       </c>
       <c r="B18" s="15">
         <v>2</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="50" t="s">
-        <v>127</v>
+      <c r="F18" s="47" t="s">
+        <v>109</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="U18" s="83" t="s">
+      <c r="Q18" s="40"/>
+      <c r="R18" s="80">
+        <f>S17+R17</f>
+        <v>26</v>
+      </c>
+      <c r="S18" s="80">
+        <v>2</v>
+      </c>
+      <c r="T18" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
+      <c r="W18" s="79" t="s">
+        <v>109</v>
+      </c>
       <c r="X18" s="17"/>
       <c r="Y18" s="17"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f>B18+A18</f>
+        <v>22</v>
       </c>
       <c r="B19" s="15">
         <v>2</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="50" t="s">
-        <v>127</v>
+      <c r="F19" s="47" t="s">
+        <v>109</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="U19" s="83" t="s">
+      <c r="Q19" s="40"/>
+      <c r="R19" s="80">
+        <f>S18+R18</f>
+        <v>28</v>
+      </c>
+      <c r="S19" s="84">
+        <v>1</v>
+      </c>
+      <c r="T19" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="U19" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
+      <c r="W19" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="28"/>
+      <c r="Z19" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA19" s="24"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f>B19+A19</f>
+        <v>24</v>
       </c>
       <c r="B20" s="15">
         <v>2</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="50" t="s">
-        <v>127</v>
+      <c r="F20" s="47" t="s">
+        <v>109</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="U20" s="83" t="s">
+      <c r="Q20" s="40"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="U20" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
+      <c r="W20" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="X20" s="17"/>
       <c r="Y20" s="17"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="28" t="s">
-        <v>133</v>
-      </c>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="25"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>105</v>
+        <f>B20+A20</f>
+        <v>26</v>
+      </c>
+      <c r="B21" s="15">
+        <v>2</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="47" t="s">
+        <v>109</v>
+      </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="27"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="U21" s="83" t="s">
+      <c r="Q21" s="40"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="U21" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
+      <c r="W21" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="X21" s="17"/>
       <c r="Y21" s="17"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="28"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="25"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="15">
+        <f>B21+A21</f>
+        <v>28</v>
+      </c>
+      <c r="B22" s="15">
+        <v>2</v>
+      </c>
       <c r="C22" s="15" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="47" t="s">
+        <v>109</v>
+      </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="28"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="U22" s="83" t="s">
+      <c r="Q22" s="40"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="U22" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
+      <c r="W22" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="X22" s="17"/>
       <c r="Y22" s="17"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="28"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="25"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="15">
+        <f>B22+A22</f>
+        <v>30</v>
+      </c>
+      <c r="B23" s="48">
+        <v>1</v>
+      </c>
       <c r="C23" s="15" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>4</v>
@@ -4745,31 +5138,35 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="28"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="U23" s="83" t="s">
+      <c r="I23" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="24"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="U23" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
+      <c r="W23" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="X23" s="17"/>
       <c r="Y23" s="17"/>
-      <c r="Z23" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA23" s="29"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
-      <c r="B24" s="52"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="15" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>4</v>
@@ -4778,31 +5175,31 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="28"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="U24" s="83" t="s">
+      <c r="I24" s="21"/>
+      <c r="J24" s="25"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="U24" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
+      <c r="W24" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="X24" s="17"/>
       <c r="Y24" s="17"/>
-      <c r="Z24" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA24" s="27"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="25"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
-      <c r="B25" s="52"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="15" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>4</v>
@@ -4811,31 +5208,31 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="U25" s="83" t="s">
+      <c r="I25" s="21"/>
+      <c r="J25" s="25"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="U25" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
+      <c r="W25" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="28"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="25"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
-      <c r="B26" s="52"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="15" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>4</v>
@@ -4844,29 +5241,33 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="28"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="U26" s="83" t="s">
+      <c r="I26" s="21"/>
+      <c r="J26" s="25"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="U26" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
+      <c r="W26" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="X26" s="17"/>
       <c r="Y26" s="17"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="28"/>
+      <c r="Z26" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA26" s="26"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
-      <c r="B27" s="52"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="15" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>4</v>
@@ -4875,29 +5276,40 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="28"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="U27" s="83" t="s">
+      <c r="I27" s="21"/>
+      <c r="J27" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="80">
+        <f>S19+R19</f>
+        <v>29</v>
+      </c>
+      <c r="S27" s="84">
+        <v>1</v>
+      </c>
+      <c r="T27" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="U27" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
+      <c r="W27" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="X27" s="17"/>
       <c r="Y27" s="17"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="28"/>
+      <c r="Z27" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA27" s="24"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
-      <c r="B28" s="52"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="15" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>4</v>
@@ -4906,31 +5318,31 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="29"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="17" t="s">
+      <c r="I28" s="21"/>
+      <c r="J28" s="25"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="U28" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="U28" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
       <c r="X28" s="17"/>
       <c r="Y28" s="17"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="28" t="s">
-        <v>134</v>
-      </c>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="25"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
-      <c r="B29" s="52"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="15" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>4</v>
@@ -4939,29 +5351,31 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="28"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="U29" s="83" t="s">
+      <c r="I29" s="21"/>
+      <c r="J29" s="25"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="U29" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
+      <c r="W29" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="X29" s="17"/>
       <c r="Y29" s="17"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="28"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="25"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
-      <c r="B30" s="52"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="15" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>4</v>
@@ -4970,29 +5384,36 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="28"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="U30" s="83" t="s">
+      <c r="I30" s="35"/>
+      <c r="J30" s="26"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="U30" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
+      <c r="W30" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="28"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="25"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="15">
+        <f>B23+A23</f>
+        <v>31</v>
+      </c>
+      <c r="B31" s="48">
+        <v>1</v>
+      </c>
       <c r="C31" s="15" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>4</v>
@@ -5001,31 +5422,33 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="28"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="U31" s="83" t="s">
+      <c r="I31" s="34"/>
+      <c r="J31" s="25"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="U31" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
+      <c r="W31" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
-      <c r="Z31" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA31" s="29"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="25" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
-      <c r="B32" s="52"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="15" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>4</v>
@@ -5034,29 +5457,31 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="U32" s="83" t="s">
+      <c r="I32" s="21"/>
+      <c r="J32" s="25"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="U32" s="78" t="s">
         <v>4</v>
       </c>
       <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
+      <c r="W32" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="25"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
-      <c r="B33" s="52"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="15" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>4</v>
@@ -5065,33 +5490,31 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="28"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="48">
-        <v>25</v>
-      </c>
-      <c r="S33" s="1">
-        <v>1</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I33" s="21"/>
+      <c r="J33" s="25"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="U33" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="25"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
-      <c r="B34" s="52"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="15" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>4</v>
@@ -5100,32 +5523,35 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="28"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="4">
-        <f>R33+S33</f>
-        <v>26</v>
-      </c>
-      <c r="S34" s="1">
-        <v>1</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="9"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I34" s="21"/>
+      <c r="J34" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="U34" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA34" s="26"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
-      <c r="B35" s="52"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="15" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>4</v>
@@ -5134,32 +5560,36 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="28"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="4">
-        <f t="shared" ref="R35:R81" si="2">R34+S34</f>
-        <v>27</v>
+      <c r="I35" s="21"/>
+      <c r="J35" s="25"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="45">
+        <f>S27+R27</f>
+        <v>30</v>
       </c>
       <c r="S35" s="1">
         <v>1</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="U35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="9"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V35" s="20"/>
+      <c r="W35" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
-      <c r="B36" s="53"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="15" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>4</v>
@@ -5168,1263 +5598,1404 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="J36" s="29"/>
-      <c r="Q36" s="45"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="25"/>
+      <c r="Q36" s="42"/>
       <c r="R36" s="4">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f>R35+S35</f>
+        <v>31</v>
       </c>
       <c r="S36" s="1">
         <v>1</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="U36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="X36" s="20"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
-        <v>29</v>
-      </c>
-      <c r="B37" s="7">
-        <v>1</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="7">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="25"/>
       <c r="R37" s="4">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <f t="shared" ref="R37:R83" si="2">R36+S36</f>
+        <v>32</v>
       </c>
       <c r="S37" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="U37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="10"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
-        <f t="shared" ref="A38:A47" si="3">B37+A37</f>
-        <v>30</v>
-      </c>
-      <c r="B38" s="7">
-        <v>2</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="9"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="26"/>
       <c r="R38" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="S38" s="1">
         <v>1</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="U38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V38" s="20"/>
+      <c r="W38" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="9"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
-        <f t="shared" si="3"/>
+        <f>A31+B31</f>
         <v>32</v>
       </c>
       <c r="B39" s="7">
         <v>1</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="42" t="s">
-        <v>125</v>
-      </c>
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="R39" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="S39" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="U39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="9"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="10"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A40:A49" si="3">B39+A39</f>
         <v>33</v>
       </c>
       <c r="B40" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="42" t="s">
-        <v>126</v>
+      <c r="F40" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="R40" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="S40" s="1">
         <v>1</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="U40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="9"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V40" s="20"/>
+      <c r="W40" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" s="7">
         <v>1</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="7" t="s">
-        <v>124</v>
+      <c r="F41" s="39" t="s">
+        <v>107</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="R41" s="4">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="S41" s="1">
         <v>1</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="U41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="X41" s="20"/>
       <c r="Y41" s="9"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B42" s="7">
         <v>1</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="7" t="s">
-        <v>123</v>
+      <c r="F42" s="39" t="s">
+        <v>108</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="R42" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="S42" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="U42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="10"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V42" s="20"/>
+      <c r="W42" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="9"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" s="7">
         <v>1</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="R43" s="4">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="S43" s="1">
         <v>1</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="U43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V43" s="20"/>
+      <c r="W43" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="9"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44" s="7">
         <v>1</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="R44" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="S44" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="U44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="9"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="10"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45" s="7">
         <v>1</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="R45" s="4">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S45" s="1">
         <v>1</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="U45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="23"/>
-      <c r="W45" s="23"/>
-      <c r="X45" s="23"/>
-      <c r="Y45" s="9"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V45" s="20"/>
+      <c r="W45" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="B46" s="8">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="F46" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="R46" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="S46" s="1">
         <v>1</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="U46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
-      <c r="X46" s="23"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="X46" s="20"/>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="B47" s="6">
-        <v>20</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
       <c r="R47" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S47" s="1">
+        <v>1</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="20"/>
+      <c r="W47" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="9"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B48" s="8">
         <v>10</v>
       </c>
-      <c r="T47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="10"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C48" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
       <c r="R48" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="S48" s="1">
         <v>1</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="U48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A49" s="91">
-        <f>SUM(B5:B20,2,B37:B47)</f>
-        <v>69</v>
-      </c>
-      <c r="B49" t="s">
-        <v>99</v>
-      </c>
+      <c r="A49" s="7">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="B49" s="6">
+        <v>20</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="37"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
       <c r="R49" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S49" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="U49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="23"/>
-      <c r="W49" s="23"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="9"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="10"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R50" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S50" s="1">
         <v>1</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="U50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V50" s="23"/>
-      <c r="W50" s="23"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="9"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A51" s="81">
+        <f>SUM(B5:B49)</f>
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
       <c r="R51" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S51" s="1">
         <v>1</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="U51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V51" s="23"/>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="X51" s="20"/>
       <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R52" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S52" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="U52" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="10"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="9"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R53" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="S53" s="1">
         <v>1</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="U53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V53" s="23"/>
-      <c r="W53" s="23"/>
-      <c r="X53" s="23"/>
-      <c r="Y53" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R54" s="4">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="S54" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="U54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="9"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="10"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R55" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S55" s="1">
         <v>1</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="U55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V55" s="23"/>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="9"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R56" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S56" s="1">
         <v>1</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="U56" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
-      <c r="X56" s="23"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="X56" s="20"/>
       <c r="Y56" s="9"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R57" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S57" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="U57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V57" s="23"/>
-      <c r="W57" s="23"/>
-      <c r="X57" s="23"/>
-      <c r="Y57" s="10"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="9"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R58" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="S58" s="1">
         <v>1</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="U58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="23"/>
-      <c r="W58" s="23"/>
-      <c r="X58" s="23"/>
-      <c r="Y58" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="9"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="32"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="29"/>
       <c r="R59" s="4">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="S59" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="U59" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V59" s="23"/>
-      <c r="W59" s="23"/>
-      <c r="X59" s="23"/>
-      <c r="Y59" s="9"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="10"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A60" s="35"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="32"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="29"/>
       <c r="R60" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="S60" s="1">
         <v>1</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="U60" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V60" s="23"/>
-      <c r="W60" s="23"/>
-      <c r="X60" s="23"/>
-      <c r="Y60" s="9"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A61" s="35"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="32"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="29"/>
       <c r="R61" s="4">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S61" s="1">
         <v>1</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="U61" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V61" s="23"/>
-      <c r="W61" s="23"/>
-      <c r="X61" s="23"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="X61" s="20"/>
       <c r="Y61" s="9"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A62" s="35"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="32"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="29"/>
       <c r="R62" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S62" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="U62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="23"/>
-      <c r="W62" s="23"/>
-      <c r="X62" s="23"/>
-      <c r="Y62" s="10"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="9"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R63" s="4">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="S63" s="1">
         <v>1</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="U63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V63" s="23"/>
-      <c r="W63" s="23"/>
-      <c r="X63" s="23"/>
-      <c r="Y63" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="9"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R64" s="4">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="S64" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="U64" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V64" s="23"/>
-      <c r="W64" s="23"/>
-      <c r="X64" s="23"/>
-      <c r="Y64" s="9"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="10"/>
     </row>
     <row r="65" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R65" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="S65" s="1">
         <v>1</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="U65" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V65" s="23"/>
-      <c r="W65" s="23"/>
-      <c r="X65" s="23"/>
-      <c r="Y65" s="9"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="66" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R66" s="4">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="S66" s="1">
         <v>1</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="U66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V66" s="23"/>
-      <c r="W66" s="23"/>
-      <c r="X66" s="23"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="X66" s="20"/>
       <c r="Y66" s="9"/>
     </row>
     <row r="67" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R67" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S67" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="U67" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V67" s="23"/>
-      <c r="W67" s="23"/>
-      <c r="X67" s="23"/>
-      <c r="Y67" s="10"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="9"/>
     </row>
     <row r="68" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R68" s="4">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="S68" s="1">
         <v>1</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="U68" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V68" s="23"/>
-      <c r="W68" s="23"/>
-      <c r="X68" s="23"/>
-      <c r="Y68" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="9"/>
     </row>
     <row r="69" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R69" s="4">
         <f t="shared" si="2"/>
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="S69" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="U69" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V69" s="23"/>
-      <c r="W69" s="23"/>
-      <c r="X69" s="23"/>
-      <c r="Y69" s="9"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="10"/>
     </row>
     <row r="70" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R70" s="4">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="S70" s="1">
         <v>1</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="U70" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V70" s="23"/>
-      <c r="W70" s="23"/>
-      <c r="X70" s="23"/>
-      <c r="Y70" s="9"/>
+      <c r="V70" s="20"/>
+      <c r="W70" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="X70" s="20"/>
+      <c r="Y70" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="71" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R71" s="4">
         <f t="shared" si="2"/>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="S71" s="1">
         <v>1</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="U71" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V71" s="23"/>
-      <c r="W71" s="23"/>
-      <c r="X71" s="23"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="X71" s="20"/>
       <c r="Y71" s="9"/>
     </row>
     <row r="72" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R72" s="4">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="S72" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="U72" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V72" s="23"/>
-      <c r="W72" s="23"/>
-      <c r="X72" s="23"/>
-      <c r="Y72" s="10"/>
+      <c r="V72" s="20"/>
+      <c r="W72" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="9"/>
     </row>
     <row r="73" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R73" s="4">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="S73" s="1">
         <v>1</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="U73" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V73" s="23"/>
-      <c r="W73" s="23"/>
-      <c r="X73" s="23"/>
-      <c r="Y73" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="V73" s="20"/>
+      <c r="W73" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="X73" s="20"/>
+      <c r="Y73" s="9"/>
     </row>
     <row r="74" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R74" s="4">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="S74" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="U74" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V74" s="23"/>
-      <c r="W74" s="23"/>
-      <c r="X74" s="23"/>
-      <c r="Y74" s="9"/>
+      <c r="V74" s="20"/>
+      <c r="W74" s="20"/>
+      <c r="X74" s="20"/>
+      <c r="Y74" s="10"/>
     </row>
     <row r="75" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R75" s="4">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="S75" s="1">
         <v>1</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="U75" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V75" s="23"/>
-      <c r="W75" s="23"/>
-      <c r="X75" s="23"/>
-      <c r="Y75" s="9"/>
+      <c r="V75" s="20"/>
+      <c r="W75" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="X75" s="20"/>
+      <c r="Y75" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="76" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R76" s="4">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="S76" s="1">
         <v>1</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="U76" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V76" s="23"/>
-      <c r="W76" s="23"/>
-      <c r="X76" s="23"/>
+      <c r="V76" s="20"/>
+      <c r="W76" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="X76" s="20"/>
       <c r="Y76" s="9"/>
     </row>
     <row r="77" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R77" s="4">
         <f t="shared" si="2"/>
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="S77" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="U77" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V77" s="23"/>
-      <c r="W77" s="23"/>
-      <c r="X77" s="23"/>
-      <c r="Y77" s="10"/>
+      <c r="V77" s="20"/>
+      <c r="W77" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="X77" s="20"/>
+      <c r="Y77" s="9"/>
     </row>
     <row r="78" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R78" s="4">
         <f t="shared" si="2"/>
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="S78" s="1">
         <v>1</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="U78" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V78" s="23"/>
-      <c r="W78" s="40"/>
-      <c r="X78" s="47"/>
-      <c r="Y78" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="V78" s="20"/>
+      <c r="W78" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="X78" s="20"/>
+      <c r="Y78" s="9"/>
     </row>
     <row r="79" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R79" s="4">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="S79" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="U79" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V79" s="23"/>
-      <c r="W79" s="41"/>
-      <c r="X79" s="34"/>
-      <c r="Y79" s="9"/>
+      <c r="V79" s="20"/>
+      <c r="W79" s="20"/>
+      <c r="X79" s="20"/>
+      <c r="Y79" s="10"/>
     </row>
     <row r="80" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R80" s="4">
         <f t="shared" si="2"/>
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="S80" s="1">
         <v>1</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="U80" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V80" s="23"/>
-      <c r="W80" s="41"/>
-      <c r="X80" s="34"/>
-      <c r="Y80" s="9"/>
-    </row>
-    <row r="81" spans="17:27" x14ac:dyDescent="0.3">
+      <c r="V80" s="20"/>
+      <c r="W80" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="X80" s="44"/>
+      <c r="Y80" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R81" s="4">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="S81" s="1">
         <v>1</v>
       </c>
       <c r="T81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V81" s="20"/>
+      <c r="W81" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="X81" s="31"/>
+      <c r="Y81" s="9"/>
+    </row>
+    <row r="82" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="R82" s="4">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="S82" s="1">
+        <v>1</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V82" s="20"/>
+      <c r="W82" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="X82" s="31"/>
+      <c r="Y82" s="9"/>
+      <c r="Z82" s="29"/>
+      <c r="AA82" s="29"/>
+    </row>
+    <row r="83" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="R83" s="4">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="S83" s="1">
+        <v>1</v>
+      </c>
+      <c r="T83" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U81" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V81" s="23"/>
-      <c r="W81" s="41"/>
-      <c r="X81" s="34"/>
-      <c r="Y81" s="10"/>
-    </row>
-    <row r="82" spans="17:27" x14ac:dyDescent="0.3">
-      <c r="R82" s="4">
-        <f>R81+S81</f>
-        <v>155</v>
-      </c>
-      <c r="S82" s="1">
+      <c r="U83" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="X83" s="31"/>
+      <c r="Y83" s="10"/>
+      <c r="Z83" s="29"/>
+      <c r="AA83" s="29"/>
+    </row>
+    <row r="84" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="R84" s="4">
+        <f>R83+S83</f>
+        <v>160</v>
+      </c>
+      <c r="S84" s="1">
         <v>10</v>
       </c>
-      <c r="T82" s="1" t="s">
+      <c r="T84" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U82" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V82" s="23"/>
-      <c r="W82" s="41"/>
-      <c r="X82" s="40"/>
-      <c r="Y82" s="10"/>
-      <c r="Z82" s="32"/>
-      <c r="AA82" s="32"/>
-    </row>
-    <row r="83" spans="17:27" x14ac:dyDescent="0.3">
-      <c r="R83" s="4">
-        <f>R82+S82</f>
-        <v>165</v>
-      </c>
-      <c r="S83" s="67">
+      <c r="U84" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
+      <c r="X84" s="37"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="29"/>
+      <c r="AA84" s="29"/>
+    </row>
+    <row r="85" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="R85" s="4">
+        <f>R84+S84</f>
+        <v>170</v>
+      </c>
+      <c r="S85" s="62">
         <v>20</v>
       </c>
-      <c r="T83" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="U83" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z83" s="32"/>
-      <c r="AA83" s="32"/>
-    </row>
-    <row r="84" spans="17:27" x14ac:dyDescent="0.3">
-      <c r="Z84" s="32"/>
-      <c r="AA84" s="32"/>
-    </row>
-    <row r="85" spans="17:27" x14ac:dyDescent="0.3">
-      <c r="Q85">
-        <f>SUM(S3:S16,2,S33:S83)</f>
-        <v>187</v>
-      </c>
-      <c r="Z85" s="32"/>
-      <c r="AA85" s="32"/>
-    </row>
-    <row r="86" spans="17:27" x14ac:dyDescent="0.3">
-      <c r="W86" s="32"/>
-      <c r="X86" s="31"/>
-      <c r="Y86" s="33"/>
-      <c r="Z86" s="32"/>
-      <c r="AA86" s="32"/>
-    </row>
-    <row r="87" spans="17:27" x14ac:dyDescent="0.3">
-      <c r="W87" s="32"/>
-      <c r="X87" s="31"/>
-      <c r="Y87" s="33"/>
-      <c r="Z87" s="32"/>
-      <c r="AA87" s="32"/>
-    </row>
-    <row r="88" spans="17:27" x14ac:dyDescent="0.3">
-      <c r="W88" s="32"/>
-      <c r="X88" s="31"/>
-      <c r="Y88" s="31"/>
-      <c r="Z88" s="32"/>
-      <c r="AA88" s="32"/>
-    </row>
-    <row r="89" spans="17:27" x14ac:dyDescent="0.3">
-      <c r="W89" s="32"/>
-      <c r="X89" s="31"/>
-      <c r="Y89" s="31"/>
-      <c r="Z89" s="32"/>
-      <c r="AA89" s="32"/>
-    </row>
-    <row r="90" spans="17:27" x14ac:dyDescent="0.3">
-      <c r="W90" s="32"/>
-      <c r="X90" s="31"/>
-      <c r="Y90" s="33"/>
-      <c r="Z90" s="32"/>
-      <c r="AA90" s="32"/>
-    </row>
-    <row r="91" spans="17:27" x14ac:dyDescent="0.3">
-      <c r="W91" s="32"/>
-      <c r="X91" s="31"/>
-      <c r="Y91" s="33"/>
-      <c r="Z91" s="32"/>
-      <c r="AA91" s="32"/>
-    </row>
-    <row r="92" spans="17:27" x14ac:dyDescent="0.3">
-      <c r="W92" s="32"/>
-      <c r="X92" s="31"/>
-      <c r="Y92" s="33"/>
-      <c r="Z92" s="32"/>
-      <c r="AA92" s="32"/>
-    </row>
-    <row r="93" spans="17:27" x14ac:dyDescent="0.3">
-      <c r="W93" s="32"/>
-      <c r="X93" s="31"/>
-      <c r="Y93" s="33"/>
-      <c r="Z93" s="32"/>
-      <c r="AA93" s="32"/>
-    </row>
-    <row r="94" spans="17:27" x14ac:dyDescent="0.3">
-      <c r="W94" s="32"/>
-      <c r="X94" s="31"/>
-      <c r="Y94" s="33"/>
-      <c r="Z94" s="32"/>
-      <c r="AA94" s="32"/>
-    </row>
-    <row r="95" spans="17:27" x14ac:dyDescent="0.3">
-      <c r="W95" s="32"/>
-      <c r="X95" s="31"/>
-      <c r="Y95" s="33"/>
-      <c r="Z95" s="32"/>
-      <c r="AA95" s="32"/>
-    </row>
-    <row r="96" spans="17:27" x14ac:dyDescent="0.3">
-      <c r="W96" s="32"/>
-      <c r="X96" s="31"/>
-      <c r="Y96" s="31"/>
-      <c r="Z96" s="32"/>
-      <c r="AA96" s="32"/>
+      <c r="T85" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="U85" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z85" s="29"/>
+      <c r="AA85" s="29"/>
+    </row>
+    <row r="86" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="W86" s="29"/>
+      <c r="X86" s="28"/>
+      <c r="Y86" s="30"/>
+      <c r="Z86" s="29"/>
+      <c r="AA86" s="29"/>
+    </row>
+    <row r="87" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="W87" s="29"/>
+      <c r="X87" s="28"/>
+      <c r="Y87" s="30"/>
+      <c r="Z87" s="29"/>
+      <c r="AA87" s="29"/>
+    </row>
+    <row r="88" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="S88">
+        <f>SUM(S3:S85)</f>
+        <v>190</v>
+      </c>
+      <c r="W88" s="29"/>
+      <c r="X88" s="28"/>
+      <c r="Y88" s="28"/>
+      <c r="Z88" s="29"/>
+      <c r="AA88" s="29"/>
+    </row>
+    <row r="89" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="W89" s="29"/>
+      <c r="X89" s="28"/>
+      <c r="Y89" s="28"/>
+      <c r="Z89" s="29"/>
+      <c r="AA89" s="29"/>
+    </row>
+    <row r="90" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="W90" s="29"/>
+      <c r="X90" s="28"/>
+      <c r="Y90" s="30"/>
+      <c r="Z90" s="29"/>
+      <c r="AA90" s="29"/>
+    </row>
+    <row r="91" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="W91" s="29"/>
+      <c r="X91" s="28"/>
+      <c r="Y91" s="30"/>
+      <c r="Z91" s="29"/>
+      <c r="AA91" s="29"/>
+    </row>
+    <row r="92" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="W92" s="29"/>
+      <c r="X92" s="28"/>
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="29"/>
+      <c r="AA92" s="29"/>
+    </row>
+    <row r="93" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="W93" s="29"/>
+      <c r="X93" s="28"/>
+      <c r="Y93" s="30"/>
+      <c r="Z93" s="29"/>
+      <c r="AA93" s="29"/>
+    </row>
+    <row r="94" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="W94" s="29"/>
+      <c r="X94" s="28"/>
+      <c r="Y94" s="30"/>
+      <c r="Z94" s="29"/>
+      <c r="AA94" s="29"/>
+    </row>
+    <row r="95" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="W95" s="29"/>
+      <c r="X95" s="28"/>
+      <c r="Y95" s="30"/>
+      <c r="Z95" s="29"/>
+      <c r="AA95" s="29"/>
+    </row>
+    <row r="96" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="W96" s="29"/>
+      <c r="X96" s="28"/>
+      <c r="Y96" s="28"/>
+      <c r="Z96" s="29"/>
+      <c r="AA96" s="29"/>
     </row>
     <row r="99" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L99" t="s">
@@ -6446,8 +7017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCF18E1-EDBB-4A5D-A645-8FDD3797B808}">
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="E16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6458,7 +7029,7 @@
     <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="13" max="13" width="17.77734375" customWidth="1"/>
+    <col min="13" max="13" width="22.88671875" customWidth="1"/>
     <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.109375" customWidth="1"/>
     <col min="21" max="21" width="19.5546875" customWidth="1"/>
@@ -6471,28 +7042,28 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
         <v>41</v>
@@ -6506,7 +7077,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -6515,10 +7086,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -6530,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>4</v>
@@ -6539,35 +7110,35 @@
         <v>0</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="U4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -6579,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>4</v>
@@ -6588,11 +7159,11 @@
         <v>0</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -6610,12 +7181,12 @@
         <v>0</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -6627,7 +7198,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>4</v>
@@ -6636,11 +7207,11 @@
         <v>4</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="N6" s="1">
         <f>O5+N5</f>
@@ -6650,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>3</v>
@@ -6659,12 +7230,12 @@
         <v>0</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -6676,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>4</v>
@@ -6687,7 +7258,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N7" s="15">
         <f>O6+N6</f>
@@ -6697,7 +7268,7 @@
         <v>2</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="15" t="s">
         <v>3</v>
@@ -6710,7 +7281,7 @@
       </c>
       <c r="T7" s="15"/>
       <c r="U7" s="15" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -6722,20 +7293,20 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="18"/>
-      <c r="F8" s="64" t="s">
-        <v>91</v>
+      <c r="F8" s="59" t="s">
+        <v>90</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="54"/>
+        <v>86</v>
+      </c>
+      <c r="M8" s="51"/>
       <c r="N8" s="15">
         <f t="shared" ref="N8:N21" si="1">O7+N7</f>
         <v>4</v>
@@ -6744,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="15" t="s">
         <v>4</v>
@@ -6753,11 +7324,11 @@
         <v>4</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -6776,13 +7347,13 @@
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="M9" s="54"/>
+      <c r="H9" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" s="51"/>
       <c r="N9" s="15">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6791,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="15" t="s">
         <v>4</v>
@@ -6800,11 +7371,11 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T9" s="15"/>
       <c r="U9" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -6823,14 +7394,14 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="M10" s="55" t="s">
-        <v>58</v>
+      <c r="H10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>210</v>
       </c>
       <c r="N10" s="15">
         <f t="shared" si="1"/>
@@ -6840,18 +7411,18 @@
         <v>2</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="15" t="s">
         <v>4</v>
       </c>
       <c r="R10" s="15"/>
       <c r="S10" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T10" s="15"/>
       <c r="U10" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -6871,8 +7442,8 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="30"/>
-      <c r="M11" s="54"/>
+      <c r="H11" s="27"/>
+      <c r="M11" s="51"/>
       <c r="N11" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6881,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="15" t="s">
         <v>4</v>
@@ -6890,7 +7461,7 @@
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -6910,8 +7481,8 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="30"/>
-      <c r="M12" s="54"/>
+      <c r="H12" s="27"/>
+      <c r="M12" s="51"/>
       <c r="N12" s="15">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6920,14 +7491,14 @@
         <v>2</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="15" t="s">
         <v>4</v>
       </c>
       <c r="R12" s="15"/>
       <c r="S12" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
@@ -6949,27 +7520,31 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="30"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="16">
+      <c r="H13" s="27"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="15">
         <v>2</v>
       </c>
-      <c r="P13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
+      <c r="P13" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="15">
+        <v>4</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -6988,27 +7563,29 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="30"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="16">
+      <c r="H14" s="27"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="O14" s="16">
-        <v>2</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
+      <c r="O14" s="15">
+        <v>1</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="15">
+        <v>1</v>
+      </c>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -7027,24 +7604,24 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="30"/>
-      <c r="M15" s="77"/>
+      <c r="H15" s="27"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="16">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O15" s="16">
         <v>2</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R15" s="16"/>
-      <c r="S15" s="60" t="s">
-        <v>127</v>
+      <c r="S15" s="57" t="s">
+        <v>109</v>
       </c>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
@@ -7066,27 +7643,27 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="30"/>
+      <c r="H16" s="27"/>
       <c r="J16" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="77"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="16">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f>O15+N15</f>
+        <v>16</v>
       </c>
       <c r="O16" s="16">
         <v>2</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R16" s="16"/>
-      <c r="S16" s="60" t="s">
-        <v>127</v>
+      <c r="S16" s="57" t="s">
+        <v>109</v>
       </c>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
@@ -7108,26 +7685,26 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="77"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="16">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f>O16+N16</f>
+        <v>18</v>
       </c>
       <c r="O17" s="16">
         <v>2</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R17" s="16"/>
-      <c r="S17" s="60" t="s">
-        <v>127</v>
+      <c r="S17" s="57" t="s">
+        <v>109</v>
       </c>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
@@ -7148,27 +7725,27 @@
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="71" t="s">
+      <c r="G18" s="64"/>
+      <c r="H18" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="77"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="16">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f>O17+N17</f>
+        <v>20</v>
       </c>
       <c r="O18" s="16">
         <v>2</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R18" s="16"/>
-      <c r="S18" s="60" t="s">
-        <v>127</v>
+      <c r="S18" s="57" t="s">
+        <v>109</v>
       </c>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
@@ -7189,25 +7766,25 @@
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="65"/>
-      <c r="M19" s="77"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="60"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="16">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f>O18+N18</f>
+        <v>22</v>
       </c>
       <c r="O19" s="16">
         <v>2</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R19" s="16"/>
-      <c r="S19" s="60" t="s">
-        <v>127</v>
+      <c r="S19" s="57" t="s">
+        <v>109</v>
       </c>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
@@ -7228,25 +7805,25 @@
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="65"/>
-      <c r="M20" s="78"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="60"/>
+      <c r="M20" s="73"/>
       <c r="N20" s="16">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f>O19+N19</f>
+        <v>24</v>
       </c>
       <c r="O20" s="16">
         <v>2</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R20" s="16"/>
-      <c r="S20" s="60" t="s">
-        <v>127</v>
+      <c r="S20" s="57" t="s">
+        <v>109</v>
       </c>
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
@@ -7260,41 +7837,39 @@
         <v>1</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="69"/>
-      <c r="H21" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="M21" s="78"/>
+        <v>118</v>
+      </c>
+      <c r="G21" s="64"/>
+      <c r="H21" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="73"/>
       <c r="N21" s="16">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="O21" s="20" t="s">
-        <v>105</v>
+        <f>O20+N20</f>
+        <v>26</v>
+      </c>
+      <c r="O21" s="16">
+        <v>2</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q21" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
+      <c r="S21" s="57" t="s">
+        <v>109</v>
+      </c>
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
-      <c r="V21" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="W21" s="27"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -7305,30 +7880,35 @@
         <v>2</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="65"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="21"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="60"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="16">
+        <f>O21+N21</f>
+        <v>28</v>
+      </c>
+      <c r="O22" s="87">
+        <v>2</v>
+      </c>
       <c r="P22" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q22" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
+      <c r="S22" s="57" t="s">
+        <v>109</v>
+      </c>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="28"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -7336,114 +7916,119 @@
         <v>115</v>
       </c>
       <c r="B23" s="14">
-        <v>10</v>
-      </c>
-      <c r="C23" s="79" t="s">
-        <v>138</v>
+        <v>20</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>119</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="M23" s="78"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q23" s="59" t="s">
+      <c r="G23" s="64"/>
+      <c r="H23" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="M23" s="73"/>
+      <c r="N23" s="89">
+        <f>O22+N22</f>
+        <v>30</v>
+      </c>
+      <c r="O23" s="87">
+        <v>1</v>
+      </c>
+      <c r="P23" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q23" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="28"/>
+      <c r="V23" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="W23" s="24"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B24" s="14">
-        <v>10</v>
-      </c>
-      <c r="C24" s="79" t="s">
-        <v>139</v>
+        <v>1</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>120</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="65"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q24" s="59" t="s">
+      <c r="G24" s="64"/>
+      <c r="H24" s="60"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q24" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="28"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="25"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" s="14">
         <v>1</v>
       </c>
-      <c r="C25" s="79" t="s">
-        <v>140</v>
+      <c r="C25" s="74" t="s">
+        <v>121</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="69"/>
-      <c r="H25" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="M25" s="78"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q25" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="64"/>
+      <c r="H25" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" s="73"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q25" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
       <c r="T25" s="16"/>
       <c r="U25" s="16"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="28" t="s">
-        <v>128</v>
-      </c>
+      <c r="V25" s="21"/>
+      <c r="W25" s="25"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26" s="7">
         <v>4</v>
@@ -7457,35 +8042,35 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="M26" s="78"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q26" s="59" t="s">
+      <c r="H26" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="73"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="90" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q26" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="28"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="25"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B27" s="7">
         <v>2</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>4</v>
@@ -7494,26 +8079,28 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q27" s="59" t="s">
+      <c r="M27" s="73"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q27" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="28"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="25" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B28" s="14">
         <v>4</v>
@@ -7528,34 +8115,34 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M28" s="78"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q28" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" s="73"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q28" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="29"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="25"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B29" s="14">
         <v>2</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>4</v>
@@ -7564,26 +8151,26 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q29" s="59" t="s">
+      <c r="M29" s="73"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q29" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="28"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="25"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B30" s="12">
         <v>4</v>
@@ -7598,34 +8185,34 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M30" s="78"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q30" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" s="73"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q30" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="28"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="26"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B31" s="12">
         <v>2</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>4</v>
@@ -7634,26 +8221,31 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q31" s="59" t="s">
+      <c r="M31" s="73"/>
+      <c r="N31" s="89">
+        <f>O23+N23</f>
+        <v>31</v>
+      </c>
+      <c r="O31" s="87">
+        <v>1</v>
+      </c>
+      <c r="P31" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q31" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="28"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="25"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" s="16">
         <v>4</v>
@@ -7668,30 +8260,28 @@
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M32" s="78"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q32" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="73"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q32" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="28" t="s">
-        <v>129</v>
-      </c>
+      <c r="V32" s="21"/>
+      <c r="W32" s="25"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B33" s="16">
         <v>20</v>
@@ -7706,26 +8296,26 @@
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q33" s="59" t="s">
+      <c r="M33" s="73"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q33" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="28"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="25"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B34" s="16">
         <v>20</v>
@@ -7740,32 +8330,34 @@
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q34" s="59" t="s">
+      <c r="M34" s="73"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q34" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="28"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="25" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B35" s="16">
         <v>4</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>4</v>
@@ -7774,32 +8366,32 @@
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q35" s="59" t="s">
+      <c r="M35" s="73"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q35" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="28"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="25"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B36" s="17">
         <v>1</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>4</v>
@@ -7808,36 +8400,34 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M36" s="78"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q36" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="M36" s="73"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q36" s="56" t="s">
         <v>4</v>
       </c>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
-      <c r="V36" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="W36" s="29"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="25"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B37" s="17">
         <v>1</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>4</v>
@@ -7846,31 +8436,26 @@
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="56">
-        <f>25+2</f>
-        <v>27</v>
-      </c>
-      <c r="O37" s="56">
-        <v>1</v>
-      </c>
-      <c r="P37" s="56" t="s">
-        <v>5</v>
+      <c r="M37" s="73"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="90" t="s">
+        <v>174</v>
       </c>
       <c r="Q37" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="R37" s="56">
-        <v>0</v>
-      </c>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="25"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B38" s="18">
         <v>1</v>
@@ -7883,33 +8468,30 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="M38" s="78"/>
-      <c r="N38" s="56">
-        <f t="shared" ref="N38:N47" si="2">O37+N37</f>
-        <v>28</v>
-      </c>
-      <c r="O38" s="56">
-        <v>2</v>
-      </c>
-      <c r="P38" s="56" t="s">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="M38" s="73"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="90" t="s">
+        <v>175</v>
       </c>
       <c r="Q38" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="W38" s="26"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B39" s="18">
         <v>4</v>
@@ -7922,31 +8504,31 @@
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="56">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="O39" s="56">
-        <v>1</v>
-      </c>
-      <c r="P39" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q39" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R39" s="56"/>
-      <c r="S39" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="53">
+        <f>O31+N31</f>
+        <v>32</v>
+      </c>
+      <c r="O39" s="88">
+        <v>1</v>
+      </c>
+      <c r="P39" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="R39" s="53">
+        <v>0</v>
+      </c>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B40" s="18">
         <v>4</v>
@@ -7959,31 +8541,31 @@
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="56">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="O40" s="56">
-        <v>1</v>
-      </c>
-      <c r="P40" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q40" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R40" s="56"/>
-      <c r="S40" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="53">
+        <f t="shared" ref="N40:N49" si="2">O39+N39</f>
+        <v>33</v>
+      </c>
+      <c r="O40" s="53">
+        <v>2</v>
+      </c>
+      <c r="P40" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B41" s="18">
         <v>4</v>
@@ -7996,854 +8578,884 @@
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="56">
+      <c r="M41" s="73"/>
+      <c r="N41" s="53">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="O41" s="56">
-        <v>1</v>
-      </c>
-      <c r="P41" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q41" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="56"/>
-      <c r="S41" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="T41" s="56"/>
-      <c r="U41" s="56"/>
+        <v>35</v>
+      </c>
+      <c r="O41" s="53">
+        <v>1</v>
+      </c>
+      <c r="P41" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="53"/>
+      <c r="S41" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
-        <v>217</v>
-      </c>
-      <c r="B42" s="73">
+        <v>218</v>
+      </c>
+      <c r="B42" s="68">
         <v>2</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="C42" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="73">
+      <c r="D42" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="68">
         <v>2020</v>
       </c>
-      <c r="F42" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="G42" s="73"/>
-      <c r="H42" s="74" t="s">
+      <c r="F42" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="68"/>
+      <c r="H42" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="M42" s="78"/>
-      <c r="N42" s="56">
+      <c r="M42" s="73"/>
+      <c r="N42" s="53">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="O42" s="56">
-        <v>1</v>
-      </c>
-      <c r="P42" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="T42" s="56"/>
-      <c r="U42" s="56"/>
+        <v>36</v>
+      </c>
+      <c r="O42" s="53">
+        <v>1</v>
+      </c>
+      <c r="P42" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q42" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="53"/>
+      <c r="S42" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
-        <v>219</v>
-      </c>
-      <c r="B43" s="73">
-        <v>1</v>
-      </c>
-      <c r="C43" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="68">
+        <v>1</v>
+      </c>
+      <c r="C43" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="75"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="56">
+      <c r="D43" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="70"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="53">
         <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="O43" s="56">
-        <v>1</v>
-      </c>
-      <c r="P43" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q43" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="T43" s="56"/>
-      <c r="U43" s="56"/>
+        <v>37</v>
+      </c>
+      <c r="O43" s="53">
+        <v>1</v>
+      </c>
+      <c r="P43" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="B44" s="73">
-        <v>1</v>
-      </c>
-      <c r="C44" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="68">
+        <v>1</v>
+      </c>
+      <c r="C44" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="75"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="56">
+      <c r="D44" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="70"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="53">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="O44" s="56">
-        <v>1</v>
-      </c>
-      <c r="P44" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q44" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="T44" s="56"/>
-      <c r="U44" s="56"/>
+        <v>38</v>
+      </c>
+      <c r="O44" s="53">
+        <v>1</v>
+      </c>
+      <c r="P44" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
-        <v>221</v>
-      </c>
-      <c r="B45" s="73">
-        <v>1</v>
-      </c>
-      <c r="C45" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="68">
+        <v>1</v>
+      </c>
+      <c r="C45" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="75"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="56">
+      <c r="D45" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="70"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="53">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="O45" s="56">
-        <v>1</v>
-      </c>
-      <c r="P45" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q45" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="56"/>
-      <c r="S45" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="T45" s="56"/>
-      <c r="U45" s="56"/>
+        <v>39</v>
+      </c>
+      <c r="O45" s="53">
+        <v>1</v>
+      </c>
+      <c r="P45" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q45" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="53"/>
+      <c r="S45" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
-        <v>222</v>
-      </c>
-      <c r="B46" s="73">
-        <v>1</v>
-      </c>
-      <c r="C46" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="68">
+        <v>1</v>
+      </c>
+      <c r="C46" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="75"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="56">
+      <c r="D46" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="70"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="53">
         <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="O46" s="58">
-        <v>10</v>
-      </c>
-      <c r="P46" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q46" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="56"/>
+        <v>40</v>
+      </c>
+      <c r="O46" s="53">
+        <v>1</v>
+      </c>
+      <c r="P46" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="53"/>
+      <c r="S46" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="T46" s="53"/>
+      <c r="U46" s="53"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
-        <v>223</v>
-      </c>
-      <c r="B47" s="73">
-        <v>1</v>
-      </c>
-      <c r="C47" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="68">
+        <v>1</v>
+      </c>
+      <c r="C47" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="75"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="80">
+      <c r="D47" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="70"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="53">
         <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="O47" s="80">
-        <v>20</v>
-      </c>
-      <c r="P47" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q47" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="81"/>
-      <c r="S47" s="82"/>
-      <c r="T47" s="80"/>
-      <c r="U47" s="80"/>
+        <v>41</v>
+      </c>
+      <c r="O47" s="53">
+        <v>1</v>
+      </c>
+      <c r="P47" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q47" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
-        <v>224</v>
-      </c>
-      <c r="B48" s="73">
-        <v>1</v>
-      </c>
-      <c r="C48" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="68">
+        <v>1</v>
+      </c>
+      <c r="C48" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="76"/>
-      <c r="M48" s="45"/>
+      <c r="D48" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="71"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="53">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="O48" s="55">
+        <v>10</v>
+      </c>
+      <c r="P48" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q48" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B49" s="19">
         <v>20</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40">
+      <c r="E49" s="37"/>
+      <c r="F49" s="37">
         <f>F83+E83</f>
         <v>0</v>
       </c>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="32"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="75">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="O49" s="75">
+        <v>20</v>
+      </c>
+      <c r="P49" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q49" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="76"/>
+      <c r="S49" s="77"/>
+      <c r="T49" s="75"/>
+      <c r="U49" s="75"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M50" s="45">
-        <f>SUM(O5:O20,2,O37:O47)</f>
-        <v>69</v>
-      </c>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="33"/>
-      <c r="U50" s="32"/>
+      <c r="M50" s="42">
+        <f>SUM(O5:O49)</f>
+        <v>72</v>
+      </c>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="29"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>SUM(B3:B49)</f>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
-      </c>
-      <c r="M51" s="45"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="32"/>
+        <v>138</v>
+      </c>
+      <c r="M51" s="42"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="29"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M52" s="45"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="32"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="29"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M53" s="45"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="32"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="29"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M54" s="45"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="62"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="96"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="33"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="45"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="62"/>
+      <c r="A55" s="30"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="96"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="33"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="45"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="33"/>
-      <c r="U56" s="62"/>
+      <c r="A56" s="30"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="96"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="33"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="45"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="62"/>
+      <c r="A57" s="30"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="96"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="33"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="62"/>
+      <c r="A58" s="30"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="30"/>
+      <c r="U58" s="96"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="32"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="45"/>
-      <c r="S59" s="32"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="62"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="29"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="30"/>
+      <c r="U59" s="96"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="32"/>
-      <c r="M60" s="45"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="45"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="62"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="29"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="30"/>
+      <c r="U60" s="96"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="32"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="45"/>
-      <c r="S61" s="32"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="62"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="29"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="96"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="32"/>
-      <c r="M62" s="44"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="29"/>
+      <c r="M62" s="41"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="32"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="29"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="32"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="29"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="32"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="32"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="29"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="32"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="29"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="32"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="29"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="32"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="29"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="32"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="29"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="32"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="29"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="32"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="29"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="32"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="29"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="32"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="29"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="33"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="32"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="29"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="32"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="29"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="32"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="29"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="32"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="29"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="32"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="29"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="32"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="29"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="32"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="29"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="32"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="29"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="33"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="32"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="29"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="32"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="29"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="33"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="32"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="29"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="32"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="29"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="32"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="29"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="32"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="29"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="33"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="33"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="33"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
+      <c r="A91" s="30"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="33"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="33"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
+      <c r="A93" s="30"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
+      <c r="A94" s="30"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="33"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="33"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
+      <c r="A97" s="30"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="33"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
+      <c r="A98" s="30"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8860,8 +9472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB04241-F991-40CE-B243-1152ECDEFEE4}">
   <dimension ref="B2:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8875,77 +9487,77 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P3" t="s">
         <v>100</v>
-      </c>
-      <c r="P3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="24"/>
+        <v>80</v>
+      </c>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="23">
+      <c r="B5" s="20">
         <v>0</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>2</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="20">
         <v>0</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="20">
         <v>65535</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="24"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
@@ -8956,7 +9568,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -8965,13 +9577,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="24"/>
+        <v>81</v>
+      </c>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
@@ -8982,7 +9594,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>3</v>
@@ -8991,13 +9603,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J7" s="24"/>
+        <v>133</v>
+      </c>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
@@ -9008,7 +9620,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -9017,15 +9629,15 @@
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="24"/>
+        <v>102</v>
+      </c>
+      <c r="J8" s="21"/>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
@@ -9037,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -9046,13 +9658,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="24"/>
+        <v>85</v>
+      </c>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -9063,105 +9675,105 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="24"/>
+        <v>86</v>
+      </c>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="20">
         <v>200</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="24"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="23">
         <f>SUM(C5:C11)</f>
         <v>208</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="I18" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="23">
+      <c r="B19" s="20">
         <v>0</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="20">
         <v>2</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="D19" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="20">
         <v>0</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="20">
         <v>65535</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
@@ -9181,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -9195,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>3</v>
@@ -9204,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -9218,7 +9830,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>4</v>
@@ -9227,11 +9839,11 @@
         <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
@@ -9243,7 +9855,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -9252,11 +9864,11 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
@@ -9268,18 +9880,18 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
@@ -9291,7 +9903,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
@@ -9300,7 +9912,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -9312,7 +9924,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>4</v>
@@ -9327,13 +9939,13 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="20">
         <v>200</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="23" t="s">
+      <c r="D27" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="1"/>
@@ -9342,15 +9954,15 @@
       <c r="I27" s="1"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="26">
+      <c r="B29" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="23">
         <f>SUM(C19:C27)</f>
         <v>211</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -9362,358 +9974,759 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB98B7-73F7-4C3A-AAF0-0D4F4D184EA5}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="47.77734375" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" t="s">
+        <v>240</v>
+      </c>
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>202</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="97" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="100" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="100"/>
+      <c r="C36" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="63" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="100"/>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
         <v>149</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="100"/>
+      <c r="C38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="110" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="110"/>
+      <c r="C40" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H40" t="s">
+        <v>246</v>
+      </c>
+      <c r="I40" s="111" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="110"/>
+      <c r="C41" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="I41" s="111"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="110"/>
+      <c r="C42" t="s">
+        <v>208</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="I42" s="111"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="110"/>
+      <c r="C43" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I43" s="111"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="110"/>
+      <c r="C44" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I44" s="111" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="110"/>
+      <c r="C45" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="I45" s="111"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="110"/>
+      <c r="C46" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I46" s="111"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="110"/>
+      <c r="C47" s="101" t="s">
+        <v>218</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I47" s="111" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="110"/>
+      <c r="C48" s="101" t="s">
+        <v>219</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" t="s">
+        <v>247</v>
+      </c>
+      <c r="I48" s="83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="110"/>
+      <c r="C49" s="101" t="s">
+        <v>220</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="I49" s="83"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="110"/>
+      <c r="C50" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I50" s="83"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="110"/>
+      <c r="C51" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I51" s="83" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="110"/>
+      <c r="C52" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I52" s="83"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="110"/>
+      <c r="C53" s="103" t="s">
+        <v>224</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I53" s="83"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="110"/>
+      <c r="C54" s="103" t="s">
+        <v>225</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="I54" s="83"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="110"/>
+      <c r="C55" s="103" t="s">
+        <v>226</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I55" s="83" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="110"/>
+      <c r="C56" s="103" t="s">
+        <v>227</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" t="s">
         <v>152</v>
       </c>
-      <c r="D5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="110"/>
+      <c r="C57" s="104" t="s">
+        <v>228</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="15" t="s">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="110"/>
+      <c r="C58" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="110"/>
+      <c r="C59" s="104" t="s">
+        <v>230</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" t="s">
         <v>156</v>
       </c>
-      <c r="D9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="93"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="93"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="93"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="93"/>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="93"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="93"/>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="93"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="93"/>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="93"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="93"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="93"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="93"/>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C36" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="93"/>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C37" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="93"/>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="93"/>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C43" s="7" t="s">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="110"/>
+      <c r="C60" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D43" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C44" s="7" t="s">
+      <c r="H60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="110"/>
+      <c r="C61" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D44" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C45" s="7" t="s">
+      <c r="H61" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="110"/>
+      <c r="C62" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C46" s="7" t="s">
+      <c r="H62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="110"/>
+      <c r="C63" s="103" t="s">
+        <v>227</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D46" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C47" s="7" t="s">
+      <c r="H63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="110"/>
+      <c r="C64" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" t="s">
+      <c r="H64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C48" s="7"/>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="110"/>
+      <c r="C65" s="105" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="110"/>
+      <c r="C66" s="106" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="110"/>
+      <c r="C67" s="106" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="110"/>
+      <c r="C68" s="106" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="110"/>
+      <c r="C69" s="106" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="110"/>
+      <c r="C70" s="107" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="110"/>
+      <c r="C71" s="107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="110"/>
+      <c r="C72" s="108" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="110"/>
+      <c r="C73" s="108" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="110"/>
+      <c r="C74" s="108" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="110"/>
+      <c r="C75" s="108" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="110"/>
+      <c r="C76" s="109" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="110"/>
+      <c r="C77" s="109" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="110"/>
+      <c r="C78" s="109" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="110"/>
+      <c r="C79" s="109" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="110"/>
+      <c r="C80" s="109" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="110"/>
+      <c r="C81" s="109" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="110"/>
+      <c r="C82" s="109" t="s">
+        <v>239</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
+++ b/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ute\Lab_project\git_Indruino\IOT_ESP32\Indruino-Iot-Project\FW\Hau\mem_map_data_trans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D663B8-64F9-4CFC-8969-3D3D6732BB11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B4639D-A410-4F4C-A83C-B193579B33DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7008" yWindow="600" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mega" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="267">
   <si>
     <t>stt</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Ext</t>
   </si>
   <si>
-    <t>Ext data</t>
-  </si>
-  <si>
     <t>EEPROM ESP</t>
   </si>
   <si>
@@ -789,6 +786,57 @@
   </si>
   <si>
     <t>HIGH</t>
+  </si>
+  <si>
+    <t>ADC0</t>
+  </si>
+  <si>
+    <t>ADC1</t>
+  </si>
+  <si>
+    <t>ADC2</t>
+  </si>
+  <si>
+    <t>ADC3</t>
+  </si>
+  <si>
+    <t>ADC4</t>
+  </si>
+  <si>
+    <t>ADC5</t>
+  </si>
+  <si>
+    <t>ADC6</t>
+  </si>
+  <si>
+    <t>ADC7</t>
+  </si>
+  <si>
+    <t>ext data_time</t>
+  </si>
+  <si>
+    <t>Ext data_time</t>
+  </si>
+  <si>
+    <t>ext_data_time</t>
+  </si>
+  <si>
+    <t>ext_data</t>
+  </si>
+  <si>
+    <t>Pack0_hr</t>
+  </si>
+  <si>
+    <t>Pack0_min</t>
+  </si>
+  <si>
+    <t>Pack0_dow</t>
+  </si>
+  <si>
+    <t>Pack0_ext</t>
+  </si>
+  <si>
+    <t>Pack0_FN</t>
   </si>
 </sst>
 </file>
@@ -1287,13 +1335,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>643602</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>89454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>855872</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>81835</xdr:rowOff>
@@ -1425,13 +1473,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>42199</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>131590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>552739</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>87726</xdr:rowOff>
@@ -2172,13 +2220,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>651095</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>131077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>740229</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>162645</xdr:rowOff>
@@ -2312,13 +2360,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>662109</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>24334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>816428</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>96051</xdr:rowOff>
@@ -2477,13 +2525,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>690922</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>77483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>881743</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>43415</xdr:rowOff>
@@ -4198,2813 +4246,3164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA99"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="P25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35:Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="12" max="18" width="13.33203125" customWidth="1"/>
-    <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="20" max="20" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5546875" customWidth="1"/>
-    <col min="25" max="25" width="14.5546875" customWidth="1"/>
-    <col min="26" max="26" width="10.21875" customWidth="1"/>
-    <col min="27" max="27" width="6.109375" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="13" max="19" width="13.33203125" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5546875" customWidth="1"/>
+    <col min="26" max="26" width="14.5546875" customWidth="1"/>
+    <col min="27" max="27" width="10.21875" customWidth="1"/>
+    <col min="28" max="28" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="B1" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="R1" s="46" t="s">
+      <c r="C1" s="95"/>
+      <c r="S1" s="46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="R2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="S2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="V2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Q3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R3" s="43"/>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
         <v>2</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>65535</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="I4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>141</v>
+      </c>
+      <c r="R4" s="43"/>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:S17" si="0">T3+S3</f>
+        <v>2</v>
+      </c>
+      <c r="T4" s="61">
+        <v>1</v>
+      </c>
+      <c r="U4" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="V4" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="Q3" s="43"/>
-      <c r="R3" s="1">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="S3" s="1">
-        <v>2</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" s="1">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="W3" s="1">
-        <v>65535</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="1">
-        <f t="shared" ref="R4:R17" si="0">S3+R3</f>
-        <v>2</v>
-      </c>
-      <c r="S4" s="61">
-        <v>1</v>
-      </c>
-      <c r="T4" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="U4" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="H5" s="1"/>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="1">
+      <c r="I5" s="1"/>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>142</v>
+      </c>
+      <c r="R5" s="43"/>
+      <c r="S5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="S5" s="1">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>83</v>
+      <c r="T5" s="1">
+        <v>1</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="20">
+        <f>C5+B5</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>241</v>
+      </c>
+      <c r="R6" s="43"/>
+      <c r="S6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="15">
+        <f t="shared" ref="B7:B20" si="1">C6+B6</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>65535</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>243</v>
+      </c>
+      <c r="R7" s="43"/>
+      <c r="S7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
-        <f>B5+A5</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="V7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="S6" s="1">
-        <v>2</v>
-      </c>
-      <c r="T6" s="99" t="s">
-        <v>92</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V6" s="1">
-        <v>4</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
-        <f t="shared" ref="A7:A20" si="1">B6+A6</f>
-        <v>2</v>
-      </c>
-      <c r="B7" s="15">
-        <v>2</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>65535</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="1">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>240</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="S8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S7" s="1">
-        <v>1</v>
-      </c>
-      <c r="T7" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V7" s="1">
-        <v>1</v>
-      </c>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="15">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="T8" s="1">
+        <v>2</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="1">
+        <v>50</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="S8" s="1">
-        <v>2</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="1">
-        <v>50</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="15">
-        <v>1</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>83</v>
+      <c r="C9" s="15">
+        <v>1</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>242</v>
+      </c>
+      <c r="R9" s="40"/>
+      <c r="S9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="1">
+        <v>4</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="15">
+        <v>4</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="1">
+      <c r="Q10" t="s">
+        <v>244</v>
+      </c>
+      <c r="R10" s="40"/>
+      <c r="S10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>250</v>
+      </c>
+      <c r="R11" s="40"/>
+      <c r="S11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T11" s="17">
         <v>2</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" s="1">
-        <v>4</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="15">
-        <v>2</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="15">
-        <v>4</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="S10" s="1">
-        <v>1</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="1">
-        <v>1</v>
-      </c>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="U11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W11" s="17"/>
+      <c r="X11" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B11" s="15">
-        <v>1</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="S11" s="17">
+      <c r="C12" s="15">
         <v>2</v>
       </c>
-      <c r="T11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="U11" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V11" s="17"/>
-      <c r="W11" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="15">
-        <v>2</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="D12" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="17">
-        <f>S11+R11</f>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>251</v>
+      </c>
+      <c r="R12" s="40"/>
+      <c r="S12" s="17">
+        <f>T11+S11</f>
+        <v>12</v>
+      </c>
+      <c r="T12" s="17">
+        <v>2</v>
+      </c>
+      <c r="U12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="17">
+      <c r="V12" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="17"/>
+      <c r="X12" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="15">
+        <v>4</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>252</v>
+      </c>
+      <c r="R13" s="40"/>
+      <c r="S13" s="17">
+        <f>T12+S12</f>
+        <v>14</v>
+      </c>
+      <c r="T13" s="17">
         <v>2</v>
       </c>
-      <c r="T12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="U12" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V12" s="17"/>
-      <c r="W12" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="U13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W13" s="17"/>
+      <c r="X13" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="15">
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>253</v>
+      </c>
+      <c r="R14" s="40"/>
+      <c r="S14" s="17">
+        <f>T13+S13</f>
+        <v>16</v>
+      </c>
+      <c r="T14" s="17">
         <v>2</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="15">
-        <v>4</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="17">
-        <f>S12+R12</f>
+      <c r="U14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="17">
+      <c r="V14" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="17"/>
+      <c r="X14" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="15">
         <v>2</v>
       </c>
-      <c r="T13" s="17" t="s">
+      <c r="D15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="Q15" t="s">
+        <v>254</v>
+      </c>
+      <c r="R15" s="40"/>
+      <c r="S15" s="17">
+        <f>T14+S14</f>
+        <v>18</v>
+      </c>
+      <c r="T15" s="17">
+        <v>2</v>
+      </c>
+      <c r="U15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="17"/>
+      <c r="X15" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="15">
+        <f>C15+B15</f>
+        <v>14</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="Q16" t="s">
+        <v>255</v>
+      </c>
+      <c r="R16" s="40"/>
+      <c r="S16" s="17">
+        <f>T15+S15</f>
+        <v>20</v>
+      </c>
+      <c r="T16" s="17">
+        <v>2</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="V16" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W16" s="17"/>
+      <c r="X16" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="15">
+        <f>C16+B16</f>
+        <v>16</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V13" s="17"/>
-      <c r="W13" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="15">
-        <v>1</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="17">
-        <f>S13+R13</f>
+      <c r="E17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="Q17" t="s">
+        <v>256</v>
+      </c>
+      <c r="R17" s="40"/>
+      <c r="S17" s="17">
+        <f>T16+S16</f>
+        <v>22</v>
+      </c>
+      <c r="T17" s="17">
+        <v>2</v>
+      </c>
+      <c r="U17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="V17" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="17"/>
+      <c r="X17" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="15">
+        <f>C17+B17</f>
         <v>18</v>
       </c>
-      <c r="S14" s="17">
+      <c r="C18" s="15">
         <v>2</v>
       </c>
-      <c r="T14" s="17" t="s">
+      <c r="D18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="U14" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="17"/>
-      <c r="W14" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="15">
+      <c r="E18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="Q18" t="s">
+        <v>257</v>
+      </c>
+      <c r="R18" s="40"/>
+      <c r="S18" s="80">
+        <f>T17+S17</f>
+        <v>24</v>
+      </c>
+      <c r="T18" s="80">
         <v>2</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="17">
-        <f>S14+R14</f>
+      <c r="U18" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="17">
+      <c r="V18" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="17"/>
+      <c r="X18" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="15">
+        <f>C18+B18</f>
+        <v>20</v>
+      </c>
+      <c r="C19" s="15">
         <v>2</v>
       </c>
-      <c r="T15" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="U15" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="17"/>
-      <c r="W15" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
-        <f>B15+A15</f>
-        <v>16</v>
-      </c>
-      <c r="B16" s="15">
+      <c r="E19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="Q19" t="s">
+        <v>245</v>
+      </c>
+      <c r="R19" s="40"/>
+      <c r="S19" s="80">
+        <f>T18+S18</f>
+        <v>26</v>
+      </c>
+      <c r="T19" s="84">
+        <v>1</v>
+      </c>
+      <c r="U19" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="V19" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB19" s="24"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="15">
+        <f>C19+B19</f>
+        <v>22</v>
+      </c>
+      <c r="C20" s="15">
         <v>2</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="17">
-        <f>S15+R15</f>
-        <v>22</v>
-      </c>
-      <c r="S16" s="17">
+      <c r="D20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="V20" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="25"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" s="15">
+        <f>C20+B20</f>
+        <v>24</v>
+      </c>
+      <c r="C21" s="15">
         <v>2</v>
       </c>
-      <c r="T16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="U16" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V16" s="17"/>
-      <c r="W16" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <f>B16+A16</f>
-        <v>18</v>
-      </c>
-      <c r="B17" s="15">
+      <c r="D21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="V21" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="25"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" s="15">
+        <f>C21+B21</f>
+        <v>26</v>
+      </c>
+      <c r="C22" s="15">
         <v>2</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="17">
-        <f>S16+R16</f>
-        <v>24</v>
-      </c>
-      <c r="S17" s="17">
-        <v>2</v>
-      </c>
-      <c r="T17" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="U17" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" s="17"/>
-      <c r="W17" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <f>B17+A17</f>
+      <c r="D22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="15">
-        <v>2</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="80">
-        <f>S17+R17</f>
-        <v>26</v>
-      </c>
-      <c r="S18" s="80">
-        <v>2</v>
-      </c>
-      <c r="T18" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="U18" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="17"/>
-      <c r="W18" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <f>B18+A18</f>
-        <v>22</v>
-      </c>
-      <c r="B19" s="15">
-        <v>2</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="80">
-        <f>S18+R18</f>
+      <c r="E22" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="V22" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="25"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" s="15">
+        <f>C22+B22</f>
         <v>28</v>
       </c>
-      <c r="S19" s="84">
-        <v>1</v>
-      </c>
-      <c r="T19" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="U19" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA19" s="24"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
-        <f>B19+A19</f>
-        <v>24</v>
-      </c>
-      <c r="B20" s="15">
-        <v>2</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="U20" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="25"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
-        <f>B20+A20</f>
-        <v>26</v>
-      </c>
-      <c r="B21" s="15">
-        <v>2</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="U21" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="25"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
-        <f>B21+A21</f>
-        <v>28</v>
-      </c>
-      <c r="B22" s="15">
-        <v>2</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="U22" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="25"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
-        <f>B22+A22</f>
-        <v>30</v>
-      </c>
-      <c r="B23" s="48">
-        <v>1</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="15"/>
+      <c r="C23" s="48">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="J23" s="24"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="U23" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X23" s="17"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="24"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="V23" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="Y23" s="17"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="15"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B24" s="15"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="25"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="80" t="s">
-        <v>165</v>
-      </c>
-      <c r="U24" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X24" s="17"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="25"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="V24" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="Y24" s="17"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="25"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="15"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="25"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="25"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="80" t="s">
-        <v>166</v>
-      </c>
-      <c r="U25" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X25" s="17"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="25"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="V25" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="Y25" s="17"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="25"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="15"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="25"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="25"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="U26" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X26" s="17"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="25"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="84"/>
+      <c r="U26" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="V26" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="Y26" s="17"/>
-      <c r="Z26" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA26" s="26"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="15"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB26" s="26"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B27" s="15"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="80">
-        <f>S19+R19</f>
-        <v>29</v>
-      </c>
-      <c r="S27" s="84">
-        <v>1</v>
-      </c>
-      <c r="T27" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="U27" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X27" s="17"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>246</v>
+      </c>
+      <c r="R27" s="40"/>
+      <c r="S27" s="80">
+        <f>T19+S19</f>
+        <v>27</v>
+      </c>
+      <c r="T27" s="84">
+        <v>1</v>
+      </c>
+      <c r="U27" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="V27" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="Y27" s="17"/>
-      <c r="Z27" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA27" s="24"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="15"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB27" s="24"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B28" s="15"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="25"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="U28" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X28" s="17"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="25"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="V28" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="Y28" s="17"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="25"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="15"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="25"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B29" s="15"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="25"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="80" t="s">
-        <v>170</v>
-      </c>
-      <c r="U29" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X29" s="17"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="25"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="V29" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="Y29" s="17"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="25"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="15"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="25"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B30" s="15"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="26"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="U30" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X30" s="17"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="26"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="V30" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="Y30" s="17"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="25"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
-        <f>B23+A23</f>
-        <v>31</v>
-      </c>
-      <c r="B31" s="48">
-        <v>1</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="15"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="25"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" s="15">
+        <f>C23+B23</f>
+        <v>29</v>
+      </c>
+      <c r="C31" s="48">
+        <v>1</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="25"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="U31" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X31" s="17"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="25"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="V31" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="Y31" s="17"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="15"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B32" s="15"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="25"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="80" t="s">
-        <v>173</v>
-      </c>
-      <c r="U32" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X32" s="17"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="25"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="V32" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="Y32" s="17"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="25"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="15"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="25"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B33" s="15"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="25"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="U33" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X33" s="17"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="25"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="85"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="V33" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="Y33" s="17"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="25"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="15"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="25"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B34" s="15"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="86"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="U34" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X34" s="17"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="R34" s="42"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="V34" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="Y34" s="17"/>
-      <c r="Z34" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA34" s="26"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="15"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB34" s="26"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B35" s="15"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="25"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="45">
-        <f>S27+R27</f>
-        <v>30</v>
-      </c>
-      <c r="S35" s="1">
-        <v>1</v>
-      </c>
-      <c r="T35" s="1" t="s">
+      <c r="I35" s="15"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="25"/>
+      <c r="Q35" t="s">
+        <v>262</v>
+      </c>
+      <c r="R35" s="42">
+        <v>0</v>
+      </c>
+      <c r="S35" s="45">
+        <f>T27+S27</f>
+        <v>28</v>
+      </c>
+      <c r="T35" s="1">
+        <v>1</v>
+      </c>
+      <c r="U35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="9" t="s">
+      <c r="V35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="15"/>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B36" s="15"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="25"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="4">
-        <f>R35+S35</f>
-        <v>31</v>
-      </c>
-      <c r="S36" s="1">
-        <v>1</v>
-      </c>
-      <c r="T36" s="1" t="s">
+      <c r="I36" s="15"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="25"/>
+      <c r="Q36" t="s">
+        <v>263</v>
+      </c>
+      <c r="R36" s="42">
+        <f>R35+T35</f>
+        <v>1</v>
+      </c>
+      <c r="S36" s="4">
+        <f>S35+T35</f>
+        <v>29</v>
+      </c>
+      <c r="T36" s="1">
+        <v>1</v>
+      </c>
+      <c r="U36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="U36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="9"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="15"/>
+      <c r="V36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="9"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B37" s="15"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="25"/>
-      <c r="R37" s="4">
-        <f t="shared" ref="R37:R83" si="2">R36+S36</f>
-        <v>32</v>
-      </c>
-      <c r="S37" s="1">
-        <v>1</v>
-      </c>
-      <c r="T37" s="1" t="s">
+      <c r="I37" s="15"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="25"/>
+      <c r="Q37" t="s">
+        <v>264</v>
+      </c>
+      <c r="R37" s="42">
+        <f t="shared" ref="R37:R39" si="2">R36+T36</f>
+        <v>2</v>
+      </c>
+      <c r="S37" s="4">
+        <f t="shared" ref="S37:S83" si="3">S36+T36</f>
+        <v>30</v>
+      </c>
+      <c r="T37" s="1">
+        <v>1</v>
+      </c>
+      <c r="U37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V37" s="20"/>
-      <c r="W37" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="9"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="15"/>
+      <c r="V37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W37" s="20"/>
+      <c r="X37" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="9"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B38" s="15"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="J38" s="26"/>
-      <c r="R38" s="4">
+      <c r="I38" s="15"/>
+      <c r="J38" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38" s="26"/>
+      <c r="Q38" t="s">
+        <v>266</v>
+      </c>
+      <c r="R38" s="42">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="S38" s="1">
-        <v>1</v>
-      </c>
-      <c r="T38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="4">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="T38" s="1">
+        <v>1</v>
+      </c>
+      <c r="U38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="9"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
-        <f>A31+B31</f>
-        <v>32</v>
+      <c r="V38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="9"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>151</v>
       </c>
       <c r="B39" s="7">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7" t="s">
+        <f>B31+C31</f>
+        <v>30</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="7">
+      <c r="E39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="7">
         <v>0</v>
       </c>
-      <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="R39" s="4">
+      <c r="I39" s="7"/>
+      <c r="Q39" t="s">
+        <v>265</v>
+      </c>
+      <c r="R39" s="42">
         <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="S39" s="1">
+        <v>4</v>
+      </c>
+      <c r="S39" s="4">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="T39" s="1">
         <v>10</v>
       </c>
-      <c r="T39" s="1" t="s">
+      <c r="U39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V39" s="20"/>
+      <c r="V39" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
-      <c r="Y39" s="10"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
-        <f t="shared" ref="A40:A49" si="3">B39+A39</f>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="10"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="7">
+        <f t="shared" ref="B40:B49" si="4">C39+B39</f>
+        <v>31</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="R40" s="42">
+        <v>0</v>
+      </c>
+      <c r="S40" s="4">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="T40" s="1">
+        <v>1</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="7">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B40" s="7">
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="R41" s="42">
+        <f t="shared" ref="R41:R84" si="5">R40+T40</f>
+        <v>1</v>
+      </c>
+      <c r="S41" s="4">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="T41" s="1">
+        <v>1</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="9"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="7">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="R42" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="R40" s="4">
-        <f t="shared" si="2"/>
+      <c r="S42" s="4">
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="S40" s="1">
-        <v>1</v>
-      </c>
-      <c r="T40" s="1" t="s">
+      <c r="T42" s="1">
+        <v>1</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W42" s="20"/>
+      <c r="X42" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="9"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="7">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="R43" s="42">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S43" s="4">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="9"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="7">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="U40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="E44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="R44" s="42">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S44" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="B41" s="7">
-        <v>1</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="R41" s="4">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="S41" s="1">
-        <v>1</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="9"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="B42" s="7">
-        <v>1</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="R42" s="4">
-        <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="S42" s="1">
-        <v>1</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V42" s="20"/>
-      <c r="W42" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="9"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="B43" s="7">
-        <v>1</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="R43" s="4">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="S43" s="1">
-        <v>1</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="9"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <f t="shared" si="3"/>
+      <c r="T44" s="1">
+        <v>10</v>
+      </c>
+      <c r="U44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="7">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="R44" s="4">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="S44" s="1">
-        <v>10</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V44" s="20"/>
+      <c r="V44" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
-      <c r="Y44" s="10"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="10"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="7">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="R45" s="42">
+        <v>0</v>
+      </c>
+      <c r="S45" s="4">
         <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="T45" s="1">
+        <v>1</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="7">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="R46" s="42">
+        <f t="shared" ref="R46:R84" si="6">R45+T45</f>
+        <v>1</v>
+      </c>
+      <c r="S46" s="4">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="T46" s="1">
+        <v>1</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="9"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="7">
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="B45" s="7">
-        <v>1</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="R45" s="4">
-        <f t="shared" si="2"/>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="R47" s="42">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S47" s="4">
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="S45" s="1">
-        <v>1</v>
-      </c>
-      <c r="T45" s="1" t="s">
+      <c r="T47" s="1">
+        <v>1</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="20"/>
+      <c r="X47" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="9"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" s="7">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="C48" s="8">
         <v>10</v>
       </c>
-      <c r="U45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="B46" s="7">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="R46" s="4">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="S46" s="1">
-        <v>1</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="X46" s="20"/>
-      <c r="Y46" s="9"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="B47" s="7">
-        <v>1</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="R47" s="4">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="S47" s="1">
-        <v>1</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V47" s="20"/>
-      <c r="W47" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="9"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="B48" s="8">
-        <v>10</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="D48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="7"/>
+        <v>258</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="R48" s="4">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="S48" s="1">
-        <v>1</v>
-      </c>
-      <c r="T48" s="1" t="s">
+      <c r="I48" s="7"/>
+      <c r="R48" s="42">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S48" s="4">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="T48" s="1">
+        <v>1</v>
+      </c>
+      <c r="U48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="9"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+      <c r="V48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="9"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="7">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="C49" s="6">
+        <v>20</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="37"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="R49" s="42">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S49" s="4">
         <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="B49" s="6">
-        <v>20</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="R49" s="4">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="S49" s="1">
+        <v>60</v>
+      </c>
+      <c r="T49" s="1">
         <v>10</v>
       </c>
-      <c r="T49" s="1" t="s">
+      <c r="U49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V49" s="20"/>
+      <c r="V49" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="W49" s="20"/>
       <c r="X49" s="20"/>
-      <c r="Y49" s="10"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="R50" s="4">
-        <f t="shared" si="2"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="10"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R50" s="42">
+        <v>0</v>
+      </c>
+      <c r="S50" s="4">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="T50" s="1">
+        <v>1</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B51" s="81">
+        <f>SUM(C5:C49)</f>
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="R51" s="42">
+        <f t="shared" ref="R51:R84" si="7">R50+T50</f>
+        <v>1</v>
+      </c>
+      <c r="S51" s="4">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="T51" s="1">
+        <v>1</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="9"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R52" s="42">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S52" s="4">
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="S50" s="1">
-        <v>1</v>
-      </c>
-      <c r="T50" s="1" t="s">
+      <c r="T52" s="1">
+        <v>1</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W52" s="20"/>
+      <c r="X52" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="9"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R53" s="42">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S53" s="4">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="T53" s="1">
+        <v>1</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="9"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R54" s="42">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S54" s="4">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="T54" s="1">
         <v>10</v>
       </c>
-      <c r="U50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="X50" s="20"/>
-      <c r="Y50" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A51" s="81">
-        <f>SUM(B5:B49)</f>
-        <v>72</v>
-      </c>
-      <c r="B51" t="s">
-        <v>98</v>
-      </c>
-      <c r="R51" s="4">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="S51" s="1">
-        <v>1</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="9"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="R52" s="4">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="S52" s="1">
-        <v>1</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52" s="20"/>
-      <c r="W52" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="X52" s="20"/>
-      <c r="Y52" s="9"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="R53" s="4">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="S53" s="1">
-        <v>1</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="X53" s="20"/>
-      <c r="Y53" s="9"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="R54" s="4">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="S54" s="1">
-        <v>10</v>
-      </c>
-      <c r="T54" s="1" t="s">
+      <c r="U54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V54" s="20"/>
+      <c r="V54" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="W54" s="20"/>
       <c r="X54" s="20"/>
-      <c r="Y54" s="10"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="R55" s="4">
-        <f t="shared" si="2"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="10"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R55" s="42">
+        <v>0</v>
+      </c>
+      <c r="S55" s="4">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="T55" s="1">
+        <v>1</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R56" s="42">
+        <f t="shared" ref="R56:R84" si="8">R55+T55</f>
+        <v>1</v>
+      </c>
+      <c r="S56" s="4">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="T56" s="1">
+        <v>1</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="9"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R57" s="42">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S57" s="4">
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="S55" s="1">
-        <v>1</v>
-      </c>
-      <c r="T55" s="1" t="s">
+      <c r="T57" s="1">
+        <v>1</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="20"/>
+      <c r="X57" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="9"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R58" s="42">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S58" s="4">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="T58" s="1">
+        <v>1</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="9"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B59" s="32"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="29"/>
+      <c r="R59" s="42">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S59" s="4">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="T59" s="1">
         <v>10</v>
       </c>
-      <c r="U55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V55" s="20"/>
-      <c r="W55" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="X55" s="20"/>
-      <c r="Y55" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="R56" s="4">
-        <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-      <c r="S56" s="1">
-        <v>1</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V56" s="20"/>
-      <c r="W56" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="X56" s="20"/>
-      <c r="Y56" s="9"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="R57" s="4">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="S57" s="1">
-        <v>1</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U57" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V57" s="20"/>
-      <c r="W57" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="X57" s="20"/>
-      <c r="Y57" s="9"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="R58" s="4">
-        <f t="shared" si="2"/>
-        <v>89</v>
-      </c>
-      <c r="S58" s="1">
-        <v>1</v>
-      </c>
-      <c r="T58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U58" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V58" s="20"/>
-      <c r="W58" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="X58" s="20"/>
-      <c r="Y58" s="9"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="29"/>
-      <c r="R59" s="4">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="S59" s="1">
-        <v>10</v>
-      </c>
-      <c r="T59" s="1" t="s">
+      <c r="U59" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U59" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="20"/>
+      <c r="V59" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
-      <c r="Y59" s="10"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A60" s="32"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="29"/>
-      <c r="R60" s="4">
-        <f t="shared" si="2"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="10"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B60" s="32"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="29"/>
+      <c r="R60" s="42">
+        <v>0</v>
+      </c>
+      <c r="S60" s="4">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="T60" s="1">
+        <v>1</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B61" s="32"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="29"/>
+      <c r="R61" s="42">
+        <f t="shared" ref="R61:R84" si="9">R60+T60</f>
+        <v>1</v>
+      </c>
+      <c r="S61" s="4">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="T61" s="1">
+        <v>1</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="9"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B62" s="32"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="29"/>
+      <c r="R62" s="42">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S62" s="4">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="S60" s="1">
-        <v>1</v>
-      </c>
-      <c r="T60" s="1" t="s">
+      <c r="T62" s="1">
+        <v>1</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="20"/>
+      <c r="X62" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="9"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R63" s="42">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S63" s="4">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="T63" s="1">
+        <v>1</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="9"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R64" s="42">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S64" s="4">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="T64" s="1">
         <v>10</v>
       </c>
-      <c r="U60" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="X60" s="20"/>
-      <c r="Y60" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="29"/>
-      <c r="R61" s="4">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="S61" s="1">
-        <v>1</v>
-      </c>
-      <c r="T61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U61" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V61" s="20"/>
-      <c r="W61" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="X61" s="20"/>
-      <c r="Y61" s="9"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="29"/>
-      <c r="R62" s="4">
-        <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="S62" s="1">
-        <v>1</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V62" s="20"/>
-      <c r="W62" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="X62" s="20"/>
-      <c r="Y62" s="9"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="R63" s="4">
-        <f t="shared" si="2"/>
-        <v>103</v>
-      </c>
-      <c r="S63" s="1">
-        <v>1</v>
-      </c>
-      <c r="T63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U63" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V63" s="20"/>
-      <c r="W63" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="X63" s="20"/>
-      <c r="Y63" s="9"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="R64" s="4">
-        <f t="shared" si="2"/>
-        <v>104</v>
-      </c>
-      <c r="S64" s="1">
-        <v>10</v>
-      </c>
-      <c r="T64" s="1" t="s">
+      <c r="U64" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U64" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V64" s="20"/>
+      <c r="V64" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
-      <c r="Y64" s="10"/>
-    </row>
-    <row r="65" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R65" s="4">
-        <f t="shared" si="2"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="10"/>
+    </row>
+    <row r="65" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R65" s="42">
+        <v>0</v>
+      </c>
+      <c r="S65" s="4">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="T65" s="1">
+        <v>1</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R66" s="42">
+        <f t="shared" ref="R66:R84" si="10">R65+T65</f>
+        <v>1</v>
+      </c>
+      <c r="S66" s="4">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="T66" s="1">
+        <v>1</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="9"/>
+    </row>
+    <row r="67" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R67" s="42">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S67" s="4">
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="S65" s="1">
-        <v>1</v>
-      </c>
-      <c r="T65" s="1" t="s">
+      <c r="T67" s="1">
+        <v>1</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W67" s="20"/>
+      <c r="X67" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="9"/>
+    </row>
+    <row r="68" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R68" s="42">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S68" s="4">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="T68" s="1">
+        <v>1</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="9"/>
+    </row>
+    <row r="69" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R69" s="42">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S69" s="4">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="T69" s="1">
         <v>10</v>
       </c>
-      <c r="U65" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V65" s="20"/>
-      <c r="W65" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="X65" s="20"/>
-      <c r="Y65" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R66" s="4">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="S66" s="1">
-        <v>1</v>
-      </c>
-      <c r="T66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U66" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V66" s="20"/>
-      <c r="W66" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="X66" s="20"/>
-      <c r="Y66" s="9"/>
-    </row>
-    <row r="67" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R67" s="4">
-        <f t="shared" si="2"/>
-        <v>116</v>
-      </c>
-      <c r="S67" s="1">
-        <v>1</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U67" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V67" s="20"/>
-      <c r="W67" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="X67" s="20"/>
-      <c r="Y67" s="9"/>
-    </row>
-    <row r="68" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R68" s="4">
-        <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
-      <c r="S68" s="1">
-        <v>1</v>
-      </c>
-      <c r="T68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U68" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V68" s="20"/>
-      <c r="W68" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="X68" s="20"/>
-      <c r="Y68" s="9"/>
-    </row>
-    <row r="69" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R69" s="4">
-        <f t="shared" si="2"/>
-        <v>118</v>
-      </c>
-      <c r="S69" s="1">
-        <v>10</v>
-      </c>
-      <c r="T69" s="1" t="s">
+      <c r="U69" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U69" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V69" s="20"/>
+      <c r="V69" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="W69" s="20"/>
       <c r="X69" s="20"/>
-      <c r="Y69" s="10"/>
-    </row>
-    <row r="70" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R70" s="4">
-        <f t="shared" si="2"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="10"/>
+    </row>
+    <row r="70" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R70" s="42">
+        <v>0</v>
+      </c>
+      <c r="S70" s="4">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="T70" s="1">
+        <v>1</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W70" s="20"/>
+      <c r="X70" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y70" s="20"/>
+      <c r="Z70" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R71" s="42">
+        <f t="shared" ref="R71:R84" si="11">R70+T70</f>
+        <v>1</v>
+      </c>
+      <c r="S71" s="4">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="T71" s="1">
+        <v>1</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="9"/>
+    </row>
+    <row r="72" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R72" s="42">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S72" s="4">
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="S70" s="1">
-        <v>1</v>
-      </c>
-      <c r="T70" s="1" t="s">
+      <c r="T72" s="1">
+        <v>1</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="20"/>
+      <c r="X72" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="9"/>
+    </row>
+    <row r="73" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R73" s="42">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S73" s="4">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="T73" s="1">
+        <v>1</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W73" s="20"/>
+      <c r="X73" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y73" s="20"/>
+      <c r="Z73" s="9"/>
+    </row>
+    <row r="74" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R74" s="42">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S74" s="4">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="T74" s="1">
         <v>10</v>
       </c>
-      <c r="U70" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V70" s="20"/>
-      <c r="W70" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="X70" s="20"/>
-      <c r="Y70" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R71" s="4">
-        <f t="shared" si="2"/>
-        <v>129</v>
-      </c>
-      <c r="S71" s="1">
-        <v>1</v>
-      </c>
-      <c r="T71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U71" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V71" s="20"/>
-      <c r="W71" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="X71" s="20"/>
-      <c r="Y71" s="9"/>
-    </row>
-    <row r="72" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R72" s="4">
-        <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="S72" s="1">
-        <v>1</v>
-      </c>
-      <c r="T72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U72" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V72" s="20"/>
-      <c r="W72" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="X72" s="20"/>
-      <c r="Y72" s="9"/>
-    </row>
-    <row r="73" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R73" s="4">
-        <f t="shared" si="2"/>
-        <v>131</v>
-      </c>
-      <c r="S73" s="1">
-        <v>1</v>
-      </c>
-      <c r="T73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U73" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V73" s="20"/>
-      <c r="W73" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="X73" s="20"/>
-      <c r="Y73" s="9"/>
-    </row>
-    <row r="74" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R74" s="4">
-        <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
-      <c r="S74" s="1">
-        <v>10</v>
-      </c>
-      <c r="T74" s="1" t="s">
+      <c r="U74" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U74" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V74" s="20"/>
+      <c r="V74" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="W74" s="20"/>
       <c r="X74" s="20"/>
-      <c r="Y74" s="10"/>
-    </row>
-    <row r="75" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R75" s="4">
-        <f t="shared" si="2"/>
+      <c r="Y74" s="20"/>
+      <c r="Z74" s="10"/>
+    </row>
+    <row r="75" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R75" s="42">
+        <v>0</v>
+      </c>
+      <c r="S75" s="4">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="T75" s="1">
+        <v>1</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W75" s="20"/>
+      <c r="X75" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y75" s="20"/>
+      <c r="Z75" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R76" s="42">
+        <f t="shared" ref="R76:R84" si="12">R75+T75</f>
+        <v>1</v>
+      </c>
+      <c r="S76" s="4">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="T76" s="1">
+        <v>1</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W76" s="20"/>
+      <c r="X76" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y76" s="20"/>
+      <c r="Z76" s="9"/>
+    </row>
+    <row r="77" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R77" s="42">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S77" s="4">
+        <f t="shared" si="3"/>
         <v>142</v>
       </c>
-      <c r="S75" s="1">
-        <v>1</v>
-      </c>
-      <c r="T75" s="1" t="s">
+      <c r="T77" s="1">
+        <v>1</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V77" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W77" s="20"/>
+      <c r="X77" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y77" s="20"/>
+      <c r="Z77" s="9"/>
+    </row>
+    <row r="78" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R78" s="42">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S78" s="4">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="T78" s="1">
+        <v>1</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W78" s="20"/>
+      <c r="X78" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y78" s="20"/>
+      <c r="Z78" s="9"/>
+    </row>
+    <row r="79" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R79" s="42">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S79" s="4">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="T79" s="1">
         <v>10</v>
       </c>
-      <c r="U75" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V75" s="20"/>
-      <c r="W75" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="X75" s="20"/>
-      <c r="Y75" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R76" s="4">
-        <f t="shared" si="2"/>
-        <v>143</v>
-      </c>
-      <c r="S76" s="1">
-        <v>1</v>
-      </c>
-      <c r="T76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V76" s="20"/>
-      <c r="W76" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="X76" s="20"/>
-      <c r="Y76" s="9"/>
-    </row>
-    <row r="77" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R77" s="4">
-        <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="S77" s="1">
-        <v>1</v>
-      </c>
-      <c r="T77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U77" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V77" s="20"/>
-      <c r="W77" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="X77" s="20"/>
-      <c r="Y77" s="9"/>
-    </row>
-    <row r="78" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R78" s="4">
-        <f t="shared" si="2"/>
-        <v>145</v>
-      </c>
-      <c r="S78" s="1">
-        <v>1</v>
-      </c>
-      <c r="T78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U78" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V78" s="20"/>
-      <c r="W78" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="X78" s="20"/>
-      <c r="Y78" s="9"/>
-    </row>
-    <row r="79" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R79" s="4">
-        <f t="shared" si="2"/>
-        <v>146</v>
-      </c>
-      <c r="S79" s="1">
-        <v>10</v>
-      </c>
-      <c r="T79" s="1" t="s">
+      <c r="U79" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U79" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V79" s="20"/>
+      <c r="V79" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="W79" s="20"/>
       <c r="X79" s="20"/>
-      <c r="Y79" s="10"/>
-    </row>
-    <row r="80" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R80" s="4">
-        <f t="shared" si="2"/>
+      <c r="Y79" s="20"/>
+      <c r="Z79" s="10"/>
+    </row>
+    <row r="80" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R80" s="42">
+        <v>0</v>
+      </c>
+      <c r="S80" s="4">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="T80" s="1">
+        <v>1</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W80" s="20"/>
+      <c r="X80" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y80" s="44"/>
+      <c r="Z80" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="18:28" x14ac:dyDescent="0.3">
+      <c r="R81" s="42">
+        <f t="shared" ref="R81:R84" si="13">R80+T80</f>
+        <v>1</v>
+      </c>
+      <c r="S81" s="4">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="T81" s="1">
+        <v>1</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W81" s="20"/>
+      <c r="X81" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y81" s="31"/>
+      <c r="Z81" s="9"/>
+    </row>
+    <row r="82" spans="18:28" x14ac:dyDescent="0.3">
+      <c r="R82" s="42">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S82" s="4">
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="S80" s="1">
-        <v>1</v>
-      </c>
-      <c r="T80" s="1" t="s">
+      <c r="T82" s="1">
+        <v>1</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W82" s="20"/>
+      <c r="X82" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y82" s="31"/>
+      <c r="Z82" s="9"/>
+      <c r="AA82" s="29"/>
+      <c r="AB82" s="29"/>
+    </row>
+    <row r="83" spans="18:28" x14ac:dyDescent="0.3">
+      <c r="R83" s="42">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S83" s="4">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="T83" s="1">
+        <v>1</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V83" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y83" s="31"/>
+      <c r="Z83" s="10"/>
+      <c r="AA83" s="29"/>
+      <c r="AB83" s="29"/>
+    </row>
+    <row r="84" spans="18:28" x14ac:dyDescent="0.3">
+      <c r="R84" s="42">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S84" s="4">
+        <f>S83+T83</f>
+        <v>158</v>
+      </c>
+      <c r="T84" s="1">
         <v>10</v>
       </c>
-      <c r="U80" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V80" s="20"/>
-      <c r="W80" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="X80" s="44"/>
-      <c r="Y80" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="18:27" x14ac:dyDescent="0.3">
-      <c r="R81" s="4">
-        <f t="shared" si="2"/>
-        <v>157</v>
-      </c>
-      <c r="S81" s="1">
-        <v>1</v>
-      </c>
-      <c r="T81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U81" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V81" s="20"/>
-      <c r="W81" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="X81" s="31"/>
-      <c r="Y81" s="9"/>
-    </row>
-    <row r="82" spans="18:27" x14ac:dyDescent="0.3">
-      <c r="R82" s="4">
-        <f t="shared" si="2"/>
-        <v>158</v>
-      </c>
-      <c r="S82" s="1">
-        <v>1</v>
-      </c>
-      <c r="T82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U82" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V82" s="20"/>
-      <c r="W82" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="X82" s="31"/>
-      <c r="Y82" s="9"/>
-      <c r="Z82" s="29"/>
-      <c r="AA82" s="29"/>
-    </row>
-    <row r="83" spans="18:27" x14ac:dyDescent="0.3">
-      <c r="R83" s="4">
-        <f t="shared" si="2"/>
-        <v>159</v>
-      </c>
-      <c r="S83" s="1">
-        <v>1</v>
-      </c>
-      <c r="T83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U83" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="20"/>
-      <c r="W83" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="X83" s="31"/>
-      <c r="Y83" s="10"/>
-      <c r="Z83" s="29"/>
-      <c r="AA83" s="29"/>
-    </row>
-    <row r="84" spans="18:27" x14ac:dyDescent="0.3">
-      <c r="R84" s="4">
-        <f>R83+S83</f>
-        <v>160</v>
-      </c>
-      <c r="S84" s="1">
-        <v>10</v>
-      </c>
-      <c r="T84" s="1" t="s">
+      <c r="U84" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U84" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V84" s="20"/>
+      <c r="V84" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="W84" s="20"/>
-      <c r="X84" s="37"/>
-      <c r="Y84" s="10"/>
-      <c r="Z84" s="29"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="37"/>
+      <c r="Z84" s="10"/>
       <c r="AA84" s="29"/>
-    </row>
-    <row r="85" spans="18:27" x14ac:dyDescent="0.3">
-      <c r="R85" s="4">
-        <f>R84+S84</f>
-        <v>170</v>
-      </c>
-      <c r="S85" s="62">
+      <c r="AB84" s="29"/>
+    </row>
+    <row r="85" spans="18:28" x14ac:dyDescent="0.3">
+      <c r="S85" s="4">
+        <f>S84+T84</f>
+        <v>168</v>
+      </c>
+      <c r="T85" s="62">
         <v>20</v>
       </c>
-      <c r="T85" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="U85" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z85" s="29"/>
+      <c r="U85" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="V85" s="82" t="s">
+        <v>4</v>
+      </c>
       <c r="AA85" s="29"/>
-    </row>
-    <row r="86" spans="18:27" x14ac:dyDescent="0.3">
-      <c r="W86" s="29"/>
-      <c r="X86" s="28"/>
-      <c r="Y86" s="30"/>
-      <c r="Z86" s="29"/>
+      <c r="AB85" s="29"/>
+    </row>
+    <row r="86" spans="18:28" x14ac:dyDescent="0.3">
+      <c r="X86" s="29"/>
+      <c r="Y86" s="28"/>
+      <c r="Z86" s="30"/>
       <c r="AA86" s="29"/>
-    </row>
-    <row r="87" spans="18:27" x14ac:dyDescent="0.3">
-      <c r="W87" s="29"/>
-      <c r="X87" s="28"/>
-      <c r="Y87" s="30"/>
-      <c r="Z87" s="29"/>
+      <c r="AB86" s="29"/>
+    </row>
+    <row r="87" spans="18:28" x14ac:dyDescent="0.3">
+      <c r="X87" s="29"/>
+      <c r="Y87" s="28"/>
+      <c r="Z87" s="30"/>
       <c r="AA87" s="29"/>
-    </row>
-    <row r="88" spans="18:27" x14ac:dyDescent="0.3">
-      <c r="S88">
-        <f>SUM(S3:S85)</f>
-        <v>190</v>
-      </c>
-      <c r="W88" s="29"/>
-      <c r="X88" s="28"/>
+      <c r="AB87" s="29"/>
+    </row>
+    <row r="88" spans="18:28" x14ac:dyDescent="0.3">
+      <c r="T88">
+        <f>SUM(T3:T85)</f>
+        <v>188</v>
+      </c>
+      <c r="X88" s="29"/>
       <c r="Y88" s="28"/>
-      <c r="Z88" s="29"/>
+      <c r="Z88" s="28"/>
       <c r="AA88" s="29"/>
-    </row>
-    <row r="89" spans="18:27" x14ac:dyDescent="0.3">
-      <c r="W89" s="29"/>
-      <c r="X89" s="28"/>
+      <c r="AB88" s="29"/>
+    </row>
+    <row r="89" spans="18:28" x14ac:dyDescent="0.3">
+      <c r="X89" s="29"/>
       <c r="Y89" s="28"/>
-      <c r="Z89" s="29"/>
+      <c r="Z89" s="28"/>
       <c r="AA89" s="29"/>
-    </row>
-    <row r="90" spans="18:27" x14ac:dyDescent="0.3">
-      <c r="W90" s="29"/>
-      <c r="X90" s="28"/>
-      <c r="Y90" s="30"/>
-      <c r="Z90" s="29"/>
+      <c r="AB89" s="29"/>
+    </row>
+    <row r="90" spans="18:28" x14ac:dyDescent="0.3">
+      <c r="X90" s="29"/>
+      <c r="Y90" s="28"/>
+      <c r="Z90" s="30"/>
       <c r="AA90" s="29"/>
-    </row>
-    <row r="91" spans="18:27" x14ac:dyDescent="0.3">
-      <c r="W91" s="29"/>
-      <c r="X91" s="28"/>
-      <c r="Y91" s="30"/>
-      <c r="Z91" s="29"/>
+      <c r="AB90" s="29"/>
+    </row>
+    <row r="91" spans="18:28" x14ac:dyDescent="0.3">
+      <c r="X91" s="29"/>
+      <c r="Y91" s="28"/>
+      <c r="Z91" s="30"/>
       <c r="AA91" s="29"/>
-    </row>
-    <row r="92" spans="18:27" x14ac:dyDescent="0.3">
-      <c r="W92" s="29"/>
-      <c r="X92" s="28"/>
-      <c r="Y92" s="30"/>
-      <c r="Z92" s="29"/>
+      <c r="AB91" s="29"/>
+    </row>
+    <row r="92" spans="18:28" x14ac:dyDescent="0.3">
+      <c r="X92" s="29"/>
+      <c r="Y92" s="28"/>
+      <c r="Z92" s="30"/>
       <c r="AA92" s="29"/>
-    </row>
-    <row r="93" spans="18:27" x14ac:dyDescent="0.3">
-      <c r="W93" s="29"/>
-      <c r="X93" s="28"/>
-      <c r="Y93" s="30"/>
-      <c r="Z93" s="29"/>
+      <c r="AB92" s="29"/>
+    </row>
+    <row r="93" spans="18:28" x14ac:dyDescent="0.3">
+      <c r="X93" s="29"/>
+      <c r="Y93" s="28"/>
+      <c r="Z93" s="30"/>
       <c r="AA93" s="29"/>
-    </row>
-    <row r="94" spans="18:27" x14ac:dyDescent="0.3">
-      <c r="W94" s="29"/>
-      <c r="X94" s="28"/>
-      <c r="Y94" s="30"/>
-      <c r="Z94" s="29"/>
+      <c r="AB93" s="29"/>
+    </row>
+    <row r="94" spans="18:28" x14ac:dyDescent="0.3">
+      <c r="X94" s="29"/>
+      <c r="Y94" s="28"/>
+      <c r="Z94" s="30"/>
       <c r="AA94" s="29"/>
-    </row>
-    <row r="95" spans="18:27" x14ac:dyDescent="0.3">
-      <c r="W95" s="29"/>
-      <c r="X95" s="28"/>
-      <c r="Y95" s="30"/>
-      <c r="Z95" s="29"/>
+      <c r="AB94" s="29"/>
+    </row>
+    <row r="95" spans="18:28" x14ac:dyDescent="0.3">
+      <c r="X95" s="29"/>
+      <c r="Y95" s="28"/>
+      <c r="Z95" s="30"/>
       <c r="AA95" s="29"/>
-    </row>
-    <row r="96" spans="18:27" x14ac:dyDescent="0.3">
-      <c r="W96" s="29"/>
-      <c r="X96" s="28"/>
+      <c r="AB95" s="29"/>
+    </row>
+    <row r="96" spans="18:28" x14ac:dyDescent="0.3">
+      <c r="X96" s="29"/>
       <c r="Y96" s="28"/>
-      <c r="Z96" s="29"/>
+      <c r="Z96" s="28"/>
       <c r="AA96" s="29"/>
-    </row>
-    <row r="99" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L99" t="s">
+      <c r="AB96" s="29"/>
+    </row>
+    <row r="99" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M99" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7017,8 +7416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCF18E1-EDBB-4A5D-A645-8FDD3797B808}">
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23:P38"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7037,36 +7436,36 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -7077,7 +7476,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -7086,10 +7485,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -7101,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>4</v>
@@ -7110,35 +7509,35 @@
         <v>0</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="U4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -7150,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>4</v>
@@ -7159,11 +7558,11 @@
         <v>0</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -7181,12 +7580,12 @@
         <v>0</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -7195,10 +7594,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>4</v>
@@ -7207,11 +7606,11 @@
         <v>4</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N6" s="1">
         <f>O5+N5</f>
@@ -7221,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>3</v>
@@ -7230,24 +7629,24 @@
         <v>0</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="18">
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>4</v>
@@ -7258,7 +7657,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N7" s="15">
         <f>O6+N6</f>
@@ -7268,7 +7667,7 @@
         <v>2</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="15" t="s">
         <v>3</v>
@@ -7281,30 +7680,30 @@
       </c>
       <c r="T7" s="15"/>
       <c r="U7" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M8" s="51"/>
       <c r="N8" s="15">
@@ -7315,7 +7714,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="15" t="s">
         <v>4</v>
@@ -7324,34 +7723,34 @@
         <v>4</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M9" s="51"/>
       <c r="N9" s="15">
@@ -7362,7 +7761,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="15" t="s">
         <v>4</v>
@@ -7371,70 +7770,70 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T9" s="15"/>
       <c r="U9" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M10" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N10" s="15">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O10" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="15" t="s">
         <v>4</v>
       </c>
       <c r="R10" s="15"/>
       <c r="S10" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T10" s="15"/>
       <c r="U10" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6">
         <v>4</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>4</v>
@@ -7446,13 +7845,13 @@
       <c r="M11" s="51"/>
       <c r="N11" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" s="15">
         <v>1</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="15" t="s">
         <v>4</v>
@@ -7461,19 +7860,19 @@
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="6">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>4</v>
@@ -7485,20 +7884,20 @@
       <c r="M12" s="51"/>
       <c r="N12" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="15" t="s">
         <v>4</v>
       </c>
       <c r="R12" s="15"/>
       <c r="S12" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
@@ -7506,13 +7905,13 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="6">
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>4</v>
@@ -7524,13 +7923,13 @@
       <c r="M13" s="72"/>
       <c r="N13" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O13" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="15" t="s">
         <v>4</v>
@@ -7539,23 +7938,23 @@
         <v>4</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T13" s="15"/>
       <c r="U13" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>4</v>
@@ -7567,13 +7966,13 @@
       <c r="M14" s="72"/>
       <c r="N14" s="15">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O14" s="15">
         <v>1</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="15" t="s">
         <v>4</v>
@@ -7584,19 +7983,19 @@
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
       <c r="U14" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="6">
         <v>4</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>4</v>
@@ -7608,7 +8007,7 @@
       <c r="M15" s="72"/>
       <c r="N15" s="16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O15" s="16">
         <v>2</v>
@@ -7621,7 +8020,7 @@
       </c>
       <c r="R15" s="16"/>
       <c r="S15" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
@@ -7629,13 +8028,13 @@
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="6">
         <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>4</v>
@@ -7645,12 +8044,12 @@
       <c r="G16" s="6"/>
       <c r="H16" s="27"/>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M16" s="72"/>
       <c r="N16" s="16">
         <f>O15+N15</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" s="16">
         <v>2</v>
@@ -7663,7 +8062,7 @@
       </c>
       <c r="R16" s="16"/>
       <c r="S16" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
@@ -7671,13 +8070,13 @@
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="13">
         <v>1</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>4</v>
@@ -7686,12 +8085,12 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M17" s="72"/>
       <c r="N17" s="16">
         <f>O16+N16</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O17" s="16">
         <v>2</v>
@@ -7704,7 +8103,7 @@
       </c>
       <c r="R17" s="16"/>
       <c r="S17" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
@@ -7712,13 +8111,13 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="14">
         <v>4</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>4</v>
@@ -7727,12 +8126,12 @@
       <c r="F18" s="14"/>
       <c r="G18" s="64"/>
       <c r="H18" s="66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M18" s="72"/>
       <c r="N18" s="16">
         <f>O17+N17</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O18" s="16">
         <v>2</v>
@@ -7745,7 +8144,7 @@
       </c>
       <c r="R18" s="16"/>
       <c r="S18" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
@@ -7753,13 +8152,13 @@
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="14">
         <v>20</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>4</v>
@@ -7771,7 +8170,7 @@
       <c r="M19" s="72"/>
       <c r="N19" s="16">
         <f>O18+N18</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O19" s="16">
         <v>2</v>
@@ -7784,7 +8183,7 @@
       </c>
       <c r="R19" s="16"/>
       <c r="S19" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
@@ -7792,13 +8191,13 @@
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" s="14">
         <v>20</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>4</v>
@@ -7810,7 +8209,7 @@
       <c r="M20" s="73"/>
       <c r="N20" s="16">
         <f>O19+N19</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O20" s="16">
         <v>2</v>
@@ -7823,7 +8222,7 @@
       </c>
       <c r="R20" s="16"/>
       <c r="S20" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
@@ -7831,29 +8230,29 @@
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B21" s="14">
         <v>1</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" s="64"/>
       <c r="H21" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M21" s="73"/>
       <c r="N21" s="16">
         <f>O20+N20</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O21" s="16">
         <v>2</v>
@@ -7866,7 +8265,7 @@
       </c>
       <c r="R21" s="16"/>
       <c r="S21" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
@@ -7874,13 +8273,13 @@
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B22" s="14">
         <v>2</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>4</v>
@@ -7892,7 +8291,7 @@
       <c r="M22" s="73"/>
       <c r="N22" s="16">
         <f>O21+N21</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O22" s="87">
         <v>2</v>
@@ -7905,7 +8304,7 @@
       </c>
       <c r="R22" s="16"/>
       <c r="S22" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
@@ -7913,13 +8312,13 @@
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B23" s="14">
         <v>20</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>4</v>
@@ -7928,18 +8327,18 @@
       <c r="F23" s="14"/>
       <c r="G23" s="64"/>
       <c r="H23" s="60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M23" s="73"/>
       <c r="N23" s="89">
         <f>O22+N22</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O23" s="87">
         <v>1</v>
       </c>
       <c r="P23" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="56" t="s">
         <v>4</v>
@@ -7949,20 +8348,20 @@
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
       <c r="V23" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W23" s="24"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24" s="14">
         <v>1</v>
       </c>
       <c r="C24" s="74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>4</v>
@@ -7975,7 +8374,7 @@
       <c r="N24" s="91"/>
       <c r="O24" s="92"/>
       <c r="P24" s="90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="56" t="s">
         <v>4</v>
@@ -7990,30 +8389,30 @@
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B25" s="14">
         <v>1</v>
       </c>
       <c r="C25" s="74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G25" s="64"/>
       <c r="H25" s="67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M25" s="73"/>
       <c r="N25" s="91"/>
       <c r="O25" s="92"/>
       <c r="P25" s="90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="56" t="s">
         <v>4</v>
@@ -8028,13 +8427,13 @@
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B26" s="7">
         <v>4</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>4</v>
@@ -8043,13 +8442,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M26" s="73"/>
       <c r="N26" s="91"/>
       <c r="O26" s="92"/>
       <c r="P26" s="90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="56" t="s">
         <v>4</v>
@@ -8064,13 +8463,13 @@
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B27" s="7">
         <v>2</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>4</v>
@@ -8083,7 +8482,7 @@
       <c r="N27" s="91"/>
       <c r="O27" s="92"/>
       <c r="P27" s="90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q27" s="56" t="s">
         <v>4</v>
@@ -8094,19 +8493,19 @@
       <c r="U27" s="16"/>
       <c r="V27" s="21"/>
       <c r="W27" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B28" s="14">
         <v>4</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>4</v>
@@ -8115,13 +8514,13 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M28" s="73"/>
       <c r="N28" s="91"/>
       <c r="O28" s="92"/>
       <c r="P28" s="90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="56" t="s">
         <v>4</v>
@@ -8136,13 +8535,13 @@
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B29" s="14">
         <v>2</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>4</v>
@@ -8155,7 +8554,7 @@
       <c r="N29" s="91"/>
       <c r="O29" s="92"/>
       <c r="P29" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="56" t="s">
         <v>4</v>
@@ -8170,13 +8569,13 @@
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B30" s="12">
         <v>4</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>4</v>
@@ -8185,13 +8584,13 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M30" s="73"/>
       <c r="N30" s="91"/>
       <c r="O30" s="92"/>
       <c r="P30" s="90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q30" s="56" t="s">
         <v>4</v>
@@ -8206,13 +8605,13 @@
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B31" s="12">
         <v>2</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>4</v>
@@ -8224,13 +8623,13 @@
       <c r="M31" s="73"/>
       <c r="N31" s="89">
         <f>O23+N23</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O31" s="87">
         <v>1</v>
       </c>
       <c r="P31" s="90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q31" s="56" t="s">
         <v>4</v>
@@ -8245,13 +8644,13 @@
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B32" s="16">
         <v>4</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>4</v>
@@ -8260,13 +8659,13 @@
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M32" s="73"/>
       <c r="N32" s="91"/>
       <c r="O32" s="92"/>
       <c r="P32" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q32" s="56" t="s">
         <v>4</v>
@@ -8281,13 +8680,13 @@
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B33" s="16">
         <v>20</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>4</v>
@@ -8300,7 +8699,7 @@
       <c r="N33" s="91"/>
       <c r="O33" s="92"/>
       <c r="P33" s="90" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q33" s="56" t="s">
         <v>4</v>
@@ -8315,13 +8714,13 @@
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B34" s="16">
         <v>20</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>4</v>
@@ -8334,7 +8733,7 @@
       <c r="N34" s="91"/>
       <c r="O34" s="92"/>
       <c r="P34" s="90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q34" s="56" t="s">
         <v>4</v>
@@ -8345,19 +8744,19 @@
       <c r="U34" s="16"/>
       <c r="V34" s="21"/>
       <c r="W34" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B35" s="16">
         <v>4</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>4</v>
@@ -8370,7 +8769,7 @@
       <c r="N35" s="91"/>
       <c r="O35" s="92"/>
       <c r="P35" s="90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q35" s="56" t="s">
         <v>4</v>
@@ -8385,13 +8784,13 @@
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B36" s="17">
         <v>1</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>4</v>
@@ -8400,13 +8799,13 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M36" s="73"/>
       <c r="N36" s="91"/>
       <c r="O36" s="92"/>
       <c r="P36" s="90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q36" s="56" t="s">
         <v>4</v>
@@ -8421,13 +8820,13 @@
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B37" s="17">
         <v>1</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>4</v>
@@ -8440,7 +8839,7 @@
       <c r="N37" s="91"/>
       <c r="O37" s="92"/>
       <c r="P37" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q37" s="56" t="s">
         <v>4</v>
@@ -8455,26 +8854,26 @@
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B38" s="18">
         <v>1</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M38" s="73"/>
       <c r="N38" s="93"/>
       <c r="O38" s="94"/>
       <c r="P38" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q38" s="56" t="s">
         <v>4</v>
@@ -8484,20 +8883,20 @@
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
       <c r="V38" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W38" s="26"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B39" s="18">
         <v>4</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -8507,7 +8906,7 @@
       <c r="M39" s="73"/>
       <c r="N39" s="53">
         <f>O31+N31</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O39" s="88">
         <v>1</v>
@@ -8528,13 +8927,13 @@
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B40" s="18">
         <v>4</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
@@ -8544,7 +8943,7 @@
       <c r="M40" s="73"/>
       <c r="N40" s="53">
         <f t="shared" ref="N40:N49" si="2">O39+N39</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O40" s="53">
         <v>2</v>
@@ -8557,7 +8956,7 @@
       </c>
       <c r="R40" s="53"/>
       <c r="S40" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T40" s="53"/>
       <c r="U40" s="53"/>
@@ -8565,13 +8964,13 @@
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B41" s="18">
         <v>4</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
@@ -8581,7 +8980,7 @@
       <c r="M41" s="73"/>
       <c r="N41" s="53">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O41" s="53">
         <v>1</v>
@@ -8594,7 +8993,7 @@
       </c>
       <c r="R41" s="53"/>
       <c r="S41" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T41" s="53"/>
       <c r="U41" s="53"/>
@@ -8602,7 +9001,7 @@
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B42" s="68">
         <v>2</v>
@@ -8617,16 +9016,16 @@
         <v>2020</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G42" s="68"/>
       <c r="H42" s="69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M42" s="73"/>
       <c r="N42" s="53">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O42" s="53">
         <v>1</v>
@@ -8639,7 +9038,7 @@
       </c>
       <c r="R42" s="53"/>
       <c r="S42" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T42" s="53"/>
       <c r="U42" s="53"/>
@@ -8647,7 +9046,7 @@
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B43" s="68">
         <v>1</v>
@@ -8665,7 +9064,7 @@
       <c r="M43" s="73"/>
       <c r="N43" s="53">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O43" s="53">
         <v>1</v>
@@ -8678,7 +9077,7 @@
       </c>
       <c r="R43" s="53"/>
       <c r="S43" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T43" s="53"/>
       <c r="U43" s="53"/>
@@ -8686,7 +9085,7 @@
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B44" s="68">
         <v>1</v>
@@ -8704,7 +9103,7 @@
       <c r="M44" s="73"/>
       <c r="N44" s="53">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O44" s="53">
         <v>1</v>
@@ -8717,7 +9116,7 @@
       </c>
       <c r="R44" s="53"/>
       <c r="S44" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -8725,7 +9124,7 @@
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B45" s="68">
         <v>1</v>
@@ -8743,7 +9142,7 @@
       <c r="M45" s="73"/>
       <c r="N45" s="53">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O45" s="53">
         <v>1</v>
@@ -8756,7 +9155,7 @@
       </c>
       <c r="R45" s="53"/>
       <c r="S45" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T45" s="53"/>
       <c r="U45" s="53"/>
@@ -8764,7 +9163,7 @@
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B46" s="68">
         <v>1</v>
@@ -8782,7 +9181,7 @@
       <c r="M46" s="73"/>
       <c r="N46" s="53">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O46" s="53">
         <v>1</v>
@@ -8795,7 +9194,7 @@
       </c>
       <c r="R46" s="53"/>
       <c r="S46" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T46" s="53"/>
       <c r="U46" s="53"/>
@@ -8803,7 +9202,7 @@
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B47" s="68">
         <v>1</v>
@@ -8821,7 +9220,7 @@
       <c r="M47" s="73"/>
       <c r="N47" s="53">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O47" s="53">
         <v>1</v>
@@ -8834,7 +9233,7 @@
       </c>
       <c r="R47" s="53"/>
       <c r="S47" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T47" s="53"/>
       <c r="U47" s="53"/>
@@ -8842,7 +9241,7 @@
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B48" s="68">
         <v>1</v>
@@ -8860,13 +9259,13 @@
       <c r="M48" s="42"/>
       <c r="N48" s="53">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O48" s="55">
         <v>10</v>
       </c>
       <c r="P48" s="53" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="Q48" s="53" t="s">
         <v>4</v>
@@ -8879,13 +9278,13 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B49" s="19">
         <v>20</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>4</v>
@@ -8900,13 +9299,13 @@
       <c r="M49" s="42"/>
       <c r="N49" s="75">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O49" s="75">
         <v>20</v>
       </c>
       <c r="P49" s="75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q49" s="75" t="s">
         <v>4</v>
@@ -8919,7 +9318,7 @@
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M50" s="42">
         <f>SUM(O5:O49)</f>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N50" s="30"/>
       <c r="O50" s="30"/>
@@ -8933,10 +9332,10 @@
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>SUM(B3:B49)</f>
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M51" s="42"/>
       <c r="N51" s="30"/>
@@ -9472,8 +9871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB04241-F991-40CE-B243-1152ECDEFEE4}">
   <dimension ref="B2:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9488,49 +9887,49 @@
   <sheetData>
     <row r="2" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" t="s">
         <v>99</v>
-      </c>
-      <c r="P3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J4" s="21"/>
     </row>
@@ -9542,7 +9941,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>3</v>
@@ -9555,7 +9954,7 @@
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" s="21"/>
     </row>
@@ -9568,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -9577,11 +9976,11 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" s="21"/>
     </row>
@@ -9594,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>3</v>
@@ -9603,11 +10002,11 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J7" s="21"/>
     </row>
@@ -9620,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -9629,15 +10028,15 @@
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
@@ -9649,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -9658,11 +10057,11 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J9" s="21"/>
     </row>
@@ -9672,34 +10071,34 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" s="21"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="20">
         <v>200</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>4</v>
@@ -9716,41 +10115,41 @@
       </c>
       <c r="C13" s="23">
         <f>SUM(C5:C11)</f>
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="I18" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
@@ -9761,7 +10160,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>3</v>
@@ -9793,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -9807,7 +10206,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>3</v>
@@ -9816,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -9830,7 +10229,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>4</v>
@@ -9839,11 +10238,11 @@
         <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
@@ -9855,7 +10254,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -9864,11 +10263,11 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
@@ -9877,33 +10276,33 @@
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
@@ -9912,19 +10311,19 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>4</v>
@@ -9937,13 +10336,13 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" s="20">
         <v>200</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>4</v>
@@ -9955,14 +10354,14 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="23">
         <f>SUM(C19:C27)</f>
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -9976,8 +10375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB98B7-73F7-4C3A-AAF0-0D4F4D184EA5}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56:H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9991,130 +10390,130 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
         <v>176</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>177</v>
       </c>
-      <c r="C5" t="s">
-        <v>178</v>
-      </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
         <v>179</v>
-      </c>
-      <c r="B6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="C7" t="s">
         <v>182</v>
-      </c>
-      <c r="C7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" t="s">
         <v>195</v>
       </c>
-      <c r="B20" t="s">
-        <v>196</v>
-      </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
+        <v>196</v>
+      </c>
+      <c r="I21" t="s">
         <v>197</v>
-      </c>
-      <c r="I21" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I22" t="s">
         <v>4</v>
@@ -10122,13 +10521,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I23" t="s">
         <v>3</v>
@@ -10136,13 +10535,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I24" t="s">
         <v>3</v>
@@ -10150,13 +10549,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I25" t="s">
         <v>3</v>
@@ -10164,454 +10563,454 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="97" t="s">
         <v>203</v>
-      </c>
-      <c r="D34" s="97" t="s">
-        <v>204</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="100" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="100"/>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="100"/>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="100"/>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="110" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G39" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="110"/>
       <c r="C40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I40" s="111" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="110"/>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I41" s="111"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="110"/>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I42" s="111"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="110"/>
       <c r="C43" s="101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I43" s="111"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="110"/>
       <c r="C44" s="101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I44" s="111" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="110"/>
       <c r="C45" s="101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I45" s="111"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="110"/>
       <c r="C46" s="101" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I46" s="111"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="110"/>
       <c r="C47" s="101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I47" s="111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="110"/>
       <c r="C48" s="101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I48" s="83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="110"/>
       <c r="C49" s="101" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I49" s="83"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="110"/>
       <c r="C50" s="101" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I50" s="83"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="110"/>
       <c r="C51" s="102" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I51" s="83" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="110"/>
       <c r="C52" s="103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I52" s="83"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="110"/>
       <c r="C53" s="103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I53" s="83"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="110"/>
       <c r="C54" s="103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I54" s="83"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="110"/>
       <c r="C55" s="103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I55" s="83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="110"/>
       <c r="C56" s="103" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="110"/>
       <c r="C57" s="104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="110"/>
       <c r="C58" s="104" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="110"/>
       <c r="C59" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="110"/>
       <c r="C60" s="81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="110"/>
       <c r="C61" s="81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="110"/>
       <c r="C62" s="103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="110"/>
       <c r="C63" s="103" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="110"/>
       <c r="C64" s="105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>36</v>
@@ -10623,109 +11022,109 @@
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="110"/>
       <c r="C65" s="105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="110"/>
       <c r="C66" s="106" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="110"/>
       <c r="C67" s="106" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="110"/>
       <c r="C68" s="106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="110"/>
       <c r="C69" s="106" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="110"/>
       <c r="C70" s="107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="110"/>
       <c r="C71" s="107" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="110"/>
       <c r="C72" s="108" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="110"/>
       <c r="C73" s="108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="110"/>
       <c r="C74" s="108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="110"/>
       <c r="C75" s="108" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="110"/>
       <c r="C76" s="109" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="110"/>
       <c r="C77" s="109" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="110"/>
       <c r="C78" s="109" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="110"/>
       <c r="C79" s="109" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="110"/>
       <c r="C80" s="109" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="110"/>
       <c r="C81" s="109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="110"/>
       <c r="C82" s="109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
+++ b/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ute\Lab_project\git_Indruino\IOT_ESP32\Indruino-Iot-Project\FW\Hau\mem_map_data_trans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B4639D-A410-4F4C-A83C-B193579B33DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904F9A2A-FE44-4D41-B158-726C80E9744A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7008" yWindow="600" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mega" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="307">
   <si>
     <t>stt</t>
   </si>
@@ -837,6 +837,126 @@
   </si>
   <si>
     <t>Pack0_FN</t>
+  </si>
+  <si>
+    <t>mWiFi</t>
+  </si>
+  <si>
+    <t>mPrtcol</t>
+  </si>
+  <si>
+    <t>mqtt_server</t>
+  </si>
+  <si>
+    <t>mqtt_user</t>
+  </si>
+  <si>
+    <t>mWifi_IP</t>
+  </si>
+  <si>
+    <t>WiFi_IP</t>
+  </si>
+  <si>
+    <t>WiFi_Gw</t>
+  </si>
+  <si>
+    <t>WiFi_Sub</t>
+  </si>
+  <si>
+    <t>WiFI_User</t>
+  </si>
+  <si>
+    <t>WiFi_Mac</t>
+  </si>
+  <si>
+    <t>WiFi_Pass</t>
+  </si>
+  <si>
+    <t>mqtt_pass</t>
+  </si>
+  <si>
+    <t>mqtt_qos</t>
+  </si>
+  <si>
+    <t>mqtt_port</t>
+  </si>
+  <si>
+    <t>mqtt_topic_lwt</t>
+  </si>
+  <si>
+    <t>mqtt_payload_lwt</t>
+  </si>
+  <si>
+    <t>mqtt_return_lwt</t>
+  </si>
+  <si>
+    <t>udp_ip</t>
+  </si>
+  <si>
+    <t>udp_port</t>
+  </si>
+  <si>
+    <t>tcp_ip</t>
+  </si>
+  <si>
+    <t>tcp_port</t>
+  </si>
+  <si>
+    <t>modTCP_IP</t>
+  </si>
+  <si>
+    <t>modTCP_port</t>
+  </si>
+  <si>
+    <t>ftp_ip</t>
+  </si>
+  <si>
+    <t>ftp_user</t>
+  </si>
+  <si>
+    <t>ftp_pass</t>
+  </si>
+  <si>
+    <t>ftp_port</t>
+  </si>
+  <si>
+    <t>dt_log_mode</t>
+  </si>
+  <si>
+    <t>dt_log_type</t>
+  </si>
+  <si>
+    <t>sv_storage_mod</t>
+  </si>
+  <si>
+    <t>sv_storage_IP</t>
+  </si>
+  <si>
+    <t>sv_storage_user</t>
+  </si>
+  <si>
+    <t>sv_pass_pass</t>
+  </si>
+  <si>
+    <t>time_yr</t>
+  </si>
+  <si>
+    <t>time_mon</t>
+  </si>
+  <si>
+    <t>time_day</t>
+  </si>
+  <si>
+    <t>time_dow</t>
+  </si>
+  <si>
+    <t>time_hr</t>
+  </si>
+  <si>
+    <t>time_min</t>
+  </si>
+  <si>
+    <t>time_sec</t>
   </si>
 </sst>
 </file>
@@ -1293,12 +1413,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1314,6 +1428,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2943,13 +3063,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
@@ -4248,8 +4368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35:Q39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4271,10 +4391,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="95"/>
+      <c r="C1" s="110"/>
       <c r="S1" s="46" t="s">
         <v>22</v>
       </c>
@@ -4374,7 +4494,7 @@
       </c>
       <c r="R4" s="43"/>
       <c r="S4" s="1">
-        <f t="shared" ref="S4:S17" si="0">T3+S3</f>
+        <f t="shared" ref="S4:S11" si="0">T3+S3</f>
         <v>2</v>
       </c>
       <c r="T4" s="61">
@@ -4487,7 +4607,7 @@
       <c r="T6" s="1">
         <v>1</v>
       </c>
-      <c r="U6" s="99" t="s">
+      <c r="U6" s="97" t="s">
         <v>91</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -4509,7 +4629,7 @@
         <v>140</v>
       </c>
       <c r="B7" s="15">
-        <f t="shared" ref="B7:B20" si="1">C6+B6</f>
+        <f t="shared" ref="B7:B15" si="1">C6+B6</f>
         <v>2</v>
       </c>
       <c r="C7" s="15">
@@ -4542,7 +4662,7 @@
       <c r="T7" s="1">
         <v>1</v>
       </c>
-      <c r="U7" s="99" t="s">
+      <c r="U7" s="97" t="s">
         <v>90</v>
       </c>
       <c r="V7" s="1" t="s">
@@ -4793,7 +4913,7 @@
       </c>
       <c r="R12" s="40"/>
       <c r="S12" s="17">
-        <f>T11+S11</f>
+        <f t="shared" ref="S12:S19" si="2">T11+S11</f>
         <v>12</v>
       </c>
       <c r="T12" s="17">
@@ -4844,7 +4964,7 @@
       </c>
       <c r="R13" s="40"/>
       <c r="S13" s="17">
-        <f>T12+S12</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="T13" s="17">
@@ -4893,7 +5013,7 @@
       </c>
       <c r="R14" s="40"/>
       <c r="S14" s="17">
-        <f>T13+S13</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="T14" s="17">
@@ -4940,7 +5060,7 @@
       </c>
       <c r="R15" s="40"/>
       <c r="S15" s="17">
-        <f>T14+S14</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T15" s="17">
@@ -4964,7 +5084,7 @@
         <v>251</v>
       </c>
       <c r="B16" s="15">
-        <f>C15+B15</f>
+        <f t="shared" ref="B16:B23" si="3">C15+B15</f>
         <v>14</v>
       </c>
       <c r="C16" s="15">
@@ -4987,7 +5107,7 @@
       </c>
       <c r="R16" s="40"/>
       <c r="S16" s="17">
-        <f>T15+S15</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="T16" s="17">
@@ -5011,7 +5131,7 @@
         <v>252</v>
       </c>
       <c r="B17" s="15">
-        <f>C16+B16</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C17" s="15">
@@ -5034,7 +5154,7 @@
       </c>
       <c r="R17" s="40"/>
       <c r="S17" s="17">
-        <f>T16+S16</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="T17" s="17">
@@ -5058,7 +5178,7 @@
         <v>253</v>
       </c>
       <c r="B18" s="15">
-        <f>C17+B17</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="C18" s="15">
@@ -5081,7 +5201,7 @@
       </c>
       <c r="R18" s="40"/>
       <c r="S18" s="80">
-        <f>T17+S17</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="T18" s="80">
@@ -5105,7 +5225,7 @@
         <v>254</v>
       </c>
       <c r="B19" s="15">
-        <f>C18+B18</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="C19" s="15">
@@ -5128,7 +5248,7 @@
       </c>
       <c r="R19" s="40"/>
       <c r="S19" s="80">
-        <f>T18+S18</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="T19" s="84">
@@ -5156,7 +5276,7 @@
         <v>255</v>
       </c>
       <c r="B20" s="15">
-        <f>C19+B19</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C20" s="15">
@@ -5197,7 +5317,7 @@
         <v>256</v>
       </c>
       <c r="B21" s="15">
-        <f>C20+B20</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C21" s="15">
@@ -5238,7 +5358,7 @@
         <v>257</v>
       </c>
       <c r="B22" s="15">
-        <f>C21+B21</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C22" s="15">
@@ -5279,7 +5399,7 @@
         <v>245</v>
       </c>
       <c r="B23" s="15">
-        <f>C22+B22</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C23" s="48">
@@ -5814,11 +5934,11 @@
         <v>264</v>
       </c>
       <c r="R37" s="42">
-        <f t="shared" ref="R37:R39" si="2">R36+T36</f>
+        <f t="shared" ref="R37:R39" si="4">R36+T36</f>
         <v>2</v>
       </c>
       <c r="S37" s="4">
-        <f t="shared" ref="S37:S83" si="3">S36+T36</f>
+        <f t="shared" ref="S37:S83" si="5">S36+T36</f>
         <v>30</v>
       </c>
       <c r="T37" s="1">
@@ -5831,7 +5951,7 @@
         <v>4</v>
       </c>
       <c r="W37" s="20"/>
-      <c r="X37" s="98" t="s">
+      <c r="X37" s="96" t="s">
         <v>208</v>
       </c>
       <c r="Y37" s="20"/>
@@ -5858,11 +5978,11 @@
         <v>266</v>
       </c>
       <c r="R38" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="S38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="T38" s="1">
@@ -5908,11 +6028,11 @@
         <v>265</v>
       </c>
       <c r="R39" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="S39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="T39" s="1">
@@ -5934,7 +6054,7 @@
         <v>152</v>
       </c>
       <c r="B40" s="7">
-        <f t="shared" ref="B40:B49" si="4">C39+B39</f>
+        <f t="shared" ref="B40:B49" si="6">C39+B39</f>
         <v>31</v>
       </c>
       <c r="C40" s="7">
@@ -5956,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="T40" s="1">
@@ -5982,7 +6102,7 @@
         <v>154</v>
       </c>
       <c r="B41" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="C41" s="7">
@@ -6001,11 +6121,11 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="R41" s="42">
-        <f t="shared" ref="R41:R84" si="5">R40+T40</f>
+        <f t="shared" ref="R41:R84" si="7">R40+T40</f>
         <v>1</v>
       </c>
       <c r="S41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="T41" s="1">
@@ -6029,7 +6149,7 @@
         <v>155</v>
       </c>
       <c r="B42" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="C42" s="7">
@@ -6048,11 +6168,11 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="R42" s="42">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S42" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="S42" s="4">
-        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="T42" s="1">
@@ -6065,7 +6185,7 @@
         <v>4</v>
       </c>
       <c r="W42" s="20"/>
-      <c r="X42" s="98" t="s">
+      <c r="X42" s="96" t="s">
         <v>208</v>
       </c>
       <c r="Y42" s="20"/>
@@ -6076,7 +6196,7 @@
         <v>156</v>
       </c>
       <c r="B43" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="C43" s="7">
@@ -6095,11 +6215,11 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="R43" s="42">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S43" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="S43" s="4">
-        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="T43" s="1">
@@ -6123,7 +6243,7 @@
         <v>153</v>
       </c>
       <c r="B44" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="C44" s="7">
@@ -6142,11 +6262,11 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="R44" s="42">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="S44" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="S44" s="4">
-        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="T44" s="1">
@@ -6168,7 +6288,7 @@
         <v>157</v>
       </c>
       <c r="B45" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="C45" s="7">
@@ -6190,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="T45" s="1">
@@ -6216,7 +6336,7 @@
         <v>158</v>
       </c>
       <c r="B46" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="C46" s="7">
@@ -6235,11 +6355,11 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="R46" s="42">
-        <f t="shared" ref="R46:R84" si="6">R45+T45</f>
+        <f t="shared" ref="R46" si="8">R45+T45</f>
         <v>1</v>
       </c>
       <c r="S46" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="T46" s="1">
@@ -6263,7 +6383,7 @@
         <v>25</v>
       </c>
       <c r="B47" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="C47" s="7">
@@ -6282,11 +6402,11 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="R47" s="42">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S47" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="S47" s="4">
-        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="T47" s="1">
@@ -6299,7 +6419,7 @@
         <v>4</v>
       </c>
       <c r="W47" s="20"/>
-      <c r="X47" s="98" t="s">
+      <c r="X47" s="96" t="s">
         <v>208</v>
       </c>
       <c r="Y47" s="20"/>
@@ -6310,7 +6430,7 @@
         <v>260</v>
       </c>
       <c r="B48" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="C48" s="8">
@@ -6327,11 +6447,11 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="R48" s="42">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S48" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="S48" s="4">
-        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="T48" s="1">
@@ -6355,7 +6475,7 @@
         <v>261</v>
       </c>
       <c r="B49" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="C49" s="6">
@@ -6372,11 +6492,11 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="R49" s="42">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="S49" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="S49" s="4">
-        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="T49" s="1">
@@ -6398,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="T50" s="1">
@@ -6428,11 +6548,11 @@
         <v>97</v>
       </c>
       <c r="R51" s="42">
-        <f t="shared" ref="R51:R84" si="7">R50+T50</f>
+        <f t="shared" ref="R51" si="9">R50+T50</f>
         <v>1</v>
       </c>
       <c r="S51" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="T51" s="1">
@@ -6453,11 +6573,11 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R52" s="42">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S52" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="S52" s="4">
-        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="T52" s="1">
@@ -6470,7 +6590,7 @@
         <v>4</v>
       </c>
       <c r="W52" s="20"/>
-      <c r="X52" s="98" t="s">
+      <c r="X52" s="96" t="s">
         <v>208</v>
       </c>
       <c r="Y52" s="20"/>
@@ -6478,11 +6598,11 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R53" s="42">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S53" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="S53" s="4">
-        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="T53" s="1">
@@ -6503,11 +6623,11 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R54" s="42">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="S54" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="S54" s="4">
-        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="T54" s="1">
@@ -6529,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="T55" s="1">
@@ -6552,11 +6672,11 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R56" s="42">
-        <f t="shared" ref="R56:R84" si="8">R55+T55</f>
+        <f t="shared" ref="R56" si="10">R55+T55</f>
         <v>1</v>
       </c>
       <c r="S56" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="T56" s="1">
@@ -6577,11 +6697,11 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R57" s="42">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S57" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="S57" s="4">
-        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="T57" s="1">
@@ -6594,7 +6714,7 @@
         <v>4</v>
       </c>
       <c r="W57" s="20"/>
-      <c r="X57" s="98" t="s">
+      <c r="X57" s="96" t="s">
         <v>208</v>
       </c>
       <c r="Y57" s="20"/>
@@ -6602,11 +6722,11 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R58" s="42">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S58" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="S58" s="4">
-        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="T58" s="1">
@@ -6633,11 +6753,11 @@
       <c r="F59" s="30"/>
       <c r="G59" s="29"/>
       <c r="R59" s="42">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="S59" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="S59" s="4">
-        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="T59" s="1">
@@ -6665,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="S60" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="T60" s="1">
@@ -6694,11 +6814,11 @@
       <c r="F61" s="30"/>
       <c r="G61" s="29"/>
       <c r="R61" s="42">
-        <f t="shared" ref="R61:R84" si="9">R60+T60</f>
+        <f t="shared" ref="R61" si="11">R60+T60</f>
         <v>1</v>
       </c>
       <c r="S61" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="T61" s="1">
@@ -6725,11 +6845,11 @@
       <c r="F62" s="28"/>
       <c r="G62" s="29"/>
       <c r="R62" s="42">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S62" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="S62" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="T62" s="1">
@@ -6742,7 +6862,7 @@
         <v>4</v>
       </c>
       <c r="W62" s="20"/>
-      <c r="X62" s="98" t="s">
+      <c r="X62" s="96" t="s">
         <v>208</v>
       </c>
       <c r="Y62" s="20"/>
@@ -6750,11 +6870,11 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R63" s="42">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S63" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="S63" s="4">
-        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="T63" s="1">
@@ -6775,11 +6895,11 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R64" s="42">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="S64" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="S64" s="4">
-        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="T64" s="1">
@@ -6801,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="T65" s="1">
@@ -6824,11 +6944,11 @@
     </row>
     <row r="66" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R66" s="42">
-        <f t="shared" ref="R66:R84" si="10">R65+T65</f>
+        <f t="shared" ref="R66" si="12">R65+T65</f>
         <v>1</v>
       </c>
       <c r="S66" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="T66" s="1">
@@ -6849,11 +6969,11 @@
     </row>
     <row r="67" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R67" s="42">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S67" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="S67" s="4">
-        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="T67" s="1">
@@ -6866,7 +6986,7 @@
         <v>4</v>
       </c>
       <c r="W67" s="20"/>
-      <c r="X67" s="98" t="s">
+      <c r="X67" s="96" t="s">
         <v>208</v>
       </c>
       <c r="Y67" s="20"/>
@@ -6874,11 +6994,11 @@
     </row>
     <row r="68" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R68" s="42">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S68" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="S68" s="4">
-        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="T68" s="1">
@@ -6899,11 +7019,11 @@
     </row>
     <row r="69" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R69" s="42">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="S69" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="S69" s="4">
-        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="T69" s="1">
@@ -6925,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="S70" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>126</v>
       </c>
       <c r="T70" s="1">
@@ -6948,11 +7068,11 @@
     </row>
     <row r="71" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R71" s="42">
-        <f t="shared" ref="R71:R84" si="11">R70+T70</f>
+        <f t="shared" ref="R71" si="13">R70+T70</f>
         <v>1</v>
       </c>
       <c r="S71" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>127</v>
       </c>
       <c r="T71" s="1">
@@ -6973,11 +7093,11 @@
     </row>
     <row r="72" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R72" s="42">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S72" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="S72" s="4">
-        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="T72" s="1">
@@ -6990,7 +7110,7 @@
         <v>4</v>
       </c>
       <c r="W72" s="20"/>
-      <c r="X72" s="98" t="s">
+      <c r="X72" s="96" t="s">
         <v>208</v>
       </c>
       <c r="Y72" s="20"/>
@@ -6998,11 +7118,11 @@
     </row>
     <row r="73" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R73" s="42">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S73" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="S73" s="4">
-        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="T73" s="1">
@@ -7023,11 +7143,11 @@
     </row>
     <row r="74" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R74" s="42">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="S74" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="S74" s="4">
-        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="T74" s="1">
@@ -7049,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="S75" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="T75" s="1">
@@ -7072,11 +7192,11 @@
     </row>
     <row r="76" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R76" s="42">
-        <f t="shared" ref="R76:R84" si="12">R75+T75</f>
+        <f t="shared" ref="R76" si="14">R75+T75</f>
         <v>1</v>
       </c>
       <c r="S76" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="T76" s="1">
@@ -7097,11 +7217,11 @@
     </row>
     <row r="77" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R77" s="42">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S77" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="S77" s="4">
-        <f t="shared" si="3"/>
         <v>142</v>
       </c>
       <c r="T77" s="1">
@@ -7114,7 +7234,7 @@
         <v>4</v>
       </c>
       <c r="W77" s="20"/>
-      <c r="X77" s="98" t="s">
+      <c r="X77" s="96" t="s">
         <v>208</v>
       </c>
       <c r="Y77" s="20"/>
@@ -7122,11 +7242,11 @@
     </row>
     <row r="78" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R78" s="42">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S78" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="S78" s="4">
-        <f t="shared" si="3"/>
         <v>143</v>
       </c>
       <c r="T78" s="1">
@@ -7147,11 +7267,11 @@
     </row>
     <row r="79" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R79" s="42">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="S79" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="S79" s="4">
-        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="T79" s="1">
@@ -7173,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="S80" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>154</v>
       </c>
       <c r="T80" s="1">
@@ -7196,11 +7316,11 @@
     </row>
     <row r="81" spans="18:28" x14ac:dyDescent="0.3">
       <c r="R81" s="42">
-        <f t="shared" ref="R81:R84" si="13">R80+T80</f>
+        <f t="shared" ref="R81" si="15">R80+T80</f>
         <v>1</v>
       </c>
       <c r="S81" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="T81" s="1">
@@ -7221,11 +7341,11 @@
     </row>
     <row r="82" spans="18:28" x14ac:dyDescent="0.3">
       <c r="R82" s="42">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S82" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="S82" s="4">
-        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="T82" s="1">
@@ -7238,7 +7358,7 @@
         <v>4</v>
       </c>
       <c r="W82" s="20"/>
-      <c r="X82" s="98" t="s">
+      <c r="X82" s="96" t="s">
         <v>208</v>
       </c>
       <c r="Y82" s="31"/>
@@ -7248,11 +7368,11 @@
     </row>
     <row r="83" spans="18:28" x14ac:dyDescent="0.3">
       <c r="R83" s="42">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S83" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="S83" s="4">
-        <f t="shared" si="3"/>
         <v>157</v>
       </c>
       <c r="T83" s="1">
@@ -7275,7 +7395,7 @@
     </row>
     <row r="84" spans="18:28" x14ac:dyDescent="0.3">
       <c r="R84" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="S84" s="4">
@@ -7414,2451 +7534,2594 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCF18E1-EDBB-4A5D-A645-8FDD3797B808}">
-  <dimension ref="A1:W98"/>
+  <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="13" max="13" width="22.88671875" customWidth="1"/>
-    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" customWidth="1"/>
-    <col min="21" max="21" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" customWidth="1"/>
+    <col min="22" max="22" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>131</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>115</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
-        <f t="shared" ref="A4:A49" si="0">B3+A3</f>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="18">
+        <f t="shared" ref="B4:B49" si="0">C3+B3</f>
         <v>2</v>
       </c>
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="E4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="18">
         <v>0</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="E5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="18">
         <v>0</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>0</v>
       </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>0</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" t="s">
+      <c r="V5" s="1"/>
+      <c r="W5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="18">
-        <v>4</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="18">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="N6" s="1">
-        <f>O5+N5</f>
-        <v>1</v>
-      </c>
       <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="s">
+        <f>P5+O5</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" t="s">
+      <c r="V6" s="1"/>
+      <c r="W6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="18">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="18">
-        <v>1</v>
-      </c>
-      <c r="F7" s="18"/>
+      <c r="E7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
       <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="15">
-        <f>O6+N6</f>
+      <c r="N7" s="51"/>
+      <c r="O7" s="15">
+        <f>P6+O6</f>
         <v>2</v>
       </c>
-      <c r="O7" s="15">
+      <c r="P7" s="15">
         <v>2</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="Q7" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="R7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="15">
+      <c r="S7" s="15">
         <v>0</v>
       </c>
-      <c r="S7" s="15">
+      <c r="T7" s="15">
         <v>65535</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15" t="s">
+      <c r="U7" s="15"/>
+      <c r="V7" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="18">
-        <v>1</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="59" t="s">
+      <c r="E8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="51"/>
-      <c r="N8" s="15">
-        <f t="shared" ref="N8:N21" si="1">O7+N7</f>
-        <v>4</v>
-      </c>
+      <c r="N8" s="51"/>
       <c r="O8" s="15">
-        <v>1</v>
-      </c>
-      <c r="P8" s="15" t="s">
+        <f t="shared" ref="O8:O15" si="1">P7+O7</f>
+        <v>4</v>
+      </c>
+      <c r="P8" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="15">
-        <v>4</v>
-      </c>
-      <c r="S8" s="15" t="s">
+      <c r="R8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="15">
+        <v>4</v>
+      </c>
+      <c r="T8" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15" t="s">
+      <c r="U8" s="15"/>
+      <c r="V8" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="51"/>
-      <c r="N9" s="15">
+      <c r="N9" s="51"/>
+      <c r="O9" s="15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="O9" s="15">
-        <v>1</v>
-      </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="Q9" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="15">
-        <v>1</v>
-      </c>
-      <c r="S9" s="15" t="s">
+      <c r="R9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="15">
+        <v>1</v>
+      </c>
+      <c r="T9" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15" t="s">
+      <c r="U9" s="15"/>
+      <c r="V9" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="M10" s="52" t="s">
+      <c r="N10" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="N10" s="15">
+      <c r="O10" s="15">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="O10" s="15">
-        <v>1</v>
-      </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="Q10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15" t="s">
+      <c r="R10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="15"/>
+      <c r="V10" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="27"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="15">
+      <c r="H11" s="6"/>
+      <c r="I11" s="27"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="O11" s="15">
-        <v>1</v>
-      </c>
-      <c r="P11" s="15" t="s">
+      <c r="P11" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="Q11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R11" s="15"/>
+      <c r="R11" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
-      <c r="U11" s="15" t="s">
+      <c r="U11" s="15"/>
+      <c r="V11" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B12" s="6">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="27"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="15">
+      <c r="H12" s="6"/>
+      <c r="I12" s="27"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="O12" s="15">
-        <v>1</v>
-      </c>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="Q12" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15" t="s">
+      <c r="R12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="T12" s="15"/>
       <c r="U12" s="15"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="V12" s="15"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B13" s="6">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="6">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="27"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="15">
+      <c r="H13" s="6"/>
+      <c r="I13" s="27"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="15">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="O13" s="15">
-        <v>1</v>
-      </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="Q13" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R13" s="15">
-        <v>4</v>
-      </c>
-      <c r="S13" s="15" t="s">
+      <c r="R13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="15">
+        <v>4</v>
+      </c>
+      <c r="T13" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15" t="s">
+      <c r="U13" s="15"/>
+      <c r="V13" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B14" s="6">
+      <c r="C14" s="6">
         <v>20</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="27"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="15">
+      <c r="H14" s="6"/>
+      <c r="I14" s="27"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="15">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="O14" s="15">
-        <v>1</v>
-      </c>
-      <c r="P14" s="15" t="s">
+      <c r="P14" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="Q14" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="15">
-        <v>1</v>
-      </c>
-      <c r="S14" s="15"/>
+      <c r="R14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="15">
+        <v>1</v>
+      </c>
       <c r="T14" s="15"/>
-      <c r="U14" s="15" t="s">
+      <c r="U14" s="15"/>
+      <c r="V14" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B15" s="6">
-        <v>4</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="27"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="16">
+      <c r="H15" s="6"/>
+      <c r="I15" s="27"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="16">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="O15" s="16">
+      <c r="P15" s="16">
         <v>2</v>
       </c>
-      <c r="P15" s="16" t="s">
+      <c r="Q15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="57" t="s">
+      <c r="R15" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="16"/>
+      <c r="T15" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="T15" s="16"/>
       <c r="U15" s="16"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="V15" s="16"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B16" s="6">
+      <c r="C16" s="6">
         <v>20</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="27"/>
-      <c r="J16" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="27"/>
+      <c r="K16" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="72"/>
-      <c r="N16" s="16">
-        <f>O15+N15</f>
+      <c r="N16" s="72"/>
+      <c r="O16" s="16">
+        <f t="shared" ref="O16:O23" si="2">P15+O15</f>
         <v>13</v>
       </c>
-      <c r="O16" s="16">
+      <c r="P16" s="16">
         <v>2</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="Q16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q16" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="57" t="s">
+      <c r="R16" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="16"/>
+      <c r="T16" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="T16" s="16"/>
       <c r="U16" s="16"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="V16" s="16"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="13">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B17" s="13">
-        <v>1</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="63" t="s">
+      <c r="H17" s="13"/>
+      <c r="I17" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="M17" s="72"/>
-      <c r="N17" s="16">
-        <f>O16+N16</f>
+      <c r="N17" s="72"/>
+      <c r="O17" s="16">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="O17" s="16">
+      <c r="P17" s="16">
         <v>2</v>
       </c>
-      <c r="P17" s="16" t="s">
+      <c r="Q17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="57" t="s">
+      <c r="R17" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="16"/>
+      <c r="T17" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="T17" s="16"/>
       <c r="U17" s="16"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="V17" s="16"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B18" s="14">
-        <v>4</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="14">
+        <v>4</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="F18" s="14"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="66" t="s">
+      <c r="G18" s="14"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="M18" s="72"/>
-      <c r="N18" s="16">
-        <f>O17+N17</f>
+      <c r="N18" s="72"/>
+      <c r="O18" s="16">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="O18" s="16">
+      <c r="P18" s="16">
         <v>2</v>
       </c>
-      <c r="P18" s="16" t="s">
+      <c r="Q18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="57" t="s">
+      <c r="R18" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="16"/>
+      <c r="T18" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="T18" s="16"/>
       <c r="U18" s="16"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="V18" s="16"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="B19" s="14">
+      <c r="C19" s="14">
         <v>20</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="D19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="60"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="16">
-        <f>O18+N18</f>
+      <c r="G19" s="14"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="60"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="16">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="O19" s="16">
+      <c r="P19" s="16">
         <v>2</v>
       </c>
-      <c r="P19" s="16" t="s">
+      <c r="Q19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Q19" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R19" s="16"/>
-      <c r="S19" s="57" t="s">
+      <c r="R19" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="16"/>
+      <c r="T19" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="T19" s="16"/>
       <c r="U19" s="16"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="V19" s="16"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="B20" s="14">
+      <c r="C20" s="14">
         <v>20</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="60"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="16">
-        <f>O19+N19</f>
+      <c r="G20" s="14"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="60"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="16">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="O20" s="16">
+      <c r="P20" s="16">
         <v>2</v>
       </c>
-      <c r="P20" s="16" t="s">
+      <c r="Q20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="16"/>
-      <c r="S20" s="57" t="s">
+      <c r="R20" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="16"/>
+      <c r="T20" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="T20" s="16"/>
       <c r="U20" s="16"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="V20" s="16"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="B21" s="14">
-        <v>1</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="64"/>
+      <c r="I21" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="M21" s="73"/>
-      <c r="N21" s="16">
-        <f>O20+N20</f>
+      <c r="N21" s="73"/>
+      <c r="O21" s="16">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="O21" s="16">
+      <c r="P21" s="16">
         <v>2</v>
       </c>
-      <c r="P21" s="16" t="s">
+      <c r="Q21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="16"/>
-      <c r="S21" s="57" t="s">
+      <c r="R21" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="16"/>
+      <c r="T21" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="T21" s="16"/>
       <c r="U21" s="16"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="V21" s="16"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="B22" s="14">
+      <c r="C22" s="14">
         <v>2</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="F22" s="14"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="60"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="16">
-        <f>O21+N21</f>
+      <c r="G22" s="14"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="60"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="16">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="O22" s="87">
+      <c r="P22" s="87">
         <v>2</v>
       </c>
-      <c r="P22" s="16" t="s">
+      <c r="Q22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="16"/>
-      <c r="S22" s="57" t="s">
+      <c r="R22" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="16"/>
+      <c r="T22" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="T22" s="16"/>
       <c r="U22" s="16"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="V22" s="16"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="B23" s="14">
+      <c r="C23" s="14">
         <v>20</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="D23" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="F23" s="14"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="60" t="s">
+      <c r="G23" s="14"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="M23" s="73"/>
-      <c r="N23" s="89">
-        <f>O22+N22</f>
+      <c r="N23" s="73"/>
+      <c r="O23" s="89">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="O23" s="87">
-        <v>1</v>
-      </c>
-      <c r="P23" s="90" t="s">
+      <c r="P23" s="87">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="Q23" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="16"/>
+      <c r="R23" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
-      <c r="V23" s="34" t="s">
+      <c r="V23" s="16"/>
+      <c r="W23" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="W23" s="24"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="X23" s="24"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="B24" s="14">
-        <v>1</v>
-      </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
+      <c r="D24" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="F24" s="14"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="60"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="90" t="s">
+      <c r="G24" s="14"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="60"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="Q24" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="16"/>
+      <c r="R24" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="25"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="V24" s="16"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="25"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-      <c r="B25" s="14">
-        <v>1</v>
-      </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="14">
+        <v>1</v>
+      </c>
+      <c r="D25" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="67" t="s">
+      <c r="H25" s="64"/>
+      <c r="I25" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="M25" s="73"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="90" t="s">
+      <c r="N25" s="73"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="Q25" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R25" s="16"/>
+      <c r="R25" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="S25" s="16"/>
       <c r="T25" s="16"/>
       <c r="U25" s="16"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="25"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="V25" s="16"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="25"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="B26" s="7">
-        <v>4</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="65" t="s">
+      <c r="H26" s="7"/>
+      <c r="I26" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="M26" s="73"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="90" t="s">
+      <c r="N26" s="73"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="Q26" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="16"/>
+      <c r="R26" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="25"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="V26" s="16"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="25"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
-      <c r="B27" s="7">
+      <c r="C27" s="7">
         <v>2</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="90" t="s">
+      <c r="I27" s="7"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="Q27" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="16"/>
+      <c r="R27" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="25" t="s">
+      <c r="V27" s="16"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="B28" s="14">
-        <v>4</v>
-      </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="14">
+        <v>4</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="14"/>
+      <c r="I28" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="M28" s="73"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="90" t="s">
+      <c r="N28" s="73"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="Q28" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R28" s="16"/>
+      <c r="R28" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="25"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="V28" s="16"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="25"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="B29" s="14">
+      <c r="C29" s="14">
         <v>2</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="D29" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="90" t="s">
+      <c r="I29" s="14"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="Q29" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R29" s="16"/>
+      <c r="R29" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="25"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="V29" s="16"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="25"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
-      <c r="B30" s="12">
-        <v>4</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="12">
+        <v>4</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="12"/>
+      <c r="I30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M30" s="73"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="90" t="s">
+      <c r="N30" s="73"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="Q30" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R30" s="16"/>
+      <c r="R30" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="S30" s="16"/>
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="26"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="V30" s="16"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="26"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="B31" s="12">
+      <c r="C31" s="12">
         <v>2</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="89">
-        <f>O23+N23</f>
+      <c r="I31" s="12"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="89">
+        <f>P23+O23</f>
         <v>28</v>
       </c>
-      <c r="O31" s="87">
-        <v>1</v>
-      </c>
-      <c r="P31" s="90" t="s">
+      <c r="P31" s="87">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="Q31" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R31" s="16"/>
+      <c r="R31" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="25"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="V31" s="16"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="25"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="B32" s="16">
-        <v>4</v>
-      </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="16">
+        <v>4</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="16"/>
+      <c r="E32" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="16"/>
+      <c r="I32" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M32" s="73"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="90" t="s">
+      <c r="N32" s="73"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="Q32" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="16"/>
+      <c r="R32" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="25"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="V32" s="16"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="25"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>291</v>
+      </c>
+      <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="B33" s="16">
+      <c r="C33" s="16">
         <v>20</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="D33" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="90" t="s">
+      <c r="I33" s="16"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="Q33" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33" s="16"/>
+      <c r="R33" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="25"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="V33" s="16"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="25"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="B34" s="16">
+      <c r="C34" s="16">
         <v>20</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="D34" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="90" t="s">
+      <c r="I34" s="16"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="Q34" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R34" s="16"/>
+      <c r="R34" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="25" t="s">
+      <c r="V34" s="16"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="B35" s="16">
-        <v>4</v>
-      </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="16">
+        <v>4</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="90" t="s">
+      <c r="I35" s="16"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="Q35" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R35" s="16"/>
+      <c r="R35" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="S35" s="16"/>
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="25"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="V35" s="16"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="25"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
-      <c r="B36" s="17">
-        <v>1</v>
-      </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="17">
+        <v>1</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="17"/>
+      <c r="E36" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="17"/>
+      <c r="I36" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M36" s="73"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="90" t="s">
+      <c r="N36" s="73"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="Q36" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R36" s="16"/>
+      <c r="R36" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="25"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="V36" s="16"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="25"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>295</v>
+      </c>
+      <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
-      <c r="B37" s="17">
-        <v>1</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="17">
+        <v>1</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="17"/>
+      <c r="E37" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="90" t="s">
+      <c r="I37" s="17"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="Q37" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R37" s="16"/>
+      <c r="R37" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="25"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="V37" s="16"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="25"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>203</v>
       </c>
-      <c r="B38" s="18">
-        <v>1</v>
-      </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="18">
+        <v>1</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="18"/>
+      <c r="I38" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="M38" s="73"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="94"/>
-      <c r="P38" s="90" t="s">
+      <c r="N38" s="73"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="Q38" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="R38" s="16"/>
+      <c r="R38" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
-      <c r="V38" s="36" t="s">
+      <c r="V38" s="16"/>
+      <c r="W38" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="W38" s="26"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="X38" s="26"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>297</v>
+      </c>
+      <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
-      <c r="B39" s="18">
-        <v>4</v>
-      </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="18">
+        <v>4</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="53">
-        <f>O31+N31</f>
+      <c r="I39" s="18"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="53">
+        <f>P31+O31</f>
         <v>29</v>
       </c>
-      <c r="O39" s="88">
-        <v>1</v>
-      </c>
-      <c r="P39" s="53" t="s">
+      <c r="P39" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="Q39" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="R39" s="53">
+      <c r="R39" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="S39" s="53">
         <v>0</v>
       </c>
-      <c r="S39" s="53"/>
       <c r="T39" s="53"/>
       <c r="U39" s="53"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="V39" s="53"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>298</v>
+      </c>
+      <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="B40" s="18">
-        <v>4</v>
-      </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="18">
+        <v>4</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="53">
-        <f t="shared" ref="N40:N49" si="2">O39+N39</f>
+      <c r="I40" s="18"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="53">
+        <f t="shared" ref="O40:O49" si="3">P39+O39</f>
         <v>30</v>
       </c>
-      <c r="O40" s="53">
+      <c r="P40" s="53">
         <v>2</v>
       </c>
-      <c r="P40" s="53" t="s">
+      <c r="Q40" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="Q40" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53" t="s">
+      <c r="R40" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="T40" s="53"/>
       <c r="U40" s="53"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="V40" s="53"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="B41" s="18">
-        <v>4</v>
-      </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="18">
+        <v>4</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="18"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="53">
-        <f t="shared" si="2"/>
+      <c r="I41" s="18"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="53">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="O41" s="53">
-        <v>1</v>
-      </c>
-      <c r="P41" s="53" t="s">
+      <c r="P41" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="Q41" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="53"/>
-      <c r="S41" s="54" t="s">
+      <c r="R41" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="53"/>
+      <c r="T41" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="T41" s="53"/>
       <c r="U41" s="53"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="V41" s="53"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>300</v>
+      </c>
+      <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="B42" s="68">
+      <c r="C42" s="68">
         <v>2</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="D42" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="68">
+      <c r="E42" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="68">
         <v>2020</v>
       </c>
-      <c r="F42" s="68" t="s">
+      <c r="G42" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="G42" s="68"/>
-      <c r="H42" s="69" t="s">
+      <c r="H42" s="68"/>
+      <c r="I42" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="M42" s="73"/>
-      <c r="N42" s="53">
-        <f t="shared" si="2"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="53">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="O42" s="53">
-        <v>1</v>
-      </c>
-      <c r="P42" s="53" t="s">
+      <c r="P42" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="Q42" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="R42" s="53"/>
-      <c r="S42" s="54" t="s">
+      <c r="R42" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="53"/>
+      <c r="T42" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="T42" s="53"/>
       <c r="U42" s="53"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="V42" s="53"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-      <c r="B43" s="68">
-        <v>1</v>
-      </c>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="68">
+        <v>1</v>
+      </c>
+      <c r="D43" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="68"/>
+      <c r="E43" s="68" t="s">
+        <v>4</v>
+      </c>
       <c r="F43" s="68"/>
       <c r="G43" s="68"/>
-      <c r="H43" s="70"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="53">
-        <f t="shared" si="2"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="70"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="53">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="O43" s="53">
-        <v>1</v>
-      </c>
-      <c r="P43" s="53" t="s">
+      <c r="P43" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q43" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53" t="s">
+      <c r="R43" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="T43" s="53"/>
       <c r="U43" s="53"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="V43" s="53"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>302</v>
+      </c>
+      <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
-      <c r="B44" s="68">
-        <v>1</v>
-      </c>
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="68">
+        <v>1</v>
+      </c>
+      <c r="D44" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="68"/>
+      <c r="E44" s="68" t="s">
+        <v>4</v>
+      </c>
       <c r="F44" s="68"/>
       <c r="G44" s="68"/>
-      <c r="H44" s="70"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="53">
-        <f t="shared" si="2"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="70"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="53">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="O44" s="53">
-        <v>1</v>
-      </c>
-      <c r="P44" s="53" t="s">
+      <c r="P44" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="Q44" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53" t="s">
+      <c r="R44" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="T44" s="53"/>
       <c r="U44" s="53"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="V44" s="53"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>303</v>
+      </c>
+      <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="B45" s="68">
-        <v>1</v>
-      </c>
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="68">
+        <v>1</v>
+      </c>
+      <c r="D45" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="68"/>
+      <c r="E45" s="68" t="s">
+        <v>4</v>
+      </c>
       <c r="F45" s="68"/>
       <c r="G45" s="68"/>
-      <c r="H45" s="70"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="53">
-        <f t="shared" si="2"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="70"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="53">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="O45" s="53">
-        <v>1</v>
-      </c>
-      <c r="P45" s="53" t="s">
+      <c r="P45" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="Q45" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53" t="s">
+      <c r="R45" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="53"/>
+      <c r="T45" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="T45" s="53"/>
       <c r="U45" s="53"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="V45" s="53"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>221</v>
       </c>
-      <c r="B46" s="68">
-        <v>1</v>
-      </c>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="68">
+        <v>1</v>
+      </c>
+      <c r="D46" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="68"/>
+      <c r="E46" s="68" t="s">
+        <v>4</v>
+      </c>
       <c r="F46" s="68"/>
       <c r="G46" s="68"/>
-      <c r="H46" s="70"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="53">
-        <f t="shared" si="2"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="70"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="53">
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="O46" s="53">
-        <v>1</v>
-      </c>
-      <c r="P46" s="53" t="s">
+      <c r="P46" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="Q46" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53" t="s">
+      <c r="R46" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="53"/>
+      <c r="T46" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="T46" s="53"/>
       <c r="U46" s="53"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="V46" s="53"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>305</v>
+      </c>
+      <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>222</v>
       </c>
-      <c r="B47" s="68">
-        <v>1</v>
-      </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="68">
+        <v>1</v>
+      </c>
+      <c r="D47" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="68"/>
+      <c r="E47" s="68" t="s">
+        <v>4</v>
+      </c>
       <c r="F47" s="68"/>
       <c r="G47" s="68"/>
-      <c r="H47" s="70"/>
-      <c r="M47" s="73"/>
-      <c r="N47" s="53">
-        <f t="shared" si="2"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="70"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="53">
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="O47" s="53">
-        <v>1</v>
-      </c>
-      <c r="P47" s="53" t="s">
+      <c r="P47" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="Q47" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53" t="s">
+      <c r="R47" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="T47" s="53"/>
       <c r="U47" s="53"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="V47" s="53"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>306</v>
+      </c>
+      <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
-      <c r="B48" s="68">
-        <v>1</v>
-      </c>
-      <c r="C48" s="68" t="s">
+      <c r="C48" s="68">
+        <v>1</v>
+      </c>
+      <c r="D48" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="68"/>
+      <c r="E48" s="68" t="s">
+        <v>4</v>
+      </c>
       <c r="F48" s="68"/>
       <c r="G48" s="68"/>
-      <c r="H48" s="71"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="53">
-        <f t="shared" si="2"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="71"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="53">
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="O48" s="55">
+      <c r="P48" s="55">
         <v>10</v>
       </c>
-      <c r="P48" s="53" t="s">
+      <c r="Q48" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="Q48" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="53"/>
+      <c r="R48" s="53" t="s">
+        <v>4</v>
+      </c>
       <c r="S48" s="53"/>
       <c r="T48" s="53"/>
       <c r="U48" s="53"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="V48" s="53"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="1">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="B49" s="19">
+      <c r="C49" s="19">
         <v>20</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="D49" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37">
-        <f>F83+E83</f>
+      <c r="E49" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37">
+        <f>G83+F83</f>
         <v>0</v>
       </c>
-      <c r="G49" s="37"/>
       <c r="H49" s="37"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="75">
-        <f t="shared" si="2"/>
+      <c r="I49" s="37"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="75">
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="O49" s="75">
+      <c r="P49" s="75">
         <v>20</v>
       </c>
-      <c r="P49" s="75" t="s">
+      <c r="Q49" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="Q49" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="76"/>
-      <c r="S49" s="77"/>
-      <c r="T49" s="75"/>
+      <c r="R49" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="76"/>
+      <c r="T49" s="77"/>
       <c r="U49" s="75"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M50" s="42">
-        <f>SUM(O5:O49)</f>
+      <c r="V49" s="75"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N50" s="42">
+        <f>SUM(P5:P49)</f>
         <v>69</v>
       </c>
-      <c r="N50" s="30"/>
       <c r="O50" s="30"/>
       <c r="P50" s="30"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="29"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <f>SUM(B3:B49)</f>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="29"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <f>SUM(C3:C49)</f>
         <v>244</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>137</v>
       </c>
-      <c r="M51" s="42"/>
-      <c r="N51" s="30"/>
+      <c r="N51" s="42"/>
       <c r="O51" s="30"/>
       <c r="P51" s="30"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="29"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M52" s="42"/>
-      <c r="N52" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="29"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N52" s="42"/>
       <c r="O52" s="30"/>
       <c r="P52" s="30"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="29"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M53" s="42"/>
-      <c r="N53" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="29"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N53" s="42"/>
       <c r="O53" s="30"/>
       <c r="P53" s="30"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="42"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="29"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M54" s="42"/>
-      <c r="N54" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="29"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N54" s="42"/>
       <c r="O54" s="30"/>
       <c r="P54" s="30"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="42"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="96"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="30"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="111"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B55" s="30"/>
+      <c r="N55" s="42"/>
       <c r="O55" s="30"/>
       <c r="P55" s="30"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="42"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="96"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="30"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="30"/>
+      <c r="V55" s="111"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B56" s="30"/>
+      <c r="N56" s="42"/>
       <c r="O56" s="30"/>
       <c r="P56" s="30"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="42"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="96"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="30"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="111"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B57" s="30"/>
+      <c r="N57" s="42"/>
       <c r="O57" s="30"/>
       <c r="P57" s="30"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="42"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="96"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="42"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="111"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B58" s="30"/>
+      <c r="N58" s="42"/>
       <c r="O58" s="30"/>
       <c r="P58" s="30"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="96"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A59" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="30"/>
+      <c r="V58" s="111"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="29"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="29"/>
+      <c r="N59" s="42"/>
       <c r="O59" s="30"/>
       <c r="P59" s="30"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="42"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="30"/>
-      <c r="U59" s="96"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="30"/>
+      <c r="V59" s="111"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="29"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="29"/>
+      <c r="N60" s="42"/>
       <c r="O60" s="30"/>
       <c r="P60" s="30"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="96"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="30"/>
+      <c r="V60" s="111"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="29"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="29"/>
+      <c r="N61" s="42"/>
       <c r="O61" s="30"/>
       <c r="P61" s="30"/>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="28"/>
-      <c r="U61" s="96"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="111"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="29"/>
-      <c r="M62" s="41"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="29"/>
+      <c r="N62" s="41"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="29"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="29"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="28"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="30"/>
       <c r="G64" s="28"/>
-      <c r="H64" s="29"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="30"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="29"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="28"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="30"/>
       <c r="G65" s="28"/>
-      <c r="H65" s="29"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="30"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="29"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="29"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="29"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="29"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="29"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="29"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="29"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="29"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="29"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="29"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="29"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="29"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="29"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="29"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="29"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="30"/>
       <c r="C73" s="30"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="29"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="30"/>
       <c r="C74" s="30"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="29"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="29"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="30"/>
       <c r="C75" s="30"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="29"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="29"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="29"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="29"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="30"/>
       <c r="C77" s="30"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="29"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="29"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="29"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="29"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="29"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="29"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="29"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="29"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="30"/>
       <c r="C81" s="30"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="29"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="29"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="30"/>
       <c r="C82" s="30"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="29"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="29"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="30"/>
       <c r="C83" s="30"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="29"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="29"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="29"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="29"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="30"/>
       <c r="C85" s="30"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="29"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="29"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="29"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="29"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="29"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="29"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="30"/>
       <c r="C88" s="30"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="29"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="29"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="30"/>
       <c r="C89" s="30"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="32"/>
       <c r="H89" s="30"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="30"/>
+      <c r="I89" s="30"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="30"/>
       <c r="C90" s="30"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="32"/>
       <c r="H90" s="30"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="30"/>
+      <c r="I90" s="30"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="30"/>
       <c r="C91" s="30"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="32"/>
       <c r="H91" s="30"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="30"/>
+      <c r="I91" s="30"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="30"/>
       <c r="C92" s="30"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="32"/>
       <c r="H92" s="30"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="30"/>
+      <c r="I92" s="30"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="30"/>
       <c r="C93" s="30"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="32"/>
       <c r="H93" s="30"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="30"/>
+      <c r="I93" s="30"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="30"/>
       <c r="C94" s="30"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="32"/>
       <c r="H94" s="30"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="30"/>
+      <c r="I94" s="30"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="30"/>
       <c r="C95" s="30"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="32"/>
       <c r="H95" s="30"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="30"/>
+      <c r="I95" s="30"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="30"/>
       <c r="C96" s="30"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="32"/>
       <c r="H96" s="30"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="30"/>
+      <c r="I96" s="30"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="30"/>
       <c r="C97" s="30"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="32"/>
       <c r="H97" s="30"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="30"/>
+      <c r="I97" s="30"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="30"/>
       <c r="C98" s="30"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="32"/>
       <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="U54:U61"/>
+    <mergeCell ref="V54:V61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10373,32 +10636,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB98B7-73F7-4C3A-AAF0-0D4F4D184EA5}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56:H64"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="46.77734375" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -10408,11 +10671,11 @@
       <c r="C5" t="s">
         <v>177</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -10420,7 +10683,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -10431,62 +10694,62 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -10497,635 +10760,675 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>196</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>184</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>139</v>
       </c>
-      <c r="I22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>185</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>239</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>186</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="H24" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>140</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>187</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="H25" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>141</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>188</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="H26" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>189</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="H27" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>190</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="H28" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>191</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>192</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="H30" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>193</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="H31" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>200</v>
       </c>
       <c r="C32" t="s">
         <v>182</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="H32" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>201</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="H33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>202</v>
       </c>
-      <c r="D34" s="97" t="s">
+      <c r="E34" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="H34" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="100" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="98" t="s">
         <v>211</v>
       </c>
       <c r="C35" t="s">
         <v>210</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>204</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="H35" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="100"/>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="98"/>
       <c r="C36" t="s">
         <v>205</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="H36" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="100"/>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="98"/>
       <c r="C37" t="s">
         <v>206</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="H37" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="100"/>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="98"/>
       <c r="C38" t="s">
         <v>207</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="H38" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="110" t="s">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="108" t="s">
         <v>212</v>
       </c>
       <c r="C39" t="s">
         <v>210</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="H39" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="110"/>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="108"/>
       <c r="C40" t="s">
         <v>205</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="H40" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>245</v>
       </c>
-      <c r="I40" s="111" t="s">
+      <c r="J40" s="109" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="110"/>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="108"/>
       <c r="C41" t="s">
         <v>206</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="H41" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="111"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="110"/>
+      <c r="J41" s="109"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="108"/>
       <c r="C42" t="s">
         <v>207</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="H42" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="I42" s="111"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="110"/>
-      <c r="C43" s="101" t="s">
+      <c r="J42" s="109"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="108"/>
+      <c r="C43" s="99" t="s">
         <v>213</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="D43" s="99"/>
+      <c r="H43" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="I43" s="111"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="110"/>
-      <c r="C44" s="101" t="s">
+      <c r="J43" s="109"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="108"/>
+      <c r="C44" s="99" t="s">
         <v>214</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="D44" s="99"/>
+      <c r="H44" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="I44" s="111" t="s">
+      <c r="J44" s="109" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="110"/>
-      <c r="C45" s="101" t="s">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="108"/>
+      <c r="C45" s="99" t="s">
         <v>215</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="D45" s="99"/>
+      <c r="H45" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="I45" s="111"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="110"/>
-      <c r="C46" s="101" t="s">
+      <c r="J45" s="109"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="108"/>
+      <c r="C46" s="99" t="s">
         <v>216</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="D46" s="99"/>
+      <c r="H46" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="I46" s="111"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="110"/>
-      <c r="C47" s="101" t="s">
+      <c r="J46" s="109"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="108"/>
+      <c r="C47" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="D47" s="99"/>
+      <c r="H47" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I47" s="111" t="s">
+      <c r="J47" s="109" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="110"/>
-      <c r="C48" s="101" t="s">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="108"/>
+      <c r="C48" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="D48" s="99"/>
+      <c r="H48" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>246</v>
       </c>
-      <c r="I48" s="83" t="s">
+      <c r="J48" s="83" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="110"/>
-      <c r="C49" s="101" t="s">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="108"/>
+      <c r="C49" s="99" t="s">
         <v>219</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="D49" s="99"/>
+      <c r="H49" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="I49" s="83"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="110"/>
-      <c r="C50" s="101" t="s">
+      <c r="J49" s="83"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="108"/>
+      <c r="C50" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="D50" s="99"/>
+      <c r="H50" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="I50" s="83"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="110"/>
-      <c r="C51" s="102" t="s">
+      <c r="J50" s="83"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="108"/>
+      <c r="C51" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="D51" s="100"/>
+      <c r="H51" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="I51" s="83" t="s">
+      <c r="J51" s="83" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="110"/>
-      <c r="C52" s="103" t="s">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="108"/>
+      <c r="C52" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="D52" s="101"/>
+      <c r="H52" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I52" s="83"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="110"/>
-      <c r="C53" s="103" t="s">
+      <c r="J52" s="83"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="108"/>
+      <c r="C53" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="D53" s="101"/>
+      <c r="H53" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="I53" s="83"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="110"/>
-      <c r="C54" s="103" t="s">
+      <c r="J53" s="83"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" s="108"/>
+      <c r="C54" s="101" t="s">
         <v>224</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="D54" s="101"/>
+      <c r="H54" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="I54" s="83"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="110"/>
-      <c r="C55" s="103" t="s">
+      <c r="J54" s="83"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="108"/>
+      <c r="C55" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="D55" s="101"/>
+      <c r="H55" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="I55" s="83" t="s">
+      <c r="J55" s="83" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="110"/>
-      <c r="C56" s="103" t="s">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="108"/>
+      <c r="C56" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="D56" s="101"/>
+      <c r="H56" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="110"/>
-      <c r="C57" s="104" t="s">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="108"/>
+      <c r="C57" s="102" t="s">
         <v>227</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="D57" s="102"/>
+      <c r="H57" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="110"/>
-      <c r="C58" s="104" t="s">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" s="108"/>
+      <c r="C58" s="102" t="s">
         <v>228</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="D58" s="102"/>
+      <c r="H58" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="110"/>
-      <c r="C59" s="104" t="s">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" s="108"/>
+      <c r="C59" s="102" t="s">
         <v>229</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="D59" s="102"/>
+      <c r="H59" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="110"/>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60" s="108"/>
       <c r="C60" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="D60" s="81"/>
+      <c r="H60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="110"/>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="108"/>
       <c r="C61" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="D61" s="81"/>
+      <c r="H61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="110"/>
-      <c r="C62" s="103" t="s">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B62" s="108"/>
+      <c r="C62" s="101" t="s">
         <v>215</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="D62" s="101"/>
+      <c r="H62" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="110"/>
-      <c r="C63" s="103" t="s">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B63" s="108"/>
+      <c r="C63" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="D63" s="101"/>
+      <c r="H63" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="110"/>
-      <c r="C64" s="105" t="s">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B64" s="108"/>
+      <c r="C64" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="D64" s="103"/>
+      <c r="H64" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="110"/>
-      <c r="C65" s="105" t="s">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="108"/>
+      <c r="C65" s="103" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="110"/>
-      <c r="C66" s="106" t="s">
+      <c r="D65" s="103"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="108"/>
+      <c r="C66" s="104" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="110"/>
-      <c r="C67" s="106" t="s">
+      <c r="D66" s="104"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="108"/>
+      <c r="C67" s="104" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="110"/>
-      <c r="C68" s="106" t="s">
+      <c r="D67" s="104"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="108"/>
+      <c r="C68" s="104" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="110"/>
-      <c r="C69" s="106" t="s">
+      <c r="D68" s="104"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="108"/>
+      <c r="C69" s="104" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="110"/>
-      <c r="C70" s="107" t="s">
+      <c r="D69" s="104"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="108"/>
+      <c r="C70" s="105" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="110"/>
-      <c r="C71" s="107" t="s">
+      <c r="D70" s="105"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="108"/>
+      <c r="C71" s="105" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="110"/>
-      <c r="C72" s="108" t="s">
+      <c r="D71" s="105"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="108"/>
+      <c r="C72" s="106" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="110"/>
-      <c r="C73" s="108" t="s">
+      <c r="D72" s="106"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="108"/>
+      <c r="C73" s="106" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="110"/>
-      <c r="C74" s="108" t="s">
+      <c r="D73" s="106"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="108"/>
+      <c r="C74" s="106" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="110"/>
-      <c r="C75" s="108" t="s">
+      <c r="D74" s="106"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="108"/>
+      <c r="C75" s="106" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="110"/>
-      <c r="C76" s="109" t="s">
+      <c r="D75" s="106"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="108"/>
+      <c r="C76" s="107" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="110"/>
-      <c r="C77" s="109" t="s">
+      <c r="D76" s="107"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="108"/>
+      <c r="C77" s="107" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="110"/>
-      <c r="C78" s="109" t="s">
+      <c r="D77" s="107"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="108"/>
+      <c r="C78" s="107" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="110"/>
-      <c r="C79" s="109" t="s">
+      <c r="D78" s="107"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="108"/>
+      <c r="C79" s="107" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="110"/>
-      <c r="C80" s="109" t="s">
+      <c r="D79" s="107"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="108"/>
+      <c r="C80" s="107" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="110"/>
-      <c r="C81" s="109" t="s">
+      <c r="D80" s="107"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="108"/>
+      <c r="C81" s="107" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="110"/>
-      <c r="C82" s="109" t="s">
+      <c r="D81" s="107"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="108"/>
+      <c r="C82" s="107" t="s">
         <v>238</v>
       </c>
+      <c r="D82" s="107"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
+++ b/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ute\Lab_project\git_Indruino\IOT_ESP32\Indruino-Iot-Project\FW\Hau\mem_map_data_trans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904F9A2A-FE44-4D41-B158-726C80E9744A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F30C941-711E-4BAC-A70B-46939B2AFC8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="299">
   <si>
     <t>stt</t>
   </si>
@@ -164,9 +164,6 @@
     <t>ModeWifi</t>
   </si>
   <si>
-    <t>Time setup</t>
-  </si>
-  <si>
     <t>ModeIP</t>
   </si>
   <si>
@@ -936,27 +933,6 @@
   </si>
   <si>
     <t>sv_pass_pass</t>
-  </si>
-  <si>
-    <t>time_yr</t>
-  </si>
-  <si>
-    <t>time_mon</t>
-  </si>
-  <si>
-    <t>time_day</t>
-  </si>
-  <si>
-    <t>time_dow</t>
-  </si>
-  <si>
-    <t>time_hr</t>
-  </si>
-  <si>
-    <t>time_min</t>
-  </si>
-  <si>
-    <t>time_sec</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1377,9 +1353,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4391,10 +4364,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="110"/>
+      <c r="C1" s="109"/>
       <c r="S1" s="46" t="s">
         <v>22</v>
       </c>
@@ -4407,38 +4380,38 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="S2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="U2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Y2" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="Z2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Q3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R3" s="43"/>
       <c r="S3" s="1">
@@ -4448,7 +4421,7 @@
         <v>2</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>4</v>
@@ -4461,36 +4434,36 @@
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R4" s="43"/>
       <c r="S4" s="1">
@@ -4501,23 +4474,23 @@
         <v>1</v>
       </c>
       <c r="U4" s="61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V4" s="61" t="s">
         <v>4</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y4" s="61"/>
       <c r="Z4" s="61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -4535,15 +4508,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R5" s="43"/>
       <c r="S5" s="1">
@@ -4554,23 +4527,23 @@
         <v>1</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6" s="20">
         <f>C5+B5</f>
@@ -4580,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -4589,15 +4562,15 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R6" s="43"/>
       <c r="S6" s="1">
@@ -4607,8 +4580,8 @@
       <c r="T6" s="1">
         <v>1</v>
       </c>
-      <c r="U6" s="97" t="s">
-        <v>91</v>
+      <c r="U6" s="96" t="s">
+        <v>90</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>4</v>
@@ -4617,16 +4590,16 @@
         <v>4</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="15">
         <f t="shared" ref="B7:B15" si="1">C6+B6</f>
@@ -4636,7 +4609,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>3</v>
@@ -4649,10 +4622,10 @@
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R7" s="43"/>
       <c r="S7" s="1">
@@ -4662,8 +4635,8 @@
       <c r="T7" s="1">
         <v>1</v>
       </c>
-      <c r="U7" s="97" t="s">
-        <v>90</v>
+      <c r="U7" s="96" t="s">
+        <v>89</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>4</v>
@@ -4674,12 +4647,12 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="15">
         <f t="shared" si="1"/>
@@ -4689,24 +4662,24 @@
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R8" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="0"/>
@@ -4716,7 +4689,7 @@
         <v>2</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>4</v>
@@ -4725,14 +4698,14 @@
         <v>50</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="15">
         <f t="shared" si="1"/>
@@ -4742,21 +4715,21 @@
         <v>1</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R9" s="40"/>
       <c r="S9" s="1">
@@ -4767,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>4</v>
@@ -4776,16 +4749,16 @@
         <v>4</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B10" s="15">
         <f t="shared" si="1"/>
@@ -4795,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>4</v>
@@ -4804,14 +4777,14 @@
         <v>4</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R10" s="40"/>
       <c r="S10" s="1">
@@ -4822,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>4</v>
@@ -4833,12 +4806,12 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" s="15">
         <f t="shared" si="1"/>
@@ -4848,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>4</v>
@@ -4859,10 +4832,10 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R11" s="40"/>
       <c r="S11" s="1">
@@ -4875,19 +4848,19 @@
       <c r="U11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="78" t="s">
+      <c r="V11" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W11" s="17"/>
-      <c r="X11" s="79" t="s">
-        <v>108</v>
+      <c r="X11" s="78" t="s">
+        <v>107</v>
       </c>
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B12" s="15">
         <f t="shared" si="1"/>
@@ -4897,7 +4870,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>4</v>
@@ -4906,10 +4879,10 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R12" s="40"/>
       <c r="S12" s="17">
@@ -4922,19 +4895,19 @@
       <c r="U12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="V12" s="78" t="s">
+      <c r="V12" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W12" s="17"/>
-      <c r="X12" s="79" t="s">
-        <v>108</v>
+      <c r="X12" s="78" t="s">
+        <v>107</v>
       </c>
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13" s="15">
         <f t="shared" si="1"/>
@@ -4944,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>4</v>
@@ -4953,14 +4926,14 @@
         <v>4</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R13" s="40"/>
       <c r="S13" s="17">
@@ -4973,19 +4946,19 @@
       <c r="U13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="V13" s="78" t="s">
+      <c r="V13" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W13" s="17"/>
-      <c r="X13" s="79" t="s">
-        <v>108</v>
+      <c r="X13" s="78" t="s">
+        <v>107</v>
       </c>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" s="15">
         <f t="shared" si="1"/>
@@ -4995,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>4</v>
@@ -5006,10 +4979,10 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R14" s="40"/>
       <c r="S14" s="17">
@@ -5022,19 +4995,19 @@
       <c r="U14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="V14" s="78" t="s">
+      <c r="V14" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W14" s="17"/>
-      <c r="X14" s="79" t="s">
-        <v>108</v>
+      <c r="X14" s="78" t="s">
+        <v>107</v>
       </c>
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B15" s="15">
         <f t="shared" si="1"/>
@@ -5051,12 +5024,12 @@
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="Q15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R15" s="40"/>
       <c r="S15" s="17">
@@ -5069,19 +5042,19 @@
       <c r="U15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="V15" s="78" t="s">
+      <c r="V15" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W15" s="17"/>
-      <c r="X15" s="79" t="s">
-        <v>108</v>
+      <c r="X15" s="78" t="s">
+        <v>107</v>
       </c>
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B16" s="15">
         <f t="shared" ref="B16:B23" si="3">C15+B15</f>
@@ -5098,12 +5071,12 @@
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="Q16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R16" s="40"/>
       <c r="S16" s="17">
@@ -5116,19 +5089,19 @@
       <c r="U16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="V16" s="78" t="s">
+      <c r="V16" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W16" s="17"/>
-      <c r="X16" s="79" t="s">
-        <v>108</v>
+      <c r="X16" s="78" t="s">
+        <v>107</v>
       </c>
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B17" s="15">
         <f t="shared" si="3"/>
@@ -5145,12 +5118,12 @@
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="Q17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R17" s="40"/>
       <c r="S17" s="17">
@@ -5163,19 +5136,19 @@
       <c r="U17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="V17" s="78" t="s">
+      <c r="V17" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W17" s="17"/>
-      <c r="X17" s="79" t="s">
-        <v>108</v>
+      <c r="X17" s="78" t="s">
+        <v>107</v>
       </c>
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B18" s="15">
         <f t="shared" si="3"/>
@@ -5192,37 +5165,37 @@
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="Q18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R18" s="40"/>
-      <c r="S18" s="80">
+      <c r="S18" s="79">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="T18" s="80">
+      <c r="T18" s="79">
         <v>2</v>
       </c>
-      <c r="U18" s="80" t="s">
+      <c r="U18" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="V18" s="78" t="s">
+      <c r="V18" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W18" s="17"/>
-      <c r="X18" s="79" t="s">
-        <v>108</v>
+      <c r="X18" s="78" t="s">
+        <v>107</v>
       </c>
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B19" s="15">
         <f t="shared" si="3"/>
@@ -5239,41 +5212,41 @@
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="Q19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R19" s="40"/>
-      <c r="S19" s="80">
+      <c r="S19" s="79">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="T19" s="84">
-        <v>1</v>
-      </c>
-      <c r="U19" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="V19" s="78" t="s">
+      <c r="T19" s="83">
+        <v>1</v>
+      </c>
+      <c r="U19" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="V19" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W19" s="17"/>
       <c r="X19" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y19" s="17"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB19" s="24"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B20" s="15">
         <f t="shared" si="3"/>
@@ -5290,22 +5263,22 @@
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="R20" s="40"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="V20" s="78" t="s">
+      <c r="S20" s="84"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="V20" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W20" s="17"/>
       <c r="X20" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y20" s="17"/>
       <c r="Z20" s="17"/>
@@ -5314,7 +5287,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B21" s="15">
         <f t="shared" si="3"/>
@@ -5331,22 +5304,22 @@
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="R21" s="40"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="V21" s="78" t="s">
+      <c r="S21" s="84"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="V21" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W21" s="17"/>
       <c r="X21" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
@@ -5355,7 +5328,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B22" s="15">
         <f t="shared" si="3"/>
@@ -5372,22 +5345,22 @@
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="R22" s="40"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="V22" s="78" t="s">
+      <c r="S22" s="84"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="V22" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W22" s="17"/>
       <c r="X22" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
@@ -5396,7 +5369,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B23" s="15">
         <f t="shared" si="3"/>
@@ -5406,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>4</v>
@@ -5416,34 +5389,34 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K23" s="24"/>
       <c r="R23" s="40"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="V23" s="78" t="s">
+      <c r="S23" s="84"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="V23" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W23" s="17"/>
       <c r="X23" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="21"/>
       <c r="AB23" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B24" s="15"/>
       <c r="C24" s="49"/>
       <c r="D24" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>4</v>
@@ -5455,17 +5428,17 @@
       <c r="J24" s="21"/>
       <c r="K24" s="25"/>
       <c r="R24" s="40"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="V24" s="78" t="s">
+      <c r="S24" s="84"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="V24" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W24" s="17"/>
       <c r="X24" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
@@ -5476,7 +5449,7 @@
       <c r="B25" s="15"/>
       <c r="C25" s="49"/>
       <c r="D25" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>4</v>
@@ -5488,17 +5461,17 @@
       <c r="J25" s="21"/>
       <c r="K25" s="25"/>
       <c r="R25" s="40"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="80" t="s">
-        <v>165</v>
-      </c>
-      <c r="V25" s="78" t="s">
+      <c r="S25" s="84"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="V25" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W25" s="17"/>
       <c r="X25" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
@@ -5509,7 +5482,7 @@
       <c r="B26" s="15"/>
       <c r="C26" s="49"/>
       <c r="D26" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>4</v>
@@ -5521,22 +5494,22 @@
       <c r="J26" s="21"/>
       <c r="K26" s="25"/>
       <c r="R26" s="40"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="80" t="s">
-        <v>166</v>
-      </c>
-      <c r="V26" s="78" t="s">
+      <c r="S26" s="84"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="V26" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W26" s="17"/>
       <c r="X26" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y26" s="17"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB26" s="26"/>
     </row>
@@ -5544,7 +5517,7 @@
       <c r="B27" s="15"/>
       <c r="C27" s="49"/>
       <c r="D27" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>4</v>
@@ -5555,33 +5528,33 @@
       <c r="I27" s="15"/>
       <c r="J27" s="21"/>
       <c r="K27" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R27" s="40"/>
-      <c r="S27" s="80">
+      <c r="S27" s="79">
         <f>T19+S19</f>
         <v>27</v>
       </c>
-      <c r="T27" s="84">
-        <v>1</v>
-      </c>
-      <c r="U27" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="V27" s="78" t="s">
+      <c r="T27" s="83">
+        <v>1</v>
+      </c>
+      <c r="U27" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="V27" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W27" s="17"/>
       <c r="X27" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
       <c r="AA27" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB27" s="24"/>
     </row>
@@ -5589,7 +5562,7 @@
       <c r="B28" s="15"/>
       <c r="C28" s="49"/>
       <c r="D28" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>4</v>
@@ -5601,17 +5574,17 @@
       <c r="J28" s="21"/>
       <c r="K28" s="25"/>
       <c r="R28" s="40"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="V28" s="78" t="s">
+      <c r="S28" s="84"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="V28" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W28" s="17"/>
       <c r="X28" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
@@ -5622,7 +5595,7 @@
       <c r="B29" s="15"/>
       <c r="C29" s="49"/>
       <c r="D29" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>4</v>
@@ -5634,17 +5607,17 @@
       <c r="J29" s="21"/>
       <c r="K29" s="25"/>
       <c r="R29" s="40"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="V29" s="78" t="s">
+      <c r="S29" s="84"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="V29" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W29" s="17"/>
       <c r="X29" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y29" s="17"/>
       <c r="Z29" s="17"/>
@@ -5655,7 +5628,7 @@
       <c r="B30" s="15"/>
       <c r="C30" s="49"/>
       <c r="D30" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>4</v>
@@ -5667,17 +5640,17 @@
       <c r="J30" s="35"/>
       <c r="K30" s="26"/>
       <c r="R30" s="40"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="80" t="s">
-        <v>170</v>
-      </c>
-      <c r="V30" s="78" t="s">
+      <c r="S30" s="84"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="V30" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W30" s="17"/>
       <c r="X30" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
@@ -5686,7 +5659,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B31" s="15">
         <f>C23+B23</f>
@@ -5696,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>4</v>
@@ -5708,30 +5681,30 @@
       <c r="J31" s="34"/>
       <c r="K31" s="25"/>
       <c r="R31" s="40"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="V31" s="78" t="s">
+      <c r="S31" s="84"/>
+      <c r="T31" s="83"/>
+      <c r="U31" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="V31" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W31" s="17"/>
       <c r="X31" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
       <c r="AA31" s="21"/>
       <c r="AB31" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B32" s="15"/>
       <c r="C32" s="49"/>
       <c r="D32" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>4</v>
@@ -5743,17 +5716,17 @@
       <c r="J32" s="21"/>
       <c r="K32" s="25"/>
       <c r="R32" s="40"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="V32" s="78" t="s">
+      <c r="S32" s="84"/>
+      <c r="T32" s="83"/>
+      <c r="U32" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="V32" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W32" s="17"/>
       <c r="X32" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
@@ -5764,7 +5737,7 @@
       <c r="B33" s="15"/>
       <c r="C33" s="49"/>
       <c r="D33" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>4</v>
@@ -5776,17 +5749,17 @@
       <c r="J33" s="21"/>
       <c r="K33" s="25"/>
       <c r="R33" s="42"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="80" t="s">
-        <v>173</v>
-      </c>
-      <c r="V33" s="78" t="s">
+      <c r="S33" s="84"/>
+      <c r="T33" s="83"/>
+      <c r="U33" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="V33" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W33" s="17"/>
       <c r="X33" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
@@ -5797,7 +5770,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="49"/>
       <c r="D34" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>4</v>
@@ -5808,25 +5781,25 @@
       <c r="I34" s="15"/>
       <c r="J34" s="21"/>
       <c r="K34" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R34" s="42"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="V34" s="78" t="s">
+      <c r="S34" s="85"/>
+      <c r="T34" s="83"/>
+      <c r="U34" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="V34" s="77" t="s">
         <v>4</v>
       </c>
       <c r="W34" s="17"/>
       <c r="X34" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
       <c r="AA34" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB34" s="26"/>
     </row>
@@ -5834,7 +5807,7 @@
       <c r="B35" s="15"/>
       <c r="C35" s="49"/>
       <c r="D35" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>4</v>
@@ -5846,7 +5819,7 @@
       <c r="J35" s="21"/>
       <c r="K35" s="25"/>
       <c r="Q35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R35" s="42">
         <v>0</v>
@@ -5866,7 +5839,7 @@
       </c>
       <c r="W35" s="20"/>
       <c r="X35" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y35" s="20"/>
       <c r="Z35" s="9" t="s">
@@ -5877,7 +5850,7 @@
       <c r="B36" s="15"/>
       <c r="C36" s="49"/>
       <c r="D36" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>4</v>
@@ -5889,7 +5862,7 @@
       <c r="J36" s="21"/>
       <c r="K36" s="25"/>
       <c r="Q36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R36" s="42">
         <f>R35+T35</f>
@@ -5910,7 +5883,7 @@
       </c>
       <c r="W36" s="20"/>
       <c r="X36" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y36" s="20"/>
       <c r="Z36" s="9"/>
@@ -5919,7 +5892,7 @@
       <c r="B37" s="15"/>
       <c r="C37" s="49"/>
       <c r="D37" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>4</v>
@@ -5931,7 +5904,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="25"/>
       <c r="Q37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R37" s="42">
         <f t="shared" ref="R37:R39" si="4">R36+T36</f>
@@ -5951,8 +5924,8 @@
         <v>4</v>
       </c>
       <c r="W37" s="20"/>
-      <c r="X37" s="96" t="s">
-        <v>208</v>
+      <c r="X37" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="Y37" s="20"/>
       <c r="Z37" s="9"/>
@@ -5961,7 +5934,7 @@
       <c r="B38" s="15"/>
       <c r="C38" s="50"/>
       <c r="D38" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>4</v>
@@ -5971,11 +5944,11 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K38" s="26"/>
       <c r="Q38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R38" s="42">
         <f t="shared" si="4"/>
@@ -5996,14 +5969,14 @@
       </c>
       <c r="W38" s="20"/>
       <c r="X38" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y38" s="20"/>
       <c r="Z38" s="9"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" s="7">
         <f>B31+C31</f>
@@ -6025,7 +5998,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="Q39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R39" s="42">
         <f t="shared" si="4"/>
@@ -6051,7 +6024,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B40" s="7">
         <f t="shared" ref="B40:B49" si="6">C39+B39</f>
@@ -6068,7 +6041,7 @@
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -6090,7 +6063,7 @@
       </c>
       <c r="W40" s="20"/>
       <c r="X40" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y40" s="20"/>
       <c r="Z40" s="11" t="s">
@@ -6099,7 +6072,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B41" s="7">
         <f t="shared" si="6"/>
@@ -6116,7 +6089,7 @@
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -6139,14 +6112,14 @@
       </c>
       <c r="W41" s="20"/>
       <c r="X41" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y41" s="20"/>
       <c r="Z41" s="9"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="7">
         <f t="shared" si="6"/>
@@ -6163,7 +6136,7 @@
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -6185,15 +6158,15 @@
         <v>4</v>
       </c>
       <c r="W42" s="20"/>
-      <c r="X42" s="96" t="s">
-        <v>208</v>
+      <c r="X42" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="Y42" s="20"/>
       <c r="Z42" s="9"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B43" s="7">
         <f t="shared" si="6"/>
@@ -6210,7 +6183,7 @@
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6233,14 +6206,14 @@
       </c>
       <c r="W43" s="20"/>
       <c r="X43" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y43" s="20"/>
       <c r="Z43" s="9"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B44" s="7">
         <f t="shared" si="6"/>
@@ -6257,7 +6230,7 @@
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6285,7 +6258,7 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B45" s="7">
         <f t="shared" si="6"/>
@@ -6302,7 +6275,7 @@
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6324,7 +6297,7 @@
       </c>
       <c r="W45" s="20"/>
       <c r="X45" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y45" s="20"/>
       <c r="Z45" s="11" t="s">
@@ -6333,7 +6306,7 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B46" s="7">
         <f t="shared" si="6"/>
@@ -6350,7 +6323,7 @@
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6373,7 +6346,7 @@
       </c>
       <c r="W46" s="20"/>
       <c r="X46" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y46" s="20"/>
       <c r="Z46" s="9"/>
@@ -6397,7 +6370,7 @@
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6419,15 +6392,15 @@
         <v>4</v>
       </c>
       <c r="W47" s="20"/>
-      <c r="X47" s="96" t="s">
-        <v>208</v>
+      <c r="X47" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="Y47" s="20"/>
       <c r="Z47" s="9"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B48" s="7">
         <f t="shared" si="6"/>
@@ -6437,7 +6410,7 @@
         <v>10</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>4</v>
@@ -6465,14 +6438,14 @@
       </c>
       <c r="W48" s="20"/>
       <c r="X48" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y48" s="20"/>
       <c r="Z48" s="9"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B49" s="7">
         <f t="shared" si="6"/>
@@ -6482,7 +6455,7 @@
         <v>20</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>4</v>
@@ -6532,7 +6505,7 @@
       </c>
       <c r="W50" s="20"/>
       <c r="X50" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y50" s="20"/>
       <c r="Z50" s="11" t="s">
@@ -6540,12 +6513,12 @@
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B51" s="81">
+      <c r="B51" s="80">
         <f>SUM(C5:C49)</f>
         <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R51" s="42">
         <f t="shared" ref="R51" si="9">R50+T50</f>
@@ -6566,7 +6539,7 @@
       </c>
       <c r="W51" s="20"/>
       <c r="X51" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y51" s="20"/>
       <c r="Z51" s="9"/>
@@ -6590,8 +6563,8 @@
         <v>4</v>
       </c>
       <c r="W52" s="20"/>
-      <c r="X52" s="96" t="s">
-        <v>208</v>
+      <c r="X52" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="Y52" s="20"/>
       <c r="Z52" s="9"/>
@@ -6616,7 +6589,7 @@
       </c>
       <c r="W53" s="20"/>
       <c r="X53" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y53" s="20"/>
       <c r="Z53" s="9"/>
@@ -6663,7 +6636,7 @@
       </c>
       <c r="W55" s="20"/>
       <c r="X55" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y55" s="20"/>
       <c r="Z55" s="11" t="s">
@@ -6690,7 +6663,7 @@
       </c>
       <c r="W56" s="20"/>
       <c r="X56" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y56" s="20"/>
       <c r="Z56" s="9"/>
@@ -6714,8 +6687,8 @@
         <v>4</v>
       </c>
       <c r="W57" s="20"/>
-      <c r="X57" s="96" t="s">
-        <v>208</v>
+      <c r="X57" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="Y57" s="20"/>
       <c r="Z57" s="9"/>
@@ -6740,7 +6713,7 @@
       </c>
       <c r="W58" s="20"/>
       <c r="X58" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y58" s="20"/>
       <c r="Z58" s="9"/>
@@ -6799,7 +6772,7 @@
       </c>
       <c r="W60" s="20"/>
       <c r="X60" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y60" s="20"/>
       <c r="Z60" s="11" t="s">
@@ -6832,7 +6805,7 @@
       </c>
       <c r="W61" s="20"/>
       <c r="X61" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y61" s="20"/>
       <c r="Z61" s="9"/>
@@ -6862,8 +6835,8 @@
         <v>4</v>
       </c>
       <c r="W62" s="20"/>
-      <c r="X62" s="96" t="s">
-        <v>208</v>
+      <c r="X62" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="Y62" s="20"/>
       <c r="Z62" s="9"/>
@@ -6888,7 +6861,7 @@
       </c>
       <c r="W63" s="20"/>
       <c r="X63" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y63" s="20"/>
       <c r="Z63" s="9"/>
@@ -6935,7 +6908,7 @@
       </c>
       <c r="W65" s="20"/>
       <c r="X65" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y65" s="20"/>
       <c r="Z65" s="11" t="s">
@@ -6962,7 +6935,7 @@
       </c>
       <c r="W66" s="20"/>
       <c r="X66" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y66" s="20"/>
       <c r="Z66" s="9"/>
@@ -6986,8 +6959,8 @@
         <v>4</v>
       </c>
       <c r="W67" s="20"/>
-      <c r="X67" s="96" t="s">
-        <v>208</v>
+      <c r="X67" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="Y67" s="20"/>
       <c r="Z67" s="9"/>
@@ -7012,7 +6985,7 @@
       </c>
       <c r="W68" s="20"/>
       <c r="X68" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y68" s="20"/>
       <c r="Z68" s="9"/>
@@ -7059,7 +7032,7 @@
       </c>
       <c r="W70" s="20"/>
       <c r="X70" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y70" s="20"/>
       <c r="Z70" s="11" t="s">
@@ -7086,7 +7059,7 @@
       </c>
       <c r="W71" s="20"/>
       <c r="X71" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y71" s="20"/>
       <c r="Z71" s="9"/>
@@ -7110,8 +7083,8 @@
         <v>4</v>
       </c>
       <c r="W72" s="20"/>
-      <c r="X72" s="96" t="s">
-        <v>208</v>
+      <c r="X72" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="Y72" s="20"/>
       <c r="Z72" s="9"/>
@@ -7136,7 +7109,7 @@
       </c>
       <c r="W73" s="20"/>
       <c r="X73" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y73" s="20"/>
       <c r="Z73" s="9"/>
@@ -7183,7 +7156,7 @@
       </c>
       <c r="W75" s="20"/>
       <c r="X75" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y75" s="20"/>
       <c r="Z75" s="11" t="s">
@@ -7210,7 +7183,7 @@
       </c>
       <c r="W76" s="20"/>
       <c r="X76" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y76" s="20"/>
       <c r="Z76" s="9"/>
@@ -7234,8 +7207,8 @@
         <v>4</v>
       </c>
       <c r="W77" s="20"/>
-      <c r="X77" s="96" t="s">
-        <v>208</v>
+      <c r="X77" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="Y77" s="20"/>
       <c r="Z77" s="9"/>
@@ -7260,7 +7233,7 @@
       </c>
       <c r="W78" s="20"/>
       <c r="X78" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y78" s="20"/>
       <c r="Z78" s="9"/>
@@ -7307,7 +7280,7 @@
       </c>
       <c r="W80" s="20"/>
       <c r="X80" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y80" s="44"/>
       <c r="Z80" s="11" t="s">
@@ -7334,7 +7307,7 @@
       </c>
       <c r="W81" s="20"/>
       <c r="X81" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y81" s="31"/>
       <c r="Z81" s="9"/>
@@ -7358,8 +7331,8 @@
         <v>4</v>
       </c>
       <c r="W82" s="20"/>
-      <c r="X82" s="96" t="s">
-        <v>208</v>
+      <c r="X82" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="Y82" s="31"/>
       <c r="Z82" s="9"/>
@@ -7386,7 +7359,7 @@
       </c>
       <c r="W83" s="20"/>
       <c r="X83" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y83" s="31"/>
       <c r="Z83" s="10"/>
@@ -7427,9 +7400,9 @@
         <v>20</v>
       </c>
       <c r="U85" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="V85" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="V85" s="81" t="s">
         <v>4</v>
       </c>
       <c r="AA85" s="29"/>
@@ -7536,8 +7509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCF18E1-EDBB-4A5D-A645-8FDD3797B808}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7562,28 +7535,28 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s">
         <v>40</v>
@@ -7591,7 +7564,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7600,7 +7573,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -7609,15 +7582,15 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="18">
         <f t="shared" ref="B4:B49" si="0">C3+B3</f>
@@ -7627,7 +7600,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>4</v>
@@ -7636,40 +7609,40 @@
         <v>0</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="U4" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="V4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="18">
         <f t="shared" si="0"/>
@@ -7679,7 +7652,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>4</v>
@@ -7688,11 +7661,11 @@
         <v>0</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -7710,17 +7683,17 @@
         <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="18">
         <f t="shared" si="0"/>
@@ -7730,7 +7703,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>4</v>
@@ -7739,11 +7712,11 @@
         <v>4</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O6" s="1">
         <f>P5+O5</f>
@@ -7753,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>3</v>
@@ -7762,17 +7735,17 @@
         <v>0</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B7" s="18">
         <f t="shared" si="0"/>
@@ -7782,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>4</v>
@@ -7793,7 +7766,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N7" s="51"/>
       <c r="O7" s="15">
@@ -7804,7 +7777,7 @@
         <v>2</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R7" s="15" t="s">
         <v>3</v>
@@ -7817,12 +7790,12 @@
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="18">
         <f t="shared" si="0"/>
@@ -7832,18 +7805,18 @@
         <v>1</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N8" s="51"/>
       <c r="O8" s="15">
@@ -7854,7 +7827,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R8" s="15" t="s">
         <v>4</v>
@@ -7863,16 +7836,16 @@
         <v>4</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
@@ -7889,11 +7862,11 @@
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N9" s="51"/>
       <c r="O9" s="15">
@@ -7904,7 +7877,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R9" s="15" t="s">
         <v>4</v>
@@ -7913,16 +7886,16 @@
         <v>1</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U9" s="15"/>
       <c r="V9" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
@@ -7932,21 +7905,21 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N10" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" si="1"/>
@@ -7956,23 +7929,23 @@
         <v>1</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R10" s="15" t="s">
         <v>4</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U10" s="15"/>
       <c r="V10" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
@@ -7982,7 +7955,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>4</v>
@@ -8000,7 +7973,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R11" s="15" t="s">
         <v>4</v>
@@ -8009,12 +7982,12 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
@@ -8024,7 +7997,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>4</v>
@@ -8042,21 +8015,21 @@
         <v>1</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R12" s="15" t="s">
         <v>4</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
@@ -8066,7 +8039,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>4</v>
@@ -8075,7 +8048,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="27"/>
-      <c r="N13" s="72"/>
+      <c r="N13" s="71"/>
       <c r="O13" s="15">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -8084,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R13" s="15" t="s">
         <v>4</v>
@@ -8093,16 +8066,16 @@
         <v>4</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U13" s="15"/>
       <c r="V13" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
@@ -8112,7 +8085,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>4</v>
@@ -8121,7 +8094,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="27"/>
-      <c r="N14" s="72"/>
+      <c r="N14" s="71"/>
       <c r="O14" s="15">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -8130,7 +8103,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R14" s="15" t="s">
         <v>4</v>
@@ -8141,12 +8114,12 @@
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
@@ -8156,7 +8129,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>4</v>
@@ -8165,7 +8138,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="27"/>
-      <c r="N15" s="72"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="16">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -8181,14 +8154,14 @@
       </c>
       <c r="S15" s="16"/>
       <c r="T15" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
@@ -8198,7 +8171,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>4</v>
@@ -8208,9 +8181,9 @@
       <c r="H16" s="6"/>
       <c r="I16" s="27"/>
       <c r="K16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="72"/>
+        <v>51</v>
+      </c>
+      <c r="N16" s="71"/>
       <c r="O16" s="16">
         <f t="shared" ref="O16:O23" si="2">P15+O15</f>
         <v>13</v>
@@ -8226,14 +8199,14 @@
       </c>
       <c r="S16" s="16"/>
       <c r="T16" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" s="13">
         <f t="shared" si="0"/>
@@ -8243,7 +8216,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>4</v>
@@ -8252,9 +8225,9 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="72"/>
+        <v>49</v>
+      </c>
+      <c r="N17" s="71"/>
       <c r="O17" s="16">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -8270,14 +8243,14 @@
       </c>
       <c r="S17" s="16"/>
       <c r="T17" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
@@ -8287,7 +8260,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>4</v>
@@ -8296,9 +8269,9 @@
       <c r="G18" s="14"/>
       <c r="H18" s="64"/>
       <c r="I18" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="N18" s="72"/>
+        <v>52</v>
+      </c>
+      <c r="N18" s="71"/>
       <c r="O18" s="16">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -8314,14 +8287,14 @@
       </c>
       <c r="S18" s="16"/>
       <c r="T18" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
@@ -8331,7 +8304,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>4</v>
@@ -8340,7 +8313,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="64"/>
       <c r="I19" s="60"/>
-      <c r="N19" s="72"/>
+      <c r="N19" s="71"/>
       <c r="O19" s="16">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -8356,14 +8329,14 @@
       </c>
       <c r="S19" s="16"/>
       <c r="T19" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
@@ -8373,7 +8346,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>4</v>
@@ -8382,7 +8355,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="64"/>
       <c r="I20" s="60"/>
-      <c r="N20" s="73"/>
+      <c r="N20" s="72"/>
       <c r="O20" s="16">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -8398,14 +8371,14 @@
       </c>
       <c r="S20" s="16"/>
       <c r="T20" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
@@ -8415,20 +8388,20 @@
         <v>1</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H21" s="64"/>
       <c r="I21" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="N21" s="73"/>
+        <v>123</v>
+      </c>
+      <c r="N21" s="72"/>
       <c r="O21" s="16">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -8444,14 +8417,14 @@
       </c>
       <c r="S21" s="16"/>
       <c r="T21" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
@@ -8461,7 +8434,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>4</v>
@@ -8470,12 +8443,12 @@
       <c r="G22" s="14"/>
       <c r="H22" s="64"/>
       <c r="I22" s="60"/>
-      <c r="N22" s="73"/>
+      <c r="N22" s="72"/>
       <c r="O22" s="16">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="P22" s="87">
+      <c r="P22" s="86">
         <v>2</v>
       </c>
       <c r="Q22" s="16" t="s">
@@ -8486,14 +8459,14 @@
       </c>
       <c r="S22" s="16"/>
       <c r="T22" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
@@ -8502,8 +8475,8 @@
       <c r="C23" s="14">
         <v>20</v>
       </c>
-      <c r="D23" s="74" t="s">
-        <v>118</v>
+      <c r="D23" s="73" t="s">
+        <v>117</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>4</v>
@@ -8512,18 +8485,18 @@
       <c r="G23" s="14"/>
       <c r="H23" s="64"/>
       <c r="I23" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="N23" s="73"/>
-      <c r="O23" s="89">
+        <v>120</v>
+      </c>
+      <c r="N23" s="72"/>
+      <c r="O23" s="88">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="P23" s="87">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="90" t="s">
-        <v>159</v>
+      <c r="P23" s="86">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="89" t="s">
+        <v>158</v>
       </c>
       <c r="R23" s="56" t="s">
         <v>4</v>
@@ -8533,13 +8506,13 @@
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X23" s="24"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
@@ -8548,8 +8521,8 @@
       <c r="C24" s="14">
         <v>1</v>
       </c>
-      <c r="D24" s="74" t="s">
-        <v>119</v>
+      <c r="D24" s="73" t="s">
+        <v>118</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>4</v>
@@ -8558,11 +8531,11 @@
       <c r="G24" s="14"/>
       <c r="H24" s="64"/>
       <c r="I24" s="60"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="90" t="s">
-        <v>160</v>
+      <c r="N24" s="72"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="89" t="s">
+        <v>159</v>
       </c>
       <c r="R24" s="56" t="s">
         <v>4</v>
@@ -8576,7 +8549,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
@@ -8585,25 +8558,25 @@
       <c r="C25" s="14">
         <v>1</v>
       </c>
-      <c r="D25" s="74" t="s">
-        <v>120</v>
+      <c r="D25" s="73" t="s">
+        <v>119</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25" s="64"/>
       <c r="I25" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="N25" s="73"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="90" t="s">
-        <v>161</v>
+        <v>124</v>
+      </c>
+      <c r="N25" s="72"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="89" t="s">
+        <v>160</v>
       </c>
       <c r="R25" s="56" t="s">
         <v>4</v>
@@ -8617,7 +8590,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
@@ -8627,7 +8600,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>4</v>
@@ -8636,13 +8609,13 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="N26" s="73"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="90" t="s">
-        <v>162</v>
+        <v>58</v>
+      </c>
+      <c r="N26" s="72"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="89" t="s">
+        <v>161</v>
       </c>
       <c r="R26" s="56" t="s">
         <v>4</v>
@@ -8656,7 +8629,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
@@ -8666,7 +8639,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>4</v>
@@ -8675,11 +8648,11 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="90" t="s">
-        <v>163</v>
+      <c r="N27" s="72"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="89" t="s">
+        <v>162</v>
       </c>
       <c r="R27" s="56" t="s">
         <v>4</v>
@@ -8690,12 +8663,12 @@
       <c r="V27" s="16"/>
       <c r="W27" s="21"/>
       <c r="X27" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
@@ -8705,7 +8678,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>4</v>
@@ -8714,13 +8687,13 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="N28" s="73"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="90" t="s">
-        <v>164</v>
+        <v>59</v>
+      </c>
+      <c r="N28" s="72"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="89" t="s">
+        <v>163</v>
       </c>
       <c r="R28" s="56" t="s">
         <v>4</v>
@@ -8734,7 +8707,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
@@ -8744,7 +8717,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>4</v>
@@ -8753,11 +8726,11 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="90" t="s">
-        <v>165</v>
+      <c r="N29" s="72"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="89" t="s">
+        <v>164</v>
       </c>
       <c r="R29" s="56" t="s">
         <v>4</v>
@@ -8771,7 +8744,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
@@ -8781,7 +8754,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>4</v>
@@ -8790,13 +8763,13 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="N30" s="73"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="90" t="s">
-        <v>166</v>
+        <v>60</v>
+      </c>
+      <c r="N30" s="72"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="89" t="s">
+        <v>165</v>
       </c>
       <c r="R30" s="56" t="s">
         <v>4</v>
@@ -8810,7 +8783,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
@@ -8820,7 +8793,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>4</v>
@@ -8829,16 +8802,16 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="89">
+      <c r="N31" s="72"/>
+      <c r="O31" s="88">
         <f>P23+O23</f>
         <v>28</v>
       </c>
-      <c r="P31" s="87">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="90" t="s">
-        <v>167</v>
+      <c r="P31" s="86">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="89" t="s">
+        <v>166</v>
       </c>
       <c r="R31" s="56" t="s">
         <v>4</v>
@@ -8852,7 +8825,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
@@ -8862,7 +8835,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>4</v>
@@ -8871,13 +8844,13 @@
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="N32" s="73"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="90" t="s">
-        <v>168</v>
+        <v>61</v>
+      </c>
+      <c r="N32" s="72"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="89" t="s">
+        <v>167</v>
       </c>
       <c r="R32" s="56" t="s">
         <v>4</v>
@@ -8891,7 +8864,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
@@ -8901,7 +8874,7 @@
         <v>20</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>4</v>
@@ -8910,11 +8883,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="90" t="s">
-        <v>169</v>
+      <c r="N33" s="72"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="89" t="s">
+        <v>168</v>
       </c>
       <c r="R33" s="56" t="s">
         <v>4</v>
@@ -8928,7 +8901,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
@@ -8938,7 +8911,7 @@
         <v>20</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>4</v>
@@ -8947,11 +8920,11 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="92"/>
-      <c r="Q34" s="90" t="s">
-        <v>170</v>
+      <c r="N34" s="72"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="89" t="s">
+        <v>169</v>
       </c>
       <c r="R34" s="56" t="s">
         <v>4</v>
@@ -8962,12 +8935,12 @@
       <c r="V34" s="16"/>
       <c r="W34" s="21"/>
       <c r="X34" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="0"/>
@@ -8977,7 +8950,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>4</v>
@@ -8986,11 +8959,11 @@
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="90" t="s">
-        <v>171</v>
+      <c r="N35" s="72"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="89" t="s">
+        <v>170</v>
       </c>
       <c r="R35" s="56" t="s">
         <v>4</v>
@@ -9004,7 +8977,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
@@ -9014,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>4</v>
@@ -9023,13 +8996,13 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N36" s="73"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="90" t="s">
-        <v>172</v>
+        <v>62</v>
+      </c>
+      <c r="N36" s="72"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="89" t="s">
+        <v>171</v>
       </c>
       <c r="R36" s="56" t="s">
         <v>4</v>
@@ -9043,7 +9016,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="0"/>
@@ -9053,7 +9026,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>4</v>
@@ -9062,11 +9035,11 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="90" t="s">
-        <v>173</v>
+      <c r="N37" s="72"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="91"/>
+      <c r="Q37" s="89" t="s">
+        <v>172</v>
       </c>
       <c r="R37" s="56" t="s">
         <v>4</v>
@@ -9080,7 +9053,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="0"/>
@@ -9090,20 +9063,20 @@
         <v>1</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="N38" s="73"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="94"/>
-      <c r="Q38" s="90" t="s">
-        <v>174</v>
+        <v>65</v>
+      </c>
+      <c r="N38" s="72"/>
+      <c r="O38" s="92"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="89" t="s">
+        <v>173</v>
       </c>
       <c r="R38" s="56" t="s">
         <v>4</v>
@@ -9113,13 +9086,13 @@
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X38" s="26"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="0"/>
@@ -9129,19 +9102,19 @@
         <v>4</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
-      <c r="N39" s="73"/>
+      <c r="N39" s="72"/>
       <c r="O39" s="53">
         <f>P31+O31</f>
         <v>29</v>
       </c>
-      <c r="P39" s="88">
+      <c r="P39" s="87">
         <v>1</v>
       </c>
       <c r="Q39" s="53" t="s">
@@ -9159,7 +9132,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="0"/>
@@ -9169,14 +9142,14 @@
         <v>4</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
-      <c r="N40" s="73"/>
+      <c r="N40" s="72"/>
       <c r="O40" s="53">
         <f t="shared" ref="O40:O49" si="3">P39+O39</f>
         <v>30</v>
@@ -9192,14 +9165,14 @@
       </c>
       <c r="S40" s="53"/>
       <c r="T40" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U40" s="53"/>
       <c r="V40" s="53"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="0"/>
@@ -9209,14 +9182,14 @@
         <v>4</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
-      <c r="N41" s="73"/>
+      <c r="N41" s="72"/>
       <c r="O41" s="53">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -9232,39 +9205,36 @@
       </c>
       <c r="S41" s="53"/>
       <c r="T41" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U41" s="53"/>
       <c r="V41" s="53"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>216</v>
-      </c>
-      <c r="C42" s="68">
-        <v>2</v>
-      </c>
-      <c r="D42" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="68">
-        <v>2020</v>
-      </c>
-      <c r="G42" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="H42" s="68"/>
-      <c r="I42" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="N42" s="73"/>
+        <f>C48+B48</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="19">
+        <v>20</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37">
+        <f>G83+F83</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="N42" s="72"/>
       <c r="O42" s="53">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -9280,33 +9250,21 @@
       </c>
       <c r="S42" s="53"/>
       <c r="T42" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U42" s="53"/>
       <c r="V42" s="53"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>301</v>
-      </c>
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>218</v>
-      </c>
-      <c r="C43" s="68">
-        <v>1</v>
-      </c>
-      <c r="D43" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="68" t="s">
-        <v>4</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
       <c r="F43" s="68"/>
       <c r="G43" s="68"/>
       <c r="H43" s="68"/>
-      <c r="I43" s="70"/>
-      <c r="N43" s="73"/>
+      <c r="I43" s="69"/>
+      <c r="N43" s="72"/>
       <c r="O43" s="53">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -9322,33 +9280,21 @@
       </c>
       <c r="S43" s="53"/>
       <c r="T43" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U43" s="53"/>
       <c r="V43" s="53"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>302</v>
-      </c>
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>219</v>
-      </c>
-      <c r="C44" s="68">
-        <v>1</v>
-      </c>
-      <c r="D44" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="68" t="s">
-        <v>4</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
       <c r="F44" s="68"/>
       <c r="G44" s="68"/>
       <c r="H44" s="68"/>
-      <c r="I44" s="70"/>
-      <c r="N44" s="73"/>
+      <c r="I44" s="69"/>
+      <c r="N44" s="72"/>
       <c r="O44" s="53">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -9364,33 +9310,21 @@
       </c>
       <c r="S44" s="53"/>
       <c r="T44" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U44" s="53"/>
       <c r="V44" s="53"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>303</v>
-      </c>
-      <c r="B45" s="1">
-        <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="C45" s="68">
-        <v>1</v>
-      </c>
-      <c r="D45" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="68" t="s">
-        <v>4</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
       <c r="F45" s="68"/>
       <c r="G45" s="68"/>
       <c r="H45" s="68"/>
-      <c r="I45" s="70"/>
-      <c r="N45" s="73"/>
+      <c r="I45" s="69"/>
+      <c r="N45" s="72"/>
       <c r="O45" s="53">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -9406,33 +9340,21 @@
       </c>
       <c r="S45" s="53"/>
       <c r="T45" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U45" s="53"/>
       <c r="V45" s="53"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>304</v>
-      </c>
-      <c r="B46" s="1">
-        <f t="shared" si="0"/>
-        <v>221</v>
-      </c>
-      <c r="C46" s="68">
-        <v>1</v>
-      </c>
-      <c r="D46" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="68" t="s">
-        <v>4</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
       <c r="F46" s="68"/>
       <c r="G46" s="68"/>
       <c r="H46" s="68"/>
-      <c r="I46" s="70"/>
-      <c r="N46" s="73"/>
+      <c r="I46" s="69"/>
+      <c r="N46" s="72"/>
       <c r="O46" s="53">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -9448,33 +9370,21 @@
       </c>
       <c r="S46" s="53"/>
       <c r="T46" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U46" s="53"/>
       <c r="V46" s="53"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>305</v>
-      </c>
-      <c r="B47" s="1">
-        <f t="shared" si="0"/>
-        <v>222</v>
-      </c>
-      <c r="C47" s="68">
-        <v>1</v>
-      </c>
-      <c r="D47" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="68" t="s">
-        <v>4</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
       <c r="F47" s="68"/>
       <c r="G47" s="68"/>
       <c r="H47" s="68"/>
-      <c r="I47" s="70"/>
-      <c r="N47" s="73"/>
+      <c r="I47" s="69"/>
+      <c r="N47" s="72"/>
       <c r="O47" s="53">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -9490,32 +9400,20 @@
       </c>
       <c r="S47" s="53"/>
       <c r="T47" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U47" s="53"/>
       <c r="V47" s="53"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>306</v>
-      </c>
-      <c r="B48" s="1">
-        <f t="shared" si="0"/>
-        <v>223</v>
-      </c>
-      <c r="C48" s="68">
-        <v>1</v>
-      </c>
-      <c r="D48" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="68" t="s">
-        <v>4</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
       <c r="F48" s="68"/>
       <c r="G48" s="68"/>
       <c r="H48" s="68"/>
-      <c r="I48" s="71"/>
+      <c r="I48" s="70"/>
       <c r="N48" s="42"/>
       <c r="O48" s="53">
         <f t="shared" si="3"/>
@@ -9525,7 +9423,7 @@
         <v>10</v>
       </c>
       <c r="Q48" s="53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R48" s="53" t="s">
         <v>4</v>
@@ -9535,50 +9433,27 @@
       <c r="U48" s="53"/>
       <c r="V48" s="53"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>261</v>
-      </c>
-      <c r="B49" s="1">
-        <f t="shared" si="0"/>
-        <v>224</v>
-      </c>
-      <c r="C49" s="19">
-        <v>20</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37">
-        <f>G83+F83</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="N49" s="42"/>
-      <c r="O49" s="75">
+      <c r="O49" s="74">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="P49" s="75">
+      <c r="P49" s="74">
         <v>20</v>
       </c>
-      <c r="Q49" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="R49" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="76"/>
-      <c r="T49" s="77"/>
-      <c r="U49" s="75"/>
-      <c r="V49" s="75"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Q49" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="R49" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="75"/>
+      <c r="T49" s="76"/>
+      <c r="U49" s="74"/>
+      <c r="V49" s="74"/>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="N50" s="42">
         <f>SUM(P5:P49)</f>
         <v>69</v>
@@ -9592,13 +9467,13 @@
       <c r="U50" s="30"/>
       <c r="V50" s="29"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51">
-        <f>SUM(C3:C49)</f>
-        <v>244</v>
+        <f>SUM(C3:C48)</f>
+        <v>236</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N51" s="42"/>
       <c r="O51" s="30"/>
@@ -9610,7 +9485,7 @@
       <c r="U51" s="30"/>
       <c r="V51" s="29"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="N52" s="42"/>
       <c r="O52" s="30"/>
       <c r="P52" s="30"/>
@@ -9621,7 +9496,7 @@
       <c r="U52" s="30"/>
       <c r="V52" s="29"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="N53" s="42"/>
       <c r="O53" s="30"/>
       <c r="P53" s="30"/>
@@ -9632,7 +9507,7 @@
       <c r="U53" s="28"/>
       <c r="V53" s="29"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="N54" s="42"/>
       <c r="O54" s="30"/>
       <c r="P54" s="30"/>
@@ -9641,9 +9516,9 @@
       <c r="S54" s="42"/>
       <c r="T54" s="29"/>
       <c r="U54" s="28"/>
-      <c r="V54" s="111"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V54" s="110"/>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="30"/>
       <c r="N55" s="42"/>
       <c r="O55" s="30"/>
@@ -9653,9 +9528,9 @@
       <c r="S55" s="42"/>
       <c r="T55" s="29"/>
       <c r="U55" s="30"/>
-      <c r="V55" s="111"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V55" s="110"/>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" s="30"/>
       <c r="N56" s="42"/>
       <c r="O56" s="30"/>
@@ -9665,9 +9540,9 @@
       <c r="S56" s="42"/>
       <c r="T56" s="29"/>
       <c r="U56" s="30"/>
-      <c r="V56" s="111"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V56" s="110"/>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="30"/>
       <c r="N57" s="42"/>
       <c r="O57" s="30"/>
@@ -9677,9 +9552,9 @@
       <c r="S57" s="42"/>
       <c r="T57" s="29"/>
       <c r="U57" s="30"/>
-      <c r="V57" s="111"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V57" s="110"/>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" s="30"/>
       <c r="N58" s="42"/>
       <c r="O58" s="30"/>
@@ -9689,9 +9564,9 @@
       <c r="S58" s="42"/>
       <c r="T58" s="29"/>
       <c r="U58" s="30"/>
-      <c r="V58" s="111"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V58" s="110"/>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -9708,9 +9583,9 @@
       <c r="S59" s="42"/>
       <c r="T59" s="29"/>
       <c r="U59" s="30"/>
-      <c r="V59" s="111"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V59" s="110"/>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
@@ -9727,9 +9602,9 @@
       <c r="S60" s="42"/>
       <c r="T60" s="29"/>
       <c r="U60" s="30"/>
-      <c r="V60" s="111"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V60" s="110"/>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="30"/>
@@ -9746,9 +9621,9 @@
       <c r="S61" s="42"/>
       <c r="T61" s="29"/>
       <c r="U61" s="28"/>
-      <c r="V61" s="111"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V61" s="110"/>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="30"/>
@@ -9759,7 +9634,7 @@
       <c r="I62" s="29"/>
       <c r="N62" s="41"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
@@ -9769,7 +9644,7 @@
       <c r="H63" s="30"/>
       <c r="I63" s="29"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="30"/>
@@ -10150,49 +10025,49 @@
   <sheetData>
     <row r="2" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="M2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" t="s">
         <v>98</v>
-      </c>
-      <c r="P3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" s="21"/>
     </row>
@@ -10204,7 +10079,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>3</v>
@@ -10217,7 +10092,7 @@
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" s="21"/>
     </row>
@@ -10230,7 +10105,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -10239,11 +10114,11 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J6" s="21"/>
     </row>
@@ -10256,7 +10131,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>3</v>
@@ -10265,11 +10140,11 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J7" s="21"/>
     </row>
@@ -10282,7 +10157,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -10291,15 +10166,15 @@
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
@@ -10311,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -10320,11 +10195,11 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9" s="21"/>
     </row>
@@ -10337,18 +10212,18 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J10" s="21"/>
     </row>
@@ -10361,7 +10236,7 @@
         <v>200</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>4</v>
@@ -10381,38 +10256,38 @@
         <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="I18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
@@ -10423,7 +10298,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>3</v>
@@ -10455,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -10469,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>3</v>
@@ -10478,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -10492,7 +10367,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>4</v>
@@ -10501,11 +10376,11 @@
         <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
@@ -10517,7 +10392,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -10526,11 +10401,11 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
@@ -10542,18 +10417,18 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
@@ -10565,7 +10440,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
@@ -10574,7 +10449,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -10586,7 +10461,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>4</v>
@@ -10605,7 +10480,7 @@
         <v>200</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>4</v>
@@ -10617,14 +10492,14 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="23">
         <f>SUM(C19:C27)</f>
         <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -10653,130 +10528,130 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
         <v>175</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>176</v>
       </c>
-      <c r="C5" t="s">
-        <v>177</v>
-      </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
         <v>178</v>
-      </c>
-      <c r="B6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="C7" t="s">
         <v>181</v>
-      </c>
-      <c r="C7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" t="s">
         <v>194</v>
       </c>
-      <c r="B20" t="s">
-        <v>195</v>
-      </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
         <v>196</v>
-      </c>
-      <c r="J21" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J22" t="s">
         <v>4</v>
@@ -10784,13 +10659,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J23" t="s">
         <v>3</v>
@@ -10798,13 +10673,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J24" t="s">
         <v>3</v>
@@ -10812,13 +10687,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J25" t="s">
         <v>3</v>
@@ -10826,477 +10701,477 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" s="94" t="s">
         <v>202</v>
-      </c>
-      <c r="E34" s="95" t="s">
-        <v>203</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="98" t="s">
-        <v>211</v>
+      <c r="B35" s="97" t="s">
+        <v>210</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="98"/>
+      <c r="B36" s="97"/>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="98"/>
+      <c r="B37" s="97"/>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="98"/>
+      <c r="B38" s="97"/>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H38" s="15" t="s">
         <v>19</v>
       </c>
       <c r="I38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="108" t="s">
-        <v>212</v>
+      <c r="B39" s="107" t="s">
+        <v>211</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="108"/>
+      <c r="B40" s="107"/>
       <c r="C40" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I40" t="s">
+        <v>244</v>
+      </c>
+      <c r="J40" s="108" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="107"/>
+      <c r="C41" t="s">
         <v>205</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H41" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J41" s="108"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="107"/>
+      <c r="C42" t="s">
+        <v>206</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J42" s="108"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="107"/>
+      <c r="C43" s="98" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="98"/>
+      <c r="H43" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J43" s="108"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="107"/>
+      <c r="C44" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="98"/>
+      <c r="H44" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J44" s="108" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="107"/>
+      <c r="C45" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="98"/>
+      <c r="H45" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J45" s="108"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="107"/>
+      <c r="C46" s="98" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" s="98"/>
+      <c r="H46" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J46" s="108"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="107"/>
+      <c r="C47" s="98" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="98"/>
+      <c r="H47" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J47" s="108" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="107"/>
+      <c r="C48" s="98" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" s="98"/>
+      <c r="H48" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I48" t="s">
         <v>245</v>
       </c>
-      <c r="J40" s="109" t="s">
+      <c r="J48" s="82" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="107"/>
+      <c r="C49" s="98" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" s="98"/>
+      <c r="H49" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J49" s="82"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="107"/>
+      <c r="C50" s="98" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" s="98"/>
+      <c r="H50" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J50" s="82"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="107"/>
+      <c r="C51" s="99" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="99"/>
+      <c r="H51" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J51" s="82" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="107"/>
+      <c r="C52" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="100"/>
+      <c r="H52" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J52" s="82"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="107"/>
+      <c r="C53" s="100" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="100"/>
+      <c r="H53" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J53" s="82"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" s="107"/>
+      <c r="C54" s="100" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="100"/>
+      <c r="H54" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J54" s="82"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="107"/>
+      <c r="C55" s="100" t="s">
+        <v>224</v>
+      </c>
+      <c r="D55" s="100"/>
+      <c r="H55" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J55" s="82" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="108"/>
-      <c r="C41" t="s">
-        <v>206</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="J41" s="109"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="108"/>
-      <c r="C42" t="s">
-        <v>207</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="J42" s="109"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="108"/>
-      <c r="C43" s="99" t="s">
-        <v>213</v>
-      </c>
-      <c r="D43" s="99"/>
-      <c r="H43" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="J43" s="109"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="108"/>
-      <c r="C44" s="99" t="s">
-        <v>214</v>
-      </c>
-      <c r="D44" s="99"/>
-      <c r="H44" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="J44" s="109" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="108"/>
-      <c r="C45" s="99" t="s">
-        <v>215</v>
-      </c>
-      <c r="D45" s="99"/>
-      <c r="H45" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="J45" s="109"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="108"/>
-      <c r="C46" s="99" t="s">
-        <v>216</v>
-      </c>
-      <c r="D46" s="99"/>
-      <c r="H46" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="J46" s="109"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="108"/>
-      <c r="C47" s="99" t="s">
-        <v>217</v>
-      </c>
-      <c r="D47" s="99"/>
-      <c r="H47" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="J47" s="109" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="108"/>
-      <c r="C48" s="99" t="s">
-        <v>218</v>
-      </c>
-      <c r="D48" s="99"/>
-      <c r="H48" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="I48" t="s">
-        <v>246</v>
-      </c>
-      <c r="J48" s="83" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="108"/>
-      <c r="C49" s="99" t="s">
-        <v>219</v>
-      </c>
-      <c r="D49" s="99"/>
-      <c r="H49" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="J49" s="83"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="108"/>
-      <c r="C50" s="99" t="s">
-        <v>220</v>
-      </c>
-      <c r="D50" s="99"/>
-      <c r="H50" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J50" s="83"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="108"/>
-      <c r="C51" s="100" t="s">
-        <v>221</v>
-      </c>
-      <c r="D51" s="100"/>
-      <c r="H51" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J51" s="83" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="108"/>
-      <c r="C52" s="101" t="s">
-        <v>222</v>
-      </c>
-      <c r="D52" s="101"/>
-      <c r="H52" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J52" s="83"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="108"/>
-      <c r="C53" s="101" t="s">
-        <v>223</v>
-      </c>
-      <c r="D53" s="101"/>
-      <c r="H53" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J53" s="83"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="108"/>
-      <c r="C54" s="101" t="s">
-        <v>224</v>
-      </c>
-      <c r="D54" s="101"/>
-      <c r="H54" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="J54" s="83"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="108"/>
-      <c r="C55" s="101" t="s">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="107"/>
+      <c r="C56" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="D55" s="101"/>
-      <c r="H55" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="J55" s="83" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="108"/>
-      <c r="C56" s="101" t="s">
-        <v>226</v>
-      </c>
-      <c r="D56" s="101"/>
+      <c r="D56" s="100"/>
       <c r="H56" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="108"/>
-      <c r="C57" s="102" t="s">
-        <v>227</v>
-      </c>
-      <c r="D57" s="102"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="101" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57" s="101"/>
       <c r="H57" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="108"/>
-      <c r="C58" s="102" t="s">
-        <v>228</v>
-      </c>
-      <c r="D58" s="102"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" s="101"/>
       <c r="H58" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="108"/>
-      <c r="C59" s="102" t="s">
-        <v>229</v>
-      </c>
-      <c r="D59" s="102"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="101" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="101"/>
       <c r="H59" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="108"/>
-      <c r="C60" s="81" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="81"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="80"/>
       <c r="H60" s="7" t="s">
         <v>9</v>
       </c>
       <c r="I60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="108"/>
-      <c r="C61" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="D61" s="81"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="80"/>
       <c r="H61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="108"/>
-      <c r="C62" s="101" t="s">
-        <v>215</v>
-      </c>
-      <c r="D62" s="101"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="100"/>
       <c r="H62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="108"/>
-      <c r="C63" s="101" t="s">
-        <v>226</v>
-      </c>
-      <c r="D63" s="101"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="100" t="s">
+        <v>225</v>
+      </c>
+      <c r="D63" s="100"/>
       <c r="H63" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="108"/>
-      <c r="C64" s="103" t="s">
-        <v>215</v>
-      </c>
-      <c r="D64" s="103"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" s="102"/>
       <c r="H64" s="7" t="s">
         <v>36</v>
       </c>
@@ -11305,130 +11180,130 @@
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="108"/>
-      <c r="C65" s="103" t="s">
-        <v>226</v>
-      </c>
-      <c r="D65" s="103"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="102" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" s="102"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="108"/>
-      <c r="C66" s="104" t="s">
+      <c r="B66" s="107"/>
+      <c r="C66" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="D66" s="103"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="107"/>
+      <c r="C67" s="103" t="s">
         <v>222</v>
       </c>
-      <c r="D66" s="104"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="108"/>
-      <c r="C67" s="104" t="s">
+      <c r="D67" s="103"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="107"/>
+      <c r="C68" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="D67" s="104"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="108"/>
-      <c r="C68" s="104" t="s">
-        <v>224</v>
-      </c>
-      <c r="D68" s="104"/>
+      <c r="D68" s="103"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="108"/>
-      <c r="C69" s="104" t="s">
-        <v>226</v>
-      </c>
-      <c r="D69" s="104"/>
+      <c r="B69" s="107"/>
+      <c r="C69" s="103" t="s">
+        <v>225</v>
+      </c>
+      <c r="D69" s="103"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="108"/>
-      <c r="C70" s="105" t="s">
+      <c r="B70" s="107"/>
+      <c r="C70" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70" s="104"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="107"/>
+      <c r="C71" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="D70" s="105"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="108"/>
-      <c r="C71" s="105" t="s">
+      <c r="D71" s="104"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="107"/>
+      <c r="C72" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" s="105"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="107"/>
+      <c r="C73" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="105"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="107"/>
+      <c r="C74" s="105" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" s="105"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="107"/>
+      <c r="C75" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="105"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="107"/>
+      <c r="C76" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="D71" s="105"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="108"/>
-      <c r="C72" s="106" t="s">
-        <v>221</v>
-      </c>
-      <c r="D72" s="106"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="108"/>
-      <c r="C73" s="106" t="s">
-        <v>215</v>
-      </c>
-      <c r="D73" s="106"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="108"/>
-      <c r="C74" s="106" t="s">
-        <v>223</v>
-      </c>
-      <c r="D74" s="106"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="108"/>
-      <c r="C75" s="106" t="s">
-        <v>224</v>
-      </c>
-      <c r="D75" s="106"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="108"/>
-      <c r="C76" s="107" t="s">
+      <c r="D76" s="106"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="107"/>
+      <c r="C77" s="106" t="s">
         <v>232</v>
       </c>
-      <c r="D76" s="107"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="108"/>
-      <c r="C77" s="107" t="s">
+      <c r="D77" s="106"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="107"/>
+      <c r="C78" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="D77" s="107"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="108"/>
-      <c r="C78" s="107" t="s">
+      <c r="D78" s="106"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="107"/>
+      <c r="C79" s="106" t="s">
         <v>234</v>
       </c>
-      <c r="D78" s="107"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="108"/>
-      <c r="C79" s="107" t="s">
+      <c r="D79" s="106"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="107"/>
+      <c r="C80" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="107"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="108"/>
-      <c r="C80" s="107" t="s">
+      <c r="D80" s="106"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="107"/>
+      <c r="C81" s="106" t="s">
         <v>236</v>
       </c>
-      <c r="D80" s="107"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="108"/>
-      <c r="C81" s="107" t="s">
+      <c r="D81" s="106"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="107"/>
+      <c r="C82" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="D81" s="107"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="108"/>
-      <c r="C82" s="107" t="s">
-        <v>238</v>
-      </c>
-      <c r="D82" s="107"/>
+      <c r="D82" s="106"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
+++ b/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ute\Lab_project\git_Indruino\IOT_ESP32\Indruino-Iot-Project\FW\Hau\mem_map_data_trans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Indruino-Iot-Project\FW\Hau\mem_map_data_trans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F30C941-711E-4BAC-A70B-46939B2AFC8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2A6541-D3AA-4CBA-B8B6-DE00F04AD051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mega" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4345,25 +4337,25 @@
       <selection activeCell="Q3" sqref="Q3:Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="13" max="19" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="13" max="19" width="13.28515625" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5546875" customWidth="1"/>
-    <col min="26" max="26" width="14.5546875" customWidth="1"/>
-    <col min="27" max="27" width="10.21875" customWidth="1"/>
-    <col min="28" max="28" width="6.109375" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" customWidth="1"/>
+    <col min="28" max="28" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:26" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B1" s="109" t="s">
         <v>21</v>
       </c>
@@ -4372,7 +4364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4409,7 +4401,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>139</v>
       </c>
@@ -4437,7 +4429,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>71</v>
       </c>
@@ -4488,7 +4480,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -4541,7 +4533,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -4597,7 +4589,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -4650,7 +4642,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -4703,7 +4695,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -4756,7 +4748,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -4809,7 +4801,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>242</v>
       </c>
@@ -4858,7 +4850,7 @@
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>239</v>
       </c>
@@ -4905,7 +4897,7 @@
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>241</v>
       </c>
@@ -4956,7 +4948,7 @@
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>243</v>
       </c>
@@ -5005,7 +4997,7 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>249</v>
       </c>
@@ -5052,7 +5044,7 @@
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>250</v>
       </c>
@@ -5099,7 +5091,7 @@
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>251</v>
       </c>
@@ -5146,7 +5138,7 @@
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>252</v>
       </c>
@@ -5193,7 +5185,7 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>253</v>
       </c>
@@ -5244,7 +5236,7 @@
       </c>
       <c r="AB19" s="24"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>254</v>
       </c>
@@ -5285,7 +5277,7 @@
       <c r="AA20" s="21"/>
       <c r="AB20" s="25"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>255</v>
       </c>
@@ -5326,7 +5318,7 @@
       <c r="AA21" s="21"/>
       <c r="AB21" s="25"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>256</v>
       </c>
@@ -5367,7 +5359,7 @@
       <c r="AA22" s="21"/>
       <c r="AB22" s="25"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>244</v>
       </c>
@@ -5412,7 +5404,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" s="49"/>
       <c r="D24" s="15" t="s">
@@ -5445,7 +5437,7 @@
       <c r="AA24" s="21"/>
       <c r="AB24" s="25"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="49"/>
       <c r="D25" s="15" t="s">
@@ -5478,7 +5470,7 @@
       <c r="AA25" s="21"/>
       <c r="AB25" s="25"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
       <c r="C26" s="49"/>
       <c r="D26" s="15" t="s">
@@ -5513,7 +5505,7 @@
       </c>
       <c r="AB26" s="26"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="49"/>
       <c r="D27" s="15" t="s">
@@ -5558,7 +5550,7 @@
       </c>
       <c r="AB27" s="24"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="49"/>
       <c r="D28" s="15" t="s">
@@ -5591,7 +5583,7 @@
       <c r="AA28" s="21"/>
       <c r="AB28" s="25"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="49"/>
       <c r="D29" s="15" t="s">
@@ -5624,7 +5616,7 @@
       <c r="AA29" s="21"/>
       <c r="AB29" s="25"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B30" s="15"/>
       <c r="C30" s="49"/>
       <c r="D30" s="15" t="s">
@@ -5657,7 +5649,7 @@
       <c r="AA30" s="21"/>
       <c r="AB30" s="25"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>245</v>
       </c>
@@ -5700,7 +5692,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B32" s="15"/>
       <c r="C32" s="49"/>
       <c r="D32" s="15" t="s">
@@ -5733,7 +5725,7 @@
       <c r="AA32" s="21"/>
       <c r="AB32" s="25"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B33" s="15"/>
       <c r="C33" s="49"/>
       <c r="D33" s="15" t="s">
@@ -5766,7 +5758,7 @@
       <c r="AA33" s="21"/>
       <c r="AB33" s="25"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B34" s="15"/>
       <c r="C34" s="49"/>
       <c r="D34" s="15" t="s">
@@ -5803,7 +5795,7 @@
       </c>
       <c r="AB34" s="26"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B35" s="15"/>
       <c r="C35" s="49"/>
       <c r="D35" s="15" t="s">
@@ -5846,7 +5838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" s="15"/>
       <c r="C36" s="49"/>
       <c r="D36" s="15" t="s">
@@ -5888,7 +5880,7 @@
       <c r="Y36" s="20"/>
       <c r="Z36" s="9"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B37" s="15"/>
       <c r="C37" s="49"/>
       <c r="D37" s="15" t="s">
@@ -5930,7 +5922,7 @@
       <c r="Y37" s="20"/>
       <c r="Z37" s="9"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
       <c r="C38" s="50"/>
       <c r="D38" s="15" t="s">
@@ -5974,7 +5966,7 @@
       <c r="Y38" s="20"/>
       <c r="Z38" s="9"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -6022,7 +6014,7 @@
       <c r="Y39" s="20"/>
       <c r="Z39" s="10"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -6070,7 +6062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -6117,7 +6109,7 @@
       <c r="Y41" s="20"/>
       <c r="Z41" s="9"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -6164,7 +6156,7 @@
       <c r="Y42" s="20"/>
       <c r="Z42" s="9"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>155</v>
       </c>
@@ -6211,7 +6203,7 @@
       <c r="Y43" s="20"/>
       <c r="Z43" s="9"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>152</v>
       </c>
@@ -6256,7 +6248,7 @@
       <c r="Y44" s="20"/>
       <c r="Z44" s="10"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>156</v>
       </c>
@@ -6304,7 +6296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -6351,7 +6343,7 @@
       <c r="Y46" s="20"/>
       <c r="Z46" s="9"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -6398,7 +6390,7 @@
       <c r="Y47" s="20"/>
       <c r="Z47" s="9"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>259</v>
       </c>
@@ -6443,7 +6435,7 @@
       <c r="Y48" s="20"/>
       <c r="Z48" s="9"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>260</v>
       </c>
@@ -6486,7 +6478,7 @@
       <c r="Y49" s="20"/>
       <c r="Z49" s="10"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R50" s="42">
         <v>0</v>
       </c>
@@ -6512,7 +6504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B51" s="80">
         <f>SUM(C5:C49)</f>
         <v>70</v>
@@ -6544,7 +6536,7 @@
       <c r="Y51" s="20"/>
       <c r="Z51" s="9"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R52" s="42">
         <f t="shared" si="7"/>
         <v>2</v>
@@ -6569,7 +6561,7 @@
       <c r="Y52" s="20"/>
       <c r="Z52" s="9"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R53" s="42">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -6594,7 +6586,7 @@
       <c r="Y53" s="20"/>
       <c r="Z53" s="9"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R54" s="42">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -6617,7 +6609,7 @@
       <c r="Y54" s="20"/>
       <c r="Z54" s="10"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R55" s="42">
         <v>0</v>
       </c>
@@ -6643,7 +6635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R56" s="42">
         <f t="shared" ref="R56" si="10">R55+T55</f>
         <v>1</v>
@@ -6668,7 +6660,7 @@
       <c r="Y56" s="20"/>
       <c r="Z56" s="9"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R57" s="42">
         <f t="shared" si="7"/>
         <v>2</v>
@@ -6693,7 +6685,7 @@
       <c r="Y57" s="20"/>
       <c r="Z57" s="9"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R58" s="42">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -6718,7 +6710,7 @@
       <c r="Y58" s="20"/>
       <c r="Z58" s="9"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B59" s="32"/>
       <c r="C59" s="33"/>
       <c r="D59" s="30"/>
@@ -6747,7 +6739,7 @@
       <c r="Y59" s="20"/>
       <c r="Z59" s="10"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B60" s="32"/>
       <c r="C60" s="33"/>
       <c r="D60" s="30"/>
@@ -6779,7 +6771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B61" s="32"/>
       <c r="C61" s="33"/>
       <c r="D61" s="30"/>
@@ -6810,7 +6802,7 @@
       <c r="Y61" s="20"/>
       <c r="Z61" s="9"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B62" s="32"/>
       <c r="C62" s="33"/>
       <c r="D62" s="30"/>
@@ -6841,7 +6833,7 @@
       <c r="Y62" s="20"/>
       <c r="Z62" s="9"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R63" s="42">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -6866,7 +6858,7 @@
       <c r="Y63" s="20"/>
       <c r="Z63" s="9"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R64" s="42">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -6889,7 +6881,7 @@
       <c r="Y64" s="20"/>
       <c r="Z64" s="10"/>
     </row>
-    <row r="65" spans="18:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R65" s="42">
         <v>0</v>
       </c>
@@ -6915,7 +6907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="18:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R66" s="42">
         <f t="shared" ref="R66" si="12">R65+T65</f>
         <v>1</v>
@@ -6940,7 +6932,7 @@
       <c r="Y66" s="20"/>
       <c r="Z66" s="9"/>
     </row>
-    <row r="67" spans="18:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R67" s="42">
         <f t="shared" si="7"/>
         <v>2</v>
@@ -6965,7 +6957,7 @@
       <c r="Y67" s="20"/>
       <c r="Z67" s="9"/>
     </row>
-    <row r="68" spans="18:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R68" s="42">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -6990,7 +6982,7 @@
       <c r="Y68" s="20"/>
       <c r="Z68" s="9"/>
     </row>
-    <row r="69" spans="18:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R69" s="42">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -7013,7 +7005,7 @@
       <c r="Y69" s="20"/>
       <c r="Z69" s="10"/>
     </row>
-    <row r="70" spans="18:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R70" s="42">
         <v>0</v>
       </c>
@@ -7039,7 +7031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="18:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R71" s="42">
         <f t="shared" ref="R71" si="13">R70+T70</f>
         <v>1</v>
@@ -7064,7 +7056,7 @@
       <c r="Y71" s="20"/>
       <c r="Z71" s="9"/>
     </row>
-    <row r="72" spans="18:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R72" s="42">
         <f t="shared" si="7"/>
         <v>2</v>
@@ -7089,7 +7081,7 @@
       <c r="Y72" s="20"/>
       <c r="Z72" s="9"/>
     </row>
-    <row r="73" spans="18:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R73" s="42">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -7114,7 +7106,7 @@
       <c r="Y73" s="20"/>
       <c r="Z73" s="9"/>
     </row>
-    <row r="74" spans="18:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R74" s="42">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -7137,7 +7129,7 @@
       <c r="Y74" s="20"/>
       <c r="Z74" s="10"/>
     </row>
-    <row r="75" spans="18:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R75" s="42">
         <v>0</v>
       </c>
@@ -7163,7 +7155,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="18:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R76" s="42">
         <f t="shared" ref="R76" si="14">R75+T75</f>
         <v>1</v>
@@ -7188,7 +7180,7 @@
       <c r="Y76" s="20"/>
       <c r="Z76" s="9"/>
     </row>
-    <row r="77" spans="18:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R77" s="42">
         <f t="shared" si="7"/>
         <v>2</v>
@@ -7213,7 +7205,7 @@
       <c r="Y77" s="20"/>
       <c r="Z77" s="9"/>
     </row>
-    <row r="78" spans="18:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R78" s="42">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -7238,7 +7230,7 @@
       <c r="Y78" s="20"/>
       <c r="Z78" s="9"/>
     </row>
-    <row r="79" spans="18:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R79" s="42">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -7261,7 +7253,7 @@
       <c r="Y79" s="20"/>
       <c r="Z79" s="10"/>
     </row>
-    <row r="80" spans="18:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R80" s="42">
         <v>0</v>
       </c>
@@ -7287,7 +7279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="18:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R81" s="42">
         <f t="shared" ref="R81" si="15">R80+T80</f>
         <v>1</v>
@@ -7312,7 +7304,7 @@
       <c r="Y81" s="31"/>
       <c r="Z81" s="9"/>
     </row>
-    <row r="82" spans="18:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R82" s="42">
         <f t="shared" si="7"/>
         <v>2</v>
@@ -7339,7 +7331,7 @@
       <c r="AA82" s="29"/>
       <c r="AB82" s="29"/>
     </row>
-    <row r="83" spans="18:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R83" s="42">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -7366,7 +7358,7 @@
       <c r="AA83" s="29"/>
       <c r="AB83" s="29"/>
     </row>
-    <row r="84" spans="18:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R84" s="42">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -7391,7 +7383,7 @@
       <c r="AA84" s="29"/>
       <c r="AB84" s="29"/>
     </row>
-    <row r="85" spans="18:28" x14ac:dyDescent="0.3">
+    <row r="85" spans="18:28" x14ac:dyDescent="0.25">
       <c r="S85" s="4">
         <f>S84+T84</f>
         <v>168</v>
@@ -7408,21 +7400,21 @@
       <c r="AA85" s="29"/>
       <c r="AB85" s="29"/>
     </row>
-    <row r="86" spans="18:28" x14ac:dyDescent="0.3">
+    <row r="86" spans="18:28" x14ac:dyDescent="0.25">
       <c r="X86" s="29"/>
       <c r="Y86" s="28"/>
       <c r="Z86" s="30"/>
       <c r="AA86" s="29"/>
       <c r="AB86" s="29"/>
     </row>
-    <row r="87" spans="18:28" x14ac:dyDescent="0.3">
+    <row r="87" spans="18:28" x14ac:dyDescent="0.25">
       <c r="X87" s="29"/>
       <c r="Y87" s="28"/>
       <c r="Z87" s="30"/>
       <c r="AA87" s="29"/>
       <c r="AB87" s="29"/>
     </row>
-    <row r="88" spans="18:28" x14ac:dyDescent="0.3">
+    <row r="88" spans="18:28" x14ac:dyDescent="0.25">
       <c r="T88">
         <f>SUM(T3:T85)</f>
         <v>188</v>
@@ -7433,63 +7425,63 @@
       <c r="AA88" s="29"/>
       <c r="AB88" s="29"/>
     </row>
-    <row r="89" spans="18:28" x14ac:dyDescent="0.3">
+    <row r="89" spans="18:28" x14ac:dyDescent="0.25">
       <c r="X89" s="29"/>
       <c r="Y89" s="28"/>
       <c r="Z89" s="28"/>
       <c r="AA89" s="29"/>
       <c r="AB89" s="29"/>
     </row>
-    <row r="90" spans="18:28" x14ac:dyDescent="0.3">
+    <row r="90" spans="18:28" x14ac:dyDescent="0.25">
       <c r="X90" s="29"/>
       <c r="Y90" s="28"/>
       <c r="Z90" s="30"/>
       <c r="AA90" s="29"/>
       <c r="AB90" s="29"/>
     </row>
-    <row r="91" spans="18:28" x14ac:dyDescent="0.3">
+    <row r="91" spans="18:28" x14ac:dyDescent="0.25">
       <c r="X91" s="29"/>
       <c r="Y91" s="28"/>
       <c r="Z91" s="30"/>
       <c r="AA91" s="29"/>
       <c r="AB91" s="29"/>
     </row>
-    <row r="92" spans="18:28" x14ac:dyDescent="0.3">
+    <row r="92" spans="18:28" x14ac:dyDescent="0.25">
       <c r="X92" s="29"/>
       <c r="Y92" s="28"/>
       <c r="Z92" s="30"/>
       <c r="AA92" s="29"/>
       <c r="AB92" s="29"/>
     </row>
-    <row r="93" spans="18:28" x14ac:dyDescent="0.3">
+    <row r="93" spans="18:28" x14ac:dyDescent="0.25">
       <c r="X93" s="29"/>
       <c r="Y93" s="28"/>
       <c r="Z93" s="30"/>
       <c r="AA93" s="29"/>
       <c r="AB93" s="29"/>
     </row>
-    <row r="94" spans="18:28" x14ac:dyDescent="0.3">
+    <row r="94" spans="18:28" x14ac:dyDescent="0.25">
       <c r="X94" s="29"/>
       <c r="Y94" s="28"/>
       <c r="Z94" s="30"/>
       <c r="AA94" s="29"/>
       <c r="AB94" s="29"/>
     </row>
-    <row r="95" spans="18:28" x14ac:dyDescent="0.3">
+    <row r="95" spans="18:28" x14ac:dyDescent="0.25">
       <c r="X95" s="29"/>
       <c r="Y95" s="28"/>
       <c r="Z95" s="30"/>
       <c r="AA95" s="29"/>
       <c r="AB95" s="29"/>
     </row>
-    <row r="96" spans="18:28" x14ac:dyDescent="0.3">
+    <row r="96" spans="18:28" x14ac:dyDescent="0.25">
       <c r="X96" s="29"/>
       <c r="Y96" s="28"/>
       <c r="Z96" s="28"/>
       <c r="AA96" s="29"/>
       <c r="AB96" s="29"/>
     </row>
-    <row r="99" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M99" t="s">
         <v>37</v>
       </c>
@@ -7509,31 +7501,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCF18E1-EDBB-4A5D-A645-8FDD3797B808}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="28.33203125" customWidth="1"/>
-    <col min="14" max="14" width="22.88671875" customWidth="1"/>
-    <col min="16" max="16" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" customWidth="1"/>
-    <col min="22" max="22" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>71</v>
       </c>
@@ -7562,7 +7554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -7588,12 +7580,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="18">
-        <f t="shared" ref="B4:B49" si="0">C3+B3</f>
+        <f t="shared" ref="B4:B42" si="0">C3+B3</f>
         <v>2</v>
       </c>
       <c r="C4" s="18">
@@ -7640,7 +7632,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -7691,7 +7683,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>240</v>
       </c>
@@ -7743,7 +7735,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>242</v>
       </c>
@@ -7793,7 +7785,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -7843,7 +7835,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>266</v>
       </c>
@@ -7893,7 +7885,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>270</v>
       </c>
@@ -7943,7 +7935,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>271</v>
       </c>
@@ -7985,7 +7977,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>272</v>
       </c>
@@ -8027,7 +8019,7 @@
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>273</v>
       </c>
@@ -8073,7 +8065,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>274</v>
       </c>
@@ -8117,7 +8109,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>275</v>
       </c>
@@ -8159,7 +8151,7 @@
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>276</v>
       </c>
@@ -8204,7 +8196,7 @@
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -8248,7 +8240,7 @@
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>268</v>
       </c>
@@ -8292,7 +8284,7 @@
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>269</v>
       </c>
@@ -8334,7 +8326,7 @@
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>277</v>
       </c>
@@ -8376,7 +8368,7 @@
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>278</v>
       </c>
@@ -8422,7 +8414,7 @@
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>279</v>
       </c>
@@ -8464,7 +8456,7 @@
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>280</v>
       </c>
@@ -8510,7 +8502,7 @@
       </c>
       <c r="X23" s="24"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>281</v>
       </c>
@@ -8547,7 +8539,7 @@
       <c r="W24" s="21"/>
       <c r="X24" s="25"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>282</v>
       </c>
@@ -8588,7 +8580,7 @@
       <c r="W25" s="21"/>
       <c r="X25" s="25"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>283</v>
       </c>
@@ -8627,7 +8619,7 @@
       <c r="W26" s="21"/>
       <c r="X26" s="25"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>284</v>
       </c>
@@ -8666,7 +8658,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>285</v>
       </c>
@@ -8705,7 +8697,7 @@
       <c r="W28" s="21"/>
       <c r="X28" s="25"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>286</v>
       </c>
@@ -8742,7 +8734,7 @@
       <c r="W29" s="21"/>
       <c r="X29" s="25"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>287</v>
       </c>
@@ -8781,7 +8773,7 @@
       <c r="W30" s="35"/>
       <c r="X30" s="26"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>288</v>
       </c>
@@ -8823,7 +8815,7 @@
       <c r="W31" s="34"/>
       <c r="X31" s="25"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>289</v>
       </c>
@@ -8862,7 +8854,7 @@
       <c r="W32" s="21"/>
       <c r="X32" s="25"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>290</v>
       </c>
@@ -8899,7 +8891,7 @@
       <c r="W33" s="21"/>
       <c r="X33" s="25"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>291</v>
       </c>
@@ -8938,7 +8930,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>292</v>
       </c>
@@ -8975,7 +8967,7 @@
       <c r="W35" s="21"/>
       <c r="X35" s="25"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>293</v>
       </c>
@@ -9014,7 +9006,7 @@
       <c r="W36" s="21"/>
       <c r="X36" s="25"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>294</v>
       </c>
@@ -9051,7 +9043,7 @@
       <c r="W37" s="21"/>
       <c r="X37" s="25"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>295</v>
       </c>
@@ -9090,7 +9082,7 @@
       </c>
       <c r="X38" s="26"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>296</v>
       </c>
@@ -9130,7 +9122,7 @@
       <c r="U39" s="53"/>
       <c r="V39" s="53"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>297</v>
       </c>
@@ -9170,7 +9162,7 @@
       <c r="U40" s="53"/>
       <c r="V40" s="53"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>298</v>
       </c>
@@ -9210,13 +9202,13 @@
       <c r="U41" s="53"/>
       <c r="V41" s="53"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>260</v>
       </c>
       <c r="B42" s="1">
-        <f>C48+B48</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>216</v>
       </c>
       <c r="C42" s="19">
         <v>20</v>
@@ -9255,7 +9247,7 @@
       <c r="U42" s="53"/>
       <c r="V42" s="53"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="68"/>
       <c r="D43" s="68"/>
@@ -9285,7 +9277,7 @@
       <c r="U43" s="53"/>
       <c r="V43" s="53"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="68"/>
       <c r="D44" s="68"/>
@@ -9315,7 +9307,7 @@
       <c r="U44" s="53"/>
       <c r="V44" s="53"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="68"/>
       <c r="D45" s="68"/>
@@ -9345,7 +9337,7 @@
       <c r="U45" s="53"/>
       <c r="V45" s="53"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="68"/>
       <c r="D46" s="68"/>
@@ -9375,7 +9367,7 @@
       <c r="U46" s="53"/>
       <c r="V46" s="53"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="68"/>
       <c r="D47" s="68"/>
@@ -9405,7 +9397,7 @@
       <c r="U47" s="53"/>
       <c r="V47" s="53"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="68"/>
       <c r="D48" s="68"/>
@@ -9433,7 +9425,7 @@
       <c r="U48" s="53"/>
       <c r="V48" s="53"/>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N49" s="42"/>
       <c r="O49" s="74">
         <f t="shared" si="3"/>
@@ -9453,7 +9445,7 @@
       <c r="U49" s="74"/>
       <c r="V49" s="74"/>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N50" s="42">
         <f>SUM(P5:P49)</f>
         <v>69</v>
@@ -9467,7 +9459,7 @@
       <c r="U50" s="30"/>
       <c r="V50" s="29"/>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51">
         <f>SUM(C3:C48)</f>
         <v>236</v>
@@ -9485,7 +9477,7 @@
       <c r="U51" s="30"/>
       <c r="V51" s="29"/>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N52" s="42"/>
       <c r="O52" s="30"/>
       <c r="P52" s="30"/>
@@ -9496,7 +9488,7 @@
       <c r="U52" s="30"/>
       <c r="V52" s="29"/>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N53" s="42"/>
       <c r="O53" s="30"/>
       <c r="P53" s="30"/>
@@ -9507,7 +9499,7 @@
       <c r="U53" s="28"/>
       <c r="V53" s="29"/>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N54" s="42"/>
       <c r="O54" s="30"/>
       <c r="P54" s="30"/>
@@ -9518,7 +9510,7 @@
       <c r="U54" s="28"/>
       <c r="V54" s="110"/>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="30"/>
       <c r="N55" s="42"/>
       <c r="O55" s="30"/>
@@ -9530,7 +9522,7 @@
       <c r="U55" s="30"/>
       <c r="V55" s="110"/>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="30"/>
       <c r="N56" s="42"/>
       <c r="O56" s="30"/>
@@ -9542,7 +9534,7 @@
       <c r="U56" s="30"/>
       <c r="V56" s="110"/>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="30"/>
       <c r="N57" s="42"/>
       <c r="O57" s="30"/>
@@ -9554,7 +9546,7 @@
       <c r="U57" s="30"/>
       <c r="V57" s="110"/>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="30"/>
       <c r="N58" s="42"/>
       <c r="O58" s="30"/>
@@ -9566,7 +9558,7 @@
       <c r="U58" s="30"/>
       <c r="V58" s="110"/>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -9585,7 +9577,7 @@
       <c r="U59" s="30"/>
       <c r="V59" s="110"/>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
@@ -9604,7 +9596,7 @@
       <c r="U60" s="30"/>
       <c r="V60" s="110"/>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="30"/>
@@ -9623,7 +9615,7 @@
       <c r="U61" s="28"/>
       <c r="V61" s="110"/>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="30"/>
@@ -9634,7 +9626,7 @@
       <c r="I62" s="29"/>
       <c r="N62" s="41"/>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
@@ -9644,7 +9636,7 @@
       <c r="H63" s="30"/>
       <c r="I63" s="29"/>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="30"/>
@@ -9654,7 +9646,7 @@
       <c r="H64" s="28"/>
       <c r="I64" s="29"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
@@ -9664,7 +9656,7 @@
       <c r="H65" s="28"/>
       <c r="I65" s="29"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
       <c r="D66" s="30"/>
@@ -9674,7 +9666,7 @@
       <c r="H66" s="30"/>
       <c r="I66" s="29"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
@@ -9684,7 +9676,7 @@
       <c r="H67" s="30"/>
       <c r="I67" s="29"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -9694,7 +9686,7 @@
       <c r="H68" s="30"/>
       <c r="I68" s="29"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
       <c r="D69" s="30"/>
@@ -9704,7 +9696,7 @@
       <c r="H69" s="30"/>
       <c r="I69" s="29"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
       <c r="D70" s="30"/>
@@ -9714,7 +9706,7 @@
       <c r="H70" s="30"/>
       <c r="I70" s="29"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
       <c r="D71" s="30"/>
@@ -9724,7 +9716,7 @@
       <c r="H71" s="30"/>
       <c r="I71" s="29"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
       <c r="D72" s="30"/>
@@ -9734,7 +9726,7 @@
       <c r="H72" s="28"/>
       <c r="I72" s="29"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="30"/>
       <c r="C73" s="30"/>
       <c r="D73" s="30"/>
@@ -9744,7 +9736,7 @@
       <c r="H73" s="28"/>
       <c r="I73" s="29"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="30"/>
       <c r="C74" s="30"/>
       <c r="D74" s="30"/>
@@ -9754,7 +9746,7 @@
       <c r="H74" s="30"/>
       <c r="I74" s="29"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="30"/>
       <c r="C75" s="30"/>
       <c r="D75" s="30"/>
@@ -9764,7 +9756,7 @@
       <c r="H75" s="30"/>
       <c r="I75" s="29"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
       <c r="D76" s="30"/>
@@ -9774,7 +9766,7 @@
       <c r="H76" s="30"/>
       <c r="I76" s="29"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="30"/>
       <c r="C77" s="30"/>
       <c r="D77" s="30"/>
@@ -9784,7 +9776,7 @@
       <c r="H77" s="30"/>
       <c r="I77" s="29"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
       <c r="D78" s="30"/>
@@ -9794,7 +9786,7 @@
       <c r="H78" s="30"/>
       <c r="I78" s="29"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
       <c r="D79" s="30"/>
@@ -9804,7 +9796,7 @@
       <c r="H79" s="30"/>
       <c r="I79" s="29"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
       <c r="D80" s="30"/>
@@ -9814,7 +9806,7 @@
       <c r="H80" s="28"/>
       <c r="I80" s="29"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="30"/>
       <c r="C81" s="30"/>
       <c r="D81" s="30"/>
@@ -9824,7 +9816,7 @@
       <c r="H81" s="28"/>
       <c r="I81" s="29"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="30"/>
       <c r="C82" s="30"/>
       <c r="D82" s="30"/>
@@ -9834,7 +9826,7 @@
       <c r="H82" s="30"/>
       <c r="I82" s="29"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="30"/>
       <c r="C83" s="30"/>
       <c r="D83" s="30"/>
@@ -9844,7 +9836,7 @@
       <c r="H83" s="30"/>
       <c r="I83" s="29"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
       <c r="D84" s="30"/>
@@ -9854,7 +9846,7 @@
       <c r="H84" s="30"/>
       <c r="I84" s="29"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="30"/>
       <c r="C85" s="30"/>
       <c r="D85" s="30"/>
@@ -9864,7 +9856,7 @@
       <c r="H85" s="30"/>
       <c r="I85" s="29"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
       <c r="D86" s="30"/>
@@ -9874,7 +9866,7 @@
       <c r="H86" s="30"/>
       <c r="I86" s="29"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
       <c r="D87" s="30"/>
@@ -9884,7 +9876,7 @@
       <c r="H87" s="30"/>
       <c r="I87" s="29"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="30"/>
       <c r="C88" s="30"/>
       <c r="D88" s="30"/>
@@ -9894,7 +9886,7 @@
       <c r="H88" s="28"/>
       <c r="I88" s="29"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="30"/>
       <c r="C89" s="30"/>
       <c r="D89" s="30"/>
@@ -9904,7 +9896,7 @@
       <c r="H89" s="30"/>
       <c r="I89" s="30"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="30"/>
       <c r="C90" s="30"/>
       <c r="D90" s="30"/>
@@ -9914,7 +9906,7 @@
       <c r="H90" s="30"/>
       <c r="I90" s="30"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="30"/>
       <c r="C91" s="30"/>
       <c r="D91" s="30"/>
@@ -9924,7 +9916,7 @@
       <c r="H91" s="30"/>
       <c r="I91" s="30"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="30"/>
       <c r="C92" s="30"/>
       <c r="D92" s="30"/>
@@ -9934,7 +9926,7 @@
       <c r="H92" s="30"/>
       <c r="I92" s="30"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="30"/>
       <c r="C93" s="30"/>
       <c r="D93" s="30"/>
@@ -9944,7 +9936,7 @@
       <c r="H93" s="30"/>
       <c r="I93" s="30"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="30"/>
       <c r="C94" s="30"/>
       <c r="D94" s="30"/>
@@ -9954,7 +9946,7 @@
       <c r="H94" s="30"/>
       <c r="I94" s="30"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="30"/>
       <c r="C95" s="30"/>
       <c r="D95" s="30"/>
@@ -9964,7 +9956,7 @@
       <c r="H95" s="30"/>
       <c r="I95" s="30"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="30"/>
       <c r="C96" s="30"/>
       <c r="D96" s="30"/>
@@ -9974,7 +9966,7 @@
       <c r="H96" s="30"/>
       <c r="I96" s="30"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="30"/>
       <c r="C97" s="30"/>
       <c r="D97" s="30"/>
@@ -9984,7 +9976,7 @@
       <c r="H97" s="30"/>
       <c r="I97" s="30"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="30"/>
       <c r="C98" s="30"/>
       <c r="D98" s="30"/>
@@ -10013,17 +10005,17 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="22" t="s">
         <v>94</v>
       </c>
@@ -10036,7 +10028,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M3" t="s">
         <v>97</v>
       </c>
@@ -10044,7 +10036,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>71</v>
       </c>
@@ -10071,7 +10063,7 @@
       </c>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="20">
         <v>0</v>
       </c>
@@ -10096,7 +10088,7 @@
       </c>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f>C5+B5</f>
         <v>2</v>
@@ -10122,7 +10114,7 @@
       </c>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f>C6+B6</f>
         <v>3</v>
@@ -10148,7 +10140,7 @@
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ref="B8:B11" si="0">C7+B7</f>
         <v>4</v>
@@ -10177,7 +10169,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10203,7 +10195,7 @@
       </c>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10227,7 +10219,7 @@
       </c>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10247,7 +10239,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
         <v>37</v>
       </c>
@@ -10259,12 +10251,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
@@ -10290,7 +10282,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="20">
         <v>0</v>
       </c>
@@ -10312,7 +10304,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f>C19+B19</f>
         <v>2</v>
@@ -10335,7 +10327,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f>C20+B20</f>
         <v>3</v>
@@ -10358,7 +10350,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" ref="B22:B27" si="1">C21+B21</f>
         <v>4</v>
@@ -10383,7 +10375,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -10408,7 +10400,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -10431,7 +10423,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -10452,7 +10444,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -10471,7 +10463,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -10490,7 +10482,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="23" t="s">
         <v>96</v>
       </c>
@@ -10517,26 +10509,26 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" customWidth="1"/>
-    <col min="3" max="4" width="46.77734375" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="3" max="4" width="46.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -10550,7 +10542,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -10558,7 +10550,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>179</v>
       </c>
@@ -10569,62 +10561,62 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -10635,7 +10627,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>195</v>
       </c>
@@ -10643,7 +10635,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>183</v>
       </c>
@@ -10657,7 +10649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -10671,7 +10663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>185</v>
       </c>
@@ -10685,7 +10677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>186</v>
       </c>
@@ -10699,7 +10691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>187</v>
       </c>
@@ -10710,7 +10702,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>188</v>
       </c>
@@ -10721,7 +10713,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>189</v>
       </c>
@@ -10732,7 +10724,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>190</v>
       </c>
@@ -10743,7 +10735,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>191</v>
       </c>
@@ -10754,7 +10746,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>192</v>
       </c>
@@ -10765,7 +10757,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>199</v>
       </c>
@@ -10779,7 +10771,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>200</v>
       </c>
@@ -10790,7 +10782,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>201</v>
       </c>
@@ -10804,7 +10796,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="97" t="s">
         <v>210</v>
       </c>
@@ -10821,7 +10813,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="97"/>
       <c r="C36" t="s">
         <v>204</v>
@@ -10833,7 +10825,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="97"/>
       <c r="C37" t="s">
         <v>205</v>
@@ -10845,7 +10837,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="97"/>
       <c r="C38" t="s">
         <v>206</v>
@@ -10857,7 +10849,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="107" t="s">
         <v>211</v>
       </c>
@@ -10871,7 +10863,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="107"/>
       <c r="C40" t="s">
         <v>204</v>
@@ -10886,7 +10878,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="107"/>
       <c r="C41" t="s">
         <v>205</v>
@@ -10896,7 +10888,7 @@
       </c>
       <c r="J41" s="108"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="107"/>
       <c r="C42" t="s">
         <v>206</v>
@@ -10906,7 +10898,7 @@
       </c>
       <c r="J42" s="108"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="107"/>
       <c r="C43" s="98" t="s">
         <v>212</v>
@@ -10917,7 +10909,7 @@
       </c>
       <c r="J43" s="108"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="107"/>
       <c r="C44" s="98" t="s">
         <v>213</v>
@@ -10930,7 +10922,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="107"/>
       <c r="C45" s="98" t="s">
         <v>214</v>
@@ -10941,7 +10933,7 @@
       </c>
       <c r="J45" s="108"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="107"/>
       <c r="C46" s="98" t="s">
         <v>215</v>
@@ -10952,7 +10944,7 @@
       </c>
       <c r="J46" s="108"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="107"/>
       <c r="C47" s="98" t="s">
         <v>216</v>
@@ -10965,7 +10957,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="107"/>
       <c r="C48" s="98" t="s">
         <v>217</v>
@@ -10981,7 +10973,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="107"/>
       <c r="C49" s="98" t="s">
         <v>218</v>
@@ -10992,7 +10984,7 @@
       </c>
       <c r="J49" s="82"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="107"/>
       <c r="C50" s="98" t="s">
         <v>219</v>
@@ -11003,7 +10995,7 @@
       </c>
       <c r="J50" s="82"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="107"/>
       <c r="C51" s="99" t="s">
         <v>220</v>
@@ -11016,7 +11008,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="107"/>
       <c r="C52" s="100" t="s">
         <v>221</v>
@@ -11027,7 +11019,7 @@
       </c>
       <c r="J52" s="82"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="107"/>
       <c r="C53" s="100" t="s">
         <v>222</v>
@@ -11038,7 +11030,7 @@
       </c>
       <c r="J53" s="82"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="107"/>
       <c r="C54" s="100" t="s">
         <v>223</v>
@@ -11049,7 +11041,7 @@
       </c>
       <c r="J54" s="82"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="107"/>
       <c r="C55" s="100" t="s">
         <v>224</v>
@@ -11062,7 +11054,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="107"/>
       <c r="C56" s="100" t="s">
         <v>225</v>
@@ -11075,7 +11067,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="107"/>
       <c r="C57" s="101" t="s">
         <v>226</v>
@@ -11088,7 +11080,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="107"/>
       <c r="C58" s="101" t="s">
         <v>227</v>
@@ -11101,7 +11093,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="107"/>
       <c r="C59" s="101" t="s">
         <v>228</v>
@@ -11114,7 +11106,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="107"/>
       <c r="C60" s="80" t="s">
         <v>214</v>
@@ -11127,7 +11119,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="107"/>
       <c r="C61" s="80" t="s">
         <v>225</v>
@@ -11140,7 +11132,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="107"/>
       <c r="C62" s="100" t="s">
         <v>214</v>
@@ -11153,7 +11145,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="107"/>
       <c r="C63" s="100" t="s">
         <v>225</v>
@@ -11166,7 +11158,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="107"/>
       <c r="C64" s="102" t="s">
         <v>214</v>
@@ -11179,126 +11171,126 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="107"/>
       <c r="C65" s="102" t="s">
         <v>225</v>
       </c>
       <c r="D65" s="102"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="107"/>
       <c r="C66" s="103" t="s">
         <v>221</v>
       </c>
       <c r="D66" s="103"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="107"/>
       <c r="C67" s="103" t="s">
         <v>222</v>
       </c>
       <c r="D67" s="103"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="107"/>
       <c r="C68" s="103" t="s">
         <v>223</v>
       </c>
       <c r="D68" s="103"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="107"/>
       <c r="C69" s="103" t="s">
         <v>225</v>
       </c>
       <c r="D69" s="103"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="107"/>
       <c r="C70" s="104" t="s">
         <v>229</v>
       </c>
       <c r="D70" s="104"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="107"/>
       <c r="C71" s="104" t="s">
         <v>230</v>
       </c>
       <c r="D71" s="104"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="107"/>
       <c r="C72" s="105" t="s">
         <v>220</v>
       </c>
       <c r="D72" s="105"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="107"/>
       <c r="C73" s="105" t="s">
         <v>214</v>
       </c>
       <c r="D73" s="105"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="107"/>
       <c r="C74" s="105" t="s">
         <v>222</v>
       </c>
       <c r="D74" s="105"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="107"/>
       <c r="C75" s="105" t="s">
         <v>223</v>
       </c>
       <c r="D75" s="105"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="107"/>
       <c r="C76" s="106" t="s">
         <v>231</v>
       </c>
       <c r="D76" s="106"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="107"/>
       <c r="C77" s="106" t="s">
         <v>232</v>
       </c>
       <c r="D77" s="106"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="107"/>
       <c r="C78" s="106" t="s">
         <v>233</v>
       </c>
       <c r="D78" s="106"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="107"/>
       <c r="C79" s="106" t="s">
         <v>234</v>
       </c>
       <c r="D79" s="106"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="107"/>
       <c r="C80" s="106" t="s">
         <v>235</v>
       </c>
       <c r="D80" s="106"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="107"/>
       <c r="C81" s="106" t="s">
         <v>236</v>
       </c>
       <c r="D81" s="106"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="107"/>
       <c r="C82" s="106" t="s">
         <v>237</v>

--- a/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
+++ b/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Indruino-Iot-Project\FW\Hau\mem_map_data_trans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ute\Lab_project\git_Indruino\IOT_ESP32\Indruino-Iot-Project\FW\Hau\mem_map_data_trans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2A6541-D3AA-4CBA-B8B6-DE00F04AD051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B04F41-479C-4609-9B28-CFDE0C48830B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mega" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="325">
   <si>
     <t>stt</t>
   </si>
@@ -558,15 +566,9 @@
     <t>/MASTER/STATUS/LWT/(modelNUmber + Idboard)</t>
   </si>
   <si>
-    <t>{"Name": "modelNumber_ID_board"; "St":1}</t>
-  </si>
-  <si>
     <t>Status system</t>
   </si>
   <si>
-    <t>/MASTER/STATUS/SYSTEM/(modelNumber+Idboard)</t>
-  </si>
-  <si>
     <t>post data-&gt;server</t>
   </si>
   <si>
@@ -603,9 +605,6 @@
     <t>"A7":</t>
   </si>
   <si>
-    <t>"GPIO_P":</t>
-  </si>
-  <si>
     <t>}</t>
   </si>
   <si>
@@ -630,12 +629,6 @@
     <t>/MASTER/CONFIG</t>
   </si>
   <si>
-    <t>"code":"model number+ID_board"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"FC": </t>
-  </si>
-  <si>
     <t>Set baud mega truoc khi set esp</t>
   </si>
   <si>
@@ -925,6 +918,99 @@
   </si>
   <si>
     <t>sv_pass_pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Code_func": </t>
+  </si>
+  <si>
+    <t>"OUT_P":</t>
+  </si>
+  <si>
+    <t>"IN_P":</t>
+  </si>
+  <si>
+    <t>"code":"model number+ID_board(ESP)"</t>
+  </si>
+  <si>
+    <t>"code":"ModelNumber+Idboard(ESP)"</t>
+  </si>
+  <si>
+    <t>"St":0</t>
+  </si>
+  <si>
+    <t>"code":"ModelNumber+Idboard"</t>
+  </si>
+  <si>
+    <t>"modelNumberBoardslave":"modelnumberboadslave"</t>
+  </si>
+  <si>
+    <t>"ID":"ID board slave"</t>
+  </si>
+  <si>
+    <t>Cấu trúc chuỗi data JON</t>
+  </si>
+  <si>
+    <t>"modelNumberboardSlave":"modelnumberslave"</t>
+  </si>
+  <si>
+    <t>"id_slave":"id_slave"</t>
+  </si>
+  <si>
+    <t>"code err":"code err"</t>
+  </si>
+  <si>
+    <t>/MASTER/STATUS/SYSTEM/(modelNumber)/(id_board(esp))</t>
+  </si>
+  <si>
+    <t>Các thông số thiết lập cho slave</t>
+  </si>
+  <si>
+    <t>* FUNCTION : 0 - config baud2, id2</t>
+  </si>
+  <si>
+    <t>"baud2": value</t>
+  </si>
+  <si>
+    <t>"id2":value</t>
+  </si>
+  <si>
+    <t>* FUNCTION : 1 - config return time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"return_time":value </t>
+  </si>
+  <si>
+    <t>"Mode_time"</t>
+  </si>
+  <si>
+    <t>"Function number"</t>
+  </si>
+  <si>
+    <t>* FUNCTION: 2 - config time packet - xem - them - xoa</t>
+  </si>
+  <si>
+    <t>*FUNCTION 0</t>
+  </si>
+  <si>
+    <t>/SLAVE/CONFIG/SET</t>
+  </si>
+  <si>
+    <t>"nameofconfig":"WIFI"</t>
+  </si>
+  <si>
+    <t>*FUNCTION 1</t>
+  </si>
+  <si>
+    <t>"nameofconfig":"MQTT"</t>
+  </si>
+  <si>
+    <t>*FUNCTION 2</t>
+  </si>
+  <si>
+    <t>"code_func":3</t>
+  </si>
+  <si>
+    <t>* FUNCTION 3: read config from mega</t>
   </si>
 </sst>
 </file>
@@ -977,7 +1063,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1086,8 +1172,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1229,11 +1321,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1334,7 +1437,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1381,17 +1483,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1399,6 +1491,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3210,7 +3335,7 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3239,36 +3364,6 @@
             </a:rPr>
             <a:t>0: </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1: Read Config ESP</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2: Read Config MEGA</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
           </a:endParaRPr>
@@ -3285,7 +3380,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>3: ENABLE Config ESP board()</a:t>
+            <a:t>1: Enable set IN_OUT</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -3294,18 +3389,6 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>4: ENABLE Config</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
@@ -3315,7 +3398,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> MEGA board()</a:t>
+            <a:t>1: ENABLE Config (Baurd, ID, Return delay time)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -3333,7 +3416,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>5: ENABLE Config baud</a:t>
+            <a:t>2: reboot</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -3351,7 +3434,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>6: reboot ESP</a:t>
+            <a:t>3: reset default</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -3359,54 +3442,6 @@
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>7: reboot MEGA</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>8: reset default ESP</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>9: reset default MEGA</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
           </a:endParaRPr>
@@ -4060,6 +4095,1492 @@
             </a:rPr>
             <a:t>bit 7: handle loop</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>618567</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>80684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>367556</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A799F5C-24A0-42DF-BF16-B53CEE0C670B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10676967" y="5997390"/>
+          <a:ext cx="2904565" cy="3711386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Function code:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//ESP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0: Read Config ESP WIFI</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1: read config mqtt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2: read config UDP, TCP IP, modbus TCP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3: read config FTP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4: read config Server storage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5: config return time</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6:  Config WiFi</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7:  Config mqtt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8: Config UDP, TCP IP, modbus TCP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9: Config FTP.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10: Config Server Storage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11:Config baud (phai config baud Mega truoc) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//MEGA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0: read config from mega</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1: Config baud2, ID2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2: config return time </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3: Config time packet;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>753035</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1577340</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>117501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79AFF62D-6E3B-4EDC-AE3F-063A4DB2645E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10811435" y="11564471"/>
+          <a:ext cx="2034540" cy="6303148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Mode_time:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>0: return time system</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1: set_time to MEGA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>10: delete time of packet time 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>11: delete time of packet time 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>12: delete time of packet time 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>13: delete time of packet time 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>14: delete time of packet time 4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>15: delete time of packet time 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>16: delete time of packet time 6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>17: delete time of packet time 7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>18: delete time of packet time 8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>19: delete time of packet time 9.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20: save time to packet 0</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>21: save time to packet 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>22: save time to packet 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>23: save time to packet 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>24: save time to packet 4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>25: save time to packet 5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>26: save time to packet 6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>27: save time to packet 7</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>28: save time to packet 8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>29: save time to packet 9</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>30: read time of packet 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>31: read time of packet 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>32: read time of packet 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>33: read time of packet 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>34: read time of packet 4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>35: read time of packet 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>36: read time of packet 6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>37: read time of packet 7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>38: read time of packet 8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>39: read time of packet 9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>255: OK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>286874</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26898</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F91AF6-55AE-40BB-8534-6B1FF412915E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11555509" y="18063883"/>
+          <a:ext cx="2904565" cy="3424518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Function code:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//ESP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0: Read Config ESP WIFI</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1: read config mqtt</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2: read config UDP, TCP IP, modbus TCP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3: read config FTP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4: read config Server storage</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5: config return time</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6:  Config WiFi</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7:  Config mqtt</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8: Config UDP, TCP IP, modbus TCP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9: Config FTP.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10: Config Server Storage</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11:Config baud (phai config baud Mega truoc) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//MEGA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0: read config from mega</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1: Config baud2, ID2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2: config return time </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3: Config time packet;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4333,38 +5854,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:Q10"/>
+    <sheetView tabSelected="1" topLeftCell="I58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="13" max="19" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="13" max="19" width="13.33203125" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" customWidth="1"/>
-    <col min="28" max="28" width="6.140625" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5546875" customWidth="1"/>
+    <col min="26" max="26" width="14.5546875" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" customWidth="1"/>
+    <col min="28" max="28" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B1" s="109" t="s">
+    <row r="1" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="B1" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="109"/>
+      <c r="C1" s="98"/>
       <c r="S1" s="46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4401,7 +5922,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Q3" t="s">
         <v>139</v>
       </c>
@@ -4429,7 +5950,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>71</v>
       </c>
@@ -4462,25 +5983,25 @@
         <f t="shared" ref="S4:S11" si="0">T3+S3</f>
         <v>2</v>
       </c>
-      <c r="T4" s="61">
+      <c r="T4" s="60">
         <v>1</v>
       </c>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="60" t="s">
         <v>4</v>
       </c>
       <c r="W4" s="1"/>
-      <c r="X4" s="61" t="s">
+      <c r="X4" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61" t="s">
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -4533,9 +6054,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B6" s="20">
         <f>C5+B5</f>
@@ -4562,7 +6083,7 @@
         <v>70</v>
       </c>
       <c r="Q6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="R6" s="43"/>
       <c r="S6" s="1">
@@ -4572,7 +6093,7 @@
       <c r="T6" s="1">
         <v>1</v>
       </c>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="95" t="s">
         <v>90</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -4589,7 +6110,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -4617,7 +6138,7 @@
         <v>135</v>
       </c>
       <c r="Q7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="R7" s="43"/>
       <c r="S7" s="1">
@@ -4627,7 +6148,7 @@
       <c r="T7" s="1">
         <v>1</v>
       </c>
-      <c r="U7" s="96" t="s">
+      <c r="U7" s="95" t="s">
         <v>89</v>
       </c>
       <c r="V7" s="1" t="s">
@@ -4642,7 +6163,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -4668,7 +6189,7 @@
         <v>79</v>
       </c>
       <c r="Q8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="R8" s="40" t="s">
         <v>110</v>
@@ -4678,7 +6199,7 @@
         <v>6</v>
       </c>
       <c r="T8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>82</v>
@@ -4695,7 +6216,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -4721,18 +6242,18 @@
         <v>133</v>
       </c>
       <c r="Q9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="R9" s="40"/>
       <c r="S9" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T9" s="1">
         <v>1</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>4</v>
@@ -4748,9 +6269,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B10" s="15">
         <f t="shared" si="1"/>
@@ -4776,18 +6297,18 @@
         <v>134</v>
       </c>
       <c r="Q10" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="R10" s="40"/>
       <c r="S10" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T10" s="1">
         <v>1</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>4</v>
@@ -4801,9 +6322,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B11" s="15">
         <f t="shared" si="1"/>
@@ -4827,12 +6348,12 @@
         <v>83</v>
       </c>
       <c r="Q11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="R11" s="40"/>
       <c r="S11" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T11" s="17">
         <v>2</v>
@@ -4840,26 +6361,26 @@
       <c r="U11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="77" t="s">
+      <c r="V11" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W11" s="17"/>
-      <c r="X11" s="78" t="s">
+      <c r="X11" s="77" t="s">
         <v>107</v>
       </c>
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B12" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C12" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>82</v>
@@ -4874,12 +6395,12 @@
         <v>84</v>
       </c>
       <c r="Q12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="R12" s="40"/>
       <c r="S12" s="17">
         <f t="shared" ref="S12:S19" si="2">T11+S11</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T12" s="17">
         <v>2</v>
@@ -4887,29 +6408,29 @@
       <c r="U12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="V12" s="77" t="s">
+      <c r="V12" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W12" s="17"/>
-      <c r="X12" s="78" t="s">
+      <c r="X12" s="77" t="s">
         <v>107</v>
       </c>
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B13" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="15">
         <v>1</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>4</v>
@@ -4925,12 +6446,12 @@
         <v>83</v>
       </c>
       <c r="Q13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="R13" s="40"/>
       <c r="S13" s="17">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T13" s="17">
         <v>2</v>
@@ -4938,29 +6459,29 @@
       <c r="U13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="V13" s="77" t="s">
+      <c r="V13" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W13" s="17"/>
-      <c r="X13" s="78" t="s">
+      <c r="X13" s="77" t="s">
         <v>107</v>
       </c>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B14" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="15">
         <v>1</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>4</v>
@@ -4974,12 +6495,12 @@
         <v>84</v>
       </c>
       <c r="Q14" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="R14" s="40"/>
       <c r="S14" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T14" s="17">
         <v>2</v>
@@ -4987,23 +6508,23 @@
       <c r="U14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="V14" s="77" t="s">
+      <c r="V14" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W14" s="17"/>
-      <c r="X14" s="78" t="s">
+      <c r="X14" s="77" t="s">
         <v>107</v>
       </c>
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B15" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="15">
         <v>2</v>
@@ -5021,12 +6542,12 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="Q15" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="R15" s="40"/>
       <c r="S15" s="17">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T15" s="17">
         <v>2</v>
@@ -5034,23 +6555,23 @@
       <c r="U15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="V15" s="77" t="s">
+      <c r="V15" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W15" s="17"/>
-      <c r="X15" s="78" t="s">
+      <c r="X15" s="77" t="s">
         <v>107</v>
       </c>
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B16" s="15">
         <f t="shared" ref="B16:B23" si="3">C15+B15</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="15">
         <v>2</v>
@@ -5068,12 +6589,12 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="Q16" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="R16" s="40"/>
       <c r="S16" s="17">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T16" s="17">
         <v>2</v>
@@ -5081,23 +6602,23 @@
       <c r="U16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="V16" s="77" t="s">
+      <c r="V16" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W16" s="17"/>
-      <c r="X16" s="78" t="s">
+      <c r="X16" s="77" t="s">
         <v>107</v>
       </c>
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B17" s="15">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="15">
         <v>2</v>
@@ -5115,12 +6636,12 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="Q17" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="R17" s="40"/>
       <c r="S17" s="17">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T17" s="17">
         <v>2</v>
@@ -5128,23 +6649,23 @@
       <c r="U17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="V17" s="77" t="s">
+      <c r="V17" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W17" s="17"/>
-      <c r="X17" s="78" t="s">
+      <c r="X17" s="77" t="s">
         <v>107</v>
       </c>
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B18" s="15">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="15">
         <v>2</v>
@@ -5162,36 +6683,36 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="Q18" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="R18" s="40"/>
-      <c r="S18" s="79">
+      <c r="S18" s="78">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="T18" s="79">
+        <v>23</v>
+      </c>
+      <c r="T18" s="78">
         <v>2</v>
       </c>
-      <c r="U18" s="79" t="s">
+      <c r="U18" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="V18" s="77" t="s">
+      <c r="V18" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W18" s="17"/>
-      <c r="X18" s="78" t="s">
+      <c r="X18" s="77" t="s">
         <v>107</v>
       </c>
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B19" s="15">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="15">
         <v>2</v>
@@ -5209,20 +6730,20 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="Q19" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="R19" s="40"/>
-      <c r="S19" s="79">
+      <c r="S19" s="78">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="T19" s="83">
+        <v>25</v>
+      </c>
+      <c r="T19" s="82">
         <v>1</v>
       </c>
-      <c r="U19" s="79" t="s">
+      <c r="U19" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="V19" s="77" t="s">
+      <c r="V19" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W19" s="17"/>
@@ -5236,13 +6757,13 @@
       </c>
       <c r="AB19" s="24"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B20" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="15">
         <v>2</v>
@@ -5260,12 +6781,12 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="R20" s="40"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="79" t="s">
+      <c r="S20" s="83"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="V20" s="77" t="s">
+      <c r="V20" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W20" s="17"/>
@@ -5277,13 +6798,13 @@
       <c r="AA20" s="21"/>
       <c r="AB20" s="25"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B21" s="15">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="15">
         <v>2</v>
@@ -5301,12 +6822,12 @@
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="R21" s="40"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="83"/>
-      <c r="U21" s="79" t="s">
+      <c r="S21" s="83"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="V21" s="77" t="s">
+      <c r="V21" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W21" s="17"/>
@@ -5318,13 +6839,13 @@
       <c r="AA21" s="21"/>
       <c r="AB21" s="25"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B22" s="15">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="15">
         <v>2</v>
@@ -5342,12 +6863,12 @@
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="R22" s="40"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="83"/>
-      <c r="U22" s="79" t="s">
+      <c r="S22" s="83"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="V22" s="77" t="s">
+      <c r="V22" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W22" s="17"/>
@@ -5359,13 +6880,13 @@
       <c r="AA22" s="21"/>
       <c r="AB22" s="25"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B23" s="15">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="48">
         <v>1</v>
@@ -5385,12 +6906,12 @@
       </c>
       <c r="K23" s="24"/>
       <c r="R23" s="40"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="79" t="s">
+      <c r="S23" s="83"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="V23" s="77" t="s">
+      <c r="V23" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W23" s="17"/>
@@ -5404,7 +6925,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B24" s="15"/>
       <c r="C24" s="49"/>
       <c r="D24" s="15" t="s">
@@ -5420,12 +6941,12 @@
       <c r="J24" s="21"/>
       <c r="K24" s="25"/>
       <c r="R24" s="40"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="83"/>
-      <c r="U24" s="79" t="s">
+      <c r="S24" s="83"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="V24" s="77" t="s">
+      <c r="V24" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W24" s="17"/>
@@ -5437,7 +6958,7 @@
       <c r="AA24" s="21"/>
       <c r="AB24" s="25"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
       <c r="C25" s="49"/>
       <c r="D25" s="15" t="s">
@@ -5453,12 +6974,12 @@
       <c r="J25" s="21"/>
       <c r="K25" s="25"/>
       <c r="R25" s="40"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="83"/>
-      <c r="U25" s="79" t="s">
+      <c r="S25" s="83"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="77" t="s">
+      <c r="V25" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W25" s="17"/>
@@ -5470,7 +6991,7 @@
       <c r="AA25" s="21"/>
       <c r="AB25" s="25"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B26" s="15"/>
       <c r="C26" s="49"/>
       <c r="D26" s="15" t="s">
@@ -5486,12 +7007,12 @@
       <c r="J26" s="21"/>
       <c r="K26" s="25"/>
       <c r="R26" s="40"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="83"/>
-      <c r="U26" s="79" t="s">
+      <c r="S26" s="83"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="V26" s="77" t="s">
+      <c r="V26" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W26" s="17"/>
@@ -5505,7 +7026,7 @@
       </c>
       <c r="AB26" s="26"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="49"/>
       <c r="D27" s="15" t="s">
@@ -5523,20 +7044,20 @@
         <v>108</v>
       </c>
       <c r="Q27" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="R27" s="40"/>
-      <c r="S27" s="79">
+      <c r="S27" s="78">
         <f>T19+S19</f>
-        <v>27</v>
-      </c>
-      <c r="T27" s="83">
+        <v>26</v>
+      </c>
+      <c r="T27" s="82">
         <v>1</v>
       </c>
-      <c r="U27" s="79" t="s">
+      <c r="U27" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="V27" s="77" t="s">
+      <c r="V27" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W27" s="17"/>
@@ -5550,7 +7071,7 @@
       </c>
       <c r="AB27" s="24"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="49"/>
       <c r="D28" s="15" t="s">
@@ -5566,12 +7087,12 @@
       <c r="J28" s="21"/>
       <c r="K28" s="25"/>
       <c r="R28" s="40"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="79" t="s">
+      <c r="S28" s="83"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="V28" s="77" t="s">
+      <c r="V28" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W28" s="17"/>
@@ -5583,7 +7104,7 @@
       <c r="AA28" s="21"/>
       <c r="AB28" s="25"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="49"/>
       <c r="D29" s="15" t="s">
@@ -5599,12 +7120,12 @@
       <c r="J29" s="21"/>
       <c r="K29" s="25"/>
       <c r="R29" s="40"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="79" t="s">
+      <c r="S29" s="83"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="V29" s="77" t="s">
+      <c r="V29" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W29" s="17"/>
@@ -5616,7 +7137,7 @@
       <c r="AA29" s="21"/>
       <c r="AB29" s="25"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="49"/>
       <c r="D30" s="15" t="s">
@@ -5632,12 +7153,12 @@
       <c r="J30" s="35"/>
       <c r="K30" s="26"/>
       <c r="R30" s="40"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="83"/>
-      <c r="U30" s="79" t="s">
+      <c r="S30" s="83"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="V30" s="77" t="s">
+      <c r="V30" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W30" s="17"/>
@@ -5649,13 +7170,13 @@
       <c r="AA30" s="21"/>
       <c r="AB30" s="25"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B31" s="15">
         <f>C23+B23</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="48">
         <v>1</v>
@@ -5673,12 +7194,12 @@
       <c r="J31" s="34"/>
       <c r="K31" s="25"/>
       <c r="R31" s="40"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="83"/>
-      <c r="U31" s="79" t="s">
+      <c r="S31" s="83"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="V31" s="77" t="s">
+      <c r="V31" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W31" s="17"/>
@@ -5692,7 +7213,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B32" s="15"/>
       <c r="C32" s="49"/>
       <c r="D32" s="15" t="s">
@@ -5708,12 +7229,12 @@
       <c r="J32" s="21"/>
       <c r="K32" s="25"/>
       <c r="R32" s="40"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="83"/>
-      <c r="U32" s="79" t="s">
+      <c r="S32" s="83"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="V32" s="77" t="s">
+      <c r="V32" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W32" s="17"/>
@@ -5725,7 +7246,7 @@
       <c r="AA32" s="21"/>
       <c r="AB32" s="25"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B33" s="15"/>
       <c r="C33" s="49"/>
       <c r="D33" s="15" t="s">
@@ -5741,12 +7262,12 @@
       <c r="J33" s="21"/>
       <c r="K33" s="25"/>
       <c r="R33" s="42"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="83"/>
-      <c r="U33" s="79" t="s">
+      <c r="S33" s="83"/>
+      <c r="T33" s="82"/>
+      <c r="U33" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="V33" s="77" t="s">
+      <c r="V33" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W33" s="17"/>
@@ -5758,7 +7279,7 @@
       <c r="AA33" s="21"/>
       <c r="AB33" s="25"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B34" s="15"/>
       <c r="C34" s="49"/>
       <c r="D34" s="15" t="s">
@@ -5776,12 +7297,12 @@
         <v>109</v>
       </c>
       <c r="R34" s="42"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="83"/>
-      <c r="U34" s="79" t="s">
+      <c r="S34" s="84"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="V34" s="77" t="s">
+      <c r="V34" s="76" t="s">
         <v>4</v>
       </c>
       <c r="W34" s="17"/>
@@ -5795,7 +7316,7 @@
       </c>
       <c r="AB34" s="26"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B35" s="15"/>
       <c r="C35" s="49"/>
       <c r="D35" s="15" t="s">
@@ -5811,14 +7332,14 @@
       <c r="J35" s="21"/>
       <c r="K35" s="25"/>
       <c r="Q35" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R35" s="42">
         <v>0</v>
       </c>
       <c r="S35" s="45">
         <f>T27+S27</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T35" s="1">
         <v>1</v>
@@ -5838,7 +7359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B36" s="15"/>
       <c r="C36" s="49"/>
       <c r="D36" s="15" t="s">
@@ -5854,7 +7375,7 @@
       <c r="J36" s="21"/>
       <c r="K36" s="25"/>
       <c r="Q36" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="R36" s="42">
         <f>R35+T35</f>
@@ -5862,7 +7383,7 @@
       </c>
       <c r="S36" s="4">
         <f>S35+T35</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T36" s="1">
         <v>1</v>
@@ -5880,7 +7401,7 @@
       <c r="Y36" s="20"/>
       <c r="Z36" s="9"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B37" s="15"/>
       <c r="C37" s="49"/>
       <c r="D37" s="15" t="s">
@@ -5896,7 +7417,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="25"/>
       <c r="Q37" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R37" s="42">
         <f t="shared" ref="R37:R39" si="4">R36+T36</f>
@@ -5904,7 +7425,7 @@
       </c>
       <c r="S37" s="4">
         <f t="shared" ref="S37:S83" si="5">S36+T36</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T37" s="1">
         <v>1</v>
@@ -5916,13 +7437,13 @@
         <v>4</v>
       </c>
       <c r="W37" s="20"/>
-      <c r="X37" s="95" t="s">
-        <v>207</v>
+      <c r="X37" s="94" t="s">
+        <v>202</v>
       </c>
       <c r="Y37" s="20"/>
       <c r="Z37" s="9"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B38" s="15"/>
       <c r="C38" s="50"/>
       <c r="D38" s="15" t="s">
@@ -5940,7 +7461,7 @@
       </c>
       <c r="K38" s="26"/>
       <c r="Q38" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="R38" s="42">
         <f t="shared" si="4"/>
@@ -5948,7 +7469,7 @@
       </c>
       <c r="S38" s="4">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T38" s="1">
         <v>1</v>
@@ -5966,13 +7487,13 @@
       <c r="Y38" s="20"/>
       <c r="Z38" s="9"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>150</v>
       </c>
       <c r="B39" s="7">
         <f>B31+C31</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -5990,7 +7511,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="Q39" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="R39" s="42">
         <f t="shared" si="4"/>
@@ -5998,7 +7519,7 @@
       </c>
       <c r="S39" s="4">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T39" s="1">
         <v>10</v>
@@ -6014,13 +7535,13 @@
       <c r="Y39" s="20"/>
       <c r="Z39" s="10"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>151</v>
       </c>
       <c r="B40" s="7">
         <f t="shared" ref="B40:B49" si="6">C39+B39</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="7">
         <v>2</v>
@@ -6042,7 +7563,7 @@
       </c>
       <c r="S40" s="4">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T40" s="1">
         <v>1</v>
@@ -6062,13 +7583,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>153</v>
       </c>
       <c r="B41" s="7">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -6091,7 +7612,7 @@
       </c>
       <c r="S41" s="4">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T41" s="1">
         <v>1</v>
@@ -6109,13 +7630,13 @@
       <c r="Y41" s="20"/>
       <c r="Z41" s="9"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>154</v>
       </c>
       <c r="B42" s="7">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
@@ -6138,7 +7659,7 @@
       </c>
       <c r="S42" s="4">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T42" s="1">
         <v>1</v>
@@ -6150,19 +7671,19 @@
         <v>4</v>
       </c>
       <c r="W42" s="20"/>
-      <c r="X42" s="95" t="s">
-        <v>207</v>
+      <c r="X42" s="94" t="s">
+        <v>202</v>
       </c>
       <c r="Y42" s="20"/>
       <c r="Z42" s="9"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>155</v>
       </c>
       <c r="B43" s="7">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -6185,7 +7706,7 @@
       </c>
       <c r="S43" s="4">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T43" s="1">
         <v>1</v>
@@ -6203,13 +7724,13 @@
       <c r="Y43" s="20"/>
       <c r="Z43" s="9"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>152</v>
       </c>
       <c r="B44" s="7">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="7">
         <v>1</v>
@@ -6232,7 +7753,7 @@
       </c>
       <c r="S44" s="4">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T44" s="1">
         <v>10</v>
@@ -6248,13 +7769,13 @@
       <c r="Y44" s="20"/>
       <c r="Z44" s="10"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>156</v>
       </c>
       <c r="B45" s="7">
         <f t="shared" si="6"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -6276,7 +7797,7 @@
       </c>
       <c r="S45" s="4">
         <f t="shared" si="5"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T45" s="1">
         <v>1</v>
@@ -6296,13 +7817,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>157</v>
       </c>
       <c r="B46" s="7">
         <f t="shared" si="6"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="7">
         <v>1</v>
@@ -6325,7 +7846,7 @@
       </c>
       <c r="S46" s="4">
         <f t="shared" si="5"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T46" s="1">
         <v>1</v>
@@ -6343,13 +7864,13 @@
       <c r="Y46" s="20"/>
       <c r="Z46" s="9"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="7">
         <f t="shared" si="6"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -6372,7 +7893,7 @@
       </c>
       <c r="S47" s="4">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T47" s="1">
         <v>1</v>
@@ -6384,25 +7905,25 @@
         <v>4</v>
       </c>
       <c r="W47" s="20"/>
-      <c r="X47" s="95" t="s">
-        <v>207</v>
+      <c r="X47" s="94" t="s">
+        <v>202</v>
       </c>
       <c r="Y47" s="20"/>
       <c r="Z47" s="9"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B48" s="7">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="8">
         <v>10</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>4</v>
@@ -6417,7 +7938,7 @@
       </c>
       <c r="S48" s="4">
         <f t="shared" si="5"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T48" s="1">
         <v>1</v>
@@ -6435,13 +7956,13 @@
       <c r="Y48" s="20"/>
       <c r="Z48" s="9"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B49" s="7">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="6">
         <v>20</v>
@@ -6462,7 +7983,7 @@
       </c>
       <c r="S49" s="4">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T49" s="1">
         <v>10</v>
@@ -6478,13 +7999,13 @@
       <c r="Y49" s="20"/>
       <c r="Z49" s="10"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R50" s="42">
         <v>0</v>
       </c>
       <c r="S50" s="4">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T50" s="1">
         <v>1</v>
@@ -6504,10 +8025,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B51" s="80">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B51" s="79">
         <f>SUM(C5:C49)</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
         <v>96</v>
@@ -6518,7 +8039,7 @@
       </c>
       <c r="S51" s="4">
         <f t="shared" si="5"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T51" s="1">
         <v>1</v>
@@ -6536,14 +8057,14 @@
       <c r="Y51" s="20"/>
       <c r="Z51" s="9"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R52" s="42">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="S52" s="4">
         <f t="shared" si="5"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T52" s="1">
         <v>1</v>
@@ -6555,20 +8076,20 @@
         <v>4</v>
       </c>
       <c r="W52" s="20"/>
-      <c r="X52" s="95" t="s">
-        <v>207</v>
+      <c r="X52" s="94" t="s">
+        <v>202</v>
       </c>
       <c r="Y52" s="20"/>
       <c r="Z52" s="9"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R53" s="42">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="S53" s="4">
         <f t="shared" si="5"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T53" s="1">
         <v>1</v>
@@ -6586,14 +8107,14 @@
       <c r="Y53" s="20"/>
       <c r="Z53" s="9"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R54" s="42">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="S54" s="4">
         <f t="shared" si="5"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T54" s="1">
         <v>10</v>
@@ -6609,13 +8130,13 @@
       <c r="Y54" s="20"/>
       <c r="Z54" s="10"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R55" s="42">
         <v>0</v>
       </c>
       <c r="S55" s="4">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T55" s="1">
         <v>1</v>
@@ -6635,14 +8156,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R56" s="42">
         <f t="shared" ref="R56" si="10">R55+T55</f>
         <v>1</v>
       </c>
       <c r="S56" s="4">
         <f t="shared" si="5"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T56" s="1">
         <v>1</v>
@@ -6660,14 +8181,14 @@
       <c r="Y56" s="20"/>
       <c r="Z56" s="9"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R57" s="42">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="S57" s="4">
         <f t="shared" si="5"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T57" s="1">
         <v>1</v>
@@ -6679,20 +8200,20 @@
         <v>4</v>
       </c>
       <c r="W57" s="20"/>
-      <c r="X57" s="95" t="s">
-        <v>207</v>
+      <c r="X57" s="94" t="s">
+        <v>202</v>
       </c>
       <c r="Y57" s="20"/>
       <c r="Z57" s="9"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R58" s="42">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="5"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T58" s="1">
         <v>1</v>
@@ -6710,7 +8231,7 @@
       <c r="Y58" s="20"/>
       <c r="Z58" s="9"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B59" s="32"/>
       <c r="C59" s="33"/>
       <c r="D59" s="30"/>
@@ -6723,7 +8244,7 @@
       </c>
       <c r="S59" s="4">
         <f t="shared" si="5"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T59" s="1">
         <v>10</v>
@@ -6739,7 +8260,7 @@
       <c r="Y59" s="20"/>
       <c r="Z59" s="10"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B60" s="32"/>
       <c r="C60" s="33"/>
       <c r="D60" s="30"/>
@@ -6751,7 +8272,7 @@
       </c>
       <c r="S60" s="4">
         <f t="shared" si="5"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T60" s="1">
         <v>1</v>
@@ -6771,7 +8292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B61" s="32"/>
       <c r="C61" s="33"/>
       <c r="D61" s="30"/>
@@ -6784,7 +8305,7 @@
       </c>
       <c r="S61" s="4">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T61" s="1">
         <v>1</v>
@@ -6802,7 +8323,7 @@
       <c r="Y61" s="20"/>
       <c r="Z61" s="9"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B62" s="32"/>
       <c r="C62" s="33"/>
       <c r="D62" s="30"/>
@@ -6815,7 +8336,7 @@
       </c>
       <c r="S62" s="4">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T62" s="1">
         <v>1</v>
@@ -6827,20 +8348,20 @@
         <v>4</v>
       </c>
       <c r="W62" s="20"/>
-      <c r="X62" s="95" t="s">
-        <v>207</v>
+      <c r="X62" s="94" t="s">
+        <v>202</v>
       </c>
       <c r="Y62" s="20"/>
       <c r="Z62" s="9"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R63" s="42">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="S63" s="4">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T63" s="1">
         <v>1</v>
@@ -6858,14 +8379,14 @@
       <c r="Y63" s="20"/>
       <c r="Z63" s="9"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R64" s="42">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="S64" s="4">
         <f t="shared" si="5"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T64" s="1">
         <v>10</v>
@@ -6881,13 +8402,13 @@
       <c r="Y64" s="20"/>
       <c r="Z64" s="10"/>
     </row>
-    <row r="65" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R65" s="42">
         <v>0</v>
       </c>
       <c r="S65" s="4">
         <f t="shared" si="5"/>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T65" s="1">
         <v>1</v>
@@ -6907,14 +8428,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R66" s="42">
         <f t="shared" ref="R66" si="12">R65+T65</f>
         <v>1</v>
       </c>
       <c r="S66" s="4">
         <f t="shared" si="5"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T66" s="1">
         <v>1</v>
@@ -6932,14 +8453,14 @@
       <c r="Y66" s="20"/>
       <c r="Z66" s="9"/>
     </row>
-    <row r="67" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R67" s="42">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="S67" s="4">
         <f t="shared" si="5"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T67" s="1">
         <v>1</v>
@@ -6951,20 +8472,20 @@
         <v>4</v>
       </c>
       <c r="W67" s="20"/>
-      <c r="X67" s="95" t="s">
-        <v>207</v>
+      <c r="X67" s="94" t="s">
+        <v>202</v>
       </c>
       <c r="Y67" s="20"/>
       <c r="Z67" s="9"/>
     </row>
-    <row r="68" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R68" s="42">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="S68" s="4">
         <f t="shared" si="5"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T68" s="1">
         <v>1</v>
@@ -6982,14 +8503,14 @@
       <c r="Y68" s="20"/>
       <c r="Z68" s="9"/>
     </row>
-    <row r="69" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R69" s="42">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="S69" s="4">
         <f t="shared" si="5"/>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T69" s="1">
         <v>10</v>
@@ -7005,13 +8526,13 @@
       <c r="Y69" s="20"/>
       <c r="Z69" s="10"/>
     </row>
-    <row r="70" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R70" s="42">
         <v>0</v>
       </c>
       <c r="S70" s="4">
         <f t="shared" si="5"/>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T70" s="1">
         <v>1</v>
@@ -7031,14 +8552,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R71" s="42">
         <f t="shared" ref="R71" si="13">R70+T70</f>
         <v>1</v>
       </c>
       <c r="S71" s="4">
         <f t="shared" si="5"/>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T71" s="1">
         <v>1</v>
@@ -7056,14 +8577,14 @@
       <c r="Y71" s="20"/>
       <c r="Z71" s="9"/>
     </row>
-    <row r="72" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R72" s="42">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="S72" s="4">
         <f t="shared" si="5"/>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T72" s="1">
         <v>1</v>
@@ -7075,20 +8596,20 @@
         <v>4</v>
       </c>
       <c r="W72" s="20"/>
-      <c r="X72" s="95" t="s">
-        <v>207</v>
+      <c r="X72" s="94" t="s">
+        <v>202</v>
       </c>
       <c r="Y72" s="20"/>
       <c r="Z72" s="9"/>
     </row>
-    <row r="73" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R73" s="42">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="S73" s="4">
         <f t="shared" si="5"/>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T73" s="1">
         <v>1</v>
@@ -7106,14 +8627,14 @@
       <c r="Y73" s="20"/>
       <c r="Z73" s="9"/>
     </row>
-    <row r="74" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R74" s="42">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="S74" s="4">
         <f t="shared" si="5"/>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T74" s="1">
         <v>10</v>
@@ -7129,13 +8650,13 @@
       <c r="Y74" s="20"/>
       <c r="Z74" s="10"/>
     </row>
-    <row r="75" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R75" s="42">
         <v>0</v>
       </c>
       <c r="S75" s="4">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T75" s="1">
         <v>1</v>
@@ -7155,14 +8676,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R76" s="42">
         <f t="shared" ref="R76" si="14">R75+T75</f>
         <v>1</v>
       </c>
       <c r="S76" s="4">
         <f t="shared" si="5"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T76" s="1">
         <v>1</v>
@@ -7180,14 +8701,14 @@
       <c r="Y76" s="20"/>
       <c r="Z76" s="9"/>
     </row>
-    <row r="77" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R77" s="42">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="S77" s="4">
         <f t="shared" si="5"/>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T77" s="1">
         <v>1</v>
@@ -7199,20 +8720,20 @@
         <v>4</v>
       </c>
       <c r="W77" s="20"/>
-      <c r="X77" s="95" t="s">
-        <v>207</v>
+      <c r="X77" s="94" t="s">
+        <v>202</v>
       </c>
       <c r="Y77" s="20"/>
       <c r="Z77" s="9"/>
     </row>
-    <row r="78" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R78" s="42">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="S78" s="4">
         <f t="shared" si="5"/>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T78" s="1">
         <v>1</v>
@@ -7230,14 +8751,14 @@
       <c r="Y78" s="20"/>
       <c r="Z78" s="9"/>
     </row>
-    <row r="79" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R79" s="42">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="S79" s="4">
         <f t="shared" si="5"/>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T79" s="1">
         <v>10</v>
@@ -7253,13 +8774,13 @@
       <c r="Y79" s="20"/>
       <c r="Z79" s="10"/>
     </row>
-    <row r="80" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="18:26" x14ac:dyDescent="0.3">
       <c r="R80" s="42">
         <v>0</v>
       </c>
       <c r="S80" s="4">
         <f t="shared" si="5"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T80" s="1">
         <v>1</v>
@@ -7279,14 +8800,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="18:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="18:28" x14ac:dyDescent="0.3">
       <c r="R81" s="42">
         <f t="shared" ref="R81" si="15">R80+T80</f>
         <v>1</v>
       </c>
       <c r="S81" s="4">
         <f t="shared" si="5"/>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T81" s="1">
         <v>1</v>
@@ -7304,14 +8825,14 @@
       <c r="Y81" s="31"/>
       <c r="Z81" s="9"/>
     </row>
-    <row r="82" spans="18:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="18:28" x14ac:dyDescent="0.3">
       <c r="R82" s="42">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="S82" s="4">
         <f t="shared" si="5"/>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T82" s="1">
         <v>1</v>
@@ -7323,22 +8844,22 @@
         <v>4</v>
       </c>
       <c r="W82" s="20"/>
-      <c r="X82" s="95" t="s">
-        <v>207</v>
+      <c r="X82" s="94" t="s">
+        <v>202</v>
       </c>
       <c r="Y82" s="31"/>
       <c r="Z82" s="9"/>
       <c r="AA82" s="29"/>
       <c r="AB82" s="29"/>
     </row>
-    <row r="83" spans="18:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="18:28" x14ac:dyDescent="0.3">
       <c r="R83" s="42">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="S83" s="4">
         <f t="shared" si="5"/>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T83" s="1">
         <v>1</v>
@@ -7358,14 +8879,14 @@
       <c r="AA83" s="29"/>
       <c r="AB83" s="29"/>
     </row>
-    <row r="84" spans="18:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="18:28" x14ac:dyDescent="0.3">
       <c r="R84" s="42">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="S84" s="4">
         <f>S83+T83</f>
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T84" s="1">
         <v>10</v>
@@ -7383,41 +8904,41 @@
       <c r="AA84" s="29"/>
       <c r="AB84" s="29"/>
     </row>
-    <row r="85" spans="18:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="18:28" x14ac:dyDescent="0.3">
       <c r="S85" s="4">
         <f>S84+T84</f>
-        <v>168</v>
-      </c>
-      <c r="T85" s="62">
+        <v>167</v>
+      </c>
+      <c r="T85" s="61">
         <v>20</v>
       </c>
-      <c r="U85" s="62" t="s">
+      <c r="U85" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="V85" s="81" t="s">
+      <c r="V85" s="80" t="s">
         <v>4</v>
       </c>
       <c r="AA85" s="29"/>
       <c r="AB85" s="29"/>
     </row>
-    <row r="86" spans="18:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="18:28" x14ac:dyDescent="0.3">
       <c r="X86" s="29"/>
       <c r="Y86" s="28"/>
       <c r="Z86" s="30"/>
       <c r="AA86" s="29"/>
       <c r="AB86" s="29"/>
     </row>
-    <row r="87" spans="18:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="18:28" x14ac:dyDescent="0.3">
       <c r="X87" s="29"/>
       <c r="Y87" s="28"/>
       <c r="Z87" s="30"/>
       <c r="AA87" s="29"/>
       <c r="AB87" s="29"/>
     </row>
-    <row r="88" spans="18:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="18:28" x14ac:dyDescent="0.3">
       <c r="T88">
         <f>SUM(T3:T85)</f>
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X88" s="29"/>
       <c r="Y88" s="28"/>
@@ -7425,63 +8946,63 @@
       <c r="AA88" s="29"/>
       <c r="AB88" s="29"/>
     </row>
-    <row r="89" spans="18:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="18:28" x14ac:dyDescent="0.3">
       <c r="X89" s="29"/>
       <c r="Y89" s="28"/>
       <c r="Z89" s="28"/>
       <c r="AA89" s="29"/>
       <c r="AB89" s="29"/>
     </row>
-    <row r="90" spans="18:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="18:28" x14ac:dyDescent="0.3">
       <c r="X90" s="29"/>
       <c r="Y90" s="28"/>
       <c r="Z90" s="30"/>
       <c r="AA90" s="29"/>
       <c r="AB90" s="29"/>
     </row>
-    <row r="91" spans="18:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="18:28" x14ac:dyDescent="0.3">
       <c r="X91" s="29"/>
       <c r="Y91" s="28"/>
       <c r="Z91" s="30"/>
       <c r="AA91" s="29"/>
       <c r="AB91" s="29"/>
     </row>
-    <row r="92" spans="18:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="18:28" x14ac:dyDescent="0.3">
       <c r="X92" s="29"/>
       <c r="Y92" s="28"/>
       <c r="Z92" s="30"/>
       <c r="AA92" s="29"/>
       <c r="AB92" s="29"/>
     </row>
-    <row r="93" spans="18:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="18:28" x14ac:dyDescent="0.3">
       <c r="X93" s="29"/>
       <c r="Y93" s="28"/>
       <c r="Z93" s="30"/>
       <c r="AA93" s="29"/>
       <c r="AB93" s="29"/>
     </row>
-    <row r="94" spans="18:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="18:28" x14ac:dyDescent="0.3">
       <c r="X94" s="29"/>
       <c r="Y94" s="28"/>
       <c r="Z94" s="30"/>
       <c r="AA94" s="29"/>
       <c r="AB94" s="29"/>
     </row>
-    <row r="95" spans="18:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="18:28" x14ac:dyDescent="0.3">
       <c r="X95" s="29"/>
       <c r="Y95" s="28"/>
       <c r="Z95" s="30"/>
       <c r="AA95" s="29"/>
       <c r="AB95" s="29"/>
     </row>
-    <row r="96" spans="18:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="18:28" x14ac:dyDescent="0.3">
       <c r="X96" s="29"/>
       <c r="Y96" s="28"/>
       <c r="Z96" s="28"/>
       <c r="AA96" s="29"/>
       <c r="AB96" s="29"/>
     </row>
-    <row r="99" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M99" t="s">
         <v>37</v>
       </c>
@@ -7501,31 +9022,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCF18E1-EDBB-4A5D-A645-8FDD3797B808}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" customWidth="1"/>
+    <col min="22" max="22" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>71</v>
       </c>
@@ -7554,7 +9075,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -7580,7 +9101,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -7632,7 +9153,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -7683,9 +9204,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B6" s="18">
         <f t="shared" si="0"/>
@@ -7735,9 +9256,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B7" s="18">
         <f t="shared" si="0"/>
@@ -7785,9 +9306,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B8" s="18">
         <f t="shared" si="0"/>
@@ -7803,7 +9324,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="58" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="18"/>
@@ -7812,7 +9333,7 @@
       </c>
       <c r="N8" s="51"/>
       <c r="O8" s="15">
-        <f t="shared" ref="O8:O15" si="1">P7+O7</f>
+        <f t="shared" ref="O8:O18" si="1">P7+O7</f>
         <v>4</v>
       </c>
       <c r="P8" s="15">
@@ -7835,9 +9356,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
@@ -7885,9 +9406,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
@@ -7911,7 +9432,7 @@
         <v>122</v>
       </c>
       <c r="N10" s="52" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" si="1"/>
@@ -7935,9 +9456,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
@@ -7977,9 +9498,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
@@ -8019,9 +9540,9 @@
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
@@ -8040,7 +9561,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="27"/>
-      <c r="N13" s="71"/>
+      <c r="N13" s="70"/>
       <c r="O13" s="15">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -8049,7 +9570,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R13" s="15" t="s">
         <v>4</v>
@@ -8065,9 +9586,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
@@ -8086,7 +9607,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="27"/>
-      <c r="N14" s="71"/>
+      <c r="N14" s="70"/>
       <c r="O14" s="15">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -8095,7 +9616,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R14" s="15" t="s">
         <v>4</v>
@@ -8109,9 +9630,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
@@ -8130,7 +9651,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="27"/>
-      <c r="N15" s="71"/>
+      <c r="N15" s="70"/>
       <c r="O15" s="16">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -8151,9 +9672,9 @@
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
@@ -8175,9 +9696,9 @@
       <c r="K16" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="71"/>
+      <c r="N16" s="70"/>
       <c r="O16" s="16">
-        <f t="shared" ref="O16:O23" si="2">P15+O15</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="P16" s="16">
@@ -8196,9 +9717,9 @@
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B17" s="13">
         <f t="shared" si="0"/>
@@ -8216,12 +9737,12 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="63" t="s">
+      <c r="I17" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="71"/>
+      <c r="N17" s="70"/>
       <c r="O17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="P17" s="16">
@@ -8240,9 +9761,9 @@
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
@@ -8259,13 +9780,13 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="66" t="s">
+      <c r="H18" s="63"/>
+      <c r="I18" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="71"/>
+      <c r="N18" s="70"/>
       <c r="O18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="P18" s="16">
@@ -8284,9 +9805,9 @@
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
@@ -8303,11 +9824,11 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="60"/>
-      <c r="N19" s="71"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="59"/>
+      <c r="N19" s="70"/>
       <c r="O19" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O16:O23" si="2">P18+O18</f>
         <v>19</v>
       </c>
       <c r="P19" s="16">
@@ -8326,9 +9847,9 @@
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
@@ -8345,9 +9866,9 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="60"/>
-      <c r="N20" s="72"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="59"/>
+      <c r="N20" s="71"/>
       <c r="O20" s="16">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -8368,9 +9889,9 @@
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
@@ -8389,11 +9910,11 @@
       <c r="G21" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="60" t="s">
+      <c r="H21" s="63"/>
+      <c r="I21" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="N21" s="72"/>
+      <c r="N21" s="71"/>
       <c r="O21" s="16">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -8414,9 +9935,9 @@
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
@@ -8433,14 +9954,14 @@
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="60"/>
-      <c r="N22" s="72"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="59"/>
+      <c r="N22" s="71"/>
       <c r="O22" s="16">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="P22" s="86">
+      <c r="P22" s="85">
         <v>2</v>
       </c>
       <c r="Q22" s="16" t="s">
@@ -8456,9 +9977,9 @@
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
@@ -8467,7 +9988,7 @@
       <c r="C23" s="14">
         <v>20</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="72" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -8475,19 +9996,19 @@
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="60" t="s">
+      <c r="H23" s="63"/>
+      <c r="I23" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="N23" s="72"/>
-      <c r="O23" s="88">
+      <c r="N23" s="71"/>
+      <c r="O23" s="87">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="P23" s="86">
+      <c r="P23" s="85">
         <v>1</v>
       </c>
-      <c r="Q23" s="89" t="s">
+      <c r="Q23" s="88" t="s">
         <v>158</v>
       </c>
       <c r="R23" s="56" t="s">
@@ -8502,9 +10023,9 @@
       </c>
       <c r="X23" s="24"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
@@ -8513,7 +10034,7 @@
       <c r="C24" s="14">
         <v>1</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="72" t="s">
         <v>118</v>
       </c>
       <c r="E24" s="14" t="s">
@@ -8521,12 +10042,12 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="60"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="89" t="s">
+      <c r="H24" s="63"/>
+      <c r="I24" s="59"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="88" t="s">
         <v>159</v>
       </c>
       <c r="R24" s="56" t="s">
@@ -8539,9 +10060,9 @@
       <c r="W24" s="21"/>
       <c r="X24" s="25"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
@@ -8550,7 +10071,7 @@
       <c r="C25" s="14">
         <v>1</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="72" t="s">
         <v>119</v>
       </c>
       <c r="E25" s="14" t="s">
@@ -8560,14 +10081,14 @@
       <c r="G25" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="64"/>
-      <c r="I25" s="67" t="s">
+      <c r="H25" s="63"/>
+      <c r="I25" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="N25" s="72"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="89" t="s">
+      <c r="N25" s="71"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="88" t="s">
         <v>160</v>
       </c>
       <c r="R25" s="56" t="s">
@@ -8580,9 +10101,9 @@
       <c r="W25" s="21"/>
       <c r="X25" s="25"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
@@ -8600,13 +10121,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="65" t="s">
+      <c r="I26" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="N26" s="72"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="89" t="s">
+      <c r="N26" s="71"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="88" t="s">
         <v>161</v>
       </c>
       <c r="R26" s="56" t="s">
@@ -8619,9 +10140,9 @@
       <c r="W26" s="21"/>
       <c r="X26" s="25"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
@@ -8640,10 +10161,10 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="89" t="s">
+      <c r="N27" s="71"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="88" t="s">
         <v>162</v>
       </c>
       <c r="R27" s="56" t="s">
@@ -8658,9 +10179,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
@@ -8681,10 +10202,10 @@
       <c r="I28" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="N28" s="72"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="89" t="s">
+      <c r="N28" s="71"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="88" t="s">
         <v>163</v>
       </c>
       <c r="R28" s="56" t="s">
@@ -8697,9 +10218,9 @@
       <c r="W28" s="21"/>
       <c r="X28" s="25"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
@@ -8718,10 +10239,10 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="89" t="s">
+      <c r="N29" s="71"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="88" t="s">
         <v>164</v>
       </c>
       <c r="R29" s="56" t="s">
@@ -8734,9 +10255,9 @@
       <c r="W29" s="21"/>
       <c r="X29" s="25"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
@@ -8757,10 +10278,10 @@
       <c r="I30" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="N30" s="72"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="89" t="s">
+      <c r="N30" s="71"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="88" t="s">
         <v>165</v>
       </c>
       <c r="R30" s="56" t="s">
@@ -8773,9 +10294,9 @@
       <c r="W30" s="35"/>
       <c r="X30" s="26"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
@@ -8794,15 +10315,15 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="88">
+      <c r="N31" s="71"/>
+      <c r="O31" s="87">
         <f>P23+O23</f>
         <v>28</v>
       </c>
-      <c r="P31" s="86">
+      <c r="P31" s="85">
         <v>1</v>
       </c>
-      <c r="Q31" s="89" t="s">
+      <c r="Q31" s="88" t="s">
         <v>166</v>
       </c>
       <c r="R31" s="56" t="s">
@@ -8815,9 +10336,9 @@
       <c r="W31" s="34"/>
       <c r="X31" s="25"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
@@ -8838,10 +10359,10 @@
       <c r="I32" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="N32" s="72"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="89" t="s">
+      <c r="N32" s="71"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="88" t="s">
         <v>167</v>
       </c>
       <c r="R32" s="56" t="s">
@@ -8854,9 +10375,9 @@
       <c r="W32" s="21"/>
       <c r="X32" s="25"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
@@ -8875,10 +10396,10 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="89" t="s">
+      <c r="N33" s="71"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="88" t="s">
         <v>168</v>
       </c>
       <c r="R33" s="56" t="s">
@@ -8891,9 +10412,9 @@
       <c r="W33" s="21"/>
       <c r="X33" s="25"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
@@ -8912,10 +10433,10 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="89" t="s">
+      <c r="N34" s="71"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="90"/>
+      <c r="Q34" s="88" t="s">
         <v>169</v>
       </c>
       <c r="R34" s="56" t="s">
@@ -8930,9 +10451,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="0"/>
@@ -8951,10 +10472,10 @@
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="89" t="s">
+      <c r="N35" s="71"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="88" t="s">
         <v>170</v>
       </c>
       <c r="R35" s="56" t="s">
@@ -8967,9 +10488,9 @@
       <c r="W35" s="21"/>
       <c r="X35" s="25"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
@@ -8990,10 +10511,10 @@
       <c r="I36" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="72"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="91"/>
-      <c r="Q36" s="89" t="s">
+      <c r="N36" s="71"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="88" t="s">
         <v>171</v>
       </c>
       <c r="R36" s="56" t="s">
@@ -9006,9 +10527,9 @@
       <c r="W36" s="21"/>
       <c r="X36" s="25"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="0"/>
@@ -9027,10 +10548,10 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="91"/>
-      <c r="Q37" s="89" t="s">
+      <c r="N37" s="71"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="88" t="s">
         <v>172</v>
       </c>
       <c r="R37" s="56" t="s">
@@ -9043,9 +10564,9 @@
       <c r="W37" s="21"/>
       <c r="X37" s="25"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="0"/>
@@ -9064,10 +10585,10 @@
       <c r="I38" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="N38" s="72"/>
-      <c r="O38" s="92"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="89" t="s">
+      <c r="N38" s="71"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="92"/>
+      <c r="Q38" s="88" t="s">
         <v>173</v>
       </c>
       <c r="R38" s="56" t="s">
@@ -9082,9 +10603,9 @@
       </c>
       <c r="X38" s="26"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="0"/>
@@ -9101,12 +10622,12 @@
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
-      <c r="N39" s="72"/>
+      <c r="N39" s="71"/>
       <c r="O39" s="53">
         <f>P31+O31</f>
         <v>29</v>
       </c>
-      <c r="P39" s="87">
+      <c r="P39" s="86">
         <v>1</v>
       </c>
       <c r="Q39" s="53" t="s">
@@ -9122,9 +10643,9 @@
       <c r="U39" s="53"/>
       <c r="V39" s="53"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="0"/>
@@ -9141,7 +10662,7 @@
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
-      <c r="N40" s="72"/>
+      <c r="N40" s="71"/>
       <c r="O40" s="53">
         <f t="shared" ref="O40:O49" si="3">P39+O39</f>
         <v>30</v>
@@ -9162,9 +10683,9 @@
       <c r="U40" s="53"/>
       <c r="V40" s="53"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="0"/>
@@ -9181,7 +10702,7 @@
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
-      <c r="N41" s="72"/>
+      <c r="N41" s="71"/>
       <c r="O41" s="53">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -9202,9 +10723,9 @@
       <c r="U41" s="53"/>
       <c r="V41" s="53"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="0"/>
@@ -9226,7 +10747,7 @@
       </c>
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
-      <c r="N42" s="72"/>
+      <c r="N42" s="71"/>
       <c r="O42" s="53">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -9247,16 +10768,16 @@
       <c r="U42" s="53"/>
       <c r="V42" s="53"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="N43" s="72"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="68"/>
+      <c r="N43" s="71"/>
       <c r="O43" s="53">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -9277,16 +10798,16 @@
       <c r="U43" s="53"/>
       <c r="V43" s="53"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="69"/>
-      <c r="N44" s="72"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="68"/>
+      <c r="N44" s="71"/>
       <c r="O44" s="53">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -9307,16 +10828,16 @@
       <c r="U44" s="53"/>
       <c r="V44" s="53"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="69"/>
-      <c r="N45" s="72"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="68"/>
+      <c r="N45" s="71"/>
       <c r="O45" s="53">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -9337,16 +10858,16 @@
       <c r="U45" s="53"/>
       <c r="V45" s="53"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="69"/>
-      <c r="N46" s="72"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="68"/>
+      <c r="N46" s="71"/>
       <c r="O46" s="53">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -9367,16 +10888,16 @@
       <c r="U46" s="53"/>
       <c r="V46" s="53"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="69"/>
-      <c r="N47" s="72"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="68"/>
+      <c r="N47" s="71"/>
       <c r="O47" s="53">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -9397,15 +10918,15 @@
       <c r="U47" s="53"/>
       <c r="V47" s="53"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="70"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="69"/>
       <c r="N48" s="42"/>
       <c r="O48" s="53">
         <f t="shared" si="3"/>
@@ -9415,7 +10936,7 @@
         <v>10</v>
       </c>
       <c r="Q48" s="53" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="R48" s="53" t="s">
         <v>4</v>
@@ -9425,27 +10946,27 @@
       <c r="U48" s="53"/>
       <c r="V48" s="53"/>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="N49" s="42"/>
-      <c r="O49" s="74">
+      <c r="O49" s="73">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="P49" s="74">
+      <c r="P49" s="73">
         <v>20</v>
       </c>
-      <c r="Q49" s="74" t="s">
+      <c r="Q49" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="R49" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="75"/>
-      <c r="T49" s="76"/>
-      <c r="U49" s="74"/>
-      <c r="V49" s="74"/>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="R49" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="74"/>
+      <c r="T49" s="75"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="73"/>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="N50" s="42">
         <f>SUM(P5:P49)</f>
         <v>69</v>
@@ -9459,7 +10980,7 @@
       <c r="U50" s="30"/>
       <c r="V50" s="29"/>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51">
         <f>SUM(C3:C48)</f>
         <v>236</v>
@@ -9477,7 +10998,7 @@
       <c r="U51" s="30"/>
       <c r="V51" s="29"/>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="N52" s="42"/>
       <c r="O52" s="30"/>
       <c r="P52" s="30"/>
@@ -9488,7 +11009,7 @@
       <c r="U52" s="30"/>
       <c r="V52" s="29"/>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="N53" s="42"/>
       <c r="O53" s="30"/>
       <c r="P53" s="30"/>
@@ -9499,7 +11020,7 @@
       <c r="U53" s="28"/>
       <c r="V53" s="29"/>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="N54" s="42"/>
       <c r="O54" s="30"/>
       <c r="P54" s="30"/>
@@ -9508,9 +11029,9 @@
       <c r="S54" s="42"/>
       <c r="T54" s="29"/>
       <c r="U54" s="28"/>
-      <c r="V54" s="110"/>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V54" s="99"/>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="30"/>
       <c r="N55" s="42"/>
       <c r="O55" s="30"/>
@@ -9520,9 +11041,9 @@
       <c r="S55" s="42"/>
       <c r="T55" s="29"/>
       <c r="U55" s="30"/>
-      <c r="V55" s="110"/>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V55" s="99"/>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" s="30"/>
       <c r="N56" s="42"/>
       <c r="O56" s="30"/>
@@ -9532,9 +11053,9 @@
       <c r="S56" s="42"/>
       <c r="T56" s="29"/>
       <c r="U56" s="30"/>
-      <c r="V56" s="110"/>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V56" s="99"/>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="30"/>
       <c r="N57" s="42"/>
       <c r="O57" s="30"/>
@@ -9544,9 +11065,9 @@
       <c r="S57" s="42"/>
       <c r="T57" s="29"/>
       <c r="U57" s="30"/>
-      <c r="V57" s="110"/>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V57" s="99"/>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" s="30"/>
       <c r="N58" s="42"/>
       <c r="O58" s="30"/>
@@ -9556,9 +11077,9 @@
       <c r="S58" s="42"/>
       <c r="T58" s="29"/>
       <c r="U58" s="30"/>
-      <c r="V58" s="110"/>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V58" s="99"/>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -9575,9 +11096,9 @@
       <c r="S59" s="42"/>
       <c r="T59" s="29"/>
       <c r="U59" s="30"/>
-      <c r="V59" s="110"/>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V59" s="99"/>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
@@ -9594,9 +11115,9 @@
       <c r="S60" s="42"/>
       <c r="T60" s="29"/>
       <c r="U60" s="30"/>
-      <c r="V60" s="110"/>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V60" s="99"/>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="30"/>
@@ -9613,9 +11134,9 @@
       <c r="S61" s="42"/>
       <c r="T61" s="29"/>
       <c r="U61" s="28"/>
-      <c r="V61" s="110"/>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V61" s="99"/>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="30"/>
@@ -9626,7 +11147,7 @@
       <c r="I62" s="29"/>
       <c r="N62" s="41"/>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
@@ -9636,7 +11157,7 @@
       <c r="H63" s="30"/>
       <c r="I63" s="29"/>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="30"/>
@@ -9646,7 +11167,7 @@
       <c r="H64" s="28"/>
       <c r="I64" s="29"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
@@ -9656,7 +11177,7 @@
       <c r="H65" s="28"/>
       <c r="I65" s="29"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
       <c r="D66" s="30"/>
@@ -9666,7 +11187,7 @@
       <c r="H66" s="30"/>
       <c r="I66" s="29"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
@@ -9676,7 +11197,7 @@
       <c r="H67" s="30"/>
       <c r="I67" s="29"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -9686,7 +11207,7 @@
       <c r="H68" s="30"/>
       <c r="I68" s="29"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
       <c r="D69" s="30"/>
@@ -9696,7 +11217,7 @@
       <c r="H69" s="30"/>
       <c r="I69" s="29"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
       <c r="D70" s="30"/>
@@ -9706,7 +11227,7 @@
       <c r="H70" s="30"/>
       <c r="I70" s="29"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
       <c r="D71" s="30"/>
@@ -9716,7 +11237,7 @@
       <c r="H71" s="30"/>
       <c r="I71" s="29"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
       <c r="D72" s="30"/>
@@ -9726,7 +11247,7 @@
       <c r="H72" s="28"/>
       <c r="I72" s="29"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="30"/>
       <c r="C73" s="30"/>
       <c r="D73" s="30"/>
@@ -9736,7 +11257,7 @@
       <c r="H73" s="28"/>
       <c r="I73" s="29"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="30"/>
       <c r="C74" s="30"/>
       <c r="D74" s="30"/>
@@ -9746,7 +11267,7 @@
       <c r="H74" s="30"/>
       <c r="I74" s="29"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="30"/>
       <c r="C75" s="30"/>
       <c r="D75" s="30"/>
@@ -9756,7 +11277,7 @@
       <c r="H75" s="30"/>
       <c r="I75" s="29"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
       <c r="D76" s="30"/>
@@ -9766,7 +11287,7 @@
       <c r="H76" s="30"/>
       <c r="I76" s="29"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="30"/>
       <c r="C77" s="30"/>
       <c r="D77" s="30"/>
@@ -9776,7 +11297,7 @@
       <c r="H77" s="30"/>
       <c r="I77" s="29"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
       <c r="D78" s="30"/>
@@ -9786,7 +11307,7 @@
       <c r="H78" s="30"/>
       <c r="I78" s="29"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
       <c r="D79" s="30"/>
@@ -9796,7 +11317,7 @@
       <c r="H79" s="30"/>
       <c r="I79" s="29"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
       <c r="D80" s="30"/>
@@ -9806,7 +11327,7 @@
       <c r="H80" s="28"/>
       <c r="I80" s="29"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="30"/>
       <c r="C81" s="30"/>
       <c r="D81" s="30"/>
@@ -9816,7 +11337,7 @@
       <c r="H81" s="28"/>
       <c r="I81" s="29"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="30"/>
       <c r="C82" s="30"/>
       <c r="D82" s="30"/>
@@ -9826,7 +11347,7 @@
       <c r="H82" s="30"/>
       <c r="I82" s="29"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="30"/>
       <c r="C83" s="30"/>
       <c r="D83" s="30"/>
@@ -9836,7 +11357,7 @@
       <c r="H83" s="30"/>
       <c r="I83" s="29"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
       <c r="D84" s="30"/>
@@ -9846,7 +11367,7 @@
       <c r="H84" s="30"/>
       <c r="I84" s="29"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="30"/>
       <c r="C85" s="30"/>
       <c r="D85" s="30"/>
@@ -9856,7 +11377,7 @@
       <c r="H85" s="30"/>
       <c r="I85" s="29"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
       <c r="D86" s="30"/>
@@ -9866,7 +11387,7 @@
       <c r="H86" s="30"/>
       <c r="I86" s="29"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
       <c r="D87" s="30"/>
@@ -9876,7 +11397,7 @@
       <c r="H87" s="30"/>
       <c r="I87" s="29"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="30"/>
       <c r="C88" s="30"/>
       <c r="D88" s="30"/>
@@ -9886,7 +11407,7 @@
       <c r="H88" s="28"/>
       <c r="I88" s="29"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="30"/>
       <c r="C89" s="30"/>
       <c r="D89" s="30"/>
@@ -9896,7 +11417,7 @@
       <c r="H89" s="30"/>
       <c r="I89" s="30"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="30"/>
       <c r="C90" s="30"/>
       <c r="D90" s="30"/>
@@ -9906,7 +11427,7 @@
       <c r="H90" s="30"/>
       <c r="I90" s="30"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="30"/>
       <c r="C91" s="30"/>
       <c r="D91" s="30"/>
@@ -9916,7 +11437,7 @@
       <c r="H91" s="30"/>
       <c r="I91" s="30"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="30"/>
       <c r="C92" s="30"/>
       <c r="D92" s="30"/>
@@ -9926,7 +11447,7 @@
       <c r="H92" s="30"/>
       <c r="I92" s="30"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="30"/>
       <c r="C93" s="30"/>
       <c r="D93" s="30"/>
@@ -9936,7 +11457,7 @@
       <c r="H93" s="30"/>
       <c r="I93" s="30"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="30"/>
       <c r="C94" s="30"/>
       <c r="D94" s="30"/>
@@ -9946,7 +11467,7 @@
       <c r="H94" s="30"/>
       <c r="I94" s="30"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="30"/>
       <c r="C95" s="30"/>
       <c r="D95" s="30"/>
@@ -9956,7 +11477,7 @@
       <c r="H95" s="30"/>
       <c r="I95" s="30"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="30"/>
       <c r="C96" s="30"/>
       <c r="D96" s="30"/>
@@ -9966,7 +11487,7 @@
       <c r="H96" s="30"/>
       <c r="I96" s="30"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="30"/>
       <c r="C97" s="30"/>
       <c r="D97" s="30"/>
@@ -9976,7 +11497,7 @@
       <c r="H97" s="30"/>
       <c r="I97" s="30"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="30"/>
       <c r="C98" s="30"/>
       <c r="D98" s="30"/>
@@ -10001,21 +11522,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB04241-F991-40CE-B243-1152ECDEFEE4}">
   <dimension ref="B2:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="22" t="s">
         <v>94</v>
       </c>
@@ -10028,7 +11549,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M3" t="s">
         <v>97</v>
       </c>
@@ -10036,7 +11557,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>71</v>
       </c>
@@ -10063,7 +11584,7 @@
       </c>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="20">
         <v>0</v>
       </c>
@@ -10088,7 +11609,7 @@
       </c>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <f>C5+B5</f>
         <v>2</v>
@@ -10114,7 +11635,7 @@
       </c>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <f>C6+B6</f>
         <v>3</v>
@@ -10140,7 +11661,7 @@
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <f t="shared" ref="B8:B11" si="0">C7+B7</f>
         <v>4</v>
@@ -10169,7 +11690,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10195,7 +11716,7 @@
       </c>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10219,7 +11740,7 @@
       </c>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10239,7 +11760,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
         <v>37</v>
       </c>
@@ -10251,12 +11772,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
@@ -10282,7 +11803,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="20">
         <v>0</v>
       </c>
@@ -10304,7 +11825,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <f>C19+B19</f>
         <v>2</v>
@@ -10327,7 +11848,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <f>C20+B20</f>
         <v>3</v>
@@ -10350,7 +11871,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <f t="shared" ref="B22:B27" si="1">C21+B21</f>
         <v>4</v>
@@ -10375,7 +11896,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -10400,7 +11921,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -10423,7 +11944,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -10444,7 +11965,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -10463,7 +11984,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -10482,7 +12003,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>96</v>
       </c>
@@ -10503,802 +12024,1478 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB98B7-73F7-4C3A-AAF0-0D4F4D184EA5}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A34" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="3" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" customWidth="1"/>
+    <col min="3" max="3" width="51.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="118" t="s">
         <v>175</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="118"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="118"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="118"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="118"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="E5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B12" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="118" t="s">
         <v>177</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B18" s="119" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C18" s="118" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="58" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="118"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="118"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="118"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="118"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="118"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="118"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="118"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="118"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="J26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="118"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="H27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="118"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118" t="s">
+        <v>296</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="118"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="H29" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" t="s">
+        <v>139</v>
+      </c>
+      <c r="J29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="81" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="B30" s="81" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="C30" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s">
+        <v>140</v>
+      </c>
+      <c r="J30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="81"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>193</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="H31" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="81"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="81"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="81"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="H35" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="I35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="J21" t="s">
+      <c r="I36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="81"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="81"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="81"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="81"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81" t="s">
+        <v>295</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="81"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="108"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="111"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="112" t="s">
+        <v>297</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="111" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="116" t="s">
+        <v>318</v>
+      </c>
+      <c r="C44" s="112" t="s">
+        <v>301</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="111"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="112" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I45" t="s">
+        <v>239</v>
+      </c>
+      <c r="J45" s="97" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="111"/>
+      <c r="B46" s="116" t="s">
+        <v>308</v>
+      </c>
+      <c r="C46" s="112" t="s">
+        <v>294</v>
+      </c>
+      <c r="D46" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J46" s="97"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="111"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" t="s">
+        <v>234</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J47" s="97"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="111"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" t="s">
+        <v>236</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J48" s="97"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="111"/>
+      <c r="B49" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" t="s">
+        <v>238</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J49" s="97" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="111"/>
+      <c r="B50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J50" s="97"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="111"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>151</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J51" s="97"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="111"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J52" s="97" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="111"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>154</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I53" t="s">
+        <v>240</v>
+      </c>
+      <c r="J53" s="81" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="111"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>155</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J54" s="81"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="111"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>152</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J55" s="81"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="111"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J56" s="81" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="111"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>157</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J57" s="81"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="111"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J58" s="81"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="113"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J59" s="81"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="100"/>
+      <c r="H60" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J60" s="81" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="105"/>
+      <c r="B61" s="105" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="106"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="106" t="s">
+        <v>297</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="106"/>
+      <c r="B63" s="106"/>
+      <c r="C63" s="106" t="s">
+        <v>301</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="106"/>
+      <c r="B64" s="106"/>
+      <c r="C64" s="106" t="s">
+        <v>302</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="101"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="106" t="s">
+        <v>323</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="106"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="106" t="s">
+        <v>310</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="106"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="106" t="s">
+        <v>311</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="107"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="105"/>
+      <c r="B69" s="105" t="s">
+        <v>312</v>
+      </c>
+      <c r="C69" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="106"/>
+      <c r="B70" s="106"/>
+      <c r="C70" s="106" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="106"/>
+      <c r="B71" s="106"/>
+      <c r="C71" s="106" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="106"/>
+      <c r="B72" s="106"/>
+      <c r="C72" s="106" t="s">
+        <v>302</v>
+      </c>
+      <c r="D72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="106"/>
+      <c r="B73" s="106"/>
+      <c r="C73" s="106" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="106"/>
+      <c r="B74" s="106"/>
+      <c r="C74" s="106" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="107"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="107" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="105"/>
+      <c r="B76" s="102" t="s">
+        <v>316</v>
+      </c>
+      <c r="C76" s="105" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="106"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="106" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="106"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="106" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="106"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="106" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="106"/>
+      <c r="B80" s="101"/>
+      <c r="C80" s="106" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="106"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="106" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="106"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="106" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="106"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="106" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="106"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="106" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="106"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="106" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="106"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="106" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="106"/>
+      <c r="B87" s="96"/>
+      <c r="C87" s="106" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="106"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="106"/>
+      <c r="B89" s="96"/>
+      <c r="C89" s="106" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="107"/>
+      <c r="B90" s="104"/>
+      <c r="C90" s="107" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="105"/>
+      <c r="B91" s="105" t="s">
+        <v>324</v>
+      </c>
+      <c r="C91" s="105" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="106"/>
+      <c r="B92" s="106"/>
+      <c r="C92" s="106" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="106"/>
+      <c r="B93" s="106"/>
+      <c r="C93" s="106" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="106"/>
+      <c r="B94" s="106"/>
+      <c r="C94" s="106" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="106"/>
+      <c r="B95" s="106"/>
+      <c r="C95" s="106" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="107"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="107" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="120" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" s="109" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="C99" s="110" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="121"/>
+      <c r="B100" s="116"/>
+      <c r="C100" s="112" t="s">
+        <v>294</v>
+      </c>
+      <c r="D100" t="s">
         <v>138</v>
       </c>
-      <c r="J22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>184</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" t="s">
-        <v>238</v>
-      </c>
-      <c r="J23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>185</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" t="s">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="121"/>
+      <c r="B101" s="116"/>
+      <c r="C101" s="112" t="s">
+        <v>204</v>
+      </c>
+      <c r="D101" t="s">
         <v>139</v>
       </c>
-      <c r="J24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" t="s">
-        <v>140</v>
-      </c>
-      <c r="J25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>187</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>188</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="121"/>
+      <c r="B102" s="116"/>
+      <c r="C102" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="121"/>
+      <c r="B103" s="116"/>
+      <c r="C103" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="121"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="D104" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="121"/>
+      <c r="B105" s="116"/>
+      <c r="C105" s="122" t="s">
+        <v>207</v>
+      </c>
+      <c r="D105" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="121"/>
+      <c r="B106" s="116"/>
+      <c r="C106" s="122" t="s">
+        <v>208</v>
+      </c>
+      <c r="D106" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="121"/>
+      <c r="B107" s="116"/>
+      <c r="C107" s="122" t="s">
+        <v>209</v>
+      </c>
+      <c r="D107" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="121"/>
+      <c r="B108" s="116"/>
+      <c r="C108" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="D108" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="121"/>
+      <c r="B109" s="116"/>
+      <c r="C109" s="122" t="s">
+        <v>211</v>
+      </c>
+      <c r="D109" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="121"/>
+      <c r="B110" s="116"/>
+      <c r="C110" s="122" t="s">
+        <v>212</v>
+      </c>
+      <c r="D110" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="121"/>
+      <c r="B111" s="116"/>
+      <c r="C111" s="122" t="s">
+        <v>213</v>
+      </c>
+      <c r="D111" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="121"/>
+      <c r="B112" s="116"/>
+      <c r="C112" s="122" t="s">
+        <v>214</v>
+      </c>
+      <c r="D112" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="121"/>
+      <c r="B113" s="116"/>
+      <c r="C113" s="123" t="s">
+        <v>215</v>
+      </c>
+      <c r="D113" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="121"/>
+      <c r="B114" s="116"/>
+      <c r="C114" s="124" t="s">
+        <v>216</v>
+      </c>
+      <c r="D114" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="121"/>
+      <c r="B115" s="116"/>
+      <c r="C115" s="124" t="s">
+        <v>217</v>
+      </c>
+      <c r="D115" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="121"/>
+      <c r="B116" s="116"/>
+      <c r="C116" s="124" t="s">
+        <v>218</v>
+      </c>
+      <c r="D116" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="121"/>
+      <c r="B117" s="116"/>
+      <c r="C117" s="124" t="s">
+        <v>219</v>
+      </c>
+      <c r="D117" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="121"/>
+      <c r="B118" s="116"/>
+      <c r="C118" s="124" t="s">
+        <v>220</v>
+      </c>
+      <c r="D118" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="121"/>
+      <c r="B119" s="116"/>
+      <c r="C119" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="D119" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="121"/>
+      <c r="B120" s="116"/>
+      <c r="C120" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="D120" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="121"/>
+      <c r="B121" s="116"/>
+      <c r="C121" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="D121" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="121"/>
+      <c r="B122" s="116"/>
+      <c r="C122" s="125" t="s">
+        <v>209</v>
+      </c>
+      <c r="D122" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="121"/>
+      <c r="B123" s="116"/>
+      <c r="C123" s="125" t="s">
+        <v>220</v>
+      </c>
+      <c r="D123" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="121"/>
+      <c r="B124" s="116"/>
+      <c r="C124" s="124" t="s">
+        <v>209</v>
+      </c>
+      <c r="D124" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="121"/>
+      <c r="B125" s="116"/>
+      <c r="C125" s="124" t="s">
+        <v>220</v>
+      </c>
+      <c r="D125" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="121"/>
+      <c r="B126" s="116"/>
+      <c r="C126" s="126" t="s">
+        <v>209</v>
+      </c>
+      <c r="D126" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="121"/>
+      <c r="B127" s="116"/>
+      <c r="C127" s="126" t="s">
+        <v>220</v>
+      </c>
+      <c r="D127" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="121"/>
+      <c r="B128" s="116"/>
+      <c r="C128" s="127" t="s">
+        <v>216</v>
+      </c>
+      <c r="D128" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="121"/>
+      <c r="B129" s="116"/>
+      <c r="C129" s="127" t="s">
+        <v>217</v>
+      </c>
+      <c r="D129" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="121"/>
+      <c r="B130" s="116"/>
+      <c r="C130" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="D130" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="121"/>
+      <c r="B131" s="116"/>
+      <c r="C131" s="127" t="s">
+        <v>220</v>
+      </c>
+      <c r="D131" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="121"/>
+      <c r="B132" s="116"/>
+      <c r="C132" s="128" t="s">
+        <v>224</v>
+      </c>
+      <c r="D132" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="121"/>
+      <c r="B133" s="116"/>
+      <c r="C133" s="128" t="s">
+        <v>225</v>
+      </c>
+      <c r="D133" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="121"/>
+      <c r="B134" s="116"/>
+      <c r="C134" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="D134" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="121"/>
+      <c r="B135" s="116"/>
+      <c r="C135" s="129" t="s">
+        <v>209</v>
+      </c>
+      <c r="D135" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="121"/>
+      <c r="B136" s="116"/>
+      <c r="C136" s="129" t="s">
+        <v>217</v>
+      </c>
+      <c r="D136" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="121"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="129" t="s">
+        <v>218</v>
+      </c>
+      <c r="D137" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="130"/>
+      <c r="B138" s="114"/>
+      <c r="C138" s="131"/>
+      <c r="D138" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>317</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C141" s="132" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
         <v>189</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I28" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>190</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>191</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="I30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>192</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="I31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>199</v>
-      </c>
-      <c r="C32" t="s">
-        <v>181</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>200</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>201</v>
-      </c>
-      <c r="E34" s="94" t="s">
-        <v>202</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="97" t="s">
-        <v>210</v>
-      </c>
-      <c r="C35" t="s">
-        <v>209</v>
-      </c>
-      <c r="E35" t="s">
-        <v>203</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="97"/>
-      <c r="C36" t="s">
-        <v>204</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="97"/>
-      <c r="C37" t="s">
-        <v>205</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="97"/>
-      <c r="C38" t="s">
-        <v>206</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="107" t="s">
-        <v>211</v>
-      </c>
-      <c r="C39" t="s">
-        <v>209</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="107"/>
-      <c r="C40" t="s">
-        <v>204</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="I40" t="s">
-        <v>244</v>
-      </c>
-      <c r="J40" s="108" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="107"/>
-      <c r="C41" t="s">
-        <v>205</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="J41" s="108"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="107"/>
-      <c r="C42" t="s">
-        <v>206</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="J42" s="108"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="107"/>
-      <c r="C43" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" s="98"/>
-      <c r="H43" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="J43" s="108"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="107"/>
-      <c r="C44" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="D44" s="98"/>
-      <c r="H44" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="J44" s="108" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="107"/>
-      <c r="C45" s="98" t="s">
-        <v>214</v>
-      </c>
-      <c r="D45" s="98"/>
-      <c r="H45" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="J45" s="108"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="107"/>
-      <c r="C46" s="98" t="s">
-        <v>215</v>
-      </c>
-      <c r="D46" s="98"/>
-      <c r="H46" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="J46" s="108"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="107"/>
-      <c r="C47" s="98" t="s">
-        <v>216</v>
-      </c>
-      <c r="D47" s="98"/>
-      <c r="H47" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="J47" s="108" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="107"/>
-      <c r="C48" s="98" t="s">
-        <v>217</v>
-      </c>
-      <c r="D48" s="98"/>
-      <c r="H48" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="I48" t="s">
-        <v>245</v>
-      </c>
-      <c r="J48" s="82" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="107"/>
-      <c r="C49" s="98" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" s="98"/>
-      <c r="H49" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="J49" s="82"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="107"/>
-      <c r="C50" s="98" t="s">
-        <v>219</v>
-      </c>
-      <c r="D50" s="98"/>
-      <c r="H50" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="J50" s="82"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="107"/>
-      <c r="C51" s="99" t="s">
-        <v>220</v>
-      </c>
-      <c r="D51" s="99"/>
-      <c r="H51" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J51" s="82" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="107"/>
-      <c r="C52" s="100" t="s">
-        <v>221</v>
-      </c>
-      <c r="D52" s="100"/>
-      <c r="H52" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J52" s="82"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="107"/>
-      <c r="C53" s="100" t="s">
-        <v>222</v>
-      </c>
-      <c r="D53" s="100"/>
-      <c r="H53" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J53" s="82"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="107"/>
-      <c r="C54" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="D54" s="100"/>
-      <c r="H54" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J54" s="82"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="107"/>
-      <c r="C55" s="100" t="s">
-        <v>224</v>
-      </c>
-      <c r="D55" s="100"/>
-      <c r="H55" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="J55" s="82" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="107"/>
-      <c r="C56" s="100" t="s">
-        <v>225</v>
-      </c>
-      <c r="D56" s="100"/>
-      <c r="H56" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I56" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="107"/>
-      <c r="C57" s="101" t="s">
-        <v>226</v>
-      </c>
-      <c r="D57" s="101"/>
-      <c r="H57" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I57" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="107"/>
-      <c r="C58" s="101" t="s">
-        <v>227</v>
-      </c>
-      <c r="D58" s="101"/>
-      <c r="H58" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="107"/>
-      <c r="C59" s="101" t="s">
-        <v>228</v>
-      </c>
-      <c r="D59" s="101"/>
-      <c r="H59" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="107"/>
-      <c r="C60" s="80" t="s">
-        <v>214</v>
-      </c>
-      <c r="D60" s="80"/>
-      <c r="H60" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="107"/>
-      <c r="C61" s="80" t="s">
-        <v>225</v>
-      </c>
-      <c r="D61" s="80"/>
-      <c r="H61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="107"/>
-      <c r="C62" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="D62" s="100"/>
-      <c r="H62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="107"/>
-      <c r="C63" s="100" t="s">
-        <v>225</v>
-      </c>
-      <c r="D63" s="100"/>
-      <c r="H63" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="107"/>
-      <c r="C64" s="102" t="s">
-        <v>214</v>
-      </c>
-      <c r="D64" s="102"/>
-      <c r="H64" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I64" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="107"/>
-      <c r="C65" s="102" t="s">
-        <v>225</v>
-      </c>
-      <c r="D65" s="102"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="107"/>
-      <c r="C66" s="103" t="s">
-        <v>221</v>
-      </c>
-      <c r="D66" s="103"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="107"/>
-      <c r="C67" s="103" t="s">
-        <v>222</v>
-      </c>
-      <c r="D67" s="103"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="107"/>
-      <c r="C68" s="103" t="s">
-        <v>223</v>
-      </c>
-      <c r="D68" s="103"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="107"/>
-      <c r="C69" s="103" t="s">
-        <v>225</v>
-      </c>
-      <c r="D69" s="103"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="107"/>
-      <c r="C70" s="104" t="s">
-        <v>229</v>
-      </c>
-      <c r="D70" s="104"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="107"/>
-      <c r="C71" s="104" t="s">
-        <v>230</v>
-      </c>
-      <c r="D71" s="104"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="107"/>
-      <c r="C72" s="105" t="s">
-        <v>220</v>
-      </c>
-      <c r="D72" s="105"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="107"/>
-      <c r="C73" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" s="105"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="107"/>
-      <c r="C74" s="105" t="s">
-        <v>222</v>
-      </c>
-      <c r="D74" s="105"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="107"/>
-      <c r="C75" s="105" t="s">
-        <v>223</v>
-      </c>
-      <c r="D75" s="105"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="107"/>
-      <c r="C76" s="106" t="s">
-        <v>231</v>
-      </c>
-      <c r="D76" s="106"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="107"/>
-      <c r="C77" s="106" t="s">
-        <v>232</v>
-      </c>
-      <c r="D77" s="106"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="107"/>
-      <c r="C78" s="106" t="s">
-        <v>233</v>
-      </c>
-      <c r="D78" s="106"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="107"/>
-      <c r="C79" s="106" t="s">
-        <v>234</v>
-      </c>
-      <c r="D79" s="106"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="107"/>
-      <c r="C80" s="106" t="s">
-        <v>235</v>
-      </c>
-      <c r="D80" s="106"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="107"/>
-      <c r="C81" s="106" t="s">
-        <v>236</v>
-      </c>
-      <c r="D81" s="106"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="107"/>
-      <c r="C82" s="106" t="s">
-        <v>237</v>
-      </c>
-      <c r="D82" s="106"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>320</v>
+      </c>
+      <c r="C144" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C145" s="132" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>322</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="132" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
+++ b/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ute\Lab_project\git_Indruino\IOT_ESP32\Indruino-Iot-Project\FW\Hau\mem_map_data_trans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B04F41-479C-4609-9B28-CFDE0C48830B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6266D7A-3168-4F21-9890-DDE8FCA02E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mega" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="401">
   <si>
     <t>stt</t>
   </si>
@@ -563,9 +563,6 @@
     <t>status LWT</t>
   </si>
   <si>
-    <t>/MASTER/STATUS/LWT/(modelNUmber + Idboard)</t>
-  </si>
-  <si>
     <t>Status system</t>
   </si>
   <si>
@@ -578,9 +575,6 @@
     <t>{</t>
   </si>
   <si>
-    <t>"code": "model number+ID_board+ID_S1"</t>
-  </si>
-  <si>
     <t xml:space="preserve">"A0": </t>
   </si>
   <si>
@@ -614,9 +608,6 @@
     <t>/MASTER/GET/SENSOR</t>
   </si>
   <si>
-    <t>"code":"model number+ID_board+ID_S1"</t>
-  </si>
-  <si>
     <t>server access</t>
   </si>
   <si>
@@ -626,42 +617,24 @@
     <t>ID_S2</t>
   </si>
   <si>
-    <t>/MASTER/CONFIG</t>
-  </si>
-  <si>
     <t>Set baud mega truoc khi set esp</t>
   </si>
   <si>
     <t>Giong nhau giua 2 board</t>
   </si>
   <si>
-    <t>"Return Delay Time"</t>
-  </si>
-  <si>
-    <t>"Baud_S2"</t>
-  </si>
-  <si>
-    <t>"ID_S2"</t>
-  </si>
-  <si>
     <t>1-7</t>
   </si>
   <si>
     <t>Load from rom of mega</t>
   </si>
   <si>
-    <t>"ID BOARD"</t>
-  </si>
-  <si>
     <t>MEGA</t>
   </si>
   <si>
     <t>ESP</t>
   </si>
   <si>
-    <t>"ModeWifi"</t>
-  </si>
-  <si>
     <t>"ModeIP"</t>
   </si>
   <si>
@@ -716,27 +689,6 @@
     <t>"type"</t>
   </si>
   <si>
-    <t>"Year"</t>
-  </si>
-  <si>
-    <t>"Month"</t>
-  </si>
-  <si>
-    <t>"Day"</t>
-  </si>
-  <si>
-    <t>"Day of week"</t>
-  </si>
-  <si>
-    <t>"Hour"</t>
-  </si>
-  <si>
-    <t>"Minute"</t>
-  </si>
-  <si>
-    <t>"Second"</t>
-  </si>
-  <si>
     <t>Err</t>
   </si>
   <si>
@@ -917,12 +869,6 @@
     <t>sv_storage_user</t>
   </si>
   <si>
-    <t>sv_pass_pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Code_func": </t>
-  </si>
-  <si>
     <t>"OUT_P":</t>
   </si>
   <si>
@@ -935,89 +881,371 @@
     <t>"code":"ModelNumber+Idboard(ESP)"</t>
   </si>
   <si>
-    <t>"St":0</t>
-  </si>
-  <si>
-    <t>"code":"ModelNumber+Idboard"</t>
-  </si>
-  <si>
-    <t>"modelNumberBoardslave":"modelnumberboadslave"</t>
-  </si>
-  <si>
-    <t>"ID":"ID board slave"</t>
-  </si>
-  <si>
     <t>Cấu trúc chuỗi data JON</t>
   </si>
   <si>
-    <t>"modelNumberboardSlave":"modelnumberslave"</t>
-  </si>
-  <si>
-    <t>"id_slave":"id_slave"</t>
-  </si>
-  <si>
-    <t>"code err":"code err"</t>
-  </si>
-  <si>
-    <t>/MASTER/STATUS/SYSTEM/(modelNumber)/(id_board(esp))</t>
-  </si>
-  <si>
     <t>Các thông số thiết lập cho slave</t>
   </si>
   <si>
     <t>* FUNCTION : 0 - config baud2, id2</t>
   </si>
   <si>
-    <t>"baud2": value</t>
-  </si>
-  <si>
-    <t>"id2":value</t>
-  </si>
-  <si>
     <t>* FUNCTION : 1 - config return time</t>
   </si>
   <si>
-    <t xml:space="preserve">"return_time":value </t>
-  </si>
-  <si>
-    <t>"Mode_time"</t>
-  </si>
-  <si>
-    <t>"Function number"</t>
-  </si>
-  <si>
-    <t>* FUNCTION: 2 - config time packet - xem - them - xoa</t>
-  </si>
-  <si>
-    <t>*FUNCTION 0</t>
-  </si>
-  <si>
-    <t>/SLAVE/CONFIG/SET</t>
-  </si>
-  <si>
-    <t>"nameofconfig":"WIFI"</t>
-  </si>
-  <si>
-    <t>*FUNCTION 1</t>
-  </si>
-  <si>
-    <t>"nameofconfig":"MQTT"</t>
-  </si>
-  <si>
-    <t>*FUNCTION 2</t>
-  </si>
-  <si>
-    <t>"code_func":3</t>
-  </si>
-  <si>
     <t>* FUNCTION 3: read config from mega</t>
+  </si>
+  <si>
+    <t>esp send -&gt; server</t>
+  </si>
+  <si>
+    <t>esp send -&gt; sever</t>
+  </si>
+  <si>
+    <t>sever send -&gt; esp</t>
+  </si>
+  <si>
+    <t>server send - &gt; esp</t>
+  </si>
+  <si>
+    <t>* FUNCTION: 2 - config time packet -read</t>
+  </si>
+  <si>
+    <t>* FUNCTION: 2 - config time packet -add</t>
+  </si>
+  <si>
+    <t>"packetID":2</t>
+  </si>
+  <si>
+    <t>* FUNCTION: 2 - config time packet -delete</t>
+  </si>
+  <si>
+    <t>esp send - &gt; server</t>
+  </si>
+  <si>
+    <t>"return":bool</t>
+  </si>
+  <si>
+    <t>* FUNCTION : 2 - config return time</t>
+  </si>
+  <si>
+    <t>*FUNCTION 0 Read config esp wifi</t>
+  </si>
+  <si>
+    <t>server send -&gt; esp</t>
+  </si>
+  <si>
+    <t>esp send -&gt;server</t>
+  </si>
+  <si>
+    <t>"code_func": 0</t>
+  </si>
+  <si>
+    <t>"mWiFi"</t>
+  </si>
+  <si>
+    <t>"mWifi_IP"</t>
+  </si>
+  <si>
+    <t>"WiFi_IP"</t>
+  </si>
+  <si>
+    <t>"WiFi_Gw"</t>
+  </si>
+  <si>
+    <t>"WiFi_Sub"</t>
+  </si>
+  <si>
+    <t>"WiFI_User"</t>
+  </si>
+  <si>
+    <t>"WiFi_Mac"</t>
+  </si>
+  <si>
+    <t>"WiFi_Pass"</t>
+  </si>
+  <si>
+    <t>5s send 1 lần</t>
+  </si>
+  <si>
+    <t>nếu có thay đổi -&gt; send</t>
+  </si>
+  <si>
+    <t>server send -&gt;esp</t>
+  </si>
+  <si>
+    <t>"return": bool</t>
+  </si>
+  <si>
+    <t>/MASTER/POST/STATUS/SYSTEM/(modelNumber)/(id_board(esp))</t>
+  </si>
+  <si>
+    <t>"Satus":0</t>
+  </si>
+  <si>
+    <t>"mNumSlv":"modelnumberslave"</t>
+  </si>
+  <si>
+    <t>"idSlv":"id_slave"</t>
+  </si>
+  <si>
+    <t>"Err":"code err"</t>
+  </si>
+  <si>
+    <t>"code": "model number+ID_board(ESP)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"codeFunc": </t>
+  </si>
+  <si>
+    <t>"RtDlay"</t>
+  </si>
+  <si>
+    <t>"baud2"</t>
+  </si>
+  <si>
+    <t>"IdBa2"</t>
+  </si>
+  <si>
+    <t>"m_tm"</t>
+  </si>
+  <si>
+    <t>"yr"</t>
+  </si>
+  <si>
+    <t>"mon"</t>
+  </si>
+  <si>
+    <t>"day"</t>
+  </si>
+  <si>
+    <t>"dow"</t>
+  </si>
+  <si>
+    <t>"hr"</t>
+  </si>
+  <si>
+    <t>"min"</t>
+  </si>
+  <si>
+    <t>"sec"</t>
+  </si>
+  <si>
+    <t>"FN"</t>
+  </si>
+  <si>
+    <t>ID of packet</t>
+  </si>
+  <si>
+    <t>"m_tm": &lt;read mode_time 4 delete&gt;</t>
+  </si>
+  <si>
+    <t>"codeFunc": 0</t>
+  </si>
+  <si>
+    <t>"IdBa2":</t>
+  </si>
+  <si>
+    <t>"codeFunc": 1</t>
+  </si>
+  <si>
+    <t>"codeFunc": 2</t>
+  </si>
+  <si>
+    <t>"codeFunc": 3</t>
+  </si>
+  <si>
+    <t>"IdBr"</t>
+  </si>
+  <si>
+    <t>"mNum"</t>
+  </si>
+  <si>
+    <t>"FW"</t>
+  </si>
+  <si>
+    <t>"Baud1"</t>
+  </si>
+  <si>
+    <t>"Baud2"</t>
+  </si>
+  <si>
+    <t>"IdBa1"</t>
+  </si>
+  <si>
+    <t>"mPrtcol"</t>
+  </si>
+  <si>
+    <t>"mqtt_server"</t>
+  </si>
+  <si>
+    <t>"mqtt_user"</t>
+  </si>
+  <si>
+    <t>"mqtt_pass"</t>
+  </si>
+  <si>
+    <t>"mqtt_qos"</t>
+  </si>
+  <si>
+    <t>"mqtt_port"</t>
+  </si>
+  <si>
+    <t>"mqtt_topic_lwt"</t>
+  </si>
+  <si>
+    <t>"mqtt_payload_lwt"</t>
+  </si>
+  <si>
+    <t>"mqtt_return_lwt"</t>
+  </si>
+  <si>
+    <t>"udp_ip"</t>
+  </si>
+  <si>
+    <t>"udp_port"</t>
+  </si>
+  <si>
+    <t>"tcp_ip"</t>
+  </si>
+  <si>
+    <t>"tcp_port"</t>
+  </si>
+  <si>
+    <t>"modTCP_IP"</t>
+  </si>
+  <si>
+    <t>"modTCP_port"</t>
+  </si>
+  <si>
+    <t>"ftp_ip"</t>
+  </si>
+  <si>
+    <t>"ftp_user"</t>
+  </si>
+  <si>
+    <t>"ftp_pass"</t>
+  </si>
+  <si>
+    <t>"ftp_port"</t>
+  </si>
+  <si>
+    <t>"dt_log_mode"</t>
+  </si>
+  <si>
+    <t>"dt_log_type"</t>
+  </si>
+  <si>
+    <t>"sv_storage_mod"</t>
+  </si>
+  <si>
+    <t>"sv_storage_IP"</t>
+  </si>
+  <si>
+    <t>"sv_storage_user"</t>
+  </si>
+  <si>
+    <t>"sv_storage_pass"</t>
+  </si>
+  <si>
+    <t>sv_storage_pass</t>
+  </si>
+  <si>
+    <t>"code_func": 1</t>
+  </si>
+  <si>
+    <t>*FUNCTION 1 Read config mqtt</t>
+  </si>
+  <si>
+    <t>*FUNCTION 2 Read config UDP, TCP IP, modbus TCP</t>
+  </si>
+  <si>
+    <t>"code_func": 2</t>
+  </si>
+  <si>
+    <t>*FUNCTION 3 Read config FTP</t>
+  </si>
+  <si>
+    <t>"code_func": 3</t>
+  </si>
+  <si>
+    <t>*FUNCTION 4 Read config Server storage</t>
+  </si>
+  <si>
+    <t>"code_func": 4</t>
+  </si>
+  <si>
+    <t>"code_func": 5</t>
+  </si>
+  <si>
+    <t>*FUNCTION 5 Read config datalogging</t>
+  </si>
+  <si>
+    <t>*FUNCTION 7 Read config esp wifi</t>
+  </si>
+  <si>
+    <t>*FUNCTION 8 Read config mqtt</t>
+  </si>
+  <si>
+    <t>*FUNCTION 9 Read config UDP, TCP IP, modbus TCP</t>
+  </si>
+  <si>
+    <t>*FUNCTION 10 Read config FTP</t>
+  </si>
+  <si>
+    <t>*FUNCTION 11 Read config Server storage</t>
+  </si>
+  <si>
+    <t>*FUNCTION 12 Read config datalogging</t>
+  </si>
+  <si>
+    <t>"code_func": 7</t>
+  </si>
+  <si>
+    <t>"code_func": 8</t>
+  </si>
+  <si>
+    <t>"code_func": 9</t>
+  </si>
+  <si>
+    <t>"code_func": 10</t>
+  </si>
+  <si>
+    <t>"code_func": 11</t>
+  </si>
+  <si>
+    <t>"code_func": 12</t>
+  </si>
+  <si>
+    <t>* FUNCTION : 6 - config return time</t>
+  </si>
+  <si>
+    <t>"codeFunc": 6</t>
+  </si>
+  <si>
+    <t>"return":</t>
+  </si>
+  <si>
+    <t>/SLAVE/POST/CONFIG(server sub, esp pub)</t>
+  </si>
+  <si>
+    <t>/SLAVE/GET/CONFIG(server pub, esp sub)</t>
+  </si>
+  <si>
+    <t>/MASTER/POST/CONFIG(server sub, esp pub)</t>
+  </si>
+  <si>
+    <t>/MASTER/GET/CONFIG(server pub, esp sub)</t>
+  </si>
+  <si>
+    <t>/MASTER/POST/STATUS/LWT/(modelNUmber)/(Idboard)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,8 +1290,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1175,6 +1409,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,7 +1576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1485,17 +1725,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1521,9 +1753,22 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4108,15 +4353,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>618567</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>170331</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>80684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>367556</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1864661</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4131,8 +4376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10676967" y="5997390"/>
-          <a:ext cx="2904565" cy="3711386"/>
+          <a:off x="10228731" y="5280213"/>
+          <a:ext cx="2904565" cy="4401669"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4455,15 +4700,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>753035</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1577340</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>117501</xdr:rowOff>
+      <xdr:colOff>1738705</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>45783</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4478,8 +4723,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10811435" y="11564471"/>
-          <a:ext cx="2034540" cy="6303148"/>
+          <a:off x="10972800" y="14540753"/>
+          <a:ext cx="2034540" cy="6661736"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5191,15 +5436,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>286874</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:colOff>779932</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>26898</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>519956</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5214,7 +5459,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11555509" y="18063883"/>
+          <a:off x="12048567" y="37239388"/>
           <a:ext cx="2904565" cy="3424518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5473,6 +5718,425 @@
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11:Config baud (phai config baud Mega truoc) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//MEGA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0: read config from mega</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1: Config baud2, ID2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2: config return time </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3: Config time packet;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600636</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33FA2DCE-5BF5-4DED-A69A-2DFEE217256A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11519647" y="44429082"/>
+          <a:ext cx="2904565" cy="3424517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Function code:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//ESP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0: Read Config ESP WIFI</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1: read config mqtt</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2: read config UDP, TCP IP, modbus TCP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3: read config FTP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4: read config Server storage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5: read config data_logging</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6: config return time</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7:  Config WiFi</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8:  Config mqtt</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9: Config UDP, TCP IP, modbus TCP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10: Config FTP.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11: Config Server Storage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>12: config dataloging</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
@@ -5854,7 +6518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
@@ -5877,10 +6541,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="98"/>
+      <c r="C1" s="127"/>
       <c r="S1" s="46" t="s">
         <v>22</v>
       </c>
@@ -6056,7 +6720,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B6" s="20">
         <f>C5+B5</f>
@@ -6083,7 +6747,7 @@
         <v>70</v>
       </c>
       <c r="Q6" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="R6" s="43"/>
       <c r="S6" s="1">
@@ -6138,7 +6802,7 @@
         <v>135</v>
       </c>
       <c r="Q7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="R7" s="43"/>
       <c r="S7" s="1">
@@ -6189,7 +6853,7 @@
         <v>79</v>
       </c>
       <c r="Q8" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="R8" s="40" t="s">
         <v>110</v>
@@ -6242,7 +6906,7 @@
         <v>133</v>
       </c>
       <c r="Q9" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="R9" s="40"/>
       <c r="S9" s="1">
@@ -6253,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>4</v>
@@ -6271,7 +6935,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B10" s="15">
         <f t="shared" si="1"/>
@@ -6297,7 +6961,7 @@
         <v>134</v>
       </c>
       <c r="Q10" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="R10" s="40"/>
       <c r="S10" s="1">
@@ -6308,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>4</v>
@@ -6324,7 +6988,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B11" s="15">
         <f t="shared" si="1"/>
@@ -6348,7 +7012,7 @@
         <v>83</v>
       </c>
       <c r="Q11" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="R11" s="40"/>
       <c r="S11" s="1">
@@ -6373,7 +7037,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B12" s="15">
         <f t="shared" si="1"/>
@@ -6395,7 +7059,7 @@
         <v>84</v>
       </c>
       <c r="Q12" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="R12" s="40"/>
       <c r="S12" s="17">
@@ -6420,7 +7084,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B13" s="15">
         <f t="shared" si="1"/>
@@ -6430,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>4</v>
@@ -6446,7 +7110,7 @@
         <v>83</v>
       </c>
       <c r="Q13" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="R13" s="40"/>
       <c r="S13" s="17">
@@ -6471,7 +7135,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B14" s="15">
         <f t="shared" si="1"/>
@@ -6481,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>4</v>
@@ -6495,7 +7159,7 @@
         <v>84</v>
       </c>
       <c r="Q14" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="R14" s="40"/>
       <c r="S14" s="17">
@@ -6520,7 +7184,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B15" s="15">
         <f t="shared" si="1"/>
@@ -6542,7 +7206,7 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="Q15" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="R15" s="40"/>
       <c r="S15" s="17">
@@ -6567,7 +7231,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B16" s="15">
         <f t="shared" ref="B16:B23" si="3">C15+B15</f>
@@ -6589,7 +7253,7 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="Q16" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="R16" s="40"/>
       <c r="S16" s="17">
@@ -6614,7 +7278,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B17" s="15">
         <f t="shared" si="3"/>
@@ -6636,7 +7300,7 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="Q17" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="R17" s="40"/>
       <c r="S17" s="17">
@@ -6661,7 +7325,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B18" s="15">
         <f t="shared" si="3"/>
@@ -6683,7 +7347,7 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="Q18" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="R18" s="40"/>
       <c r="S18" s="78">
@@ -6708,7 +7372,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B19" s="15">
         <f t="shared" si="3"/>
@@ -6730,7 +7394,7 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="Q19" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="R19" s="40"/>
       <c r="S19" s="78">
@@ -6759,7 +7423,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B20" s="15">
         <f t="shared" si="3"/>
@@ -6800,7 +7464,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B21" s="15">
         <f t="shared" si="3"/>
@@ -6841,7 +7505,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B22" s="15">
         <f t="shared" si="3"/>
@@ -6882,7 +7546,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B23" s="15">
         <f t="shared" si="3"/>
@@ -7044,7 +7708,7 @@
         <v>108</v>
       </c>
       <c r="Q27" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="R27" s="40"/>
       <c r="S27" s="78">
@@ -7172,7 +7836,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B31" s="15">
         <f>C23+B23</f>
@@ -7332,7 +7996,7 @@
       <c r="J35" s="21"/>
       <c r="K35" s="25"/>
       <c r="Q35" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="R35" s="42">
         <v>0</v>
@@ -7375,7 +8039,7 @@
       <c r="J36" s="21"/>
       <c r="K36" s="25"/>
       <c r="Q36" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="R36" s="42">
         <f>R35+T35</f>
@@ -7417,7 +8081,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="25"/>
       <c r="Q37" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="R37" s="42">
         <f t="shared" ref="R37:R39" si="4">R36+T36</f>
@@ -7438,7 +8102,7 @@
       </c>
       <c r="W37" s="20"/>
       <c r="X37" s="94" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Y37" s="20"/>
       <c r="Z37" s="9"/>
@@ -7461,7 +8125,7 @@
       </c>
       <c r="K38" s="26"/>
       <c r="Q38" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="R38" s="42">
         <f t="shared" si="4"/>
@@ -7511,7 +8175,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="Q39" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="R39" s="42">
         <f t="shared" si="4"/>
@@ -7672,7 +8336,7 @@
       </c>
       <c r="W42" s="20"/>
       <c r="X42" s="94" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Y42" s="20"/>
       <c r="Z42" s="9"/>
@@ -7906,14 +8570,14 @@
       </c>
       <c r="W47" s="20"/>
       <c r="X47" s="94" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Y47" s="20"/>
       <c r="Z47" s="9"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B48" s="7">
         <f t="shared" si="6"/>
@@ -7923,7 +8587,7 @@
         <v>10</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>4</v>
@@ -7958,7 +8622,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B49" s="7">
         <f t="shared" si="6"/>
@@ -8077,7 +8741,7 @@
       </c>
       <c r="W52" s="20"/>
       <c r="X52" s="94" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Y52" s="20"/>
       <c r="Z52" s="9"/>
@@ -8201,7 +8865,7 @@
       </c>
       <c r="W57" s="20"/>
       <c r="X57" s="94" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Y57" s="20"/>
       <c r="Z57" s="9"/>
@@ -8349,7 +9013,7 @@
       </c>
       <c r="W62" s="20"/>
       <c r="X62" s="94" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Y62" s="20"/>
       <c r="Z62" s="9"/>
@@ -8473,7 +9137,7 @@
       </c>
       <c r="W67" s="20"/>
       <c r="X67" s="94" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Y67" s="20"/>
       <c r="Z67" s="9"/>
@@ -8597,7 +9261,7 @@
       </c>
       <c r="W72" s="20"/>
       <c r="X72" s="94" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Y72" s="20"/>
       <c r="Z72" s="9"/>
@@ -8721,7 +9385,7 @@
       </c>
       <c r="W77" s="20"/>
       <c r="X77" s="94" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Y77" s="20"/>
       <c r="Z77" s="9"/>
@@ -8845,7 +9509,7 @@
       </c>
       <c r="W82" s="20"/>
       <c r="X82" s="94" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Y82" s="31"/>
       <c r="Z82" s="9"/>
@@ -9022,8 +9686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCF18E1-EDBB-4A5D-A645-8FDD3797B808}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9206,7 +9870,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B6" s="18">
         <f t="shared" si="0"/>
@@ -9258,7 +9922,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B7" s="18">
         <f t="shared" si="0"/>
@@ -9308,7 +9972,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B8" s="18">
         <f t="shared" si="0"/>
@@ -9358,7 +10022,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
@@ -9408,7 +10072,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
@@ -9432,7 +10096,7 @@
         <v>122</v>
       </c>
       <c r="N10" s="52" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" si="1"/>
@@ -9458,7 +10122,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
@@ -9500,7 +10164,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
@@ -9542,7 +10206,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
@@ -9570,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R13" s="15" t="s">
         <v>4</v>
@@ -9588,7 +10252,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
@@ -9616,7 +10280,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="R14" s="15" t="s">
         <v>4</v>
@@ -9632,7 +10296,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
@@ -9674,7 +10338,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
@@ -9719,7 +10383,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B17" s="13">
         <f t="shared" si="0"/>
@@ -9763,7 +10427,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
@@ -9807,7 +10471,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
@@ -9828,7 +10492,7 @@
       <c r="I19" s="59"/>
       <c r="N19" s="70"/>
       <c r="O19" s="16">
-        <f t="shared" ref="O16:O23" si="2">P18+O18</f>
+        <f t="shared" ref="O19:O23" si="2">P18+O18</f>
         <v>19</v>
       </c>
       <c r="P19" s="16">
@@ -9849,7 +10513,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
@@ -9891,7 +10555,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
@@ -9937,7 +10601,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
@@ -9979,7 +10643,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
@@ -10025,7 +10689,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
@@ -10062,7 +10726,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
@@ -10103,7 +10767,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
@@ -10142,7 +10806,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
@@ -10181,7 +10845,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
@@ -10220,7 +10884,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
@@ -10257,7 +10921,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
@@ -10296,7 +10960,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
@@ -10338,7 +11002,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
@@ -10377,7 +11041,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
@@ -10414,7 +11078,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
@@ -10453,7 +11117,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="0"/>
@@ -10490,7 +11154,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
@@ -10529,7 +11193,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="0"/>
@@ -10566,7 +11230,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="0"/>
@@ -10605,7 +11269,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="0"/>
@@ -10645,7 +11309,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="0"/>
@@ -10685,7 +11349,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="0"/>
@@ -10725,7 +11389,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="0"/>
@@ -10936,7 +11600,7 @@
         <v>10</v>
       </c>
       <c r="Q48" s="53" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="R48" s="53" t="s">
         <v>4</v>
@@ -11029,7 +11693,7 @@
       <c r="S54" s="42"/>
       <c r="T54" s="29"/>
       <c r="U54" s="28"/>
-      <c r="V54" s="99"/>
+      <c r="V54" s="128"/>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="30"/>
@@ -11041,7 +11705,7 @@
       <c r="S55" s="42"/>
       <c r="T55" s="29"/>
       <c r="U55" s="30"/>
-      <c r="V55" s="99"/>
+      <c r="V55" s="128"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" s="30"/>
@@ -11053,7 +11717,7 @@
       <c r="S56" s="42"/>
       <c r="T56" s="29"/>
       <c r="U56" s="30"/>
-      <c r="V56" s="99"/>
+      <c r="V56" s="128"/>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="30"/>
@@ -11065,7 +11729,7 @@
       <c r="S57" s="42"/>
       <c r="T57" s="29"/>
       <c r="U57" s="30"/>
-      <c r="V57" s="99"/>
+      <c r="V57" s="128"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" s="30"/>
@@ -11077,7 +11741,7 @@
       <c r="S58" s="42"/>
       <c r="T58" s="29"/>
       <c r="U58" s="30"/>
-      <c r="V58" s="99"/>
+      <c r="V58" s="128"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="30"/>
@@ -11096,7 +11760,7 @@
       <c r="S59" s="42"/>
       <c r="T59" s="29"/>
       <c r="U59" s="30"/>
-      <c r="V59" s="99"/>
+      <c r="V59" s="128"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" s="30"/>
@@ -11115,7 +11779,7 @@
       <c r="S60" s="42"/>
       <c r="T60" s="29"/>
       <c r="U60" s="30"/>
-      <c r="V60" s="99"/>
+      <c r="V60" s="128"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" s="30"/>
@@ -11134,7 +11798,7 @@
       <c r="S61" s="42"/>
       <c r="T61" s="29"/>
       <c r="U61" s="28"/>
-      <c r="V61" s="99"/>
+      <c r="V61" s="128"/>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="30"/>
@@ -12024,203 +12688,213 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB98B7-73F7-4C3A-AAF0-0D4F4D184EA5}">
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J422"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="76.5546875" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="51.109375" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="118" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="114" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="114" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="114"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="114"/>
+      <c r="B8" s="114" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="114" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="114"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="114"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="118"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="118"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="118"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="118"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="118"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
-        <v>176</v>
-      </c>
       <c r="B12" s="51" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
+      <c r="B14" s="51" t="s">
+        <v>287</v>
+      </c>
       <c r="C14" s="51" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
+      <c r="B15" s="51" t="s">
+        <v>309</v>
+      </c>
       <c r="C15" s="51" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="114" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="B18" s="119" t="s">
+      <c r="C18" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="118" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="118"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118" t="s">
+      <c r="A19" s="114"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="114"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="114"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="114"/>
+      <c r="B22" s="114" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="114" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="118"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="114"/>
+      <c r="B24" s="114" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="114" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="118"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="118"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="114"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="118"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118" t="s">
+      <c r="J26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="114"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="118"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="118"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="118"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118" t="s">
-        <v>187</v>
-      </c>
-      <c r="J26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="118"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118" t="s">
-        <v>188</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>23</v>
@@ -12233,26 +12907,26 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="118"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118" t="s">
-        <v>296</v>
+      <c r="A28" s="114"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114" t="s">
+        <v>185</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="J28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="118"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="118" t="s">
-        <v>189</v>
+      <c r="A29" s="114"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114" t="s">
+        <v>186</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>130</v>
@@ -12265,14 +12939,10 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" s="81" t="s">
-        <v>191</v>
-      </c>
-      <c r="C30" s="81" t="s">
-        <v>179</v>
+      <c r="A30" s="114"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114" t="s">
+        <v>278</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>77</v>
@@ -12285,10 +12955,10 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="81"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81" t="s">
-        <v>192</v>
+      <c r="A31" s="114"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114" t="s">
+        <v>187</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>81</v>
@@ -12298,75 +12968,79 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="81"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81" t="s">
-        <v>181</v>
+      <c r="A32" s="132"/>
+      <c r="B32" s="133" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="132" t="s">
+        <v>178</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>90</v>
       </c>
       <c r="I32" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="81"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81" t="s">
-        <v>182</v>
+      <c r="A33" s="132"/>
+      <c r="B33" s="132" t="s">
+        <v>311</v>
+      </c>
+      <c r="C33" s="132" t="s">
+        <v>318</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>89</v>
       </c>
       <c r="I33" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="81"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81" t="s">
-        <v>183</v>
+      <c r="A34" s="132"/>
+      <c r="B34" s="132"/>
+      <c r="C34" s="132" t="s">
+        <v>315</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>82</v>
       </c>
       <c r="I34" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81" t="s">
-        <v>184</v>
+      <c r="A35" s="132"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132" t="s">
+        <v>316</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I35" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="81"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81" t="s">
-        <v>185</v>
+      <c r="A36" s="132"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="132" t="s">
+        <v>319</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I36" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="81"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81" t="s">
-        <v>186</v>
+      <c r="A37" s="132"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="132" t="s">
+        <v>312</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>13</v>
@@ -12376,9 +13050,9 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="81"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81" t="s">
+      <c r="A38" s="132"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="132" t="s">
         <v>187</v>
       </c>
       <c r="H38" s="15" t="s">
@@ -12389,10 +13063,14 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81"/>
+      <c r="A39" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>189</v>
+      </c>
       <c r="C39" s="81" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>15</v>
@@ -12405,7 +13083,7 @@
       <c r="A40" s="81"/>
       <c r="B40" s="81"/>
       <c r="C40" s="81" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>16</v>
@@ -12418,7 +13096,7 @@
       <c r="A41" s="81"/>
       <c r="B41" s="81"/>
       <c r="C41" s="81" t="s">
-        <v>189</v>
+        <v>315</v>
       </c>
       <c r="H41" s="15" t="s">
         <v>17</v>
@@ -12428,10 +13106,10 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="108"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="110" t="s">
-        <v>179</v>
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81" t="s">
+        <v>316</v>
       </c>
       <c r="H42" s="15" t="s">
         <v>18</v>
@@ -12441,10 +13119,10 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="111"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="112" t="s">
-        <v>297</v>
+      <c r="A43" s="81"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81" t="s">
+        <v>319</v>
       </c>
       <c r="H43" s="15" t="s">
         <v>19</v>
@@ -12454,14 +13132,12 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="B44" s="116" t="s">
-        <v>318</v>
-      </c>
-      <c r="C44" s="112" t="s">
-        <v>301</v>
+      <c r="A44" s="81"/>
+      <c r="B44" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="C44" s="81" t="s">
+        <v>179</v>
       </c>
       <c r="H44" s="15" t="s">
         <v>20</v>
@@ -12471,34 +13147,26 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="111"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="112" t="s">
-        <v>302</v>
-      </c>
-      <c r="D45" t="s">
-        <v>139</v>
+      <c r="A45" s="81"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="81" t="s">
+        <v>180</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>158</v>
       </c>
       <c r="I45" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="J45" s="97" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="111"/>
-      <c r="B46" s="116" t="s">
-        <v>308</v>
-      </c>
-      <c r="C46" s="112" t="s">
-        <v>294</v>
-      </c>
-      <c r="D46" t="s">
-        <v>138</v>
+      <c r="A46" s="81"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81" t="s">
+        <v>181</v>
       </c>
       <c r="H46" s="15" t="s">
         <v>159</v>
@@ -12506,13 +13174,10 @@
       <c r="J46" s="97"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="111"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="112" t="s">
-        <v>199</v>
-      </c>
-      <c r="D47" t="s">
-        <v>234</v>
+      <c r="A47" s="81"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81" t="s">
+        <v>182</v>
       </c>
       <c r="H47" s="15" t="s">
         <v>160</v>
@@ -12520,13 +13185,10 @@
       <c r="J47" s="97"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="111"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="D48" t="s">
-        <v>236</v>
+      <c r="A48" s="81"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="81" t="s">
+        <v>183</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>161</v>
@@ -12534,33 +13196,23 @@
       <c r="J48" s="97"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="111"/>
-      <c r="B49" s="93" t="s">
-        <v>197</v>
-      </c>
-      <c r="C49" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="D49" t="s">
-        <v>238</v>
+      <c r="A49" s="81"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81" t="s">
+        <v>184</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>162</v>
       </c>
       <c r="J49" s="97" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="111"/>
-      <c r="B50" t="s">
-        <v>198</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" t="s">
-        <v>150</v>
+      <c r="A50" s="81"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81" t="s">
+        <v>185</v>
       </c>
       <c r="H50" s="15" t="s">
         <v>163</v>
@@ -12568,13 +13220,10 @@
       <c r="J50" s="97"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="111"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
-        <v>151</v>
+      <c r="A51" s="81"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="81" t="s">
+        <v>186</v>
       </c>
       <c r="H51" s="15" t="s">
         <v>164</v>
@@ -12582,48 +13231,43 @@
       <c r="J51" s="97"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="111"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>153</v>
+      <c r="A52" s="81"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="81" t="s">
+        <v>277</v>
       </c>
       <c r="H52" s="15" t="s">
         <v>165</v>
       </c>
       <c r="J52" s="97" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="111"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>154</v>
+      <c r="A53" s="81"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81" t="s">
+        <v>187</v>
       </c>
       <c r="H53" s="15" t="s">
         <v>166</v>
       </c>
       <c r="I53" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="J53" s="81" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="111"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" t="s">
-        <v>155</v>
+      <c r="A54" s="134" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="134" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="134" t="s">
+        <v>178</v>
       </c>
       <c r="H54" s="15" t="s">
         <v>167</v>
@@ -12631,13 +13275,12 @@
       <c r="J54" s="81"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="111"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" t="s">
-        <v>152</v>
+      <c r="A55" s="134"/>
+      <c r="B55" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="C55" s="134" t="s">
+        <v>318</v>
       </c>
       <c r="H55" s="15" t="s">
         <v>168</v>
@@ -12645,29 +13288,23 @@
       <c r="J55" s="81"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="111"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s">
-        <v>156</v>
+      <c r="A56" s="134"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="134" t="s">
+        <v>315</v>
       </c>
       <c r="H56" s="15" t="s">
         <v>169</v>
       </c>
       <c r="J56" s="81" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="111"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" t="s">
-        <v>157</v>
+      <c r="A57" s="134"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="134" t="s">
+        <v>316</v>
       </c>
       <c r="H57" s="15" t="s">
         <v>170</v>
@@ -12675,13 +13312,10 @@
       <c r="J57" s="81"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="111"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" t="s">
-        <v>25</v>
+      <c r="A58" s="134"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="134" t="s">
+        <v>319</v>
       </c>
       <c r="H58" s="15" t="s">
         <v>171</v>
@@ -12689,10 +13323,10 @@
       <c r="J58" s="81"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="113"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="7" t="s">
-        <v>189</v>
+      <c r="A59" s="134"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134" t="s">
+        <v>312</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>172</v>
@@ -12700,22 +13334,22 @@
       <c r="J59" s="81"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="100"/>
+      <c r="A60" s="134"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="134" t="s">
+        <v>187</v>
+      </c>
       <c r="H60" s="15" t="s">
         <v>173</v>
       </c>
       <c r="J60" s="81" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="105"/>
-      <c r="B61" s="105" t="s">
-        <v>309</v>
-      </c>
-      <c r="C61" s="105" t="s">
-        <v>179</v>
-      </c>
+      <c r="A61" s="81"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
       <c r="H61" s="7" t="s">
         <v>5</v>
       </c>
@@ -12724,11 +13358,9 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="106"/>
-      <c r="B62" s="106"/>
-      <c r="C62" s="106" t="s">
-        <v>297</v>
-      </c>
+      <c r="A62" s="98"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="98"/>
       <c r="H62" s="7" t="s">
         <v>6</v>
       </c>
@@ -12737,10 +13369,10 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="106"/>
-      <c r="B63" s="106"/>
+      <c r="A63" s="104"/>
+      <c r="B63" s="111"/>
       <c r="C63" s="106" t="s">
-        <v>301</v>
+        <v>178</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>8</v>
@@ -12750,10 +13382,12 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="106"/>
-      <c r="B64" s="106"/>
-      <c r="C64" s="106" t="s">
-        <v>302</v>
+      <c r="A64" s="107"/>
+      <c r="B64" s="112" t="s">
+        <v>396</v>
+      </c>
+      <c r="C64" s="108" t="s">
+        <v>318</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>7</v>
@@ -12763,10 +13397,14 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="101"/>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106" t="s">
-        <v>323</v>
+      <c r="A65" s="107" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" s="112" t="s">
+        <v>397</v>
+      </c>
+      <c r="C65" s="108" t="s">
+        <v>315</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>9</v>
@@ -12776,10 +13414,13 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="106"/>
-      <c r="B66" s="106"/>
-      <c r="C66" s="106" t="s">
-        <v>310</v>
+      <c r="A66" s="107"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="108" t="s">
+        <v>316</v>
+      </c>
+      <c r="D66" t="s">
+        <v>139</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>10</v>
@@ -12789,10 +13430,15 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="106"/>
-      <c r="B67" s="106"/>
-      <c r="C67" s="106" t="s">
-        <v>311</v>
+      <c r="A67" s="107"/>
+      <c r="B67" s="112" t="s">
+        <v>282</v>
+      </c>
+      <c r="C67" s="108" t="s">
+        <v>319</v>
+      </c>
+      <c r="D67" t="s">
+        <v>138</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>11</v>
@@ -12803,9 +13449,12 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="107"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="107" t="s">
-        <v>189</v>
+      <c r="B68" s="112"/>
+      <c r="C68" s="108" t="s">
+        <v>320</v>
+      </c>
+      <c r="D68" t="s">
+        <v>218</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>12</v>
@@ -12815,12 +13464,13 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="105"/>
-      <c r="B69" s="105" t="s">
-        <v>312</v>
-      </c>
-      <c r="C69" s="105" t="s">
-        <v>179</v>
+      <c r="A69" s="107"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="108" t="s">
+        <v>343</v>
+      </c>
+      <c r="D69" t="s">
+        <v>220</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>36</v>
@@ -12830,672 +13480,2463 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="106"/>
-      <c r="B70" s="106"/>
-      <c r="C70" s="106" t="s">
-        <v>297</v>
+      <c r="A70" s="107"/>
+      <c r="B70" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="108" t="s">
+        <v>322</v>
+      </c>
+      <c r="D70" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="106"/>
-      <c r="B71" s="106"/>
-      <c r="C71" s="106" t="s">
-        <v>301</v>
+      <c r="A71" s="107"/>
+      <c r="B71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D71" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="106"/>
-      <c r="B72" s="106"/>
-      <c r="C72" s="106" t="s">
-        <v>302</v>
+      <c r="A72" s="107"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="D72" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="106"/>
-      <c r="B73" s="106"/>
-      <c r="C73" s="106" t="s">
-        <v>323</v>
+      <c r="A73" s="107"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D73" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="106"/>
-      <c r="B74" s="106"/>
-      <c r="C74" s="106" t="s">
-        <v>313</v>
+      <c r="A74" s="107"/>
+      <c r="B74" s="112"/>
+      <c r="C74" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D74" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="107"/>
-      <c r="B75" s="107"/>
-      <c r="C75" s="107" t="s">
-        <v>189</v>
+      <c r="B75" s="112"/>
+      <c r="C75" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D75" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="105"/>
-      <c r="B76" s="102" t="s">
+      <c r="A76" s="107"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D76" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="107"/>
+      <c r="B77" s="112"/>
+      <c r="C77" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="107"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="107"/>
+      <c r="B79" s="112"/>
+      <c r="C79" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="109"/>
+      <c r="B80" s="113"/>
+      <c r="C80" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="98"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="101"/>
+      <c r="B82" s="129" t="s">
+        <v>283</v>
+      </c>
+      <c r="C82" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="102"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="136" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="102"/>
+      <c r="B84" s="130" t="s">
+        <v>289</v>
+      </c>
+      <c r="C84" s="136" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="102"/>
+      <c r="B85" s="130"/>
+      <c r="C85" s="136" t="s">
         <v>316</v>
       </c>
-      <c r="C76" s="105" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="106"/>
-      <c r="B77" s="96"/>
-      <c r="C77" s="106" t="s">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="99"/>
+      <c r="B86" s="130"/>
+      <c r="C86" s="136" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="102"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="136" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="102"/>
+      <c r="B88" s="130"/>
+      <c r="C88" s="136" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="103"/>
+      <c r="B89" s="130"/>
+      <c r="C89" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="101"/>
+      <c r="B90" s="129" t="s">
+        <v>283</v>
+      </c>
+      <c r="C90" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="102"/>
+      <c r="B91" s="130"/>
+      <c r="C91" s="136" t="s">
+        <v>318</v>
+      </c>
+      <c r="D91" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="102"/>
+      <c r="B92" s="130" t="s">
+        <v>294</v>
+      </c>
+      <c r="C92" s="136" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="102"/>
+      <c r="B93" s="130"/>
+      <c r="C93" s="136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="102"/>
+      <c r="B94" s="130"/>
+      <c r="C94" s="136" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="102"/>
+      <c r="B95" s="130"/>
+      <c r="C95" s="136" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="103"/>
+      <c r="B96" s="131"/>
+      <c r="C96" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="101"/>
+      <c r="B97" s="130" t="s">
+        <v>284</v>
+      </c>
+      <c r="C97" s="136" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="102"/>
+      <c r="B98" s="130"/>
+      <c r="C98" s="136" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="102"/>
+      <c r="B99" s="130" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" s="136" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="102"/>
+      <c r="B100" s="130"/>
+      <c r="C100" s="136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="102"/>
+      <c r="B101" s="130"/>
+      <c r="C101" s="136" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="102"/>
+      <c r="B102" s="130"/>
+      <c r="C102" s="136" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="102"/>
+      <c r="B103" s="130"/>
+      <c r="C103" s="136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="102"/>
+      <c r="B104" s="129" t="s">
+        <v>284</v>
+      </c>
+      <c r="C104" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="102"/>
+      <c r="B105" s="130"/>
+      <c r="C105" s="136" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="102"/>
+      <c r="B106" s="130" t="s">
+        <v>294</v>
+      </c>
+      <c r="C106" s="136" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="102"/>
+      <c r="B107" s="130"/>
+      <c r="C107" s="136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="102"/>
+      <c r="B108" s="130"/>
+      <c r="C108" s="136" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="102"/>
+      <c r="B109" s="130"/>
+      <c r="C109" s="136" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="102"/>
+      <c r="B110" s="131"/>
+      <c r="C110" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="102"/>
+      <c r="B111" s="96" t="s">
+        <v>290</v>
+      </c>
+      <c r="C111" s="136" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="103"/>
+      <c r="B112" s="96"/>
+      <c r="C112" s="136" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113" s="96" t="s">
+        <v>289</v>
+      </c>
+      <c r="C113" s="136" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114" s="96"/>
+      <c r="C114" s="136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115" s="99"/>
+      <c r="C115" s="136" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116" s="96"/>
+      <c r="C116" s="136" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="96"/>
+      <c r="C117" s="136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="C118" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119" s="130"/>
+      <c r="C119" s="136" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B120" s="130" t="s">
+        <v>287</v>
+      </c>
+      <c r="C120" s="136" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="130"/>
+      <c r="C121" s="136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="130"/>
+      <c r="C122" s="136" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B123" s="130"/>
+      <c r="C123" s="136" t="s">
+        <v>292</v>
+      </c>
+      <c r="D123" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124" s="130"/>
+      <c r="C124" s="136" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B125" s="130"/>
+      <c r="C125" s="136" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B126" s="130"/>
+      <c r="C126" s="136" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127" s="130"/>
+      <c r="C127" s="136" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128" s="130"/>
+      <c r="C128" s="136" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B129" s="130"/>
+      <c r="C129" s="136" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B130" s="130"/>
+      <c r="C130" s="136" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B131" s="130"/>
+      <c r="C131" s="136" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B132" s="131"/>
+      <c r="C132" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B133" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="C133" s="136" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B134" s="96"/>
+      <c r="C134" s="136" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B135" s="96" t="s">
+        <v>289</v>
+      </c>
+      <c r="C135" s="136" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B136" s="96"/>
+      <c r="C136" s="136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B137" s="99"/>
+      <c r="C137" s="136" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B138" s="96"/>
+      <c r="C138" s="136" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B139" s="96"/>
+      <c r="C139" s="136" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B140" s="96"/>
+      <c r="C140" s="136" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B141" s="96"/>
+      <c r="C141" s="136" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B142" s="96"/>
+      <c r="C142" s="136" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="101"/>
+      <c r="B143" s="96"/>
+      <c r="C143" s="136" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="102"/>
+      <c r="B144" s="96"/>
+      <c r="C144" s="136" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="102"/>
+      <c r="B145" s="96"/>
+      <c r="C145" s="136" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="102"/>
+      <c r="B146" s="96"/>
+      <c r="C146" s="136" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="102"/>
+      <c r="B147" s="96"/>
+      <c r="C147" s="136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="103"/>
+      <c r="B148" s="129" t="s">
+        <v>296</v>
+      </c>
+      <c r="C148" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B149" s="130"/>
+      <c r="C149" s="136" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B150" s="130" t="s">
+        <v>294</v>
+      </c>
+      <c r="C150" s="136" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B151" s="130"/>
+      <c r="C151" s="136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B152" s="130"/>
+      <c r="C152" s="136" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B153" s="130"/>
+      <c r="C153" s="136" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B154" s="131"/>
+      <c r="C154" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B155" s="96" t="s">
+        <v>293</v>
+      </c>
+      <c r="C155" s="136" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B156" s="96"/>
+      <c r="C156" s="136" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B157" s="96" t="s">
+        <v>289</v>
+      </c>
+      <c r="C157" s="136" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="B158" s="96"/>
+      <c r="C158" s="136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="117"/>
+      <c r="B159" s="99"/>
+      <c r="C159" s="136" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="117"/>
+      <c r="B160" s="96"/>
+      <c r="C160" s="136" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="117"/>
+      <c r="B161" s="96"/>
+      <c r="C161" s="136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="117"/>
+      <c r="B162" s="129" t="s">
+        <v>285</v>
+      </c>
+      <c r="C162" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="117"/>
+      <c r="B163" s="130"/>
+      <c r="C163" s="136" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="117"/>
+      <c r="B164" s="130" t="s">
+        <v>289</v>
+      </c>
+      <c r="C164" s="136" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="117"/>
+      <c r="B165" s="130"/>
+      <c r="C165" s="136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="117"/>
+      <c r="B166" s="130"/>
+      <c r="C166" s="136" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="117"/>
+      <c r="B167" s="131"/>
+      <c r="C167" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="117"/>
+      <c r="B168" s="130" t="s">
+        <v>285</v>
+      </c>
+      <c r="C168" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="117"/>
+      <c r="B169" s="130"/>
+      <c r="C169" s="136" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="117"/>
+      <c r="B170" s="130" t="s">
+        <v>287</v>
+      </c>
+      <c r="C170" s="136" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="117"/>
+      <c r="B171" s="130"/>
+      <c r="C171" s="136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="117"/>
+      <c r="B172" s="130"/>
+      <c r="C172" s="136" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="117"/>
+      <c r="B173" s="130"/>
+      <c r="C173" s="136" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="117"/>
+      <c r="B174" s="130"/>
+      <c r="C174" s="136" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="117"/>
+      <c r="B175" s="130"/>
+      <c r="C175" s="136" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="117"/>
+      <c r="B176" s="131"/>
+      <c r="C176" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="117"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="117"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B183" s="105" t="s">
+        <v>398</v>
+      </c>
+      <c r="C183" s="102" t="s">
+        <v>318</v>
+      </c>
+      <c r="D183" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B184" s="112" t="s">
+        <v>399</v>
+      </c>
+      <c r="C184" s="102" t="s">
+        <v>338</v>
+      </c>
+      <c r="D184" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B185" s="112"/>
+      <c r="C185" s="102" t="s">
+        <v>316</v>
+      </c>
+      <c r="D185" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B186" s="112"/>
+      <c r="C186" s="102" t="s">
+        <v>320</v>
+      </c>
+      <c r="D186" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B187" s="112"/>
+      <c r="C187" s="102" t="s">
+        <v>321</v>
+      </c>
+      <c r="D187" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B188" s="112"/>
+      <c r="C188" s="102" t="s">
+        <v>322</v>
+      </c>
+      <c r="D188" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B189" s="112"/>
+      <c r="C189" s="118" t="s">
+        <v>302</v>
+      </c>
+      <c r="D189" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B190" s="112"/>
+      <c r="C190" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="D190" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B191" s="112"/>
+      <c r="C191" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="D191" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B192" s="112"/>
+      <c r="C192" s="118" t="s">
+        <v>201</v>
+      </c>
+      <c r="D192" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B193" s="112"/>
+      <c r="C193" s="118" t="s">
+        <v>202</v>
+      </c>
+      <c r="D193" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B194" s="112"/>
+      <c r="C194" s="118" t="s">
+        <v>203</v>
+      </c>
+      <c r="D194" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B195" s="112"/>
+      <c r="C195" s="118" t="s">
+        <v>204</v>
+      </c>
+      <c r="D195" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B196" s="112"/>
+      <c r="C196" s="118" t="s">
+        <v>205</v>
+      </c>
+      <c r="D196" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B197" s="112"/>
+      <c r="C197" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="D197" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B198" s="112"/>
+      <c r="C198" s="120" t="s">
+        <v>207</v>
+      </c>
+      <c r="D198" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B199" s="112"/>
+      <c r="C199" s="120" t="s">
+        <v>208</v>
+      </c>
+      <c r="D199" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B200" s="112"/>
+      <c r="C200" s="120" t="s">
+        <v>209</v>
+      </c>
+      <c r="D200" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B201" s="112"/>
+      <c r="C201" s="120" t="s">
+        <v>210</v>
+      </c>
+      <c r="D201" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B202" s="112"/>
+      <c r="C202" s="120" t="s">
+        <v>211</v>
+      </c>
+      <c r="D202" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B203" s="112"/>
+      <c r="C203" s="100" t="s">
+        <v>212</v>
+      </c>
+      <c r="D203" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B204" s="112"/>
+      <c r="C204" s="100" t="s">
+        <v>213</v>
+      </c>
+      <c r="D204" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B205" s="112"/>
+      <c r="C205" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D205" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B206" s="112"/>
+      <c r="C206" s="121" t="s">
+        <v>200</v>
+      </c>
+      <c r="D206" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B207" s="112"/>
+      <c r="C207" s="121" t="s">
+        <v>211</v>
+      </c>
+      <c r="D207" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B208" s="112"/>
+      <c r="C208" s="120" t="s">
+        <v>200</v>
+      </c>
+      <c r="D208" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B209" s="112"/>
+      <c r="C209" s="120" t="s">
+        <v>211</v>
+      </c>
+      <c r="D209" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B210" s="112"/>
+      <c r="C210" s="122" t="s">
+        <v>200</v>
+      </c>
+      <c r="D210" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B211" s="112"/>
+      <c r="C211" s="122" t="s">
+        <v>211</v>
+      </c>
+      <c r="D211" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B212" s="112"/>
+      <c r="C212" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="D212" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B213" s="112"/>
+      <c r="C213" s="123" t="s">
+        <v>208</v>
+      </c>
+      <c r="D213" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B214" s="112"/>
+      <c r="C214" s="123" t="s">
+        <v>209</v>
+      </c>
+      <c r="D214" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B215" s="112"/>
+      <c r="C215" s="123" t="s">
+        <v>211</v>
+      </c>
+      <c r="D215" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B216" s="112"/>
+      <c r="C216" s="124" t="s">
+        <v>215</v>
+      </c>
+      <c r="D216" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B217" s="112"/>
+      <c r="C217" s="124" t="s">
+        <v>216</v>
+      </c>
+      <c r="D217" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B218" s="112"/>
+      <c r="C218" s="125" t="s">
+        <v>206</v>
+      </c>
+      <c r="D218" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B219" s="112"/>
+      <c r="C219" s="125" t="s">
+        <v>200</v>
+      </c>
+      <c r="D219" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B220" s="112"/>
+      <c r="C220" s="125" t="s">
+        <v>208</v>
+      </c>
+      <c r="D220" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B221" s="21"/>
+      <c r="C221" s="125" t="s">
+        <v>209</v>
+      </c>
+      <c r="D221" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B222" s="110"/>
+      <c r="C222" s="126"/>
+      <c r="D222" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B224" s="129" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="106"/>
-      <c r="B78" s="96"/>
-      <c r="C78" s="106" t="s">
+      <c r="C224" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B225" s="130" t="s">
+        <v>298</v>
+      </c>
+      <c r="C225" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B226" s="130"/>
+      <c r="C226" s="136" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B227" s="131"/>
+      <c r="C227" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B228" s="129" t="s">
+        <v>297</v>
+      </c>
+      <c r="C228" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B229" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="C229" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B230" s="130"/>
+      <c r="C230" s="136" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B231" s="130"/>
+      <c r="C231" s="136" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="106"/>
-      <c r="B79" s="96"/>
-      <c r="C79" s="106" t="s">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B232" s="130"/>
+      <c r="C232" s="136" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="106"/>
-      <c r="B80" s="101"/>
-      <c r="C80" s="106" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="106"/>
-      <c r="B81" s="96"/>
-      <c r="C81" s="106" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="106"/>
-      <c r="B82" s="96"/>
-      <c r="C82" s="106" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="106"/>
-      <c r="B83" s="96"/>
-      <c r="C83" s="106" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="106"/>
-      <c r="B84" s="96"/>
-      <c r="C84" s="106" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="106"/>
-      <c r="B85" s="96"/>
-      <c r="C85" s="106" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="106"/>
-      <c r="B86" s="96"/>
-      <c r="C86" s="106" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="106"/>
-      <c r="B87" s="96"/>
-      <c r="C87" s="106" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="106"/>
-      <c r="B88" s="96"/>
-      <c r="C88" s="106" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="106"/>
-      <c r="B89" s="96"/>
-      <c r="C89" s="106" t="s">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B233" s="130"/>
+      <c r="C233" s="136" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B234" s="130"/>
+      <c r="C234" s="136" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B235" s="130"/>
+      <c r="C235" s="136" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B236" s="130"/>
+      <c r="C236" s="136" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B237" s="130"/>
+      <c r="C237" s="136" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B238" s="130"/>
+      <c r="C238" s="136" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B239" s="130"/>
+      <c r="C239" s="136" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B240" s="131"/>
+      <c r="C240" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B241" s="129" t="s">
+        <v>372</v>
+      </c>
+      <c r="C241" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B242" s="130" t="s">
+        <v>298</v>
+      </c>
+      <c r="C242" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B243" s="130"/>
+      <c r="C243" s="136" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B244" s="131"/>
+      <c r="C244" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B245" s="129" t="s">
+        <v>372</v>
+      </c>
+      <c r="C245" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B246" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="C246" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B247" s="130"/>
+      <c r="C247" s="136" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B248" s="130"/>
+      <c r="C248" s="136" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B249" s="130"/>
+      <c r="C249" s="136" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B250" s="130"/>
+      <c r="C250" s="136" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B251" s="130"/>
+      <c r="C251" s="136" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B252" s="130"/>
+      <c r="C252" s="136" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B253" s="130"/>
+      <c r="C253" s="136" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B254" s="130"/>
+      <c r="C254" s="136" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B255" s="130"/>
+      <c r="C255" s="136" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B256" s="130"/>
+      <c r="C256" s="136" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B257" s="131"/>
+      <c r="C257" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B258" s="129" t="s">
+        <v>373</v>
+      </c>
+      <c r="C258" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B259" s="130" t="s">
+        <v>298</v>
+      </c>
+      <c r="C259" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B260" s="130"/>
+      <c r="C260" s="136" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B261" s="131"/>
+      <c r="C261" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B262" s="129" t="s">
+        <v>373</v>
+      </c>
+      <c r="C262" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B263" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="C263" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B264" s="130"/>
+      <c r="C264" s="136" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B265" s="130"/>
+      <c r="C265" s="136" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B266" s="130"/>
+      <c r="C266" s="136" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B267" s="130"/>
+      <c r="C267" s="136" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B268" s="130"/>
+      <c r="C268" s="136" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B269" s="130"/>
+      <c r="C269" s="136" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B270" s="130"/>
+      <c r="C270" s="136" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B271" s="130"/>
+      <c r="C271" s="136" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B272" s="131"/>
+      <c r="C272" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B273" s="129" t="s">
+        <v>375</v>
+      </c>
+      <c r="C273" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B274" s="130" t="s">
+        <v>298</v>
+      </c>
+      <c r="C274" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B275" s="130"/>
+      <c r="C275" s="136" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B276" s="131"/>
+      <c r="C276" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B277" s="129" t="s">
+        <v>375</v>
+      </c>
+      <c r="C277" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B278" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="C278" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B279" s="130"/>
+      <c r="C279" s="136" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B280" s="130"/>
+      <c r="C280" s="136" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B281" s="130"/>
+      <c r="C281" s="136" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B282" s="130"/>
+      <c r="C282" s="136" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B283" s="130"/>
+      <c r="C283" s="136" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B284" s="130"/>
+      <c r="C284" s="136" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B285" s="131"/>
+      <c r="C285" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B286" s="129" t="s">
+        <v>377</v>
+      </c>
+      <c r="C286" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B287" s="130" t="s">
+        <v>298</v>
+      </c>
+      <c r="C287" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B288" s="130"/>
+      <c r="C288" s="136" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B289" s="131"/>
+      <c r="C289" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B290" s="129" t="s">
+        <v>377</v>
+      </c>
+      <c r="C290" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B291" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="C291" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B292" s="130"/>
+      <c r="C292" s="136" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B293" s="130"/>
+      <c r="C293" s="136" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B294" s="130"/>
+      <c r="C294" s="136" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B295" s="130"/>
+      <c r="C295" s="136" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B296" s="130"/>
+      <c r="C296" s="136" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B297" s="130"/>
+      <c r="C297" s="136" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B298" s="131"/>
+      <c r="C298" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B299" s="129" t="s">
+        <v>380</v>
+      </c>
+      <c r="C299" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B300" s="130" t="s">
+        <v>298</v>
+      </c>
+      <c r="C300" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B301" s="130"/>
+      <c r="C301" s="136" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B302" s="131"/>
+      <c r="C302" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B303" s="129" t="s">
+        <v>380</v>
+      </c>
+      <c r="C303" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B304" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="C304" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B305" s="130"/>
+      <c r="C305" s="136" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B306" s="130"/>
+      <c r="C306" s="136" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B307" s="130"/>
+      <c r="C307" s="136" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B308" s="130"/>
+      <c r="C308" s="136" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B309" s="131"/>
+      <c r="C309" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B311" s="129" t="s">
+        <v>381</v>
+      </c>
+      <c r="C311" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B312" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="C312" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B313" s="130"/>
+      <c r="C313" s="136" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B314" s="131"/>
+      <c r="C314" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B315" s="129" t="s">
+        <v>381</v>
+      </c>
+      <c r="C315" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B316" s="130" t="s">
+        <v>311</v>
+      </c>
+      <c r="C316" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B317" s="130"/>
+      <c r="C317" s="136" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B318" s="130"/>
+      <c r="C318" s="136" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B319" s="130"/>
+      <c r="C319" s="136" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B320" s="130"/>
+      <c r="C320" s="136" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B321" s="130"/>
+      <c r="C321" s="136" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B322" s="130"/>
+      <c r="C322" s="136" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B323" s="130"/>
+      <c r="C323" s="136" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B324" s="130"/>
+      <c r="C324" s="136" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B325" s="130"/>
+      <c r="C325" s="136" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B326" s="130"/>
+      <c r="C326" s="136" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B327" s="131"/>
+      <c r="C327" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B328" s="129" t="s">
+        <v>382</v>
+      </c>
+      <c r="C328" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B329" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="C329" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B330" s="130"/>
+      <c r="C330" s="136" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B331" s="131"/>
+      <c r="C331" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B332" s="129" t="s">
+        <v>382</v>
+      </c>
+      <c r="C332" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B333" s="130" t="s">
+        <v>311</v>
+      </c>
+      <c r="C333" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B334" s="130"/>
+      <c r="C334" s="136" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B335" s="130"/>
+      <c r="C335" s="136" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B336" s="130"/>
+      <c r="C336" s="136" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B337" s="130"/>
+      <c r="C337" s="136" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B338" s="130"/>
+      <c r="C338" s="136" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B339" s="130"/>
+      <c r="C339" s="136" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B340" s="130"/>
+      <c r="C340" s="136" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B341" s="130"/>
+      <c r="C341" s="136" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B342" s="130"/>
+      <c r="C342" s="136" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B343" s="130"/>
+      <c r="C343" s="136" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B344" s="131"/>
+      <c r="C344" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B345" s="129" t="s">
+        <v>383</v>
+      </c>
+      <c r="C345" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B346" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="C346" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B347" s="130"/>
+      <c r="C347" s="136" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B348" s="131"/>
+      <c r="C348" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B349" s="129" t="s">
+        <v>383</v>
+      </c>
+      <c r="C349" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B350" s="130" t="s">
+        <v>311</v>
+      </c>
+      <c r="C350" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B351" s="130"/>
+      <c r="C351" s="136" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B352" s="130"/>
+      <c r="C352" s="136" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B353" s="130"/>
+      <c r="C353" s="136" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B354" s="130"/>
+      <c r="C354" s="136" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B355" s="130"/>
+      <c r="C355" s="136" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B356" s="130"/>
+      <c r="C356" s="136" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B357" s="130"/>
+      <c r="C357" s="136" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B358" s="130"/>
+      <c r="C358" s="136" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B359" s="131"/>
+      <c r="C359" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B360" s="129" t="s">
+        <v>384</v>
+      </c>
+      <c r="C360" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B361" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="C361" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B362" s="130"/>
+      <c r="C362" s="136" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B363" s="131"/>
+      <c r="C363" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B364" s="129" t="s">
+        <v>384</v>
+      </c>
+      <c r="C364" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B365" s="130" t="s">
+        <v>311</v>
+      </c>
+      <c r="C365" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B366" s="130"/>
+      <c r="C366" s="136" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B367" s="130"/>
+      <c r="C367" s="136" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B368" s="130"/>
+      <c r="C368" s="136" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B369" s="130"/>
+      <c r="C369" s="136" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B370" s="130"/>
+      <c r="C370" s="136" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B371" s="130"/>
+      <c r="C371" s="136" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B372" s="131"/>
+      <c r="C372" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B373" s="129" t="s">
+        <v>385</v>
+      </c>
+      <c r="C373" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B374" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="C374" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B375" s="130"/>
+      <c r="C375" s="136" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B376" s="131"/>
+      <c r="C376" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B377" s="129" t="s">
+        <v>385</v>
+      </c>
+      <c r="C377" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B378" s="130" t="s">
+        <v>311</v>
+      </c>
+      <c r="C378" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B379" s="130"/>
+      <c r="C379" s="136" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B380" s="130"/>
+      <c r="C380" s="136" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B381" s="130"/>
+      <c r="C381" s="136" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B382" s="130"/>
+      <c r="C382" s="136" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B383" s="130"/>
+      <c r="C383" s="136" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B384" s="130"/>
+      <c r="C384" s="136" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B385" s="131"/>
+      <c r="C385" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B386" s="129" t="s">
+        <v>386</v>
+      </c>
+      <c r="C386" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B387" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="C387" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B388" s="130"/>
+      <c r="C388" s="136" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B389" s="131"/>
+      <c r="C389" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B390" s="129" t="s">
+        <v>386</v>
+      </c>
+      <c r="C390" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B391" s="130" t="s">
+        <v>311</v>
+      </c>
+      <c r="C391" s="136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B392" s="130"/>
+      <c r="C392" s="136" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B393" s="130"/>
+      <c r="C393" s="136" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B394" s="130"/>
+      <c r="C394" s="136" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B395" s="130"/>
+      <c r="C395" s="136" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B396" s="131"/>
+      <c r="C396" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B398" s="129" t="s">
+        <v>393</v>
+      </c>
+      <c r="C398" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B399" s="130"/>
+      <c r="C399" s="136" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B400" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="C400" s="136" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B401" s="130"/>
+      <c r="C401" s="136" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B402" s="130"/>
+      <c r="C402" s="136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B403" s="129" t="s">
+        <v>393</v>
+      </c>
+      <c r="C403" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B404" s="130"/>
+      <c r="C404" s="136" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B405" s="130" t="s">
+        <v>311</v>
+      </c>
+      <c r="C405" s="136" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B406" s="130"/>
+      <c r="C406" s="136" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B407" s="131"/>
+      <c r="C407" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B408" s="129" t="s">
+        <v>283</v>
+      </c>
+      <c r="C408" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B409" s="130"/>
+      <c r="C409" s="136" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B410" s="130" t="s">
+        <v>289</v>
+      </c>
+      <c r="C410" s="136" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="107"/>
-      <c r="B90" s="104"/>
-      <c r="C90" s="107" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="105"/>
-      <c r="B91" s="105" t="s">
-        <v>324</v>
-      </c>
-      <c r="C91" s="105" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="106"/>
-      <c r="B92" s="106"/>
-      <c r="C92" s="106" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="106"/>
-      <c r="B93" s="106"/>
-      <c r="C93" s="106" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="106"/>
-      <c r="B94" s="106"/>
-      <c r="C94" s="106" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="106"/>
-      <c r="B95" s="106"/>
-      <c r="C95" s="106" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="107"/>
-      <c r="B96" s="107"/>
-      <c r="C96" s="107" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="120" t="s">
-        <v>206</v>
-      </c>
-      <c r="B99" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="C99" s="110" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="121"/>
-      <c r="B100" s="116"/>
-      <c r="C100" s="112" t="s">
+    <row r="411" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B411" s="130"/>
+      <c r="C411" s="136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B412" s="130"/>
+      <c r="C412" s="136" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B413" s="130"/>
+      <c r="C413" s="136" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B414" s="130"/>
+      <c r="C414" s="136" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B415" s="130"/>
+      <c r="C415" s="137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B416" s="129" t="s">
+        <v>283</v>
+      </c>
+      <c r="C416" s="135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B417" s="130"/>
+      <c r="C417" s="136" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B418" s="130" t="s">
         <v>294</v>
       </c>
-      <c r="D100" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="121"/>
-      <c r="B101" s="116"/>
-      <c r="C101" s="112" t="s">
-        <v>204</v>
-      </c>
-      <c r="D101" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="121"/>
-      <c r="B102" s="116"/>
-      <c r="C102" s="112" t="s">
-        <v>199</v>
-      </c>
-      <c r="D102" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="121"/>
-      <c r="B103" s="116"/>
-      <c r="C103" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="D103" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="121"/>
-      <c r="B104" s="116"/>
-      <c r="C104" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="D104" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="121"/>
-      <c r="B105" s="116"/>
-      <c r="C105" s="122" t="s">
-        <v>207</v>
-      </c>
-      <c r="D105" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="121"/>
-      <c r="B106" s="116"/>
-      <c r="C106" s="122" t="s">
-        <v>208</v>
-      </c>
-      <c r="D106" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="121"/>
-      <c r="B107" s="116"/>
-      <c r="C107" s="122" t="s">
-        <v>209</v>
-      </c>
-      <c r="D107" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="121"/>
-      <c r="B108" s="116"/>
-      <c r="C108" s="122" t="s">
-        <v>210</v>
-      </c>
-      <c r="D108" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="121"/>
-      <c r="B109" s="116"/>
-      <c r="C109" s="122" t="s">
-        <v>211</v>
-      </c>
-      <c r="D109" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="121"/>
-      <c r="B110" s="116"/>
-      <c r="C110" s="122" t="s">
-        <v>212</v>
-      </c>
-      <c r="D110" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="121"/>
-      <c r="B111" s="116"/>
-      <c r="C111" s="122" t="s">
-        <v>213</v>
-      </c>
-      <c r="D111" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="121"/>
-      <c r="B112" s="116"/>
-      <c r="C112" s="122" t="s">
-        <v>214</v>
-      </c>
-      <c r="D112" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="121"/>
-      <c r="B113" s="116"/>
-      <c r="C113" s="123" t="s">
-        <v>215</v>
-      </c>
-      <c r="D113" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="121"/>
-      <c r="B114" s="116"/>
-      <c r="C114" s="124" t="s">
-        <v>216</v>
-      </c>
-      <c r="D114" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="121"/>
-      <c r="B115" s="116"/>
-      <c r="C115" s="124" t="s">
-        <v>217</v>
-      </c>
-      <c r="D115" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="121"/>
-      <c r="B116" s="116"/>
-      <c r="C116" s="124" t="s">
-        <v>218</v>
-      </c>
-      <c r="D116" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="121"/>
-      <c r="B117" s="116"/>
-      <c r="C117" s="124" t="s">
-        <v>219</v>
-      </c>
-      <c r="D117" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="121"/>
-      <c r="B118" s="116"/>
-      <c r="C118" s="124" t="s">
-        <v>220</v>
-      </c>
-      <c r="D118" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="121"/>
-      <c r="B119" s="116"/>
-      <c r="C119" s="103" t="s">
-        <v>221</v>
-      </c>
-      <c r="D119" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="121"/>
-      <c r="B120" s="116"/>
-      <c r="C120" s="103" t="s">
-        <v>222</v>
-      </c>
-      <c r="D120" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="121"/>
-      <c r="B121" s="116"/>
-      <c r="C121" s="103" t="s">
-        <v>223</v>
-      </c>
-      <c r="D121" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="121"/>
-      <c r="B122" s="116"/>
-      <c r="C122" s="125" t="s">
-        <v>209</v>
-      </c>
-      <c r="D122" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="121"/>
-      <c r="B123" s="116"/>
-      <c r="C123" s="125" t="s">
-        <v>220</v>
-      </c>
-      <c r="D123" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="121"/>
-      <c r="B124" s="116"/>
-      <c r="C124" s="124" t="s">
-        <v>209</v>
-      </c>
-      <c r="D124" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="121"/>
-      <c r="B125" s="116"/>
-      <c r="C125" s="124" t="s">
-        <v>220</v>
-      </c>
-      <c r="D125" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="121"/>
-      <c r="B126" s="116"/>
-      <c r="C126" s="126" t="s">
-        <v>209</v>
-      </c>
-      <c r="D126" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="121"/>
-      <c r="B127" s="116"/>
-      <c r="C127" s="126" t="s">
-        <v>220</v>
-      </c>
-      <c r="D127" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="121"/>
-      <c r="B128" s="116"/>
-      <c r="C128" s="127" t="s">
-        <v>216</v>
-      </c>
-      <c r="D128" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="121"/>
-      <c r="B129" s="116"/>
-      <c r="C129" s="127" t="s">
-        <v>217</v>
-      </c>
-      <c r="D129" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="121"/>
-      <c r="B130" s="116"/>
-      <c r="C130" s="127" t="s">
-        <v>218</v>
-      </c>
-      <c r="D130" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="121"/>
-      <c r="B131" s="116"/>
-      <c r="C131" s="127" t="s">
-        <v>220</v>
-      </c>
-      <c r="D131" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="121"/>
-      <c r="B132" s="116"/>
-      <c r="C132" s="128" t="s">
-        <v>224</v>
-      </c>
-      <c r="D132" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="121"/>
-      <c r="B133" s="116"/>
-      <c r="C133" s="128" t="s">
-        <v>225</v>
-      </c>
-      <c r="D133" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="121"/>
-      <c r="B134" s="116"/>
-      <c r="C134" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="D134" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="121"/>
-      <c r="B135" s="116"/>
-      <c r="C135" s="129" t="s">
-        <v>209</v>
-      </c>
-      <c r="D135" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="121"/>
-      <c r="B136" s="116"/>
-      <c r="C136" s="129" t="s">
-        <v>217</v>
-      </c>
-      <c r="D136" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="121"/>
-      <c r="B137" s="21"/>
-      <c r="C137" s="129" t="s">
-        <v>218</v>
-      </c>
-      <c r="D137" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="130"/>
-      <c r="B138" s="114"/>
-      <c r="C138" s="131"/>
-      <c r="D138" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B140" t="s">
-        <v>317</v>
-      </c>
-      <c r="C140" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C141" s="132" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C142" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C143" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B144" t="s">
-        <v>320</v>
-      </c>
-      <c r="C144" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C145" s="132" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C146" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C147" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B148" t="s">
-        <v>322</v>
-      </c>
-      <c r="C148" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C149" s="132" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C150" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C151" t="s">
-        <v>189</v>
+      <c r="C418" s="136" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B419" s="130"/>
+      <c r="C419" s="136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B420" s="130"/>
+      <c r="C420" s="136" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B421" s="130"/>
+      <c r="C421" s="136" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B422" s="131"/>
+      <c r="C422" s="137" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
+++ b/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ute\Lab_project\git_Indruino\IOT_ESP32\Indruino-Iot-Project\FW\Hau\mem_map_data_trans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\Indruino-Iot-Project\FW\Hau\mem_map_data_trans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6266D7A-3168-4F21-9890-DDE8FCA02E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mega" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="file chung" sheetId="3" r:id="rId3"/>
     <sheet name="TOPIC_MQTT" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="402">
   <si>
     <t>stt</t>
   </si>
@@ -1239,12 +1238,15 @@
   </si>
   <si>
     <t>/MASTER/POST/STATUS/LWT/(modelNUmber)/(Idboard)</t>
+  </si>
+  <si>
+    <t>"A0":</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1754,12 +1756,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1769,6 +1765,12 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4354,13 +4356,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>170331</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>80684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1864661</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4701,13 +4703,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>17929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1738705</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>45783</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5437,13 +5439,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>779932</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>519956</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>143435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5835,13 +5837,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>251012</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>143435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600636</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>161364</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6515,7 +6517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB99"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6541,10 +6543,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="127"/>
+      <c r="C1" s="136"/>
       <c r="S1" s="46" t="s">
         <v>22</v>
       </c>
@@ -9683,7 +9685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCF18E1-EDBB-4A5D-A645-8FDD3797B808}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X98"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -11693,7 +11695,7 @@
       <c r="S54" s="42"/>
       <c r="T54" s="29"/>
       <c r="U54" s="28"/>
-      <c r="V54" s="128"/>
+      <c r="V54" s="137"/>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="30"/>
@@ -11705,7 +11707,7 @@
       <c r="S55" s="42"/>
       <c r="T55" s="29"/>
       <c r="U55" s="30"/>
-      <c r="V55" s="128"/>
+      <c r="V55" s="137"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" s="30"/>
@@ -11717,7 +11719,7 @@
       <c r="S56" s="42"/>
       <c r="T56" s="29"/>
       <c r="U56" s="30"/>
-      <c r="V56" s="128"/>
+      <c r="V56" s="137"/>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="30"/>
@@ -11729,7 +11731,7 @@
       <c r="S57" s="42"/>
       <c r="T57" s="29"/>
       <c r="U57" s="30"/>
-      <c r="V57" s="128"/>
+      <c r="V57" s="137"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" s="30"/>
@@ -11741,7 +11743,7 @@
       <c r="S58" s="42"/>
       <c r="T58" s="29"/>
       <c r="U58" s="30"/>
-      <c r="V58" s="128"/>
+      <c r="V58" s="137"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="30"/>
@@ -11760,7 +11762,7 @@
       <c r="S59" s="42"/>
       <c r="T59" s="29"/>
       <c r="U59" s="30"/>
-      <c r="V59" s="128"/>
+      <c r="V59" s="137"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" s="30"/>
@@ -11779,7 +11781,7 @@
       <c r="S60" s="42"/>
       <c r="T60" s="29"/>
       <c r="U60" s="30"/>
-      <c r="V60" s="128"/>
+      <c r="V60" s="137"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" s="30"/>
@@ -11798,7 +11800,7 @@
       <c r="S61" s="42"/>
       <c r="T61" s="29"/>
       <c r="U61" s="28"/>
-      <c r="V61" s="128"/>
+      <c r="V61" s="137"/>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="30"/>
@@ -12183,7 +12185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB04241-F991-40CE-B243-1152ECDEFEE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12687,11 +12689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB98B7-73F7-4C3A-AAF0-0D4F4D184EA5}">
-  <dimension ref="A1:J422"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J423"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12699,7 +12701,7 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="51.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -12861,78 +12863,69 @@
       <c r="A23" s="114"/>
       <c r="B23" s="114"/>
       <c r="C23" s="114" t="s">
-        <v>180</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="114"/>
-      <c r="B24" s="114" t="s">
-        <v>310</v>
-      </c>
+      <c r="B24" s="114"/>
       <c r="C24" s="114" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="114"/>
-      <c r="B25" s="114"/>
+      <c r="B25" s="114" t="s">
+        <v>310</v>
+      </c>
       <c r="C25" s="114" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="114"/>
       <c r="B26" s="114"/>
       <c r="C26" s="114" t="s">
-        <v>183</v>
-      </c>
-      <c r="J26" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="114"/>
       <c r="B27" s="114"/>
       <c r="C27" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="J27" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="114"/>
       <c r="B28" s="114"/>
       <c r="C28" s="114" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="J28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="114"/>
       <c r="B29" s="114"/>
       <c r="C29" s="114" t="s">
-        <v>186</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>130</v>
+        <v>185</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="I29" t="s">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="J29" t="s">
         <v>3</v>
@@ -12942,13 +12935,13 @@
       <c r="A30" s="114"/>
       <c r="B30" s="114"/>
       <c r="C30" s="114" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J30" t="s">
         <v>3</v>
@@ -12958,229 +12951,234 @@
       <c r="A31" s="114"/>
       <c r="B31" s="114"/>
       <c r="C31" s="114" t="s">
+        <v>278</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" t="s">
+        <v>140</v>
+      </c>
+      <c r="J31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="114"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H32" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I32" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="132"/>
-      <c r="B32" s="133" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="130"/>
+      <c r="B33" s="131" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="132" t="s">
+      <c r="C33" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H33" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="132"/>
-      <c r="B33" s="132" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="130"/>
+      <c r="B34" s="130" t="s">
         <v>311</v>
       </c>
-      <c r="C33" s="132" t="s">
+      <c r="C34" s="130" t="s">
         <v>318</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H34" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I34" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="132"/>
-      <c r="B34" s="132"/>
-      <c r="C34" s="132" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="130"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130" t="s">
         <v>315</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H35" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I35" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="132"/>
-      <c r="B35" s="132"/>
-      <c r="C35" s="132" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="130"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="130" t="s">
         <v>316</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H36" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I36" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="132"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="132" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="130"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="130" t="s">
         <v>319</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H37" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I37" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="132"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="130"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130" t="s">
         <v>312</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H38" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="132"/>
-      <c r="B38" s="132"/>
-      <c r="C38" s="132" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="130"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130" t="s">
         <v>187</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H39" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I39" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="81" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B40" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C40" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H40" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I40" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="81"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81" t="s">
-        <v>318</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="81"/>
       <c r="B41" s="81"/>
       <c r="C41" s="81" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="81"/>
       <c r="B42" s="81"/>
       <c r="C42" s="81" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="81"/>
       <c r="B43" s="81"/>
       <c r="C43" s="81" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="81"/>
-      <c r="B44" s="81" t="s">
-        <v>288</v>
-      </c>
+      <c r="B44" s="81"/>
       <c r="C44" s="81" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="81"/>
-      <c r="B45" s="81"/>
+      <c r="B45" s="81" t="s">
+        <v>288</v>
+      </c>
       <c r="C45" s="81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>223</v>
-      </c>
-      <c r="J45" s="97" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="81"/>
       <c r="B46" s="81"/>
       <c r="C46" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="J46" s="97"/>
+        <v>158</v>
+      </c>
+      <c r="I46" t="s">
+        <v>223</v>
+      </c>
+      <c r="J46" s="97" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="81"/>
       <c r="B47" s="81"/>
       <c r="C47" s="81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J47" s="97"/>
     </row>
@@ -13188,10 +13186,10 @@
       <c r="A48" s="81"/>
       <c r="B48" s="81"/>
       <c r="C48" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J48" s="97"/>
     </row>
@@ -13199,34 +13197,34 @@
       <c r="A49" s="81"/>
       <c r="B49" s="81"/>
       <c r="C49" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="J49" s="97" t="s">
-        <v>225</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="J49" s="97"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="81"/>
       <c r="B50" s="81"/>
       <c r="C50" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="J50" s="97"/>
+        <v>162</v>
+      </c>
+      <c r="J50" s="97" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="81"/>
       <c r="B51" s="81"/>
       <c r="C51" s="81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J51" s="97"/>
     </row>
@@ -13234,2702 +13232,2713 @@
       <c r="A52" s="81"/>
       <c r="B52" s="81"/>
       <c r="C52" s="81" t="s">
-        <v>277</v>
+        <v>186</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="J52" s="97" t="s">
-        <v>227</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="J52" s="97"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="81"/>
       <c r="B53" s="81"/>
       <c r="C53" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J53" s="97" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="81"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H54" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I54" t="s">
         <v>224</v>
       </c>
-      <c r="J53" s="81" t="s">
+      <c r="J54" s="81" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="134" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="B54" s="134" t="s">
+      <c r="B55" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="C54" s="134" t="s">
+      <c r="C55" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H55" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="J54" s="81"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="134"/>
-      <c r="B55" s="134" t="s">
+      <c r="J55" s="81"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="132"/>
+      <c r="B56" s="132" t="s">
         <v>287</v>
       </c>
-      <c r="C55" s="134" t="s">
+      <c r="C56" s="132" t="s">
         <v>318</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H56" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="J55" s="81"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="134"/>
-      <c r="B56" s="134"/>
-      <c r="C56" s="134" t="s">
+      <c r="J56" s="81"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="132"/>
+      <c r="B57" s="132"/>
+      <c r="C57" s="132" t="s">
         <v>315</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H57" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="J56" s="81" t="s">
+      <c r="J57" s="81" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="134"/>
-      <c r="B57" s="134"/>
-      <c r="C57" s="134" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="132"/>
+      <c r="B58" s="132"/>
+      <c r="C58" s="132" t="s">
         <v>316</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H58" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="81"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="134"/>
-      <c r="B58" s="134"/>
-      <c r="C58" s="134" t="s">
+      <c r="J58" s="81"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="132"/>
+      <c r="B59" s="132"/>
+      <c r="C59" s="132" t="s">
         <v>319</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H59" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="J58" s="81"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="134"/>
-      <c r="B59" s="134"/>
-      <c r="C59" s="134" t="s">
+      <c r="J59" s="81"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="132"/>
+      <c r="B60" s="132"/>
+      <c r="C60" s="132" t="s">
         <v>312</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H60" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="J59" s="81"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="134"/>
-      <c r="B60" s="134"/>
-      <c r="C60" s="134" t="s">
+      <c r="J60" s="81"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="132"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H61" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J60" s="81" t="s">
+      <c r="J61" s="81" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="81"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="H61" s="7" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="81"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="81"/>
+      <c r="H62" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I62" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="98"/>
-      <c r="B62" s="98"/>
-      <c r="C62" s="98"/>
-      <c r="H62" s="7" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="98"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="98"/>
+      <c r="H63" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I63" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="104"/>
-      <c r="B63" s="111"/>
-      <c r="C63" s="106" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="104"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I64" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="107"/>
-      <c r="B64" s="112" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="107"/>
+      <c r="B65" s="112" t="s">
         <v>396</v>
       </c>
-      <c r="C64" s="108" t="s">
+      <c r="C65" s="108" t="s">
         <v>318</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I65" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="107" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="107" t="s">
         <v>197</v>
       </c>
-      <c r="B65" s="112" t="s">
+      <c r="B66" s="112" t="s">
         <v>397</v>
       </c>
-      <c r="C65" s="108" t="s">
+      <c r="C66" s="108" t="s">
         <v>315</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H66" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I66" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="107"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="108" t="s">
-        <v>316</v>
-      </c>
-      <c r="D66" t="s">
-        <v>139</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="107"/>
-      <c r="B67" s="112" t="s">
-        <v>282</v>
-      </c>
+      <c r="B67" s="112"/>
       <c r="C67" s="108" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D67" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="107"/>
-      <c r="B68" s="112"/>
+      <c r="B68" s="112" t="s">
+        <v>282</v>
+      </c>
       <c r="C68" s="108" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D68" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="107"/>
       <c r="B69" s="112"/>
       <c r="C69" s="108" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="D69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="107"/>
-      <c r="B70" s="93" t="s">
-        <v>193</v>
-      </c>
+      <c r="B70" s="112"/>
       <c r="C70" s="108" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="D70" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="107"/>
-      <c r="B71" t="s">
-        <v>194</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>323</v>
+      <c r="B71" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="108" t="s">
+        <v>322</v>
       </c>
       <c r="D71" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="107"/>
-      <c r="B72" s="112"/>
+      <c r="B72" t="s">
+        <v>194</v>
+      </c>
       <c r="C72" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="107"/>
       <c r="B73" s="112"/>
       <c r="C73" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="107"/>
       <c r="B74" s="112"/>
       <c r="C74" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="107"/>
       <c r="B75" s="112"/>
       <c r="C75" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="107"/>
       <c r="B76" s="112"/>
       <c r="C76" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D76" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="107"/>
       <c r="B77" s="112"/>
       <c r="C77" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="107"/>
       <c r="B78" s="112"/>
       <c r="C78" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="107"/>
       <c r="B79" s="112"/>
       <c r="C79" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="107"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="109"/>
-      <c r="B80" s="113"/>
-      <c r="C80" s="7" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="109"/>
+      <c r="B81" s="113"/>
+      <c r="C81" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="98"/>
-    </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="101"/>
-      <c r="B82" s="129" t="s">
+      <c r="A82" s="98"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="101"/>
+      <c r="B83" s="127" t="s">
         <v>283</v>
       </c>
-      <c r="C82" s="135" t="s">
+      <c r="C83" s="133" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="102"/>
-      <c r="B83" s="130"/>
-      <c r="C83" s="136" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="102"/>
-      <c r="B84" s="130" t="s">
-        <v>289</v>
-      </c>
-      <c r="C84" s="136" t="s">
-        <v>315</v>
+      <c r="B84" s="128"/>
+      <c r="C84" s="134" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="102"/>
-      <c r="B85" s="130"/>
-      <c r="C85" s="136" t="s">
+      <c r="B85" s="128" t="s">
+        <v>289</v>
+      </c>
+      <c r="C85" s="134" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="102"/>
+      <c r="B86" s="128"/>
+      <c r="C86" s="134" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="99"/>
-      <c r="B86" s="130"/>
-      <c r="C86" s="136" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="99"/>
+      <c r="B87" s="128"/>
+      <c r="C87" s="134" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="102"/>
-      <c r="B87" s="130"/>
-      <c r="C87" s="136" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="102"/>
-      <c r="B88" s="130"/>
-      <c r="C88" s="136" t="s">
+      <c r="B88" s="128"/>
+      <c r="C88" s="134" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="102"/>
+      <c r="B89" s="128"/>
+      <c r="C89" s="134" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="103"/>
-      <c r="B89" s="130"/>
-      <c r="C89" s="137" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="103"/>
+      <c r="B90" s="128"/>
+      <c r="C90" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="101"/>
-      <c r="B90" s="129" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="101"/>
+      <c r="B91" s="127" t="s">
         <v>283</v>
       </c>
-      <c r="C90" s="135" t="s">
+      <c r="C91" s="133" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="102"/>
-      <c r="B91" s="130"/>
-      <c r="C91" s="136" t="s">
-        <v>318</v>
-      </c>
-      <c r="D91" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="102"/>
-      <c r="B92" s="130" t="s">
-        <v>294</v>
-      </c>
-      <c r="C92" s="136" t="s">
-        <v>315</v>
+      <c r="B92" s="128"/>
+      <c r="C92" s="134" t="s">
+        <v>318</v>
+      </c>
+      <c r="D92" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="102"/>
-      <c r="B93" s="130"/>
-      <c r="C93" s="136" t="s">
-        <v>316</v>
+      <c r="B93" s="128" t="s">
+        <v>294</v>
+      </c>
+      <c r="C93" s="134" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="102"/>
-      <c r="B94" s="130"/>
-      <c r="C94" s="136" t="s">
-        <v>334</v>
+      <c r="B94" s="128"/>
+      <c r="C94" s="134" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="102"/>
-      <c r="B95" s="130"/>
-      <c r="C95" s="136" t="s">
+      <c r="B95" s="128"/>
+      <c r="C95" s="134" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="102"/>
+      <c r="B96" s="128"/>
+      <c r="C96" s="134" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="103"/>
-      <c r="B96" s="131"/>
-      <c r="C96" s="137" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="103"/>
+      <c r="B97" s="129"/>
+      <c r="C97" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="101"/>
-      <c r="B97" s="130" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="101"/>
+      <c r="B98" s="128" t="s">
         <v>284</v>
       </c>
-      <c r="C97" s="136" t="s">
+      <c r="C98" s="134" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="102"/>
-      <c r="B98" s="130"/>
-      <c r="C98" s="136" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="102"/>
-      <c r="B99" s="130" t="s">
-        <v>289</v>
-      </c>
-      <c r="C99" s="136" t="s">
-        <v>315</v>
+      <c r="B99" s="128"/>
+      <c r="C99" s="134" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="102"/>
-      <c r="B100" s="130"/>
-      <c r="C100" s="136" t="s">
-        <v>316</v>
+      <c r="B100" s="128" t="s">
+        <v>289</v>
+      </c>
+      <c r="C100" s="134" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="102"/>
-      <c r="B101" s="130"/>
-      <c r="C101" s="136" t="s">
-        <v>336</v>
+      <c r="B101" s="128"/>
+      <c r="C101" s="134" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="102"/>
-      <c r="B102" s="130"/>
-      <c r="C102" s="136" t="s">
-        <v>320</v>
+      <c r="B102" s="128"/>
+      <c r="C102" s="134" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="102"/>
-      <c r="B103" s="130"/>
-      <c r="C103" s="136" t="s">
-        <v>187</v>
+      <c r="B103" s="128"/>
+      <c r="C103" s="134" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="102"/>
-      <c r="B104" s="129" t="s">
-        <v>284</v>
-      </c>
-      <c r="C104" s="135" t="s">
-        <v>178</v>
+      <c r="B104" s="128"/>
+      <c r="C104" s="134" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="102"/>
-      <c r="B105" s="130"/>
-      <c r="C105" s="136" t="s">
-        <v>318</v>
+      <c r="B105" s="127" t="s">
+        <v>284</v>
+      </c>
+      <c r="C105" s="133" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="102"/>
-      <c r="B106" s="130" t="s">
-        <v>294</v>
-      </c>
-      <c r="C106" s="136" t="s">
-        <v>315</v>
+      <c r="B106" s="128"/>
+      <c r="C106" s="134" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="102"/>
-      <c r="B107" s="130"/>
-      <c r="C107" s="136" t="s">
-        <v>316</v>
+      <c r="B107" s="128" t="s">
+        <v>294</v>
+      </c>
+      <c r="C107" s="134" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="102"/>
-      <c r="B108" s="130"/>
-      <c r="C108" s="136" t="s">
-        <v>336</v>
+      <c r="B108" s="128"/>
+      <c r="C108" s="134" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="102"/>
-      <c r="B109" s="130"/>
-      <c r="C109" s="136" t="s">
-        <v>295</v>
+      <c r="B109" s="128"/>
+      <c r="C109" s="134" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="102"/>
-      <c r="B110" s="131"/>
-      <c r="C110" s="137" t="s">
-        <v>187</v>
+      <c r="B110" s="128"/>
+      <c r="C110" s="134" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="102"/>
-      <c r="B111" s="96" t="s">
+      <c r="B111" s="129"/>
+      <c r="C111" s="135" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="102"/>
+      <c r="B112" s="96" t="s">
         <v>290</v>
       </c>
-      <c r="C111" s="136" t="s">
+      <c r="C112" s="134" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="103"/>
-      <c r="B112" s="96"/>
-      <c r="C112" s="136" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="103"/>
+      <c r="B113" s="96"/>
+      <c r="C113" s="134" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B113" s="96" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B114" s="96" t="s">
         <v>289</v>
       </c>
-      <c r="C113" s="136" t="s">
+      <c r="C114" s="134" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B114" s="96"/>
-      <c r="C114" s="136" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B115" s="96"/>
+      <c r="C115" s="134" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B115" s="99"/>
-      <c r="C115" s="136" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B116" s="99"/>
+      <c r="C116" s="134" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B116" s="96"/>
-      <c r="C116" s="136" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="96"/>
+      <c r="C117" s="134" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B117" s="96"/>
-      <c r="C117" s="136" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B118" s="96"/>
+      <c r="C118" s="134" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B118" s="129" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B119" s="127" t="s">
         <v>290</v>
       </c>
-      <c r="C118" s="135" t="s">
+      <c r="C119" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B119" s="130"/>
-      <c r="C119" s="136" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B120" s="128"/>
+      <c r="C120" s="134" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B120" s="130" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="128" t="s">
         <v>287</v>
       </c>
-      <c r="C120" s="136" t="s">
+      <c r="C121" s="134" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B121" s="130"/>
-      <c r="C121" s="136" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="128"/>
+      <c r="C122" s="134" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B122" s="130"/>
-      <c r="C122" s="136" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B123" s="128"/>
+      <c r="C123" s="134" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B123" s="130"/>
-      <c r="C123" s="136" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B124" s="128"/>
+      <c r="C124" s="134" t="s">
         <v>292</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D124" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B124" s="130"/>
-      <c r="C124" s="136" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B125" s="128"/>
+      <c r="C125" s="134" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B125" s="130"/>
-      <c r="C125" s="136" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B126" s="128"/>
+      <c r="C126" s="134" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B126" s="130"/>
-      <c r="C126" s="136" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B127" s="128"/>
+      <c r="C127" s="134" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B127" s="130"/>
-      <c r="C127" s="136" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B128" s="128"/>
+      <c r="C128" s="134" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B128" s="130"/>
-      <c r="C128" s="136" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B129" s="128"/>
+      <c r="C129" s="134" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B129" s="130"/>
-      <c r="C129" s="136" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B130" s="128"/>
+      <c r="C130" s="134" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B130" s="130"/>
-      <c r="C130" s="136" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B131" s="128"/>
+      <c r="C131" s="134" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B131" s="130"/>
-      <c r="C131" s="136" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B132" s="128"/>
+      <c r="C132" s="134" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B132" s="131"/>
-      <c r="C132" s="137" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B133" s="129"/>
+      <c r="C133" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B133" s="96" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B134" s="96" t="s">
         <v>291</v>
       </c>
-      <c r="C133" s="136" t="s">
+      <c r="C134" s="134" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B134" s="96"/>
-      <c r="C134" s="136" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B135" s="96"/>
+      <c r="C135" s="134" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B135" s="96" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B136" s="96" t="s">
         <v>289</v>
       </c>
-      <c r="C135" s="136" t="s">
+      <c r="C136" s="134" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B136" s="96"/>
-      <c r="C136" s="136" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B137" s="96"/>
+      <c r="C137" s="134" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B137" s="99"/>
-      <c r="C137" s="136" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B138" s="99"/>
+      <c r="C138" s="134" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B138" s="96"/>
-      <c r="C138" s="136" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B139" s="96"/>
-      <c r="C139" s="136" t="s">
-        <v>324</v>
+      <c r="C139" s="134" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B140" s="96"/>
-      <c r="C140" s="136" t="s">
-        <v>325</v>
+      <c r="C140" s="134" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B141" s="96"/>
-      <c r="C141" s="136" t="s">
-        <v>326</v>
+      <c r="C141" s="134" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B142" s="96"/>
-      <c r="C142" s="136" t="s">
+      <c r="C142" s="134" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B143" s="96"/>
+      <c r="C143" s="134" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="101"/>
-      <c r="B143" s="96"/>
-      <c r="C143" s="136" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="101"/>
+      <c r="B144" s="96"/>
+      <c r="C144" s="134" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="102"/>
-      <c r="B144" s="96"/>
-      <c r="C144" s="136" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="102"/>
       <c r="B145" s="96"/>
-      <c r="C145" s="136" t="s">
-        <v>330</v>
+      <c r="C145" s="134" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="102"/>
       <c r="B146" s="96"/>
-      <c r="C146" s="136" t="s">
-        <v>331</v>
+      <c r="C146" s="134" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="102"/>
       <c r="B147" s="96"/>
-      <c r="C147" s="136" t="s">
+      <c r="C147" s="134" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="102"/>
+      <c r="B148" s="96"/>
+      <c r="C148" s="134" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="103"/>
-      <c r="B148" s="129" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="103"/>
+      <c r="B149" s="127" t="s">
         <v>296</v>
       </c>
-      <c r="C148" s="135" t="s">
+      <c r="C149" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B149" s="130"/>
-      <c r="C149" s="136" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B150" s="128"/>
+      <c r="C150" s="134" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B150" s="130" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B151" s="128" t="s">
         <v>294</v>
       </c>
-      <c r="C150" s="136" t="s">
+      <c r="C151" s="134" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B151" s="130"/>
-      <c r="C151" s="136" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B152" s="128"/>
+      <c r="C152" s="134" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B152" s="130"/>
-      <c r="C152" s="136" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B153" s="128"/>
+      <c r="C153" s="134" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B153" s="130"/>
-      <c r="C153" s="136" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B154" s="128"/>
+      <c r="C154" s="134" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B154" s="131"/>
-      <c r="C154" s="137" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B155" s="129"/>
+      <c r="C155" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B155" s="96" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B156" s="96" t="s">
         <v>293</v>
       </c>
-      <c r="C155" s="136" t="s">
+      <c r="C156" s="134" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B156" s="96"/>
-      <c r="C156" s="136" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B157" s="96"/>
+      <c r="C157" s="134" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B157" s="96" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B158" s="96" t="s">
         <v>289</v>
       </c>
-      <c r="C157" s="136" t="s">
+      <c r="C158" s="134" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="116" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="116" t="s">
         <v>198</v>
       </c>
-      <c r="B158" s="96"/>
-      <c r="C158" s="136" t="s">
+      <c r="B159" s="96"/>
+      <c r="C159" s="134" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="117"/>
-      <c r="B159" s="99"/>
-      <c r="C159" s="136" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="117"/>
-      <c r="B160" s="96"/>
-      <c r="C160" s="136" t="s">
-        <v>333</v>
+      <c r="B160" s="99"/>
+      <c r="C160" s="134" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="117"/>
       <c r="B161" s="96"/>
-      <c r="C161" s="136" t="s">
-        <v>187</v>
+      <c r="C161" s="134" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="117"/>
-      <c r="B162" s="129" t="s">
-        <v>285</v>
-      </c>
-      <c r="C162" s="135" t="s">
-        <v>178</v>
+      <c r="B162" s="96"/>
+      <c r="C162" s="134" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="117"/>
-      <c r="B163" s="130"/>
-      <c r="C163" s="136" t="s">
-        <v>318</v>
+      <c r="B163" s="127" t="s">
+        <v>285</v>
+      </c>
+      <c r="C163" s="133" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="117"/>
-      <c r="B164" s="130" t="s">
-        <v>289</v>
-      </c>
-      <c r="C164" s="136" t="s">
-        <v>315</v>
+      <c r="B164" s="128"/>
+      <c r="C164" s="134" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="117"/>
-      <c r="B165" s="130"/>
-      <c r="C165" s="136" t="s">
-        <v>316</v>
+      <c r="B165" s="128" t="s">
+        <v>289</v>
+      </c>
+      <c r="C165" s="134" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="117"/>
-      <c r="B166" s="130"/>
-      <c r="C166" s="136" t="s">
-        <v>338</v>
+      <c r="B166" s="128"/>
+      <c r="C166" s="134" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="117"/>
-      <c r="B167" s="131"/>
-      <c r="C167" s="137" t="s">
-        <v>187</v>
+      <c r="B167" s="128"/>
+      <c r="C167" s="134" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="117"/>
-      <c r="B168" s="130" t="s">
-        <v>285</v>
-      </c>
+      <c r="B168" s="129"/>
       <c r="C168" s="135" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="117"/>
-      <c r="B169" s="130"/>
-      <c r="C169" s="136" t="s">
-        <v>318</v>
+      <c r="B169" s="128" t="s">
+        <v>285</v>
+      </c>
+      <c r="C169" s="133" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="117"/>
-      <c r="B170" s="130" t="s">
-        <v>287</v>
-      </c>
-      <c r="C170" s="136" t="s">
-        <v>315</v>
+      <c r="B170" s="128"/>
+      <c r="C170" s="134" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="117"/>
-      <c r="B171" s="130"/>
-      <c r="C171" s="136" t="s">
-        <v>316</v>
+      <c r="B171" s="128" t="s">
+        <v>287</v>
+      </c>
+      <c r="C171" s="134" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="117"/>
-      <c r="B172" s="130"/>
-      <c r="C172" s="136" t="s">
-        <v>338</v>
+      <c r="B172" s="128"/>
+      <c r="C172" s="134" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="117"/>
-      <c r="B173" s="130"/>
-      <c r="C173" s="136" t="s">
-        <v>343</v>
+      <c r="B173" s="128"/>
+      <c r="C173" s="134" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="117"/>
-      <c r="B174" s="130"/>
-      <c r="C174" s="136" t="s">
-        <v>322</v>
+      <c r="B174" s="128"/>
+      <c r="C174" s="134" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="117"/>
-      <c r="B175" s="130"/>
-      <c r="C175" s="136" t="s">
-        <v>320</v>
+      <c r="B175" s="128"/>
+      <c r="C175" s="134" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="117"/>
-      <c r="B176" s="131"/>
-      <c r="C176" s="137" t="s">
-        <v>187</v>
+      <c r="B176" s="128"/>
+      <c r="C176" s="134" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="117"/>
+      <c r="B177" s="129"/>
+      <c r="C177" s="135" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="117"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B183" s="105" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="117"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B184" s="105" t="s">
         <v>398</v>
       </c>
-      <c r="C183" s="102" t="s">
+      <c r="C184" s="102" t="s">
         <v>318</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D184" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B184" s="112" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B185" s="112" t="s">
         <v>399</v>
       </c>
-      <c r="C184" s="102" t="s">
+      <c r="C185" s="102" t="s">
         <v>338</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D185" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B185" s="112"/>
-      <c r="C185" s="102" t="s">
-        <v>316</v>
-      </c>
-      <c r="D185" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B186" s="112"/>
       <c r="C186" s="102" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D186" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B187" s="112"/>
       <c r="C187" s="102" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D187" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B188" s="112"/>
       <c r="C188" s="102" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D188" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B189" s="112"/>
-      <c r="C189" s="118" t="s">
-        <v>302</v>
+      <c r="C189" s="102" t="s">
+        <v>322</v>
       </c>
       <c r="D189" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B190" s="112"/>
       <c r="C190" s="118" t="s">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c r="D190" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B191" s="112"/>
       <c r="C191" s="118" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D191" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B192" s="112"/>
       <c r="C192" s="118" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D192" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" s="112"/>
       <c r="C193" s="118" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D193" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B194" s="112"/>
       <c r="C194" s="118" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D194" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B195" s="112"/>
       <c r="C195" s="118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D195" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B196" s="112"/>
       <c r="C196" s="118" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D196" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B197" s="112"/>
-      <c r="C197" s="119" t="s">
-        <v>206</v>
+      <c r="C197" s="118" t="s">
+        <v>205</v>
       </c>
       <c r="D197" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B198" s="112"/>
-      <c r="C198" s="120" t="s">
-        <v>207</v>
+      <c r="C198" s="119" t="s">
+        <v>206</v>
       </c>
       <c r="D198" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B199" s="112"/>
       <c r="C199" s="120" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D199" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B200" s="112"/>
       <c r="C200" s="120" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D200" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B201" s="112"/>
       <c r="C201" s="120" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D201" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B202" s="112"/>
       <c r="C202" s="120" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D202" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B203" s="112"/>
-      <c r="C203" s="100" t="s">
-        <v>212</v>
+      <c r="C203" s="120" t="s">
+        <v>211</v>
       </c>
       <c r="D203" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B204" s="112"/>
       <c r="C204" s="100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D204" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B205" s="112"/>
       <c r="C205" s="100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D205" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B206" s="112"/>
-      <c r="C206" s="121" t="s">
-        <v>200</v>
+      <c r="C206" s="100" t="s">
+        <v>214</v>
       </c>
       <c r="D206" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B207" s="112"/>
       <c r="C207" s="121" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D207" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B208" s="112"/>
-      <c r="C208" s="120" t="s">
-        <v>200</v>
+      <c r="C208" s="121" t="s">
+        <v>211</v>
       </c>
       <c r="D208" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B209" s="112"/>
       <c r="C209" s="120" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D209" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B210" s="112"/>
-      <c r="C210" s="122" t="s">
-        <v>200</v>
+      <c r="C210" s="120" t="s">
+        <v>211</v>
       </c>
       <c r="D210" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B211" s="112"/>
       <c r="C211" s="122" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D211" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B212" s="112"/>
-      <c r="C212" s="123" t="s">
-        <v>207</v>
+      <c r="C212" s="122" t="s">
+        <v>211</v>
       </c>
       <c r="D212" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B213" s="112"/>
       <c r="C213" s="123" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D213" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B214" s="112"/>
       <c r="C214" s="123" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D214" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B215" s="112"/>
       <c r="C215" s="123" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D215" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B216" s="112"/>
-      <c r="C216" s="124" t="s">
-        <v>215</v>
+      <c r="C216" s="123" t="s">
+        <v>211</v>
       </c>
       <c r="D216" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B217" s="112"/>
       <c r="C217" s="124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D217" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B218" s="112"/>
-      <c r="C218" s="125" t="s">
-        <v>206</v>
+      <c r="C218" s="124" t="s">
+        <v>216</v>
       </c>
       <c r="D218" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B219" s="112"/>
       <c r="C219" s="125" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D219" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B220" s="112"/>
       <c r="C220" s="125" t="s">
+        <v>200</v>
+      </c>
+      <c r="D220" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B221" s="112"/>
+      <c r="C221" s="125" t="s">
         <v>208</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D221" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B221" s="21"/>
-      <c r="C221" s="125" t="s">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B222" s="21"/>
+      <c r="C222" s="125" t="s">
         <v>209</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D222" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B222" s="110"/>
-      <c r="C222" s="126"/>
-      <c r="D222" t="s">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B223" s="110"/>
+      <c r="C223" s="126"/>
+      <c r="D223" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B224" s="129" t="s">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B225" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="C224" s="135" t="s">
+      <c r="C225" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B225" s="130" t="s">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B226" s="128" t="s">
         <v>298</v>
       </c>
-      <c r="C225" s="136" t="s">
+      <c r="C226" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B226" s="130"/>
-      <c r="C226" s="136" t="s">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B227" s="128"/>
+      <c r="C227" s="134" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B227" s="131"/>
-      <c r="C227" s="137" t="s">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B228" s="129"/>
+      <c r="C228" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B228" s="129" t="s">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B229" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="C228" s="135" t="s">
+      <c r="C229" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B229" s="130" t="s">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B230" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="C229" s="136" t="s">
+      <c r="C230" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B230" s="130"/>
-      <c r="C230" s="136" t="s">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B231" s="128"/>
+      <c r="C231" s="134" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B231" s="130"/>
-      <c r="C231" s="136" t="s">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B232" s="128"/>
+      <c r="C232" s="134" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B232" s="130"/>
-      <c r="C232" s="136" t="s">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B233" s="128"/>
+      <c r="C233" s="134" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B233" s="130"/>
-      <c r="C233" s="136" t="s">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B234" s="128"/>
+      <c r="C234" s="134" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B234" s="130"/>
-      <c r="C234" s="136" t="s">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B235" s="128"/>
+      <c r="C235" s="134" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B235" s="130"/>
-      <c r="C235" s="136" t="s">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B236" s="128"/>
+      <c r="C236" s="134" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B236" s="130"/>
-      <c r="C236" s="136" t="s">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B237" s="128"/>
+      <c r="C237" s="134" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B237" s="130"/>
-      <c r="C237" s="136" t="s">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B238" s="128"/>
+      <c r="C238" s="134" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B238" s="130"/>
-      <c r="C238" s="136" t="s">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B239" s="128"/>
+      <c r="C239" s="134" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B239" s="130"/>
-      <c r="C239" s="136" t="s">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B240" s="128"/>
+      <c r="C240" s="134" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B240" s="131"/>
-      <c r="C240" s="137" t="s">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B241" s="129"/>
+      <c r="C241" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B241" s="129" t="s">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B242" s="127" t="s">
         <v>372</v>
       </c>
-      <c r="C241" s="135" t="s">
+      <c r="C242" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B242" s="130" t="s">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B243" s="128" t="s">
         <v>298</v>
       </c>
-      <c r="C242" s="136" t="s">
+      <c r="C243" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B243" s="130"/>
-      <c r="C243" s="136" t="s">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B244" s="128"/>
+      <c r="C244" s="134" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B244" s="131"/>
-      <c r="C244" s="137" t="s">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B245" s="129"/>
+      <c r="C245" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B245" s="129" t="s">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B246" s="127" t="s">
         <v>372</v>
       </c>
-      <c r="C245" s="135" t="s">
+      <c r="C246" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B246" s="130" t="s">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B247" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="C246" s="136" t="s">
+      <c r="C247" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B247" s="130"/>
-      <c r="C247" s="136" t="s">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B248" s="128"/>
+      <c r="C248" s="134" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B248" s="130"/>
-      <c r="C248" s="136" t="s">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B249" s="128"/>
+      <c r="C249" s="134" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B249" s="130"/>
-      <c r="C249" s="136" t="s">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B250" s="128"/>
+      <c r="C250" s="134" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B250" s="130"/>
-      <c r="C250" s="136" t="s">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B251" s="128"/>
+      <c r="C251" s="134" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B251" s="130"/>
-      <c r="C251" s="136" t="s">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B252" s="128"/>
+      <c r="C252" s="134" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B252" s="130"/>
-      <c r="C252" s="136" t="s">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B253" s="128"/>
+      <c r="C253" s="134" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B253" s="130"/>
-      <c r="C253" s="136" t="s">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B254" s="128"/>
+      <c r="C254" s="134" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B254" s="130"/>
-      <c r="C254" s="136" t="s">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B255" s="128"/>
+      <c r="C255" s="134" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B255" s="130"/>
-      <c r="C255" s="136" t="s">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B256" s="128"/>
+      <c r="C256" s="134" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B256" s="130"/>
-      <c r="C256" s="136" t="s">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B257" s="128"/>
+      <c r="C257" s="134" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B257" s="131"/>
-      <c r="C257" s="137" t="s">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B258" s="129"/>
+      <c r="C258" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B258" s="129" t="s">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B259" s="127" t="s">
         <v>373</v>
       </c>
-      <c r="C258" s="135" t="s">
+      <c r="C259" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B259" s="130" t="s">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B260" s="128" t="s">
         <v>298</v>
       </c>
-      <c r="C259" s="136" t="s">
+      <c r="C260" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B260" s="130"/>
-      <c r="C260" s="136" t="s">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B261" s="128"/>
+      <c r="C261" s="134" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B261" s="131"/>
-      <c r="C261" s="137" t="s">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B262" s="129"/>
+      <c r="C262" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B262" s="129" t="s">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B263" s="127" t="s">
         <v>373</v>
       </c>
-      <c r="C262" s="135" t="s">
+      <c r="C263" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B263" s="130" t="s">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B264" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="C263" s="136" t="s">
+      <c r="C264" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B264" s="130"/>
-      <c r="C264" s="136" t="s">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B265" s="128"/>
+      <c r="C265" s="134" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B265" s="130"/>
-      <c r="C265" s="136" t="s">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B266" s="128"/>
+      <c r="C266" s="134" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B266" s="130"/>
-      <c r="C266" s="136" t="s">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B267" s="128"/>
+      <c r="C267" s="134" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B267" s="130"/>
-      <c r="C267" s="136" t="s">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B268" s="128"/>
+      <c r="C268" s="134" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B268" s="130"/>
-      <c r="C268" s="136" t="s">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B269" s="128"/>
+      <c r="C269" s="134" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B269" s="130"/>
-      <c r="C269" s="136" t="s">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B270" s="128"/>
+      <c r="C270" s="134" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B270" s="130"/>
-      <c r="C270" s="136" t="s">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B271" s="128"/>
+      <c r="C271" s="134" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B271" s="130"/>
-      <c r="C271" s="136" t="s">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B272" s="128"/>
+      <c r="C272" s="134" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B272" s="131"/>
-      <c r="C272" s="137" t="s">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B273" s="129"/>
+      <c r="C273" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B273" s="129" t="s">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B274" s="127" t="s">
         <v>375</v>
       </c>
-      <c r="C273" s="135" t="s">
+      <c r="C274" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B274" s="130" t="s">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B275" s="128" t="s">
         <v>298</v>
       </c>
-      <c r="C274" s="136" t="s">
+      <c r="C275" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B275" s="130"/>
-      <c r="C275" s="136" t="s">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B276" s="128"/>
+      <c r="C276" s="134" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B276" s="131"/>
-      <c r="C276" s="137" t="s">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B277" s="129"/>
+      <c r="C277" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B277" s="129" t="s">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B278" s="127" t="s">
         <v>375</v>
       </c>
-      <c r="C277" s="135" t="s">
+      <c r="C278" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B278" s="130" t="s">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B279" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="C278" s="136" t="s">
+      <c r="C279" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B279" s="130"/>
-      <c r="C279" s="136" t="s">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B280" s="128"/>
+      <c r="C280" s="134" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B280" s="130"/>
-      <c r="C280" s="136" t="s">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B281" s="128"/>
+      <c r="C281" s="134" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B281" s="130"/>
-      <c r="C281" s="136" t="s">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B282" s="128"/>
+      <c r="C282" s="134" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B282" s="130"/>
-      <c r="C282" s="136" t="s">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B283" s="128"/>
+      <c r="C283" s="134" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B283" s="130"/>
-      <c r="C283" s="136" t="s">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B284" s="128"/>
+      <c r="C284" s="134" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B284" s="130"/>
-      <c r="C284" s="136" t="s">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B285" s="128"/>
+      <c r="C285" s="134" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B285" s="131"/>
-      <c r="C285" s="137" t="s">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B286" s="129"/>
+      <c r="C286" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B286" s="129" t="s">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B287" s="127" t="s">
         <v>377</v>
       </c>
-      <c r="C286" s="135" t="s">
+      <c r="C287" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B287" s="130" t="s">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B288" s="128" t="s">
         <v>298</v>
       </c>
-      <c r="C287" s="136" t="s">
+      <c r="C288" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B288" s="130"/>
-      <c r="C288" s="136" t="s">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B289" s="128"/>
+      <c r="C289" s="134" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B289" s="131"/>
-      <c r="C289" s="137" t="s">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B290" s="129"/>
+      <c r="C290" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B290" s="129" t="s">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B291" s="127" t="s">
         <v>377</v>
       </c>
-      <c r="C290" s="135" t="s">
+      <c r="C291" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B291" s="130" t="s">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B292" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="C291" s="136" t="s">
+      <c r="C292" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B292" s="130"/>
-      <c r="C292" s="136" t="s">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B293" s="128"/>
+      <c r="C293" s="134" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B293" s="130"/>
-      <c r="C293" s="136" t="s">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B294" s="128"/>
+      <c r="C294" s="134" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B294" s="130"/>
-      <c r="C294" s="136" t="s">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B295" s="128"/>
+      <c r="C295" s="134" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B295" s="130"/>
-      <c r="C295" s="136" t="s">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B296" s="128"/>
+      <c r="C296" s="134" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B296" s="130"/>
-      <c r="C296" s="136" t="s">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B297" s="128"/>
+      <c r="C297" s="134" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B297" s="130"/>
-      <c r="C297" s="136" t="s">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B298" s="128"/>
+      <c r="C298" s="134" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B298" s="131"/>
-      <c r="C298" s="137" t="s">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B299" s="129"/>
+      <c r="C299" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B299" s="129" t="s">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B300" s="127" t="s">
         <v>380</v>
       </c>
-      <c r="C299" s="135" t="s">
+      <c r="C300" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B300" s="130" t="s">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B301" s="128" t="s">
         <v>298</v>
       </c>
-      <c r="C300" s="136" t="s">
+      <c r="C301" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B301" s="130"/>
-      <c r="C301" s="136" t="s">
+    <row r="302" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B302" s="128"/>
+      <c r="C302" s="134" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B302" s="131"/>
-      <c r="C302" s="137" t="s">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B303" s="129"/>
+      <c r="C303" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B303" s="129" t="s">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B304" s="127" t="s">
         <v>380</v>
       </c>
-      <c r="C303" s="135" t="s">
+      <c r="C304" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B304" s="130" t="s">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B305" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="C304" s="136" t="s">
+      <c r="C305" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B305" s="130"/>
-      <c r="C305" s="136" t="s">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B306" s="128"/>
+      <c r="C306" s="134" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B306" s="130"/>
-      <c r="C306" s="136" t="s">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B307" s="128"/>
+      <c r="C307" s="134" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B307" s="130"/>
-      <c r="C307" s="136" t="s">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B308" s="128"/>
+      <c r="C308" s="134" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B308" s="130"/>
-      <c r="C308" s="136" t="s">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B309" s="128"/>
+      <c r="C309" s="134" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B309" s="131"/>
-      <c r="C309" s="137" t="s">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B310" s="129"/>
+      <c r="C310" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B311" s="129" t="s">
+    <row r="312" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B312" s="127" t="s">
         <v>381</v>
       </c>
-      <c r="C311" s="135" t="s">
+      <c r="C312" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B312" s="130" t="s">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B313" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="C312" s="136" t="s">
+      <c r="C313" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B313" s="130"/>
-      <c r="C313" s="136" t="s">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B314" s="128"/>
+      <c r="C314" s="134" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B314" s="131"/>
-      <c r="C314" s="137" t="s">
+    <row r="315" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B315" s="129"/>
+      <c r="C315" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B315" s="129" t="s">
+    <row r="316" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B316" s="127" t="s">
         <v>381</v>
       </c>
-      <c r="C315" s="135" t="s">
+      <c r="C316" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B316" s="130" t="s">
+    <row r="317" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B317" s="128" t="s">
         <v>311</v>
       </c>
-      <c r="C316" s="136" t="s">
+      <c r="C317" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B317" s="130"/>
-      <c r="C317" s="136" t="s">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B318" s="128"/>
+      <c r="C318" s="134" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B318" s="130"/>
-      <c r="C318" s="136" t="s">
+    <row r="319" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B319" s="128"/>
+      <c r="C319" s="134" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B319" s="130"/>
-      <c r="C319" s="136" t="s">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B320" s="128"/>
+      <c r="C320" s="134" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B320" s="130"/>
-      <c r="C320" s="136" t="s">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B321" s="128"/>
+      <c r="C321" s="134" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B321" s="130"/>
-      <c r="C321" s="136" t="s">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B322" s="128"/>
+      <c r="C322" s="134" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B322" s="130"/>
-      <c r="C322" s="136" t="s">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B323" s="128"/>
+      <c r="C323" s="134" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B323" s="130"/>
-      <c r="C323" s="136" t="s">
+    <row r="324" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B324" s="128"/>
+      <c r="C324" s="134" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B324" s="130"/>
-      <c r="C324" s="136" t="s">
+    <row r="325" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B325" s="128"/>
+      <c r="C325" s="134" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B325" s="130"/>
-      <c r="C325" s="136" t="s">
+    <row r="326" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B326" s="128"/>
+      <c r="C326" s="134" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B326" s="130"/>
-      <c r="C326" s="136" t="s">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B327" s="128"/>
+      <c r="C327" s="134" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B327" s="131"/>
-      <c r="C327" s="137" t="s">
+    <row r="328" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B328" s="129"/>
+      <c r="C328" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B328" s="129" t="s">
+    <row r="329" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B329" s="127" t="s">
         <v>382</v>
       </c>
-      <c r="C328" s="135" t="s">
+      <c r="C329" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B329" s="130" t="s">
+    <row r="330" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B330" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="C329" s="136" t="s">
+      <c r="C330" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B330" s="130"/>
-      <c r="C330" s="136" t="s">
+    <row r="331" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B331" s="128"/>
+      <c r="C331" s="134" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B331" s="131"/>
-      <c r="C331" s="137" t="s">
+    <row r="332" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B332" s="129"/>
+      <c r="C332" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B332" s="129" t="s">
+    <row r="333" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B333" s="127" t="s">
         <v>382</v>
       </c>
-      <c r="C332" s="135" t="s">
+      <c r="C333" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B333" s="130" t="s">
+    <row r="334" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B334" s="128" t="s">
         <v>311</v>
       </c>
-      <c r="C333" s="136" t="s">
+      <c r="C334" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B334" s="130"/>
-      <c r="C334" s="136" t="s">
+    <row r="335" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B335" s="128"/>
+      <c r="C335" s="134" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B335" s="130"/>
-      <c r="C335" s="136" t="s">
+    <row r="336" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B336" s="128"/>
+      <c r="C336" s="134" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B336" s="130"/>
-      <c r="C336" s="136" t="s">
+    <row r="337" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B337" s="128"/>
+      <c r="C337" s="134" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B337" s="130"/>
-      <c r="C337" s="136" t="s">
+    <row r="338" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B338" s="128"/>
+      <c r="C338" s="134" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B338" s="130"/>
-      <c r="C338" s="136" t="s">
+    <row r="339" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B339" s="128"/>
+      <c r="C339" s="134" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B339" s="130"/>
-      <c r="C339" s="136" t="s">
+    <row r="340" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B340" s="128"/>
+      <c r="C340" s="134" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B340" s="130"/>
-      <c r="C340" s="136" t="s">
+    <row r="341" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B341" s="128"/>
+      <c r="C341" s="134" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B341" s="130"/>
-      <c r="C341" s="136" t="s">
+    <row r="342" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B342" s="128"/>
+      <c r="C342" s="134" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B342" s="130"/>
-      <c r="C342" s="136" t="s">
+    <row r="343" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B343" s="128"/>
+      <c r="C343" s="134" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B343" s="130"/>
-      <c r="C343" s="136" t="s">
+    <row r="344" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B344" s="128"/>
+      <c r="C344" s="134" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B344" s="131"/>
-      <c r="C344" s="137" t="s">
+    <row r="345" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B345" s="129"/>
+      <c r="C345" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B345" s="129" t="s">
+    <row r="346" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B346" s="127" t="s">
         <v>383</v>
       </c>
-      <c r="C345" s="135" t="s">
+      <c r="C346" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B346" s="130" t="s">
+    <row r="347" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B347" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="C346" s="136" t="s">
+      <c r="C347" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B347" s="130"/>
-      <c r="C347" s="136" t="s">
+    <row r="348" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B348" s="128"/>
+      <c r="C348" s="134" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B348" s="131"/>
-      <c r="C348" s="137" t="s">
+    <row r="349" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B349" s="129"/>
+      <c r="C349" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B349" s="129" t="s">
+    <row r="350" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B350" s="127" t="s">
         <v>383</v>
       </c>
-      <c r="C349" s="135" t="s">
+      <c r="C350" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B350" s="130" t="s">
+    <row r="351" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B351" s="128" t="s">
         <v>311</v>
       </c>
-      <c r="C350" s="136" t="s">
+      <c r="C351" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B351" s="130"/>
-      <c r="C351" s="136" t="s">
+    <row r="352" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B352" s="128"/>
+      <c r="C352" s="134" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B352" s="130"/>
-      <c r="C352" s="136" t="s">
+    <row r="353" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B353" s="128"/>
+      <c r="C353" s="134" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B353" s="130"/>
-      <c r="C353" s="136" t="s">
+    <row r="354" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B354" s="128"/>
+      <c r="C354" s="134" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B354" s="130"/>
-      <c r="C354" s="136" t="s">
+    <row r="355" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B355" s="128"/>
+      <c r="C355" s="134" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B355" s="130"/>
-      <c r="C355" s="136" t="s">
+    <row r="356" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B356" s="128"/>
+      <c r="C356" s="134" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B356" s="130"/>
-      <c r="C356" s="136" t="s">
+    <row r="357" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B357" s="128"/>
+      <c r="C357" s="134" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B357" s="130"/>
-      <c r="C357" s="136" t="s">
+    <row r="358" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B358" s="128"/>
+      <c r="C358" s="134" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B358" s="130"/>
-      <c r="C358" s="136" t="s">
+    <row r="359" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B359" s="128"/>
+      <c r="C359" s="134" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B359" s="131"/>
-      <c r="C359" s="137" t="s">
+    <row r="360" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B360" s="129"/>
+      <c r="C360" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B360" s="129" t="s">
+    <row r="361" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B361" s="127" t="s">
         <v>384</v>
       </c>
-      <c r="C360" s="135" t="s">
+      <c r="C361" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B361" s="130" t="s">
+    <row r="362" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B362" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="C361" s="136" t="s">
+      <c r="C362" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B362" s="130"/>
-      <c r="C362" s="136" t="s">
+    <row r="363" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B363" s="128"/>
+      <c r="C363" s="134" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B363" s="131"/>
-      <c r="C363" s="137" t="s">
+    <row r="364" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B364" s="129"/>
+      <c r="C364" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B364" s="129" t="s">
+    <row r="365" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B365" s="127" t="s">
         <v>384</v>
       </c>
-      <c r="C364" s="135" t="s">
+      <c r="C365" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B365" s="130" t="s">
+    <row r="366" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B366" s="128" t="s">
         <v>311</v>
       </c>
-      <c r="C365" s="136" t="s">
+      <c r="C366" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B366" s="130"/>
-      <c r="C366" s="136" t="s">
+    <row r="367" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B367" s="128"/>
+      <c r="C367" s="134" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B367" s="130"/>
-      <c r="C367" s="136" t="s">
+    <row r="368" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B368" s="128"/>
+      <c r="C368" s="134" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B368" s="130"/>
-      <c r="C368" s="136" t="s">
+    <row r="369" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B369" s="128"/>
+      <c r="C369" s="134" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B369" s="130"/>
-      <c r="C369" s="136" t="s">
+    <row r="370" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B370" s="128"/>
+      <c r="C370" s="134" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B370" s="130"/>
-      <c r="C370" s="136" t="s">
+    <row r="371" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B371" s="128"/>
+      <c r="C371" s="134" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B371" s="130"/>
-      <c r="C371" s="136" t="s">
+    <row r="372" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B372" s="128"/>
+      <c r="C372" s="134" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B372" s="131"/>
-      <c r="C372" s="137" t="s">
+    <row r="373" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B373" s="129"/>
+      <c r="C373" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B373" s="129" t="s">
+    <row r="374" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B374" s="127" t="s">
         <v>385</v>
       </c>
-      <c r="C373" s="135" t="s">
+      <c r="C374" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B374" s="130" t="s">
+    <row r="375" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B375" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="C374" s="136" t="s">
+      <c r="C375" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B375" s="130"/>
-      <c r="C375" s="136" t="s">
+    <row r="376" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B376" s="128"/>
+      <c r="C376" s="134" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B376" s="131"/>
-      <c r="C376" s="137" t="s">
+    <row r="377" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B377" s="129"/>
+      <c r="C377" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B377" s="129" t="s">
+    <row r="378" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B378" s="127" t="s">
         <v>385</v>
       </c>
-      <c r="C377" s="135" t="s">
+      <c r="C378" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B378" s="130" t="s">
+    <row r="379" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B379" s="128" t="s">
         <v>311</v>
       </c>
-      <c r="C378" s="136" t="s">
+      <c r="C379" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B379" s="130"/>
-      <c r="C379" s="136" t="s">
+    <row r="380" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B380" s="128"/>
+      <c r="C380" s="134" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B380" s="130"/>
-      <c r="C380" s="136" t="s">
+    <row r="381" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B381" s="128"/>
+      <c r="C381" s="134" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B381" s="130"/>
-      <c r="C381" s="136" t="s">
+    <row r="382" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B382" s="128"/>
+      <c r="C382" s="134" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B382" s="130"/>
-      <c r="C382" s="136" t="s">
+    <row r="383" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B383" s="128"/>
+      <c r="C383" s="134" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B383" s="130"/>
-      <c r="C383" s="136" t="s">
+    <row r="384" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B384" s="128"/>
+      <c r="C384" s="134" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B384" s="130"/>
-      <c r="C384" s="136" t="s">
+    <row r="385" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B385" s="128"/>
+      <c r="C385" s="134" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B385" s="131"/>
-      <c r="C385" s="137" t="s">
+    <row r="386" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B386" s="129"/>
+      <c r="C386" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B386" s="129" t="s">
+    <row r="387" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B387" s="127" t="s">
         <v>386</v>
       </c>
-      <c r="C386" s="135" t="s">
+      <c r="C387" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B387" s="130" t="s">
+    <row r="388" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B388" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="C387" s="136" t="s">
+      <c r="C388" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B388" s="130"/>
-      <c r="C388" s="136" t="s">
+    <row r="389" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B389" s="128"/>
+      <c r="C389" s="134" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B389" s="131"/>
-      <c r="C389" s="137" t="s">
+    <row r="390" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B390" s="129"/>
+      <c r="C390" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B390" s="129" t="s">
+    <row r="391" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B391" s="127" t="s">
         <v>386</v>
       </c>
-      <c r="C390" s="135" t="s">
+      <c r="C391" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B391" s="130" t="s">
+    <row r="392" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B392" s="128" t="s">
         <v>311</v>
       </c>
-      <c r="C391" s="136" t="s">
+      <c r="C392" s="134" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B392" s="130"/>
-      <c r="C392" s="136" t="s">
+    <row r="393" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B393" s="128"/>
+      <c r="C393" s="134" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B393" s="130"/>
-      <c r="C393" s="136" t="s">
+    <row r="394" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B394" s="128"/>
+      <c r="C394" s="134" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B394" s="130"/>
-      <c r="C394" s="136" t="s">
+    <row r="395" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B395" s="128"/>
+      <c r="C395" s="134" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B395" s="130"/>
-      <c r="C395" s="136" t="s">
+    <row r="396" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B396" s="128"/>
+      <c r="C396" s="134" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B396" s="131"/>
-      <c r="C396" s="137" t="s">
+    <row r="397" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B397" s="129"/>
+      <c r="C397" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B398" s="129" t="s">
+    <row r="399" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B399" s="127" t="s">
         <v>393</v>
       </c>
-      <c r="C398" s="135" t="s">
+      <c r="C399" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B399" s="130"/>
-      <c r="C399" s="136" t="s">
+    <row r="400" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B400" s="128"/>
+      <c r="C400" s="134" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B400" s="130" t="s">
+    <row r="401" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B401" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="C400" s="136" t="s">
+      <c r="C401" s="134" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B401" s="130"/>
-      <c r="C401" s="136" t="s">
+    <row r="402" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B402" s="128"/>
+      <c r="C402" s="134" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B402" s="130"/>
-      <c r="C402" s="136" t="s">
+    <row r="403" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B403" s="128"/>
+      <c r="C403" s="134" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B403" s="129" t="s">
+    <row r="404" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B404" s="127" t="s">
         <v>393</v>
       </c>
-      <c r="C403" s="135" t="s">
+      <c r="C404" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B404" s="130"/>
-      <c r="C404" s="136" t="s">
+    <row r="405" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B405" s="128"/>
+      <c r="C405" s="134" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B405" s="130" t="s">
+    <row r="406" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B406" s="128" t="s">
         <v>311</v>
       </c>
-      <c r="C405" s="136" t="s">
+      <c r="C406" s="134" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B406" s="130"/>
-      <c r="C406" s="136" t="s">
+    <row r="407" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B407" s="128"/>
+      <c r="C407" s="134" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B407" s="131"/>
-      <c r="C407" s="137" t="s">
+    <row r="408" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B408" s="129"/>
+      <c r="C408" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B408" s="129" t="s">
+    <row r="409" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B409" s="127" t="s">
         <v>283</v>
       </c>
-      <c r="C408" s="135" t="s">
+      <c r="C409" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B409" s="130"/>
-      <c r="C409" s="136" t="s">
+    <row r="410" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B410" s="128"/>
+      <c r="C410" s="134" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B410" s="130" t="s">
+    <row r="411" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B411" s="128" t="s">
         <v>289</v>
       </c>
-      <c r="C410" s="136" t="s">
+      <c r="C411" s="134" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B411" s="130"/>
-      <c r="C411" s="136" t="s">
+    <row r="412" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B412" s="128"/>
+      <c r="C412" s="134" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B412" s="130"/>
-      <c r="C412" s="136" t="s">
+    <row r="413" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B413" s="128"/>
+      <c r="C413" s="134" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B413" s="130"/>
-      <c r="C413" s="136" t="s">
+    <row r="414" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B414" s="128"/>
+      <c r="C414" s="134" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B414" s="130"/>
-      <c r="C414" s="136" t="s">
+    <row r="415" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B415" s="128"/>
+      <c r="C415" s="134" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B415" s="130"/>
-      <c r="C415" s="137" t="s">
+    <row r="416" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B416" s="128"/>
+      <c r="C416" s="135" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B416" s="129" t="s">
+    <row r="417" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B417" s="127" t="s">
         <v>283</v>
       </c>
-      <c r="C416" s="135" t="s">
+      <c r="C417" s="133" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B417" s="130"/>
-      <c r="C417" s="136" t="s">
+    <row r="418" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B418" s="128"/>
+      <c r="C418" s="134" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B418" s="130" t="s">
+    <row r="419" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B419" s="128" t="s">
         <v>294</v>
       </c>
-      <c r="C418" s="136" t="s">
+      <c r="C419" s="134" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B419" s="130"/>
-      <c r="C419" s="136" t="s">
+    <row r="420" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B420" s="128"/>
+      <c r="C420" s="134" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B420" s="130"/>
-      <c r="C420" s="136" t="s">
+    <row r="421" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B421" s="128"/>
+      <c r="C421" s="134" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B421" s="130"/>
-      <c r="C421" s="136" t="s">
+    <row r="422" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B422" s="128"/>
+      <c r="C422" s="134" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B422" s="131"/>
-      <c r="C422" s="137" t="s">
+    <row r="423" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B423" s="129"/>
+      <c r="C423" s="135" t="s">
         <v>187</v>
       </c>
     </row>

--- a/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
+++ b/FW/Hau/mem_map_data_trans/mega2560_8in_8out.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\Indruino-Iot-Project\FW\Hau\mem_map_data_trans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ute\Lab_project\git_Indruino\IOT_ESP32\Indruino-Iot-Project\FW\Hau\mem_map_data_trans\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99F1341-D7D2-440A-86FE-AD7FDFFC2202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mega" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="file chung" sheetId="3" r:id="rId3"/>
     <sheet name="TOPIC_MQTT" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1246,7 +1247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1792,13 +1793,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>643602</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>89454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>855872</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>81835</xdr:rowOff>
@@ -1930,13 +1931,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>42199</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>131590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>552739</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>87726</xdr:rowOff>
@@ -2677,13 +2678,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>651095</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>131077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>740229</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>162645</xdr:rowOff>
@@ -2817,13 +2818,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>662109</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>24334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>816428</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>96051</xdr:rowOff>
@@ -2982,13 +2983,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>690922</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>77483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>881743</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>43415</xdr:rowOff>
@@ -6517,3165 +6518,3345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC99"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V68" sqref="V68"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="13" max="19" width="13.33203125" customWidth="1"/>
-    <col min="20" max="20" width="20" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5546875" customWidth="1"/>
-    <col min="26" max="26" width="14.5546875" customWidth="1"/>
-    <col min="27" max="27" width="10.33203125" customWidth="1"/>
-    <col min="28" max="28" width="6.109375" customWidth="1"/>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="14" max="20" width="13.33203125" customWidth="1"/>
+    <col min="21" max="21" width="20" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5546875" customWidth="1"/>
+    <col min="27" max="27" width="14.5546875" customWidth="1"/>
+    <col min="28" max="28" width="10.33203125" customWidth="1"/>
+    <col min="29" max="29" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="B1" s="136" t="s">
+    <row r="1" spans="1:27" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="C1" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="S1" s="46" t="s">
+      <c r="D1" s="136"/>
+      <c r="T1" s="46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="S2" s="5" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="T2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="Q3" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="R3" t="s">
         <v>139</v>
       </c>
-      <c r="R3" s="43"/>
-      <c r="S3" s="1">
+      <c r="S3" s="43"/>
+      <c r="T3" s="1">
         <v>0</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>65535</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
-        <v>65535</v>
-      </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>140</v>
       </c>
-      <c r="R4" s="43"/>
-      <c r="S4" s="1">
-        <f t="shared" ref="S4:S11" si="0">T3+S3</f>
-        <v>2</v>
-      </c>
-      <c r="T4" s="60">
+      <c r="S4" s="43"/>
+      <c r="T4" s="1">
+        <f t="shared" ref="T4:T11" si="0">U3+T3</f>
         <v>1</v>
       </c>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="60">
+        <v>1</v>
+      </c>
+      <c r="V4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="V4" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="60" t="s">
+      <c r="W4" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60" t="s">
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <f>INT(C5/2)</f>
         <v>0</v>
       </c>
       <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>141</v>
       </c>
-      <c r="R5" s="43"/>
-      <c r="S5" s="1">
+      <c r="S5" s="43"/>
+      <c r="T5" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B49" si="1">INT(C6/2)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="20">
+        <f>D5+C5</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" t="s">
+        <v>219</v>
+      </c>
+      <c r="S6" s="43"/>
+      <c r="T6" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U6" s="1">
         <v>1</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="20">
-        <f>C5+B5</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="V6" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>219</v>
-      </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="T6" s="1">
-        <v>1</v>
-      </c>
-      <c r="U6" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W6" s="1">
-        <v>4</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1" t="s">
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="15">
-        <f t="shared" ref="B7:B15" si="1">C6+B6</f>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <f t="shared" ref="C7:C15" si="2">D6+C6</f>
         <v>2</v>
       </c>
-      <c r="C7" s="15">
-        <v>2</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="15">
+      <c r="G7" s="15">
         <v>0</v>
       </c>
-      <c r="G7" s="15">
+      <c r="H7" s="15">
         <v>65535</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>221</v>
       </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="1">
+      <c r="S7" s="43"/>
+      <c r="T7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" t="s">
+        <v>218</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="T8" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U8" s="1">
         <v>1</v>
       </c>
-      <c r="U7" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W7" s="1">
+      <c r="V8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="15">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>218</v>
-      </c>
-      <c r="R8" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="S8" s="1">
+      <c r="E9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="R9" t="s">
+        <v>220</v>
+      </c>
+      <c r="S9" s="40"/>
+      <c r="T9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U9" s="1">
         <v>1</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="15">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="15">
+        <v>4</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" t="s">
+        <v>222</v>
+      </c>
+      <c r="S10" s="40"/>
+      <c r="T10" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" t="s">
+        <v>228</v>
+      </c>
+      <c r="S11" s="40"/>
+      <c r="T11" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="U11" s="17">
+        <v>2</v>
+      </c>
+      <c r="V11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="W11" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="1">
-        <v>50</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="15">
+      <c r="F12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12" t="s">
+        <v>229</v>
+      </c>
+      <c r="S12" s="40"/>
+      <c r="T12" s="17">
+        <f t="shared" ref="T12:T19" si="3">U11+T11</f>
+        <v>10</v>
+      </c>
+      <c r="U12" s="17">
+        <v>2</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="15">
+        <v>4</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13" t="s">
+        <v>230</v>
+      </c>
+      <c r="S13" s="40"/>
+      <c r="T13" s="17">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="U13" s="17">
+        <v>2</v>
+      </c>
+      <c r="V13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="W13" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C14" s="15">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14" t="s">
+        <v>231</v>
+      </c>
+      <c r="S14" s="40"/>
+      <c r="T14" s="17">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="U14" s="17">
+        <v>2</v>
+      </c>
+      <c r="V14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W14" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>220</v>
-      </c>
-      <c r="R9" s="40"/>
-      <c r="S9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="T9" s="1">
-        <v>1</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W9" s="1">
-        <v>4</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="15">
+      <c r="C15" s="15">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="R15" t="s">
+        <v>232</v>
+      </c>
+      <c r="S15" s="40"/>
+      <c r="T15" s="17">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="U15" s="17">
+        <v>2</v>
+      </c>
+      <c r="V15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="W15" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="15">
-        <v>4</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>222</v>
-      </c>
-      <c r="R10" s="40"/>
-      <c r="S10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="T10" s="1">
-        <v>1</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10" s="1">
-        <v>1</v>
-      </c>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B11" s="15">
+      <c r="C16" s="15">
+        <f t="shared" ref="C16:C23" si="4">D15+C15</f>
+        <v>12</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="R16" t="s">
+        <v>233</v>
+      </c>
+      <c r="S16" s="40"/>
+      <c r="T16" s="17">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="U16" s="17">
+        <v>2</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="W16" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>228</v>
-      </c>
-      <c r="R11" s="40"/>
-      <c r="S11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="T11" s="17">
+      <c r="C17" s="15">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="D17" s="15">
         <v>2</v>
       </c>
-      <c r="U11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="V11" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W11" s="17"/>
-      <c r="X11" s="77" t="s">
+      <c r="E17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B12" s="15">
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="R17" t="s">
+        <v>234</v>
+      </c>
+      <c r="S17" s="40"/>
+      <c r="T17" s="17">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="U17" s="17">
+        <v>2</v>
+      </c>
+      <c r="V17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="15">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>229</v>
-      </c>
-      <c r="R12" s="40"/>
-      <c r="S12" s="17">
-        <f t="shared" ref="S12:S19" si="2">T11+S11</f>
-        <v>11</v>
-      </c>
-      <c r="T12" s="17">
+      <c r="C18" s="15">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D18" s="15">
         <v>2</v>
       </c>
-      <c r="U12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="V12" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W12" s="17"/>
-      <c r="X12" s="77" t="s">
+      <c r="E18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B13" s="15">
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="R18" t="s">
+        <v>235</v>
+      </c>
+      <c r="S18" s="40"/>
+      <c r="T18" s="78">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="U18" s="78">
+        <v>2</v>
+      </c>
+      <c r="V18" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="W18" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C19" s="15">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="D19" s="15">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="R19" t="s">
+        <v>223</v>
+      </c>
+      <c r="S19" s="40"/>
+      <c r="T19" s="78">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="U19" s="82">
         <v>1</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="15">
-        <v>4</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>230</v>
-      </c>
-      <c r="R13" s="40"/>
-      <c r="S13" s="17">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="T13" s="17">
-        <v>2</v>
-      </c>
-      <c r="U13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="V13" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W13" s="17"/>
-      <c r="X13" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="V19" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="W19" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC19" s="24"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="15">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="15">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>231</v>
-      </c>
-      <c r="R14" s="40"/>
-      <c r="S14" s="17">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="T14" s="17">
+      <c r="C20" s="15">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="D20" s="15">
         <v>2</v>
       </c>
-      <c r="U14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="V14" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="17"/>
-      <c r="X14" s="77" t="s">
+      <c r="E20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" s="15">
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="W20" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="25"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C21" s="15">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="D21" s="15">
         <v>2</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="47" t="s">
+      <c r="E21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="Q15" t="s">
-        <v>232</v>
-      </c>
-      <c r="R15" s="40"/>
-      <c r="S15" s="17">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="T15" s="17">
-        <v>2</v>
-      </c>
-      <c r="U15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="V15" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="17"/>
-      <c r="X15" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" s="15">
-        <f t="shared" ref="B16:B23" si="3">C15+B15</f>
-        <v>13</v>
-      </c>
-      <c r="C16" s="15">
-        <v>2</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="Q16" t="s">
-        <v>233</v>
-      </c>
-      <c r="R16" s="40"/>
-      <c r="S16" s="17">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="T16" s="17">
-        <v>2</v>
-      </c>
-      <c r="U16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="V16" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W16" s="17"/>
-      <c r="X16" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" s="15">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="15">
-        <v>2</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="Q17" t="s">
-        <v>234</v>
-      </c>
-      <c r="R17" s="40"/>
-      <c r="S17" s="17">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="T17" s="17">
-        <v>2</v>
-      </c>
-      <c r="U17" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="V17" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W17" s="17"/>
-      <c r="X17" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" s="15">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="C18" s="15">
-        <v>2</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="Q18" t="s">
-        <v>235</v>
-      </c>
-      <c r="R18" s="40"/>
-      <c r="S18" s="78">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="T18" s="78">
-        <v>2</v>
-      </c>
-      <c r="U18" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="V18" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="17"/>
-      <c r="X18" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>232</v>
-      </c>
-      <c r="B19" s="15">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="C19" s="15">
-        <v>2</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="Q19" t="s">
-        <v>223</v>
-      </c>
-      <c r="R19" s="40"/>
-      <c r="S19" s="78">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="T19" s="82">
-        <v>1</v>
-      </c>
-      <c r="U19" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="V19" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17" t="s">
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="W21" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB19" s="24"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="15">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="C20" s="15">
-        <v>2</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="V20" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="25"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" s="15">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="C21" s="15">
-        <v>2</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="V21" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="25"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="25"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>235</v>
       </c>
-      <c r="B22" s="15">
-        <f t="shared" si="3"/>
-        <v>25</v>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="C22" s="15">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="D22" s="15">
         <v>2</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="E22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="47" t="s">
+      <c r="F22" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="15"/>
       <c r="I22" s="15"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="78" t="s">
+      <c r="J22" s="15"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="V22" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17" t="s">
+      <c r="W22" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="25"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="25"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>223</v>
       </c>
-      <c r="B23" s="15">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="C23" s="48">
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C23" s="15">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="D23" s="48">
         <v>1</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="E23" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="34" t="s">
+      <c r="J23" s="15"/>
+      <c r="K23" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="24"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="78" t="s">
+      <c r="L23" s="24"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="V23" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17" t="s">
+      <c r="W23" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="25" t="s">
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B24" s="15"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="15" t="s">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="25"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="78" t="s">
+      <c r="J24" s="15"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="25"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="V24" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17" t="s">
+      <c r="W24" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="25"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="15" t="s">
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="25"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="25"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="78" t="s">
+      <c r="J25" s="15"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="25"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17" t="s">
+      <c r="W25" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="25"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="15" t="s">
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="25"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="15"/>
+      <c r="F26" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="25"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="78" t="s">
+      <c r="J26" s="15"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="25"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="V26" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17" t="s">
+      <c r="W26" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="Y26" s="17"/>
       <c r="Z26" s="17"/>
-      <c r="AA26" s="35" t="s">
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="AB26" s="26"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B27" s="15"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="15" t="s">
+      <c r="AC26" s="26"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="15"/>
+      <c r="F27" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="25" t="s">
+      <c r="J27" s="15"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>224</v>
       </c>
-      <c r="R27" s="40"/>
-      <c r="S27" s="78">
-        <f>T19+S19</f>
-        <v>26</v>
-      </c>
-      <c r="T27" s="82">
+      <c r="S27" s="40"/>
+      <c r="T27" s="78">
+        <f>U19+T19</f>
+        <v>25</v>
+      </c>
+      <c r="U27" s="82">
         <v>1</v>
       </c>
-      <c r="U27" s="78" t="s">
+      <c r="V27" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="V27" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17" t="s">
+      <c r="W27" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
-      <c r="AA27" s="34" t="s">
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="AB27" s="24"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B28" s="15"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="15" t="s">
+      <c r="AC27" s="24"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="25"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="78" t="s">
+      <c r="J28" s="15"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="25"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="V28" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17" t="s">
+      <c r="W28" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="25"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="15" t="s">
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="25"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="15"/>
+      <c r="F29" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="25"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="78" t="s">
+      <c r="J29" s="15"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="25"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="V29" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17" t="s">
+      <c r="W29" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="Y29" s="17"/>
       <c r="Z29" s="17"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="25"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B30" s="15"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="15" t="s">
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="25"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="15"/>
+      <c r="F30" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="26"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="78" t="s">
+      <c r="J30" s="15"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="26"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="V30" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17" t="s">
+      <c r="W30" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="25"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="25"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>224</v>
       </c>
-      <c r="B31" s="15">
-        <f>C23+B23</f>
-        <v>28</v>
-      </c>
-      <c r="C31" s="48">
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C31" s="15">
+        <f>D23+C23</f>
+        <v>27</v>
+      </c>
+      <c r="D31" s="48">
         <v>1</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="E31" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="15"/>
+      <c r="F31" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="25"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="78" t="s">
+      <c r="J31" s="15"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="25"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="83"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="V31" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17" t="s">
+      <c r="W31" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="25" t="s">
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="15" t="s">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="15"/>
+      <c r="F32" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="25"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="83"/>
-      <c r="T32" s="82"/>
-      <c r="U32" s="78" t="s">
+      <c r="J32" s="15"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="25"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="83"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="V32" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17" t="s">
+      <c r="W32" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="25"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="15" t="s">
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="25"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="15"/>
+      <c r="F33" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="25"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="83"/>
-      <c r="T33" s="82"/>
-      <c r="U33" s="78" t="s">
+      <c r="J33" s="15"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="25"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="83"/>
+      <c r="U33" s="82"/>
+      <c r="V33" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="V33" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17" t="s">
+      <c r="W33" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="25"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="15" t="s">
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="25"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="15"/>
+      <c r="F34" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="25" t="s">
+      <c r="J34" s="15"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="R34" s="42"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="82"/>
-      <c r="U34" s="78" t="s">
+      <c r="S34" s="42"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="V34" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17" t="s">
+      <c r="W34" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
-      <c r="AA34" s="35" t="s">
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="AB34" s="26"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B35" s="15"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="15" t="s">
+      <c r="AC34" s="26"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="15"/>
+      <c r="F35" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="25"/>
-      <c r="Q35" t="s">
+      <c r="J35" s="15"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="25"/>
+      <c r="R35" t="s">
         <v>240</v>
       </c>
-      <c r="R35" s="42">
+      <c r="S35" s="42">
         <v>0</v>
       </c>
-      <c r="S35" s="45">
-        <f>T27+S27</f>
-        <v>27</v>
-      </c>
-      <c r="T35" s="1">
+      <c r="T35" s="45">
+        <f>U27+T27</f>
+        <v>26</v>
+      </c>
+      <c r="U35" s="1">
         <v>1</v>
       </c>
-      <c r="U35" s="1" t="s">
+      <c r="V35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20" t="s">
+      <c r="W35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="9" t="s">
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B36" s="15"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="15" t="s">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="25"/>
-      <c r="Q36" t="s">
+      <c r="J36" s="15"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="25"/>
+      <c r="R36" t="s">
         <v>241</v>
       </c>
-      <c r="R36" s="42">
-        <f>R35+T35</f>
+      <c r="S36" s="42">
+        <f>S35+U35</f>
         <v>1</v>
       </c>
-      <c r="S36" s="4">
-        <f>S35+T35</f>
-        <v>28</v>
-      </c>
-      <c r="T36" s="1">
+      <c r="T36" s="4">
+        <f>T35+U35</f>
+        <v>27</v>
+      </c>
+      <c r="U36" s="1">
         <v>1</v>
       </c>
-      <c r="U36" s="1" t="s">
+      <c r="V36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20" t="s">
+      <c r="W36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="9"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B37" s="15"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="15" t="s">
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="9"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="15"/>
+      <c r="F37" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="25"/>
-      <c r="Q37" t="s">
+      <c r="J37" s="15"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="25"/>
+      <c r="R37" t="s">
         <v>242</v>
       </c>
-      <c r="R37" s="42">
-        <f t="shared" ref="R37:R39" si="4">R36+T36</f>
+      <c r="S37" s="42">
+        <f t="shared" ref="S37:S39" si="5">S36+U36</f>
         <v>2</v>
       </c>
-      <c r="S37" s="4">
-        <f t="shared" ref="S37:S83" si="5">S36+T36</f>
-        <v>29</v>
-      </c>
-      <c r="T37" s="1">
+      <c r="T37" s="4">
+        <f t="shared" ref="T37:T83" si="6">T36+U36</f>
+        <v>28</v>
+      </c>
+      <c r="U37" s="1">
         <v>1</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="V37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W37" s="20"/>
-      <c r="X37" s="94" t="s">
+      <c r="W37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="9"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B38" s="15"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="15" t="s">
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="9"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E38" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="15"/>
+      <c r="F38" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
-      <c r="J38" s="36" t="s">
+      <c r="J38" s="15"/>
+      <c r="K38" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="K38" s="26"/>
-      <c r="Q38" t="s">
+      <c r="L38" s="26"/>
+      <c r="R38" t="s">
         <v>244</v>
       </c>
-      <c r="R38" s="42">
-        <f t="shared" si="4"/>
+      <c r="S38" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="S38" s="4">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="T38" s="1">
+      <c r="T38" s="4">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="U38" s="1">
         <v>1</v>
       </c>
-      <c r="U38" s="1" t="s">
+      <c r="V38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20" t="s">
+      <c r="W38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="9"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="9"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="7">
-        <f>B31+C31</f>
-        <v>29</v>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="C39" s="7">
+        <f>C31+D31</f>
+        <v>28</v>
+      </c>
+      <c r="D39" s="7">
         <v>1</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="7">
+      <c r="F39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="7">
         <v>0</v>
       </c>
-      <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="Q39" t="s">
+      <c r="J39" s="7"/>
+      <c r="R39" t="s">
         <v>243</v>
       </c>
-      <c r="R39" s="42">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="S39" s="4">
+      <c r="S39" s="42">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="T39" s="1">
+        <v>4</v>
+      </c>
+      <c r="T39" s="4">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="U39" s="1">
         <v>10</v>
       </c>
-      <c r="U39" s="1" t="s">
+      <c r="V39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W39" s="20"/>
+      <c r="W39" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
-      <c r="Z39" s="10"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="10"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="7">
-        <f t="shared" ref="B40:B49" si="6">C39+B39</f>
-        <v>30</v>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="C40" s="7">
+        <f t="shared" ref="C40:C49" si="7">D39+C39</f>
+        <v>29</v>
+      </c>
+      <c r="D40" s="7">
         <v>2</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7" t="s">
+      <c r="F40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="R40" s="42">
+      <c r="J40" s="7"/>
+      <c r="S40" s="42">
         <v>0</v>
       </c>
-      <c r="S40" s="4">
-        <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-      <c r="T40" s="1">
+      <c r="T40" s="4">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="U40" s="1">
         <v>1</v>
       </c>
-      <c r="U40" s="1" t="s">
+      <c r="V40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20" t="s">
+      <c r="W40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="11" t="s">
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>153</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C41" s="7">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="S41" s="42">
+        <f t="shared" ref="S41:S84" si="8">S40+U40</f>
+        <v>1</v>
+      </c>
+      <c r="T41" s="4">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="C41" s="7">
+        <v>41</v>
+      </c>
+      <c r="U41" s="1">
         <v>1</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="R41" s="42">
-        <f t="shared" ref="R41:R84" si="7">R40+T40</f>
-        <v>1</v>
-      </c>
-      <c r="S41" s="4">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="T41" s="1">
-        <v>1</v>
-      </c>
-      <c r="U41" s="1" t="s">
+      <c r="V41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20" t="s">
+      <c r="W41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="9"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="9"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C42" s="7">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="S42" s="42">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T42" s="4">
         <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="C42" s="7">
+        <v>42</v>
+      </c>
+      <c r="U42" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="R42" s="42">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S42" s="4">
-        <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-      <c r="T42" s="1">
-        <v>1</v>
-      </c>
-      <c r="U42" s="1" t="s">
+      <c r="V42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W42" s="20"/>
-      <c r="X42" s="94" t="s">
+      <c r="W42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="9"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="9"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C43" s="7">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="S43" s="42">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="T43" s="4">
         <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="C43" s="7">
+        <v>43</v>
+      </c>
+      <c r="U43" s="1">
         <v>1</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="R43" s="42">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="S43" s="4">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="T43" s="1">
-        <v>1</v>
-      </c>
-      <c r="U43" s="1" t="s">
+      <c r="V43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20" t="s">
+      <c r="W43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="9"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="9"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C44" s="7">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="S44" s="42">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="T44" s="4">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U44" s="1">
         <v>10</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="R44" s="42">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="S44" s="4">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="T44" s="1">
-        <v>10</v>
-      </c>
-      <c r="U44" s="1" t="s">
+      <c r="V44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W44" s="20"/>
+      <c r="W44" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
-      <c r="Z44" s="10"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="10"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>156</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C45" s="7">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="S45" s="42">
+        <v>0</v>
+      </c>
+      <c r="T45" s="4">
         <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="C45" s="7">
+        <v>54</v>
+      </c>
+      <c r="U45" s="1">
         <v>1</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="R45" s="42">
-        <v>0</v>
-      </c>
-      <c r="S45" s="4">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="T45" s="1">
-        <v>1</v>
-      </c>
-      <c r="U45" s="1" t="s">
+      <c r="V45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20" t="s">
+      <c r="W45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="11" t="s">
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C46" s="7">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="S46" s="42">
+        <f t="shared" ref="S46" si="9">S45+U45</f>
+        <v>1</v>
+      </c>
+      <c r="T46" s="4">
         <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="C46" s="7">
+        <v>55</v>
+      </c>
+      <c r="U46" s="1">
         <v>1</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7" t="s">
+      <c r="V46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="R46" s="42">
-        <f t="shared" ref="R46" si="8">R45+T45</f>
-        <v>1</v>
-      </c>
-      <c r="S46" s="4">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="T46" s="1">
-        <v>1</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W46" s="20"/>
-      <c r="X46" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="9"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="9"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C47" s="7">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="S47" s="42">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T47" s="4">
         <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="C47" s="7">
+        <v>56</v>
+      </c>
+      <c r="U47" s="1">
         <v>1</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="R47" s="42">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S47" s="4">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="T47" s="1">
-        <v>1</v>
-      </c>
-      <c r="U47" s="1" t="s">
+      <c r="V47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W47" s="20"/>
-      <c r="X47" s="94" t="s">
+      <c r="W47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="9"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="9"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="7">
-        <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="C48" s="8">
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C48" s="7">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="D48" s="8">
         <v>10</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="R48" s="42">
-        <f t="shared" si="7"/>
+      <c r="J48" s="7"/>
+      <c r="S48" s="42">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="S48" s="4">
-        <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="T48" s="1">
+      <c r="T48" s="4">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="U48" s="1">
         <v>1</v>
       </c>
-      <c r="U48" s="1" t="s">
+      <c r="V48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20" t="s">
+      <c r="W48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="9"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="9"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>239</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C49" s="7">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="D49" s="6">
+        <v>20</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="37"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="S49" s="42">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="T49" s="4">
         <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="C49" s="6">
-        <v>20</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="R49" s="42">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="S49" s="4">
-        <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="T49" s="1">
+        <v>58</v>
+      </c>
+      <c r="U49" s="1">
         <v>10</v>
       </c>
-      <c r="U49" s="1" t="s">
+      <c r="V49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W49" s="20"/>
+      <c r="W49" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
-      <c r="Z49" s="10"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="R50" s="42">
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="10"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S50" s="42">
         <v>0</v>
       </c>
-      <c r="S50" s="4">
-        <f t="shared" si="5"/>
+      <c r="T50" s="4">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="U50" s="1">
+        <v>1</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C51" s="79">
+        <f>SUM(D5:D49)</f>
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>96</v>
+      </c>
+      <c r="S51" s="42">
+        <f t="shared" ref="S51" si="10">S50+U50</f>
+        <v>1</v>
+      </c>
+      <c r="T51" s="4">
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="T50" s="1">
+      <c r="U51" s="1">
         <v>1</v>
       </c>
-      <c r="U50" s="1" t="s">
+      <c r="V51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="9"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S52" s="42">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T52" s="4">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="U52" s="1">
+        <v>1</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="9"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S53" s="42">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="T53" s="4">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="U53" s="1">
+        <v>1</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="9"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S54" s="42">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="T54" s="4">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="U54" s="1">
         <v>10</v>
       </c>
-      <c r="V50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W50" s="20"/>
-      <c r="X50" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y50" s="20"/>
-      <c r="Z50" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B51" s="79">
-        <f>SUM(C5:C49)</f>
-        <v>69</v>
-      </c>
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
-      <c r="R51" s="42">
-        <f t="shared" ref="R51" si="9">R50+T50</f>
-        <v>1</v>
-      </c>
-      <c r="S51" s="4">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="T51" s="1">
-        <v>1</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="9"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="R52" s="42">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S52" s="4">
-        <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="T52" s="1">
-        <v>1</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W52" s="20"/>
-      <c r="X52" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y52" s="20"/>
-      <c r="Z52" s="9"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="R53" s="42">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="S53" s="4">
-        <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="T53" s="1">
-        <v>1</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W53" s="20"/>
-      <c r="X53" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y53" s="20"/>
-      <c r="Z53" s="9"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="R54" s="42">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="S54" s="4">
-        <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="T54" s="1">
-        <v>10</v>
-      </c>
-      <c r="U54" s="1" t="s">
+      <c r="V54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W54" s="20"/>
+      <c r="W54" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
-      <c r="Z54" s="10"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="R55" s="42">
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="10"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S55" s="42">
         <v>0</v>
       </c>
-      <c r="S55" s="4">
-        <f t="shared" si="5"/>
+      <c r="T55" s="4">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="U55" s="1">
+        <v>1</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S56" s="42">
+        <f t="shared" ref="S56" si="11">S55+U55</f>
+        <v>1</v>
+      </c>
+      <c r="T56" s="4">
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="T55" s="1">
+      <c r="U56" s="1">
         <v>1</v>
       </c>
-      <c r="U55" s="1" t="s">
+      <c r="V56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="9"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S57" s="42">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T57" s="4">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="U57" s="1">
+        <v>1</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="9"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S58" s="42">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="T58" s="4">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="U58" s="1">
+        <v>1</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z58" s="20"/>
+      <c r="AA58" s="9"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C59" s="32"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="29"/>
+      <c r="S59" s="42">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="T59" s="4">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="U59" s="1">
         <v>10</v>
       </c>
-      <c r="V55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W55" s="20"/>
-      <c r="X55" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y55" s="20"/>
-      <c r="Z55" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="R56" s="42">
-        <f t="shared" ref="R56" si="10">R55+T55</f>
-        <v>1</v>
-      </c>
-      <c r="S56" s="4">
-        <f t="shared" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="T56" s="1">
-        <v>1</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W56" s="20"/>
-      <c r="X56" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y56" s="20"/>
-      <c r="Z56" s="9"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="R57" s="42">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S57" s="4">
-        <f t="shared" si="5"/>
-        <v>85</v>
-      </c>
-      <c r="T57" s="1">
-        <v>1</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V57" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W57" s="20"/>
-      <c r="X57" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y57" s="20"/>
-      <c r="Z57" s="9"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="R58" s="42">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="S58" s="4">
-        <f t="shared" si="5"/>
-        <v>86</v>
-      </c>
-      <c r="T58" s="1">
-        <v>1</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V58" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W58" s="20"/>
-      <c r="X58" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y58" s="20"/>
-      <c r="Z58" s="9"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B59" s="32"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="29"/>
-      <c r="R59" s="42">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="S59" s="4">
-        <f t="shared" si="5"/>
-        <v>87</v>
-      </c>
-      <c r="T59" s="1">
-        <v>10</v>
-      </c>
-      <c r="U59" s="1" t="s">
+      <c r="V59" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V59" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="20"/>
+      <c r="W59" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
-      <c r="Z59" s="10"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="29"/>
-      <c r="R60" s="42">
+      <c r="Z59" s="20"/>
+      <c r="AA59" s="10"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C60" s="32"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="29"/>
+      <c r="S60" s="42">
         <v>0</v>
       </c>
-      <c r="S60" s="4">
-        <f t="shared" si="5"/>
+      <c r="T60" s="4">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="U60" s="1">
+        <v>1</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z60" s="20"/>
+      <c r="AA60" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C61" s="32"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="29"/>
+      <c r="S61" s="42">
+        <f t="shared" ref="S61" si="12">S60+U60</f>
+        <v>1</v>
+      </c>
+      <c r="T61" s="4">
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
-      <c r="T60" s="1">
+      <c r="U61" s="1">
         <v>1</v>
       </c>
-      <c r="U60" s="1" t="s">
+      <c r="V61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="9"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C62" s="32"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29"/>
+      <c r="S62" s="42">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T62" s="4">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="U62" s="1">
+        <v>1</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z62" s="20"/>
+      <c r="AA62" s="9"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S63" s="42">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="T63" s="4">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="U63" s="1">
+        <v>1</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z63" s="20"/>
+      <c r="AA63" s="9"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S64" s="42">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="T64" s="4">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="U64" s="1">
         <v>10</v>
       </c>
-      <c r="V60" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W60" s="20"/>
-      <c r="X60" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y60" s="20"/>
-      <c r="Z60" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="29"/>
-      <c r="R61" s="42">
-        <f t="shared" ref="R61" si="11">R60+T60</f>
-        <v>1</v>
-      </c>
-      <c r="S61" s="4">
-        <f t="shared" si="5"/>
-        <v>98</v>
-      </c>
-      <c r="T61" s="1">
-        <v>1</v>
-      </c>
-      <c r="U61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V61" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W61" s="20"/>
-      <c r="X61" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y61" s="20"/>
-      <c r="Z61" s="9"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B62" s="32"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="29"/>
-      <c r="R62" s="42">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S62" s="4">
-        <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="T62" s="1">
-        <v>1</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W62" s="20"/>
-      <c r="X62" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y62" s="20"/>
-      <c r="Z62" s="9"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="R63" s="42">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="S63" s="4">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="T63" s="1">
-        <v>1</v>
-      </c>
-      <c r="U63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V63" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W63" s="20"/>
-      <c r="X63" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y63" s="20"/>
-      <c r="Z63" s="9"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="R64" s="42">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="S64" s="4">
-        <f t="shared" si="5"/>
-        <v>101</v>
-      </c>
-      <c r="T64" s="1">
-        <v>10</v>
-      </c>
-      <c r="U64" s="1" t="s">
+      <c r="V64" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V64" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W64" s="20"/>
+      <c r="W64" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
-      <c r="Z64" s="10"/>
-    </row>
-    <row r="65" spans="18:26" x14ac:dyDescent="0.3">
-      <c r="R65" s="42">
+      <c r="Z64" s="20"/>
+      <c r="AA64" s="10"/>
+    </row>
+    <row r="65" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S65" s="42">
         <v>0</v>
       </c>
-      <c r="S65" s="4">
-        <f t="shared" si="5"/>
+      <c r="T65" s="4">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="U65" s="1">
+        <v>1</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z65" s="20"/>
+      <c r="AA65" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S66" s="42">
+        <f t="shared" ref="S66" si="13">S65+U65</f>
+        <v>1</v>
+      </c>
+      <c r="T66" s="4">
+        <f t="shared" si="6"/>
         <v>111</v>
       </c>
-      <c r="T65" s="1">
+      <c r="U66" s="1">
         <v>1</v>
       </c>
-      <c r="U65" s="1" t="s">
+      <c r="V66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z66" s="20"/>
+      <c r="AA66" s="9"/>
+    </row>
+    <row r="67" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S67" s="42">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T67" s="4">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="U67" s="1">
+        <v>1</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z67" s="20"/>
+      <c r="AA67" s="9"/>
+    </row>
+    <row r="68" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S68" s="42">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="T68" s="4">
+        <f t="shared" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="U68" s="1">
+        <v>1</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z68" s="20"/>
+      <c r="AA68" s="9"/>
+    </row>
+    <row r="69" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S69" s="42">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="T69" s="4">
+        <f t="shared" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="U69" s="1">
         <v>10</v>
       </c>
-      <c r="V65" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W65" s="20"/>
-      <c r="X65" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y65" s="20"/>
-      <c r="Z65" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="18:26" x14ac:dyDescent="0.3">
-      <c r="R66" s="42">
-        <f t="shared" ref="R66" si="12">R65+T65</f>
-        <v>1</v>
-      </c>
-      <c r="S66" s="4">
-        <f t="shared" si="5"/>
-        <v>112</v>
-      </c>
-      <c r="T66" s="1">
-        <v>1</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V66" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W66" s="20"/>
-      <c r="X66" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y66" s="20"/>
-      <c r="Z66" s="9"/>
-    </row>
-    <row r="67" spans="18:26" x14ac:dyDescent="0.3">
-      <c r="R67" s="42">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S67" s="4">
-        <f t="shared" si="5"/>
-        <v>113</v>
-      </c>
-      <c r="T67" s="1">
-        <v>1</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V67" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W67" s="20"/>
-      <c r="X67" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y67" s="20"/>
-      <c r="Z67" s="9"/>
-    </row>
-    <row r="68" spans="18:26" x14ac:dyDescent="0.3">
-      <c r="R68" s="42">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="S68" s="4">
-        <f t="shared" si="5"/>
-        <v>114</v>
-      </c>
-      <c r="T68" s="1">
-        <v>1</v>
-      </c>
-      <c r="U68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V68" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W68" s="20"/>
-      <c r="X68" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y68" s="20"/>
-      <c r="Z68" s="9"/>
-    </row>
-    <row r="69" spans="18:26" x14ac:dyDescent="0.3">
-      <c r="R69" s="42">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="S69" s="4">
-        <f t="shared" si="5"/>
-        <v>115</v>
-      </c>
-      <c r="T69" s="1">
-        <v>10</v>
-      </c>
-      <c r="U69" s="1" t="s">
+      <c r="V69" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V69" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W69" s="20"/>
+      <c r="W69" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="X69" s="20"/>
       <c r="Y69" s="20"/>
-      <c r="Z69" s="10"/>
-    </row>
-    <row r="70" spans="18:26" x14ac:dyDescent="0.3">
-      <c r="R70" s="42">
+      <c r="Z69" s="20"/>
+      <c r="AA69" s="10"/>
+    </row>
+    <row r="70" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S70" s="42">
         <v>0</v>
       </c>
-      <c r="S70" s="4">
-        <f t="shared" si="5"/>
+      <c r="T70" s="4">
+        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="U70" s="1">
+        <v>1</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X70" s="20"/>
+      <c r="Y70" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z70" s="20"/>
+      <c r="AA70" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S71" s="42">
+        <f t="shared" ref="S71" si="14">S70+U70</f>
+        <v>1</v>
+      </c>
+      <c r="T71" s="4">
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
-      <c r="T70" s="1">
+      <c r="U71" s="1">
         <v>1</v>
       </c>
-      <c r="U70" s="1" t="s">
+      <c r="V71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z71" s="20"/>
+      <c r="AA71" s="9"/>
+    </row>
+    <row r="72" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S72" s="42">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T72" s="4">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="U72" s="1">
+        <v>1</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z72" s="20"/>
+      <c r="AA72" s="9"/>
+    </row>
+    <row r="73" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S73" s="42">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="T73" s="4">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="U73" s="1">
+        <v>1</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X73" s="20"/>
+      <c r="Y73" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z73" s="20"/>
+      <c r="AA73" s="9"/>
+    </row>
+    <row r="74" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S74" s="42">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="T74" s="4">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="U74" s="1">
         <v>10</v>
       </c>
-      <c r="V70" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W70" s="20"/>
-      <c r="X70" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y70" s="20"/>
-      <c r="Z70" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="18:26" x14ac:dyDescent="0.3">
-      <c r="R71" s="42">
-        <f t="shared" ref="R71" si="13">R70+T70</f>
-        <v>1</v>
-      </c>
-      <c r="S71" s="4">
-        <f t="shared" si="5"/>
-        <v>126</v>
-      </c>
-      <c r="T71" s="1">
-        <v>1</v>
-      </c>
-      <c r="U71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V71" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W71" s="20"/>
-      <c r="X71" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y71" s="20"/>
-      <c r="Z71" s="9"/>
-    </row>
-    <row r="72" spans="18:26" x14ac:dyDescent="0.3">
-      <c r="R72" s="42">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S72" s="4">
-        <f t="shared" si="5"/>
-        <v>127</v>
-      </c>
-      <c r="T72" s="1">
-        <v>1</v>
-      </c>
-      <c r="U72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V72" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W72" s="20"/>
-      <c r="X72" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y72" s="20"/>
-      <c r="Z72" s="9"/>
-    </row>
-    <row r="73" spans="18:26" x14ac:dyDescent="0.3">
-      <c r="R73" s="42">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="S73" s="4">
-        <f t="shared" si="5"/>
-        <v>128</v>
-      </c>
-      <c r="T73" s="1">
-        <v>1</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V73" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W73" s="20"/>
-      <c r="X73" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y73" s="20"/>
-      <c r="Z73" s="9"/>
-    </row>
-    <row r="74" spans="18:26" x14ac:dyDescent="0.3">
-      <c r="R74" s="42">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="S74" s="4">
-        <f t="shared" si="5"/>
-        <v>129</v>
-      </c>
-      <c r="T74" s="1">
-        <v>10</v>
-      </c>
-      <c r="U74" s="1" t="s">
+      <c r="V74" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V74" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W74" s="20"/>
+      <c r="W74" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="X74" s="20"/>
       <c r="Y74" s="20"/>
-      <c r="Z74" s="10"/>
-    </row>
-    <row r="75" spans="18:26" x14ac:dyDescent="0.3">
-      <c r="R75" s="42">
+      <c r="Z74" s="20"/>
+      <c r="AA74" s="10"/>
+    </row>
+    <row r="75" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S75" s="42">
         <v>0</v>
       </c>
-      <c r="S75" s="4">
-        <f t="shared" si="5"/>
+      <c r="T75" s="4">
+        <f t="shared" si="6"/>
+        <v>138</v>
+      </c>
+      <c r="U75" s="1">
+        <v>1</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X75" s="20"/>
+      <c r="Y75" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z75" s="20"/>
+      <c r="AA75" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S76" s="42">
+        <f t="shared" ref="S76" si="15">S75+U75</f>
+        <v>1</v>
+      </c>
+      <c r="T76" s="4">
+        <f t="shared" si="6"/>
         <v>139</v>
       </c>
-      <c r="T75" s="1">
+      <c r="U76" s="1">
         <v>1</v>
       </c>
-      <c r="U75" s="1" t="s">
+      <c r="V76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X76" s="20"/>
+      <c r="Y76" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z76" s="20"/>
+      <c r="AA76" s="9"/>
+    </row>
+    <row r="77" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S77" s="42">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T77" s="4">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="U77" s="1">
+        <v>1</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W77" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X77" s="20"/>
+      <c r="Y77" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z77" s="20"/>
+      <c r="AA77" s="9"/>
+    </row>
+    <row r="78" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S78" s="42">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="T78" s="4">
+        <f t="shared" si="6"/>
+        <v>141</v>
+      </c>
+      <c r="U78" s="1">
+        <v>1</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X78" s="20"/>
+      <c r="Y78" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z78" s="20"/>
+      <c r="AA78" s="9"/>
+    </row>
+    <row r="79" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S79" s="42">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="T79" s="4">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="U79" s="1">
         <v>10</v>
       </c>
-      <c r="V75" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W75" s="20"/>
-      <c r="X75" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y75" s="20"/>
-      <c r="Z75" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="18:26" x14ac:dyDescent="0.3">
-      <c r="R76" s="42">
-        <f t="shared" ref="R76" si="14">R75+T75</f>
-        <v>1</v>
-      </c>
-      <c r="S76" s="4">
-        <f t="shared" si="5"/>
-        <v>140</v>
-      </c>
-      <c r="T76" s="1">
-        <v>1</v>
-      </c>
-      <c r="U76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W76" s="20"/>
-      <c r="X76" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y76" s="20"/>
-      <c r="Z76" s="9"/>
-    </row>
-    <row r="77" spans="18:26" x14ac:dyDescent="0.3">
-      <c r="R77" s="42">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S77" s="4">
-        <f t="shared" si="5"/>
-        <v>141</v>
-      </c>
-      <c r="T77" s="1">
-        <v>1</v>
-      </c>
-      <c r="U77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V77" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W77" s="20"/>
-      <c r="X77" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y77" s="20"/>
-      <c r="Z77" s="9"/>
-    </row>
-    <row r="78" spans="18:26" x14ac:dyDescent="0.3">
-      <c r="R78" s="42">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="S78" s="4">
-        <f t="shared" si="5"/>
-        <v>142</v>
-      </c>
-      <c r="T78" s="1">
-        <v>1</v>
-      </c>
-      <c r="U78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V78" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W78" s="20"/>
-      <c r="X78" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y78" s="20"/>
-      <c r="Z78" s="9"/>
-    </row>
-    <row r="79" spans="18:26" x14ac:dyDescent="0.3">
-      <c r="R79" s="42">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="S79" s="4">
-        <f t="shared" si="5"/>
-        <v>143</v>
-      </c>
-      <c r="T79" s="1">
-        <v>10</v>
-      </c>
-      <c r="U79" s="1" t="s">
+      <c r="V79" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V79" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W79" s="20"/>
+      <c r="W79" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="X79" s="20"/>
       <c r="Y79" s="20"/>
-      <c r="Z79" s="10"/>
-    </row>
-    <row r="80" spans="18:26" x14ac:dyDescent="0.3">
-      <c r="R80" s="42">
+      <c r="Z79" s="20"/>
+      <c r="AA79" s="10"/>
+    </row>
+    <row r="80" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S80" s="42">
         <v>0</v>
       </c>
-      <c r="S80" s="4">
-        <f t="shared" si="5"/>
+      <c r="T80" s="4">
+        <f t="shared" si="6"/>
+        <v>152</v>
+      </c>
+      <c r="U80" s="1">
+        <v>1</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X80" s="20"/>
+      <c r="Y80" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z80" s="44"/>
+      <c r="AA80" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="19:29" x14ac:dyDescent="0.3">
+      <c r="S81" s="42">
+        <f t="shared" ref="S81" si="16">S80+U80</f>
+        <v>1</v>
+      </c>
+      <c r="T81" s="4">
+        <f t="shared" si="6"/>
         <v>153</v>
       </c>
-      <c r="T80" s="1">
+      <c r="U81" s="1">
         <v>1</v>
       </c>
-      <c r="U80" s="1" t="s">
+      <c r="V81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X81" s="20"/>
+      <c r="Y81" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z81" s="31"/>
+      <c r="AA81" s="9"/>
+    </row>
+    <row r="82" spans="19:29" x14ac:dyDescent="0.3">
+      <c r="S82" s="42">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T82" s="4">
+        <f t="shared" si="6"/>
+        <v>154</v>
+      </c>
+      <c r="U82" s="1">
+        <v>1</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X82" s="20"/>
+      <c r="Y82" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z82" s="31"/>
+      <c r="AA82" s="9"/>
+      <c r="AB82" s="29"/>
+      <c r="AC82" s="29"/>
+    </row>
+    <row r="83" spans="19:29" x14ac:dyDescent="0.3">
+      <c r="S83" s="42">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="T83" s="4">
+        <f t="shared" si="6"/>
+        <v>155</v>
+      </c>
+      <c r="U83" s="1">
+        <v>1</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W83" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z83" s="31"/>
+      <c r="AA83" s="10"/>
+      <c r="AB83" s="29"/>
+      <c r="AC83" s="29"/>
+    </row>
+    <row r="84" spans="19:29" x14ac:dyDescent="0.3">
+      <c r="S84" s="42">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="T84" s="4">
+        <f>T83+U83</f>
+        <v>156</v>
+      </c>
+      <c r="U84" s="1">
         <v>10</v>
       </c>
-      <c r="V80" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W80" s="20"/>
-      <c r="X80" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y80" s="44"/>
-      <c r="Z80" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="18:28" x14ac:dyDescent="0.3">
-      <c r="R81" s="42">
-        <f t="shared" ref="R81" si="15">R80+T80</f>
-        <v>1</v>
-      </c>
-      <c r="S81" s="4">
-        <f t="shared" si="5"/>
-        <v>154</v>
-      </c>
-      <c r="T81" s="1">
-        <v>1</v>
-      </c>
-      <c r="U81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V81" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W81" s="20"/>
-      <c r="X81" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y81" s="31"/>
-      <c r="Z81" s="9"/>
-    </row>
-    <row r="82" spans="18:28" x14ac:dyDescent="0.3">
-      <c r="R82" s="42">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S82" s="4">
-        <f t="shared" si="5"/>
-        <v>155</v>
-      </c>
-      <c r="T82" s="1">
-        <v>1</v>
-      </c>
-      <c r="U82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V82" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W82" s="20"/>
-      <c r="X82" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y82" s="31"/>
-      <c r="Z82" s="9"/>
-      <c r="AA82" s="29"/>
-      <c r="AB82" s="29"/>
-    </row>
-    <row r="83" spans="18:28" x14ac:dyDescent="0.3">
-      <c r="R83" s="42">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="S83" s="4">
-        <f t="shared" si="5"/>
-        <v>156</v>
-      </c>
-      <c r="T83" s="1">
-        <v>1</v>
-      </c>
-      <c r="U83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V83" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="20"/>
-      <c r="X83" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y83" s="31"/>
-      <c r="Z83" s="10"/>
-      <c r="AA83" s="29"/>
-      <c r="AB83" s="29"/>
-    </row>
-    <row r="84" spans="18:28" x14ac:dyDescent="0.3">
-      <c r="R84" s="42">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="S84" s="4">
-        <f>S83+T83</f>
-        <v>157</v>
-      </c>
-      <c r="T84" s="1">
-        <v>10</v>
-      </c>
-      <c r="U84" s="1" t="s">
+      <c r="V84" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V84" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W84" s="20"/>
+      <c r="W84" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="X84" s="20"/>
-      <c r="Y84" s="37"/>
-      <c r="Z84" s="10"/>
-      <c r="AA84" s="29"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="37"/>
+      <c r="AA84" s="10"/>
       <c r="AB84" s="29"/>
-    </row>
-    <row r="85" spans="18:28" x14ac:dyDescent="0.3">
-      <c r="S85" s="4">
-        <f>S84+T84</f>
-        <v>167</v>
-      </c>
-      <c r="T85" s="61">
+      <c r="AC84" s="29"/>
+    </row>
+    <row r="85" spans="19:29" x14ac:dyDescent="0.3">
+      <c r="T85" s="4">
+        <f>T84+U84</f>
+        <v>166</v>
+      </c>
+      <c r="U85" s="61">
         <v>20</v>
       </c>
-      <c r="U85" s="61" t="s">
+      <c r="V85" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="V85" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA85" s="29"/>
+      <c r="W85" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="AB85" s="29"/>
-    </row>
-    <row r="86" spans="18:28" x14ac:dyDescent="0.3">
-      <c r="X86" s="29"/>
-      <c r="Y86" s="28"/>
-      <c r="Z86" s="30"/>
-      <c r="AA86" s="29"/>
+      <c r="AC85" s="29"/>
+    </row>
+    <row r="86" spans="19:29" x14ac:dyDescent="0.3">
+      <c r="Y86" s="29"/>
+      <c r="Z86" s="28"/>
+      <c r="AA86" s="30"/>
       <c r="AB86" s="29"/>
-    </row>
-    <row r="87" spans="18:28" x14ac:dyDescent="0.3">
-      <c r="X87" s="29"/>
-      <c r="Y87" s="28"/>
-      <c r="Z87" s="30"/>
-      <c r="AA87" s="29"/>
+      <c r="AC86" s="29"/>
+    </row>
+    <row r="87" spans="19:29" x14ac:dyDescent="0.3">
+      <c r="Y87" s="29"/>
+      <c r="Z87" s="28"/>
+      <c r="AA87" s="30"/>
       <c r="AB87" s="29"/>
-    </row>
-    <row r="88" spans="18:28" x14ac:dyDescent="0.3">
-      <c r="T88">
-        <f>SUM(T3:T85)</f>
-        <v>187</v>
-      </c>
-      <c r="X88" s="29"/>
-      <c r="Y88" s="28"/>
+      <c r="AC87" s="29"/>
+    </row>
+    <row r="88" spans="19:29" x14ac:dyDescent="0.3">
+      <c r="U88">
+        <f>SUM(U3:U85)</f>
+        <v>186</v>
+      </c>
+      <c r="Y88" s="29"/>
       <c r="Z88" s="28"/>
-      <c r="AA88" s="29"/>
+      <c r="AA88" s="28"/>
       <c r="AB88" s="29"/>
-    </row>
-    <row r="89" spans="18:28" x14ac:dyDescent="0.3">
-      <c r="X89" s="29"/>
-      <c r="Y89" s="28"/>
+      <c r="AC88" s="29"/>
+    </row>
+    <row r="89" spans="19:29" x14ac:dyDescent="0.3">
+      <c r="Y89" s="29"/>
       <c r="Z89" s="28"/>
-      <c r="AA89" s="29"/>
+      <c r="AA89" s="28"/>
       <c r="AB89" s="29"/>
-    </row>
-    <row r="90" spans="18:28" x14ac:dyDescent="0.3">
-      <c r="X90" s="29"/>
-      <c r="Y90" s="28"/>
-      <c r="Z90" s="30"/>
-      <c r="AA90" s="29"/>
+      <c r="AC89" s="29"/>
+    </row>
+    <row r="90" spans="19:29" x14ac:dyDescent="0.3">
+      <c r="Y90" s="29"/>
+      <c r="Z90" s="28"/>
+      <c r="AA90" s="30"/>
       <c r="AB90" s="29"/>
-    </row>
-    <row r="91" spans="18:28" x14ac:dyDescent="0.3">
-      <c r="X91" s="29"/>
-      <c r="Y91" s="28"/>
-      <c r="Z91" s="30"/>
-      <c r="AA91" s="29"/>
+      <c r="AC90" s="29"/>
+    </row>
+    <row r="91" spans="19:29" x14ac:dyDescent="0.3">
+      <c r="Y91" s="29"/>
+      <c r="Z91" s="28"/>
+      <c r="AA91" s="30"/>
       <c r="AB91" s="29"/>
-    </row>
-    <row r="92" spans="18:28" x14ac:dyDescent="0.3">
-      <c r="X92" s="29"/>
-      <c r="Y92" s="28"/>
-      <c r="Z92" s="30"/>
-      <c r="AA92" s="29"/>
+      <c r="AC91" s="29"/>
+    </row>
+    <row r="92" spans="19:29" x14ac:dyDescent="0.3">
+      <c r="Y92" s="29"/>
+      <c r="Z92" s="28"/>
+      <c r="AA92" s="30"/>
       <c r="AB92" s="29"/>
-    </row>
-    <row r="93" spans="18:28" x14ac:dyDescent="0.3">
-      <c r="X93" s="29"/>
-      <c r="Y93" s="28"/>
-      <c r="Z93" s="30"/>
-      <c r="AA93" s="29"/>
+      <c r="AC92" s="29"/>
+    </row>
+    <row r="93" spans="19:29" x14ac:dyDescent="0.3">
+      <c r="Y93" s="29"/>
+      <c r="Z93" s="28"/>
+      <c r="AA93" s="30"/>
       <c r="AB93" s="29"/>
-    </row>
-    <row r="94" spans="18:28" x14ac:dyDescent="0.3">
-      <c r="X94" s="29"/>
-      <c r="Y94" s="28"/>
-      <c r="Z94" s="30"/>
-      <c r="AA94" s="29"/>
+      <c r="AC93" s="29"/>
+    </row>
+    <row r="94" spans="19:29" x14ac:dyDescent="0.3">
+      <c r="Y94" s="29"/>
+      <c r="Z94" s="28"/>
+      <c r="AA94" s="30"/>
       <c r="AB94" s="29"/>
-    </row>
-    <row r="95" spans="18:28" x14ac:dyDescent="0.3">
-      <c r="X95" s="29"/>
-      <c r="Y95" s="28"/>
-      <c r="Z95" s="30"/>
-      <c r="AA95" s="29"/>
+      <c r="AC94" s="29"/>
+    </row>
+    <row r="95" spans="19:29" x14ac:dyDescent="0.3">
+      <c r="Y95" s="29"/>
+      <c r="Z95" s="28"/>
+      <c r="AA95" s="30"/>
       <c r="AB95" s="29"/>
-    </row>
-    <row r="96" spans="18:28" x14ac:dyDescent="0.3">
-      <c r="X96" s="29"/>
-      <c r="Y96" s="28"/>
+      <c r="AC95" s="29"/>
+    </row>
+    <row r="96" spans="19:29" x14ac:dyDescent="0.3">
+      <c r="Y96" s="29"/>
       <c r="Z96" s="28"/>
-      <c r="AA96" s="29"/>
+      <c r="AA96" s="28"/>
       <c r="AB96" s="29"/>
-    </row>
-    <row r="99" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M99" t="s">
+      <c r="AC96" s="29"/>
+    </row>
+    <row r="99" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N99" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9685,11 +9866,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9749,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>130</v>
@@ -9773,7 +9954,7 @@
       </c>
       <c r="B4" s="18">
         <f t="shared" ref="B4:B42" si="0">C3+B3</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="18">
         <v>1</v>
@@ -9825,7 +10006,7 @@
       </c>
       <c r="B5" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="18">
         <v>1</v>
@@ -9876,7 +10057,7 @@
       </c>
       <c r="B6" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="18">
         <v>1</v>
@@ -9928,7 +10109,7 @@
       </c>
       <c r="B7" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="18">
         <v>1</v>
@@ -9953,7 +10134,7 @@
         <v>2</v>
       </c>
       <c r="P7" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="15" t="s">
         <v>130</v>
@@ -9978,7 +10159,7 @@
       </c>
       <c r="B8" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="18">
         <v>1</v>
@@ -10000,7 +10181,7 @@
       <c r="N8" s="51"/>
       <c r="O8" s="15">
         <f t="shared" ref="O8:O18" si="1">P7+O7</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P8" s="15">
         <v>1</v>
@@ -10028,7 +10209,7 @@
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -10050,7 +10231,7 @@
       <c r="N9" s="51"/>
       <c r="O9" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P9" s="15">
         <v>1</v>
@@ -10078,7 +10259,7 @@
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -10102,7 +10283,7 @@
       </c>
       <c r="O10" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P10" s="15">
         <v>1</v>
@@ -10128,7 +10309,7 @@
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="6">
         <v>4</v>
@@ -10146,7 +10327,7 @@
       <c r="N11" s="51"/>
       <c r="O11" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P11" s="15">
         <v>1</v>
@@ -10170,7 +10351,7 @@
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="6">
         <v>4</v>
@@ -10188,7 +10369,7 @@
       <c r="N12" s="51"/>
       <c r="O12" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P12" s="15">
         <v>1</v>
@@ -10212,7 +10393,7 @@
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="6">
         <v>4</v>
@@ -10230,7 +10411,7 @@
       <c r="N13" s="70"/>
       <c r="O13" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P13" s="15">
         <v>1</v>
@@ -10258,7 +10439,7 @@
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="6">
         <v>20</v>
@@ -10276,7 +10457,7 @@
       <c r="N14" s="70"/>
       <c r="O14" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P14" s="15">
         <v>1</v>
@@ -10302,7 +10483,7 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="6">
         <v>4</v>
@@ -10320,7 +10501,7 @@
       <c r="N15" s="70"/>
       <c r="O15" s="16">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P15" s="16">
         <v>2</v>
@@ -10344,7 +10525,7 @@
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="6">
         <v>20</v>
@@ -10365,7 +10546,7 @@
       <c r="N16" s="70"/>
       <c r="O16" s="16">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P16" s="16">
         <v>2</v>
@@ -10389,7 +10570,7 @@
       </c>
       <c r="B17" s="13">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="13">
         <v>1</v>
@@ -10409,7 +10590,7 @@
       <c r="N17" s="70"/>
       <c r="O17" s="16">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P17" s="16">
         <v>2</v>
@@ -10433,7 +10614,7 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="14">
         <v>4</v>
@@ -10453,7 +10634,7 @@
       <c r="N18" s="70"/>
       <c r="O18" s="16">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="16">
         <v>2</v>
@@ -10477,7 +10658,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="14">
         <v>20</v>
@@ -10495,7 +10676,7 @@
       <c r="N19" s="70"/>
       <c r="O19" s="16">
         <f t="shared" ref="O19:O23" si="2">P18+O18</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P19" s="16">
         <v>2</v>
@@ -10519,7 +10700,7 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="14">
         <v>20</v>
@@ -10537,7 +10718,7 @@
       <c r="N20" s="71"/>
       <c r="O20" s="16">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P20" s="16">
         <v>2</v>
@@ -10561,7 +10742,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="14">
         <v>1</v>
@@ -10583,7 +10764,7 @@
       <c r="N21" s="71"/>
       <c r="O21" s="16">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P21" s="16">
         <v>2</v>
@@ -10607,7 +10788,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="14">
         <v>2</v>
@@ -10625,7 +10806,7 @@
       <c r="N22" s="71"/>
       <c r="O22" s="16">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P22" s="85">
         <v>2</v>
@@ -10649,7 +10830,7 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="14">
         <v>20</v>
@@ -10669,7 +10850,7 @@
       <c r="N23" s="71"/>
       <c r="O23" s="87">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P23" s="85">
         <v>1</v>
@@ -10695,7 +10876,7 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="14">
         <v>1</v>
@@ -10732,7 +10913,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="14">
         <v>1</v>
@@ -10773,7 +10954,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="7">
         <v>4</v>
@@ -10812,7 +10993,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
@@ -10851,7 +11032,7 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="14">
         <v>4</v>
@@ -10890,7 +11071,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" s="14">
         <v>2</v>
@@ -10927,7 +11108,7 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" s="12">
         <v>4</v>
@@ -10966,7 +11147,7 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31" s="12">
         <v>2</v>
@@ -10984,7 +11165,7 @@
       <c r="N31" s="71"/>
       <c r="O31" s="87">
         <f>P23+O23</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P31" s="85">
         <v>1</v>
@@ -11008,7 +11189,7 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="16">
         <v>4</v>
@@ -11047,7 +11228,7 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="16">
         <v>20</v>
@@ -11084,7 +11265,7 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C34" s="16">
         <v>20</v>
@@ -11123,7 +11304,7 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C35" s="16">
         <v>4</v>
@@ -11160,7 +11341,7 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C36" s="17">
         <v>1</v>
@@ -11199,7 +11380,7 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" si="0"/>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C37" s="17">
         <v>1</v>
@@ -11236,7 +11417,7 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C38" s="18">
         <v>1</v>
@@ -11275,7 +11456,7 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C39" s="18">
         <v>4</v>
@@ -11291,7 +11472,7 @@
       <c r="N39" s="71"/>
       <c r="O39" s="53">
         <f>P31+O31</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P39" s="86">
         <v>1</v>
@@ -11315,7 +11496,7 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C40" s="18">
         <v>4</v>
@@ -11331,7 +11512,7 @@
       <c r="N40" s="71"/>
       <c r="O40" s="53">
         <f t="shared" ref="O40:O49" si="3">P39+O39</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P40" s="53">
         <v>2</v>
@@ -11355,7 +11536,7 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C41" s="18">
         <v>4</v>
@@ -11371,7 +11552,7 @@
       <c r="N41" s="71"/>
       <c r="O41" s="53">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P41" s="53">
         <v>1</v>
@@ -11395,7 +11576,7 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42" s="19">
         <v>20</v>
@@ -11416,7 +11597,7 @@
       <c r="N42" s="71"/>
       <c r="O42" s="53">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P42" s="53">
         <v>1</v>
@@ -11446,7 +11627,7 @@
       <c r="N43" s="71"/>
       <c r="O43" s="53">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P43" s="53">
         <v>1</v>
@@ -11476,7 +11657,7 @@
       <c r="N44" s="71"/>
       <c r="O44" s="53">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P44" s="53">
         <v>1</v>
@@ -11506,7 +11687,7 @@
       <c r="N45" s="71"/>
       <c r="O45" s="53">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P45" s="53">
         <v>1</v>
@@ -11536,7 +11717,7 @@
       <c r="N46" s="71"/>
       <c r="O46" s="53">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P46" s="53">
         <v>1</v>
@@ -11566,7 +11747,7 @@
       <c r="N47" s="71"/>
       <c r="O47" s="53">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P47" s="53">
         <v>1</v>
@@ -11596,7 +11777,7 @@
       <c r="N48" s="42"/>
       <c r="O48" s="53">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P48" s="55">
         <v>10</v>
@@ -11616,7 +11797,7 @@
       <c r="N49" s="42"/>
       <c r="O49" s="73">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P49" s="73">
         <v>20</v>
@@ -11635,7 +11816,7 @@
     <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="N50" s="42">
         <f>SUM(P5:P49)</f>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O50" s="30"/>
       <c r="P50" s="30"/>
@@ -11649,7 +11830,7 @@
     <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51">
         <f>SUM(C3:C48)</f>
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C51" t="s">
         <v>136</v>
@@ -12185,11 +12366,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12255,7 +12436,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>130</v>
@@ -12278,7 +12459,7 @@
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <f>C5+B5</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -12304,7 +12485,7 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <f>C6+B6</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -12330,7 +12511,7 @@
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <f t="shared" ref="B8:B11" si="0">C7+B7</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -12359,7 +12540,7 @@
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -12385,7 +12566,7 @@
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -12409,7 +12590,7 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="20">
         <v>200</v>
@@ -12432,7 +12613,7 @@
       </c>
       <c r="C13" s="23">
         <f>SUM(C5:C11)</f>
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
         <v>101</v>
@@ -12474,7 +12655,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>130</v>
@@ -12494,7 +12675,7 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <f>C19+B19</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -12517,7 +12698,7 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <f>C20+B20</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -12540,7 +12721,7 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <f t="shared" ref="B22:B27" si="1">C21+B21</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -12565,7 +12746,7 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -12590,7 +12771,7 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -12613,7 +12794,7 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -12634,7 +12815,7 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -12653,7 +12834,7 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="20">
         <v>200</v>
@@ -12675,7 +12856,7 @@
       </c>
       <c r="C29" s="23">
         <f>SUM(C19:C27)</f>
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D29" t="s">
         <v>101</v>
@@ -12689,10 +12870,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
